--- a/doc/D2_進捗管理表.xlsx
+++ b/doc/D2_進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47408E2D-9F36-412A-A5E4-4E167E9BC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4BCC8C-88EA-4D68-A009-ABDC4E7B4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -160,13 +160,13 @@
     <t>外部設計書作成</t>
   </si>
   <si>
-    <t>画面設計(+画面遷移図作成)</t>
+    <t>画面遷移図作成</t>
   </si>
   <si>
     <t>矢羽々</t>
   </si>
   <si>
-    <t>作業中</t>
+    <t>画面設計</t>
   </si>
   <si>
     <t>データベース設計</t>
@@ -178,19 +178,10 @@
     <t>機能設計</t>
   </si>
   <si>
-    <t>項目定義</t>
-  </si>
-  <si>
-    <t>向井</t>
-  </si>
-  <si>
-    <t>作成担当者決め</t>
-  </si>
-  <si>
-    <t>未着手</t>
-  </si>
-  <si>
-    <t>機能一覧</t>
+    <t>機能一覧表</t>
+  </si>
+  <si>
+    <t>渡辺</t>
   </si>
   <si>
     <t>内部設計</t>
@@ -200,13 +191,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラス図</t>
-  </si>
-  <si>
-    <t>クラス設計書</t>
-  </si>
-  <si>
-    <t>クラス構成書</t>
+    <t>ファイル構成一覧表</t>
+  </si>
+  <si>
+    <t>向井</t>
+  </si>
+  <si>
+    <t>作成担当者決め</t>
   </si>
   <si>
     <t>プログラミング</t>
@@ -216,22 +207,157 @@
     <t>(以下すべて(仮))</t>
   </si>
   <si>
-    <t>ユーザー登録機能</t>
-  </si>
-  <si>
-    <t>記事投稿機能</t>
-  </si>
-  <si>
-    <t>コミュニティ機能</t>
-  </si>
-  <si>
-    <t>記事閲覧機能</t>
-  </si>
-  <si>
-    <t>記事編集機能</t>
-  </si>
-  <si>
-    <t>コメント機能</t>
+    <t>データベース作成</t>
+  </si>
+  <si>
+    <t>model(beans)</t>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+  </si>
+  <si>
+    <t>UserDao.java</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>未着手</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>SignUpServlet.java</t>
+  </si>
+  <si>
+    <t>sign_up.js</t>
+  </si>
+  <si>
+    <t>sign_up.jsp</t>
+  </si>
+  <si>
+    <t>SignUpConfirmServlet.java</t>
+  </si>
+  <si>
+    <t>sign_up_confirm.jsp</t>
+  </si>
+  <si>
+    <t>sign_up_result.jsp</t>
+  </si>
+  <si>
+    <t>TopServlet.java</t>
+  </si>
+  <si>
+    <t>top.jsp</t>
+  </si>
+  <si>
+    <t>PostServlet.java</t>
+  </si>
+  <si>
+    <t>post.js</t>
+  </si>
+  <si>
+    <t>post.jsp</t>
+  </si>
+  <si>
+    <t>PostConfirmServlet.java</t>
+  </si>
+  <si>
+    <t>ArticleDao.java</t>
+  </si>
+  <si>
+    <t>post_confirm.jsp</t>
+  </si>
+  <si>
+    <t>post_result.jsp</t>
+  </si>
+  <si>
+    <t>EditServlet.java</t>
+  </si>
+  <si>
+    <t>edit.jsp</t>
+  </si>
+  <si>
+    <t>EditConfirmServlet.java</t>
+  </si>
+  <si>
+    <t>edit_confirm.jsp</t>
+  </si>
+  <si>
+    <t>edit_result.jsp</t>
+  </si>
+  <si>
+    <t>article_search.jsp</t>
+  </si>
+  <si>
+    <t>ArticleServlet.java</t>
+  </si>
+  <si>
+    <t>article.js</t>
+  </si>
+  <si>
+    <t>article_xxxx.jsp</t>
+  </si>
+  <si>
+    <t>community_search.jsp</t>
+  </si>
+  <si>
+    <t>中島</t>
+  </si>
+  <si>
+    <t>CommunityServlet.java</t>
+  </si>
+  <si>
+    <t>CommunityDao.java</t>
+  </si>
+  <si>
+    <t>community.js</t>
+  </si>
+  <si>
+    <t>community_xxxx.jsp</t>
+  </si>
+  <si>
+    <t>CommunityCreateServlet.java</t>
+  </si>
+  <si>
+    <t>community_create.js</t>
+  </si>
+  <si>
+    <t>community_create.jsp</t>
+  </si>
+  <si>
+    <t>CommunityCreateConfirmServlet.java</t>
+  </si>
+  <si>
+    <t>community_confirm.jsp</t>
+  </si>
+  <si>
+    <t>common.css</t>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>create.css</t>
+  </si>
+  <si>
+    <t>confirm.css</t>
+  </si>
+  <si>
+    <t>result.css</t>
+  </si>
+  <si>
+    <t>search.css</t>
+  </si>
+  <si>
+    <t>top.css</t>
+  </si>
+  <si>
+    <t>article.css</t>
+  </si>
+  <si>
+    <t>community.css</t>
   </si>
   <si>
     <t>単体テスト</t>
@@ -273,7 +399,7 @@
     <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -313,9 +439,37 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFED7D31"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,8 +500,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -469,13 +641,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,13 +756,61 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,17 +822,65 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,8 +939,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,15 +1265,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG49"/>
+  <dimension ref="A1:BG90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:AA13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="27" width="3.25" style="1"/>
+    <col min="1" max="7" width="3.25" style="1"/>
+    <col min="8" max="8" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="3.25" style="1"/>
+    <col min="22" max="22" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.25" style="1"/>
     <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
     <col min="30" max="32" width="3.25" style="1"/>
     <col min="33" max="33" width="3.25" style="1" customWidth="1"/>
@@ -944,139 +1285,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="30" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="27">
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="59">
         <v>45078</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="30" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="27">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="59">
         <v>45107</v>
       </c>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="34" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34" t="s">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="33" t="s">
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1201,41 +1542,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34" t="s">
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1358,33 +1699,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1507,45 +1848,45 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="13" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="20" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="31">
         <v>45079</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21">
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31">
         <v>45082</v>
       </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="19" t="s">
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="4"/>
@@ -1578,43 +1919,43 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="13" t="s">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="16">
+      <c r="Q8" s="49"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="32">
         <v>45078</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="16">
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="32">
         <v>45082</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="13" t="s">
+      <c r="W8" s="33"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="15"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="45"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="4"/>
@@ -1647,43 +1988,43 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="13" t="s">
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="16">
+      <c r="Q9" s="49"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="32">
         <v>45078</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="16">
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="32">
         <v>45079</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="13" t="s">
+      <c r="W9" s="33"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="15"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="45"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="4"/>
@@ -1716,43 +2057,43 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="13" t="s">
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="16">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="32">
         <v>45079</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="16">
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="32">
         <v>45082</v>
       </c>
-      <c r="W10" s="17"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="13" t="s">
+      <c r="W10" s="33"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="15"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="45"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
@@ -1785,33 +2126,33 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="15"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="45"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="4"/>
@@ -1844,51 +2185,53 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31">
         <v>45083</v>
       </c>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21">
-        <v>45084</v>
-      </c>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31">
+        <v>45085</v>
+      </c>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="14"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
@@ -1913,50 +2256,50 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="13" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="20" t="s">
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="21">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31">
         <v>45083</v>
       </c>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21">
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31">
         <v>45084</v>
       </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="12"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
       <c r="AK13" s="11"/>
@@ -1982,51 +2325,51 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="16">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31">
         <v>45083</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="16">
-        <v>45084</v>
-      </c>
-      <c r="W14" s="17"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31">
+        <v>45085</v>
+      </c>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="11"/>
+      <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="14"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
@@ -2051,51 +2394,51 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16">
-        <v>45083</v>
-      </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="16">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="32">
         <v>45084</v>
       </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="32">
+        <v>45085</v>
+      </c>
+      <c r="W15" s="33"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="14"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
@@ -2120,51 +2463,51 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="16">
-        <v>45083</v>
-      </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="16">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="32">
         <v>45084</v>
       </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="31">
+        <v>45085</v>
+      </c>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="14"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
@@ -2189,66 +2532,66 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="16">
-        <v>45083</v>
-      </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="16">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31">
         <v>45084</v>
       </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="15"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31">
+        <v>45084</v>
+      </c>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="11"/>
+      <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4"/>
@@ -2258,58 +2601,56 @@
       <c r="BE17" s="4"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
@@ -2319,56 +2660,62 @@
       <c r="BE18" s="4"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="31">
+        <v>45085</v>
+      </c>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31">
+        <v>45086</v>
+      </c>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
@@ -2378,48 +2725,52 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="21">
-        <v>45085</v>
-      </c>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="32">
         <v>45086</v>
       </c>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="32">
+        <v>45086</v>
+      </c>
+      <c r="W20" s="33"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="45"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
+      <c r="AC20" s="11"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
+      <c r="AJ20" s="14"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
@@ -2442,51 +2793,53 @@
       <c r="BD20" s="4"/>
       <c r="BE20" s="4"/>
     </row>
-    <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16">
-        <v>45085</v>
-      </c>
-      <c r="T21" s="17"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="16">
+    <row r="21" spans="1:57" ht="16" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="31">
         <v>45086</v>
       </c>
-      <c r="W21" s="17"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="15"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31">
+        <v>45086</v>
+      </c>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="11"/>
+      <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
+      <c r="AJ21" s="14"/>
       <c r="AK21" s="11"/>
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
@@ -2509,65 +2862,57 @@
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
     </row>
-    <row r="22" spans="1:57" ht="16" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="21">
-        <v>45085</v>
-      </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21">
-        <v>45086</v>
-      </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
+    <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
@@ -2577,41 +2922,37 @@
       <c r="BE22" s="4"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="21">
-        <v>45085</v>
-      </c>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21">
-        <v>45086</v>
-      </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2644,33 +2985,43 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31">
+        <v>45089</v>
+      </c>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -2682,7 +3033,7 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
+      <c r="AM24" s="14"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
@@ -2703,60 +3054,64 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="31">
+        <v>45086</v>
+      </c>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31">
+        <v>45089</v>
+      </c>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
@@ -2766,37 +3121,43 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="21">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="31">
         <v>45089</v>
       </c>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31">
+        <v>45090</v>
+      </c>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2808,7 +3169,7 @@
       <c r="AJ26" s="11"/>
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
+      <c r="AM26" s="24"/>
       <c r="AN26" s="11"/>
       <c r="AO26" s="11"/>
       <c r="AP26" s="11"/>
@@ -2829,37 +3190,43 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="31">
         <v>45089</v>
       </c>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31">
+        <v>45090</v>
+      </c>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2871,7 +3238,7 @@
       <c r="AJ27" s="11"/>
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
+      <c r="AM27" s="24"/>
       <c r="AN27" s="11"/>
       <c r="AO27" s="11"/>
       <c r="AP27" s="11"/>
@@ -2892,37 +3259,43 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="22" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="53">
+        <v>45091</v>
+      </c>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21">
-        <v>45089</v>
-      </c>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2955,37 +3328,43 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="22" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="21">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="31">
         <v>45089</v>
       </c>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="74">
+        <v>45100</v>
+      </c>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -2997,7 +3376,7 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
+      <c r="AM29" s="24"/>
       <c r="AN29" s="11"/>
       <c r="AO29" s="11"/>
       <c r="AP29" s="11"/>
@@ -3018,37 +3397,43 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="22" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="21">
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="31">
         <v>45089</v>
       </c>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31">
+        <v>45089</v>
+      </c>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3057,10 +3442,10 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
+      <c r="AJ30" s="23"/>
       <c r="AK30" s="11"/>
       <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
+      <c r="AM30" s="14"/>
       <c r="AN30" s="11"/>
       <c r="AO30" s="11"/>
       <c r="AP30" s="11"/>
@@ -3081,37 +3466,43 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="22" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="21">
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="31">
         <v>45089</v>
       </c>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31">
+        <v>45091</v>
+      </c>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3144,56 +3535,66 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
+      <c r="P32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31">
+        <v>45091</v>
+      </c>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="4"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
@@ -3203,56 +3604,66 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
       <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
+      <c r="P33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31">
+        <v>45090</v>
+      </c>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="4"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
       <c r="AY33" s="4"/>
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
@@ -3262,245 +3673,273 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
       <c r="O34" s="20"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="21">
-        <v>45103</v>
-      </c>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
+      <c r="P34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31">
+        <v>45100</v>
+      </c>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="4"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4"/>
-      <c r="BA34" s="9"/>
-      <c r="BB34" s="9"/>
-      <c r="BC34" s="9"/>
-      <c r="BD34" s="9"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
       <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="21">
-        <v>45103</v>
-      </c>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
+      <c r="P35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31">
+        <v>45100</v>
+      </c>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
-      <c r="BA35" s="9"/>
-      <c r="BB35" s="9"/>
-      <c r="BC35" s="9"/>
-      <c r="BD35" s="9"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
       <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="21">
-        <v>45103</v>
-      </c>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
+      <c r="P36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31">
+        <v>45102</v>
+      </c>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
       <c r="AY36" s="4"/>
       <c r="AZ36" s="4"/>
-      <c r="BA36" s="9"/>
-      <c r="BB36" s="9"/>
-      <c r="BC36" s="9"/>
-      <c r="BD36" s="9"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
+      <c r="P37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31">
+        <v>45093</v>
+      </c>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
       <c r="AY37" s="4"/>
       <c r="AZ37" s="4"/>
       <c r="BA37" s="4"/>
@@ -3510,56 +3949,66 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
+      <c r="P38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31">
+        <v>45091</v>
+      </c>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
-      <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
-      <c r="AV38" s="4"/>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="4"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
       <c r="AY38" s="4"/>
       <c r="AZ38" s="4"/>
       <c r="BA38" s="4"/>
@@ -3569,123 +4018,135 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="21">
-        <v>45107</v>
-      </c>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21">
-        <v>45107</v>
-      </c>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
+      <c r="P39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31">
+        <v>45091</v>
+      </c>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
       <c r="AY39" s="4"/>
       <c r="AZ39" s="4"/>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
       <c r="BC39" s="4"/>
       <c r="BD39" s="4"/>
-      <c r="BE39" s="10"/>
+      <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
+      <c r="P40" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31">
+        <v>45091</v>
+      </c>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
       <c r="AY40" s="4"/>
       <c r="AZ40" s="4"/>
       <c r="BA40" s="4"/>
@@ -3695,56 +4156,66 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
+      <c r="P41" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31">
+        <v>45093</v>
+      </c>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="4"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
       <c r="AY41" s="4"/>
       <c r="AZ41" s="4"/>
       <c r="BA41" s="4"/>
@@ -3754,56 +4225,66 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
+      <c r="P42" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31">
+        <v>45093</v>
+      </c>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="11"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+      <c r="AX42" s="11"/>
       <c r="AY42" s="4"/>
       <c r="AZ42" s="4"/>
       <c r="BA42" s="4"/>
@@ -3812,22 +4293,2807 @@
       <c r="BD42" s="4"/>
       <c r="BE42" s="4"/>
     </row>
-    <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31">
+        <v>45093</v>
+      </c>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+    </row>
+    <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T44" s="33"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="32">
+        <v>45093</v>
+      </c>
+      <c r="W44" s="33"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z44" s="49"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+    </row>
+    <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T45" s="33"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="32">
+        <v>45091</v>
+      </c>
+      <c r="W45" s="33"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="11"/>
+      <c r="AT45" s="11"/>
+      <c r="AU45" s="11"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="11"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="4"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+    </row>
+    <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T46" s="33"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="32">
+        <v>45091</v>
+      </c>
+      <c r="W46" s="33"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="11"/>
+      <c r="AT46" s="11"/>
+      <c r="AU46" s="11"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="11"/>
+      <c r="AX46" s="11"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="4"/>
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="4"/>
+    </row>
+    <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T47" s="33"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="32">
+        <v>45093</v>
+      </c>
+      <c r="W47" s="33"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
+      <c r="BA47" s="4"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="4"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="4"/>
+    </row>
+    <row r="48" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T48" s="33"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="32">
+        <v>45097</v>
+      </c>
+      <c r="W48" s="33"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+    </row>
+    <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T49" s="33"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="32">
+        <v>45099</v>
+      </c>
+      <c r="W49" s="33"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+    </row>
+    <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T50" s="33"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="32">
+        <v>45093</v>
+      </c>
+      <c r="W50" s="33"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="4"/>
+      <c r="BB50" s="4"/>
+      <c r="BC50" s="4"/>
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="4"/>
+    </row>
+    <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T51" s="33"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="35">
+        <v>45093</v>
+      </c>
+      <c r="W51" s="36"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="24"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="4"/>
+    </row>
+    <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T52" s="33"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="35">
+        <v>45093</v>
+      </c>
+      <c r="W52" s="36"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="11"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="11"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
+      <c r="AX52" s="11"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+    </row>
+    <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T53" s="33"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="35">
+        <v>45093</v>
+      </c>
+      <c r="W53" s="36"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="Z53" s="49"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="11"/>
+      <c r="AV53" s="11"/>
+      <c r="AW53" s="11"/>
+      <c r="AX53" s="11"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+    </row>
+    <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T54" s="33"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="32">
+        <v>45096</v>
+      </c>
+      <c r="W54" s="33"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="Z54" s="49"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="26"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="11"/>
+      <c r="AV54" s="11"/>
+      <c r="AW54" s="11"/>
+      <c r="AX54" s="11"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+    </row>
+    <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T55" s="33"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="32">
+        <v>45099</v>
+      </c>
+      <c r="W55" s="33"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="45"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="26"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="11"/>
+      <c r="AV55" s="11"/>
+      <c r="AW55" s="11"/>
+      <c r="AX55" s="11"/>
+      <c r="AY55" s="4"/>
+      <c r="AZ55" s="4"/>
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4"/>
+      <c r="BC55" s="4"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="4"/>
+    </row>
+    <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T56" s="33"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="32">
+        <v>45099</v>
+      </c>
+      <c r="W56" s="33"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="45"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="26"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="11"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="11"/>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="11"/>
+      <c r="AX56" s="11"/>
+      <c r="AY56" s="4"/>
+      <c r="AZ56" s="4"/>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4"/>
+      <c r="BC56" s="4"/>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="4"/>
+    </row>
+    <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T57" s="33"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="32">
+        <v>45099</v>
+      </c>
+      <c r="W57" s="33"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="27"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="11"/>
+      <c r="AT57" s="11"/>
+      <c r="AU57" s="11"/>
+      <c r="AV57" s="11"/>
+      <c r="AW57" s="11"/>
+      <c r="AX57" s="11"/>
+      <c r="AY57" s="4"/>
+      <c r="AZ57" s="4"/>
+      <c r="BA57" s="4"/>
+      <c r="BB57" s="4"/>
+      <c r="BC57" s="4"/>
+      <c r="BD57" s="4"/>
+      <c r="BE57" s="4"/>
+    </row>
+    <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T58" s="33"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="32">
+        <v>45099</v>
+      </c>
+      <c r="W58" s="33"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="45"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="26"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="11"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+    </row>
+    <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T59" s="33"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="32">
+        <v>45093</v>
+      </c>
+      <c r="W59" s="33"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="11"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="11"/>
+      <c r="AV59" s="11"/>
+      <c r="AW59" s="11"/>
+      <c r="AX59" s="11"/>
+      <c r="AY59" s="4"/>
+      <c r="AZ59" s="4"/>
+      <c r="BA59" s="4"/>
+      <c r="BB59" s="4"/>
+      <c r="BC59" s="4"/>
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="4"/>
+    </row>
+    <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T60" s="33"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="32">
+        <v>45093</v>
+      </c>
+      <c r="W60" s="33"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="45"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="11"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="11"/>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="11"/>
+      <c r="AX60" s="11"/>
+      <c r="AY60" s="4"/>
+      <c r="AZ60" s="4"/>
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="4"/>
+      <c r="BC60" s="4"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+    </row>
+    <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T61" s="33"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="32">
+        <v>45100</v>
+      </c>
+      <c r="W61" s="33"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="45"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="24"/>
+      <c r="AN61" s="11"/>
+      <c r="AO61" s="11"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="11"/>
+      <c r="AT61" s="11"/>
+      <c r="AU61" s="11"/>
+      <c r="AV61" s="11"/>
+      <c r="AW61" s="11"/>
+      <c r="AX61" s="11"/>
+      <c r="AY61" s="4"/>
+      <c r="AZ61" s="4"/>
+      <c r="BA61" s="4"/>
+      <c r="BB61" s="4"/>
+      <c r="BC61" s="4"/>
+      <c r="BD61" s="4"/>
+      <c r="BE61" s="4"/>
+    </row>
+    <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T62" s="33"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="32">
+        <v>45093</v>
+      </c>
+      <c r="W62" s="33"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="45"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="11"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="11"/>
+      <c r="AR62" s="11"/>
+      <c r="AS62" s="11"/>
+      <c r="AT62" s="11"/>
+      <c r="AU62" s="11"/>
+      <c r="AV62" s="11"/>
+      <c r="AW62" s="11"/>
+      <c r="AX62" s="11"/>
+      <c r="AY62" s="4"/>
+      <c r="AZ62" s="4"/>
+      <c r="BA62" s="4"/>
+      <c r="BB62" s="4"/>
+      <c r="BC62" s="4"/>
+      <c r="BD62" s="4"/>
+      <c r="BE62" s="4"/>
+    </row>
+    <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T63" s="33"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="32">
+        <v>45100</v>
+      </c>
+      <c r="W63" s="33"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="45"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="11"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="11"/>
+      <c r="AR63" s="11"/>
+      <c r="AS63" s="11"/>
+      <c r="AT63" s="11"/>
+      <c r="AU63" s="11"/>
+      <c r="AV63" s="11"/>
+      <c r="AW63" s="11"/>
+      <c r="AX63" s="11"/>
+      <c r="AY63" s="4"/>
+      <c r="AZ63" s="4"/>
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="4"/>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4"/>
+    </row>
+    <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T64" s="33"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="32">
+        <v>45099</v>
+      </c>
+      <c r="W64" s="33"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="45"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
+      <c r="AR64" s="11"/>
+      <c r="AS64" s="11"/>
+      <c r="AT64" s="11"/>
+      <c r="AU64" s="11"/>
+      <c r="AV64" s="11"/>
+      <c r="AW64" s="11"/>
+      <c r="AX64" s="11"/>
+      <c r="AY64" s="4"/>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="4"/>
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="4"/>
+    </row>
+    <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T65" s="33"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W65" s="36"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="40"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="11"/>
+      <c r="AP65" s="11"/>
+      <c r="AQ65" s="11"/>
+      <c r="AR65" s="11"/>
+      <c r="AS65" s="11"/>
+      <c r="AT65" s="11"/>
+      <c r="AU65" s="11"/>
+      <c r="AV65" s="11"/>
+      <c r="AW65" s="11"/>
+      <c r="AX65" s="11"/>
+      <c r="AY65" s="4"/>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="4"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+    </row>
+    <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T66" s="33"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W66" s="36"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="40"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="11"/>
+      <c r="AT66" s="11"/>
+      <c r="AU66" s="11"/>
+      <c r="AV66" s="11"/>
+      <c r="AW66" s="11"/>
+      <c r="AX66" s="11"/>
+      <c r="AY66" s="4"/>
+      <c r="AZ66" s="4"/>
+      <c r="BA66" s="4"/>
+      <c r="BB66" s="4"/>
+      <c r="BC66" s="4"/>
+      <c r="BD66" s="4"/>
+      <c r="BE66" s="4"/>
+    </row>
+    <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W67" s="36"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="40"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="11"/>
+      <c r="AT67" s="11"/>
+      <c r="AU67" s="11"/>
+      <c r="AV67" s="11"/>
+      <c r="AW67" s="11"/>
+      <c r="AX67" s="11"/>
+      <c r="AY67" s="4"/>
+      <c r="AZ67" s="4"/>
+      <c r="BA67" s="4"/>
+      <c r="BB67" s="4"/>
+      <c r="BC67" s="4"/>
+      <c r="BD67" s="4"/>
+      <c r="BE67" s="4"/>
+    </row>
+    <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W68" s="36"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="40"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="11"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="11"/>
+      <c r="AT68" s="11"/>
+      <c r="AU68" s="11"/>
+      <c r="AV68" s="11"/>
+      <c r="AW68" s="11"/>
+      <c r="AX68" s="11"/>
+      <c r="AY68" s="4"/>
+      <c r="AZ68" s="4"/>
+      <c r="BA68" s="4"/>
+      <c r="BB68" s="4"/>
+      <c r="BC68" s="4"/>
+      <c r="BD68" s="4"/>
+      <c r="BE68" s="4"/>
+    </row>
+    <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W69" s="36"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="40"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11"/>
+      <c r="AJ69" s="11"/>
+      <c r="AK69" s="11"/>
+      <c r="AL69" s="11"/>
+      <c r="AM69" s="11"/>
+      <c r="AN69" s="11"/>
+      <c r="AO69" s="11"/>
+      <c r="AP69" s="11"/>
+      <c r="AQ69" s="11"/>
+      <c r="AR69" s="11"/>
+      <c r="AS69" s="11"/>
+      <c r="AT69" s="11"/>
+      <c r="AU69" s="11"/>
+      <c r="AV69" s="11"/>
+      <c r="AW69" s="11"/>
+      <c r="AX69" s="11"/>
+      <c r="AY69" s="4"/>
+      <c r="AZ69" s="4"/>
+      <c r="BA69" s="4"/>
+      <c r="BB69" s="4"/>
+      <c r="BC69" s="4"/>
+      <c r="BD69" s="4"/>
+      <c r="BE69" s="4"/>
+    </row>
+    <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T70" s="31"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W70" s="36"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="40"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="11"/>
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="11"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
+      <c r="AL70" s="11"/>
+      <c r="AM70" s="11"/>
+      <c r="AN70" s="11"/>
+      <c r="AO70" s="11"/>
+      <c r="AP70" s="11"/>
+      <c r="AQ70" s="11"/>
+      <c r="AR70" s="11"/>
+      <c r="AS70" s="11"/>
+      <c r="AT70" s="11"/>
+      <c r="AU70" s="11"/>
+      <c r="AV70" s="11"/>
+      <c r="AW70" s="11"/>
+      <c r="AX70" s="11"/>
+      <c r="AY70" s="4"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="4"/>
+      <c r="BB70" s="4"/>
+      <c r="BC70" s="4"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="4"/>
+    </row>
+    <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W71" s="36"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z71" s="39"/>
+      <c r="AA71" s="40"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+      <c r="AN71" s="11"/>
+      <c r="AO71" s="11"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="11"/>
+      <c r="AR71" s="11"/>
+      <c r="AS71" s="11"/>
+      <c r="AT71" s="11"/>
+      <c r="AU71" s="11"/>
+      <c r="AV71" s="11"/>
+      <c r="AW71" s="11"/>
+      <c r="AX71" s="11"/>
+      <c r="AY71" s="4"/>
+      <c r="AZ71" s="4"/>
+      <c r="BA71" s="4"/>
+      <c r="BB71" s="4"/>
+      <c r="BC71" s="4"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="4"/>
+    </row>
+    <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="35">
+        <v>45099</v>
+      </c>
+      <c r="W72" s="36"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z72" s="39"/>
+      <c r="AA72" s="40"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
+      <c r="AL72" s="11"/>
+      <c r="AM72" s="11"/>
+      <c r="AN72" s="11"/>
+      <c r="AO72" s="11"/>
+      <c r="AP72" s="11"/>
+      <c r="AQ72" s="11"/>
+      <c r="AR72" s="11"/>
+      <c r="AS72" s="11"/>
+      <c r="AT72" s="11"/>
+      <c r="AU72" s="11"/>
+      <c r="AV72" s="11"/>
+      <c r="AW72" s="11"/>
+      <c r="AX72" s="11"/>
+      <c r="AY72" s="4"/>
+      <c r="AZ72" s="4"/>
+      <c r="BA72" s="4"/>
+      <c r="BB72" s="4"/>
+      <c r="BC72" s="4"/>
+      <c r="BD72" s="4"/>
+      <c r="BE72" s="4"/>
+    </row>
+    <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="31">
+        <v>45089</v>
+      </c>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="31"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="11"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="11"/>
+      <c r="AR73" s="11"/>
+      <c r="AS73" s="11"/>
+      <c r="AT73" s="11"/>
+      <c r="AU73" s="11"/>
+      <c r="AV73" s="11"/>
+      <c r="AW73" s="11"/>
+      <c r="AX73" s="11"/>
+      <c r="AY73" s="4"/>
+      <c r="AZ73" s="4"/>
+      <c r="BA73" s="4"/>
+      <c r="BB73" s="4"/>
+      <c r="BC73" s="4"/>
+      <c r="BD73" s="4"/>
+      <c r="BE73" s="4"/>
+    </row>
+    <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="31"/>
+      <c r="X74" s="31"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="11"/>
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="11"/>
+      <c r="AR74" s="11"/>
+      <c r="AS74" s="11"/>
+      <c r="AT74" s="11"/>
+      <c r="AU74" s="11"/>
+      <c r="AV74" s="11"/>
+      <c r="AW74" s="11"/>
+      <c r="AX74" s="11"/>
+      <c r="AY74" s="4"/>
+      <c r="AZ74" s="4"/>
+      <c r="BA74" s="4"/>
+      <c r="BB74" s="4"/>
+      <c r="BC74" s="4"/>
+      <c r="BD74" s="4"/>
+      <c r="BE74" s="4"/>
+    </row>
+    <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="48"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="31">
+        <v>45103</v>
+      </c>
+      <c r="T75" s="31"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="31"/>
+      <c r="X75" s="31"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="4"/>
+      <c r="AO75" s="4"/>
+      <c r="AP75" s="4"/>
+      <c r="AQ75" s="4"/>
+      <c r="AR75" s="4"/>
+      <c r="AS75" s="4"/>
+      <c r="AT75" s="4"/>
+      <c r="AU75" s="4"/>
+      <c r="AV75" s="4"/>
+      <c r="AW75" s="4"/>
+      <c r="AX75" s="4"/>
+      <c r="AY75" s="4"/>
+      <c r="AZ75" s="4"/>
+      <c r="BA75" s="9"/>
+      <c r="BB75" s="9"/>
+      <c r="BC75" s="9"/>
+      <c r="BD75" s="9"/>
+      <c r="BE75" s="4"/>
+    </row>
+    <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="31">
+        <v>45103</v>
+      </c>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="31"/>
+      <c r="X76" s="31"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="4"/>
+      <c r="AQ76" s="4"/>
+      <c r="AR76" s="4"/>
+      <c r="AS76" s="4"/>
+      <c r="AT76" s="4"/>
+      <c r="AU76" s="4"/>
+      <c r="AV76" s="4"/>
+      <c r="AW76" s="4"/>
+      <c r="AX76" s="4"/>
+      <c r="AY76" s="4"/>
+      <c r="AZ76" s="4"/>
+      <c r="BA76" s="9"/>
+      <c r="BB76" s="9"/>
+      <c r="BC76" s="9"/>
+      <c r="BD76" s="9"/>
+      <c r="BE76" s="4"/>
+    </row>
+    <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="31">
+        <v>45103</v>
+      </c>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="31"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="4"/>
+      <c r="AR77" s="4"/>
+      <c r="AS77" s="4"/>
+      <c r="AT77" s="4"/>
+      <c r="AU77" s="4"/>
+      <c r="AV77" s="4"/>
+      <c r="AW77" s="4"/>
+      <c r="AX77" s="4"/>
+      <c r="AY77" s="4"/>
+      <c r="AZ77" s="4"/>
+      <c r="BA77" s="9"/>
+      <c r="BB77" s="9"/>
+      <c r="BC77" s="9"/>
+      <c r="BD77" s="9"/>
+      <c r="BE77" s="4"/>
+    </row>
+    <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="48"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="31"/>
+      <c r="X78" s="31"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
+      <c r="AP78" s="4"/>
+      <c r="AQ78" s="4"/>
+      <c r="AR78" s="4"/>
+      <c r="AS78" s="4"/>
+      <c r="AT78" s="4"/>
+      <c r="AU78" s="4"/>
+      <c r="AV78" s="4"/>
+      <c r="AW78" s="4"/>
+      <c r="AX78" s="4"/>
+      <c r="AY78" s="4"/>
+      <c r="AZ78" s="4"/>
+      <c r="BA78" s="4"/>
+      <c r="BB78" s="4"/>
+      <c r="BC78" s="4"/>
+      <c r="BD78" s="4"/>
+      <c r="BE78" s="4"/>
+    </row>
+    <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="48"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+      <c r="V79" s="31"/>
+      <c r="W79" s="31"/>
+      <c r="X79" s="31"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AL79" s="4"/>
+      <c r="AM79" s="4"/>
+      <c r="AN79" s="4"/>
+      <c r="AO79" s="4"/>
+      <c r="AP79" s="4"/>
+      <c r="AQ79" s="4"/>
+      <c r="AR79" s="4"/>
+      <c r="AS79" s="4"/>
+      <c r="AT79" s="4"/>
+      <c r="AU79" s="4"/>
+      <c r="AV79" s="4"/>
+      <c r="AW79" s="4"/>
+      <c r="AX79" s="4"/>
+      <c r="AY79" s="4"/>
+      <c r="AZ79" s="4"/>
+      <c r="BA79" s="4"/>
+      <c r="BB79" s="4"/>
+      <c r="BC79" s="4"/>
+      <c r="BD79" s="4"/>
+      <c r="BE79" s="4"/>
+    </row>
+    <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="31">
+        <v>45107</v>
+      </c>
+      <c r="T80" s="31"/>
+      <c r="U80" s="31"/>
+      <c r="V80" s="31">
+        <v>45107</v>
+      </c>
+      <c r="W80" s="31"/>
+      <c r="X80" s="31"/>
+      <c r="Y80" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AL80" s="4"/>
+      <c r="AM80" s="4"/>
+      <c r="AN80" s="4"/>
+      <c r="AO80" s="4"/>
+      <c r="AP80" s="4"/>
+      <c r="AQ80" s="4"/>
+      <c r="AR80" s="4"/>
+      <c r="AS80" s="4"/>
+      <c r="AT80" s="4"/>
+      <c r="AU80" s="4"/>
+      <c r="AV80" s="4"/>
+      <c r="AW80" s="4"/>
+      <c r="AX80" s="4"/>
+      <c r="AY80" s="4"/>
+      <c r="AZ80" s="4"/>
+      <c r="BA80" s="4"/>
+      <c r="BB80" s="4"/>
+      <c r="BC80" s="4"/>
+      <c r="BD80" s="4"/>
+      <c r="BE80" s="10"/>
+    </row>
+    <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="31"/>
+      <c r="W81" s="31"/>
+      <c r="X81" s="31"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AL81" s="4"/>
+      <c r="AM81" s="4"/>
+      <c r="AN81" s="4"/>
+      <c r="AO81" s="4"/>
+      <c r="AP81" s="4"/>
+      <c r="AQ81" s="4"/>
+      <c r="AR81" s="4"/>
+      <c r="AS81" s="4"/>
+      <c r="AT81" s="4"/>
+      <c r="AU81" s="4"/>
+      <c r="AV81" s="4"/>
+      <c r="AW81" s="4"/>
+      <c r="AX81" s="4"/>
+      <c r="AY81" s="4"/>
+      <c r="AZ81" s="4"/>
+      <c r="BA81" s="4"/>
+      <c r="BB81" s="4"/>
+      <c r="BC81" s="4"/>
+      <c r="BD81" s="4"/>
+      <c r="BE81" s="4"/>
+    </row>
+    <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="31"/>
+      <c r="X82" s="31"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
+      <c r="AM82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="4"/>
+      <c r="AP82" s="4"/>
+      <c r="AQ82" s="4"/>
+      <c r="AR82" s="4"/>
+      <c r="AS82" s="4"/>
+      <c r="AT82" s="4"/>
+      <c r="AU82" s="4"/>
+      <c r="AV82" s="4"/>
+      <c r="AW82" s="4"/>
+      <c r="AX82" s="4"/>
+      <c r="AY82" s="4"/>
+      <c r="AZ82" s="4"/>
+      <c r="BA82" s="4"/>
+      <c r="BB82" s="4"/>
+      <c r="BC82" s="4"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="4"/>
+    </row>
+    <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
+      <c r="V83" s="31"/>
+      <c r="W83" s="31"/>
+      <c r="X83" s="31"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+      <c r="AL83" s="4"/>
+      <c r="AM83" s="4"/>
+      <c r="AN83" s="4"/>
+      <c r="AO83" s="4"/>
+      <c r="AP83" s="4"/>
+      <c r="AQ83" s="4"/>
+      <c r="AR83" s="4"/>
+      <c r="AS83" s="4"/>
+      <c r="AT83" s="4"/>
+      <c r="AU83" s="4"/>
+      <c r="AV83" s="4"/>
+      <c r="AW83" s="4"/>
+      <c r="AX83" s="4"/>
+      <c r="AY83" s="4"/>
+      <c r="AZ83" s="4"/>
+      <c r="BA83" s="4"/>
+      <c r="BB83" s="4"/>
+      <c r="BC83" s="4"/>
+      <c r="BD83" s="4"/>
+      <c r="BE83" s="4"/>
+    </row>
+    <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="267">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
+  <mergeCells count="460">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:O15"/>
@@ -3835,148 +7101,30 @@
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="H40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="H39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:O12"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
     <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
@@ -4001,74 +7149,336 @@
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
     <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H16:O16"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="S16:U16"/>
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:O24"/>
@@ -4076,18 +7486,23 @@
     <mergeCell ref="S24:U24"/>
     <mergeCell ref="V24:X24"/>
     <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="S66:U66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/D2_進捗管理表.xlsx
+++ b/doc/D2_進捗管理表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26605"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4BCC8C-88EA-4D68-A009-ABDC4E7B4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87911AD4-9070-4052-AD53-DD48F495633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -204,13 +204,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(以下すべて(仮))</t>
-  </si>
-  <si>
     <t>データベース作成</t>
   </si>
   <si>
     <t>model(beans)</t>
+  </si>
+  <si>
+    <t>それぞれ</t>
   </si>
   <si>
     <t>LoginServlet.java</t>
@@ -399,7 +399,7 @@
     <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -439,7 +439,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -519,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -710,13 +709,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +826,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,16 +1312,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ67" sqref="AJ67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="3.25" style="1"/>
     <col min="8" max="8" width="36.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="21" width="3.25" style="1"/>
-    <col min="22" max="22" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="27" width="3.25" style="1"/>
     <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
     <col min="30" max="32" width="3.25" style="1"/>
@@ -1284,140 +1329,140 @@
     <col min="34" max="16384" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:59" ht="22.5" customHeight="1">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="68" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="62" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="59">
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="65">
         <v>45078</v>
       </c>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61"/>
-    </row>
-    <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="62" t="s">
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="67"/>
+    </row>
+    <row r="2" spans="1:59" ht="22.5" customHeight="1">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="59">
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="65">
         <v>45107</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
-    </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="67"/>
+    </row>
+    <row r="4" spans="1:59" ht="15" customHeight="1">
+      <c r="A4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="66" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66" t="s">
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="65" t="s">
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1541,42 +1586,42 @@
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
     </row>
-    <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66" t="s">
+    <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66" t="s">
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66" t="s">
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1698,34 +1743,34 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
+    <row r="6" spans="1:59" ht="15" customHeight="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1847,46 +1892,46 @@
         <v>金</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
+    <row r="7" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="44" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="29" t="s">
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="31">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="37">
         <v>45079</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37">
         <v>45082</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="28" t="s">
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="4"/>
@@ -1918,44 +1963,44 @@
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
     </row>
-    <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="44" t="s">
+    <row r="8" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="44" t="s">
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="32">
+      <c r="Q8" s="55"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="38">
         <v>45078</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="32">
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="38">
         <v>45082</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="44" t="s">
+      <c r="W8" s="39"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="45"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="51"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="4"/>
@@ -1987,44 +2032,44 @@
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
     </row>
-    <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44" t="s">
+    <row r="9" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="44" t="s">
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="32">
+      <c r="Q9" s="55"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="38">
         <v>45078</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="32">
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="38">
         <v>45079</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="44" t="s">
+      <c r="W9" s="39"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="45"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="51"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="4"/>
@@ -2056,44 +2101,44 @@
       <c r="BD9" s="4"/>
       <c r="BE9" s="4"/>
     </row>
-    <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44" t="s">
+    <row r="10" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="44" t="s">
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="32">
+      <c r="Q10" s="55"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="38">
         <v>45079</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="32">
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="38">
         <v>45082</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="44" t="s">
+      <c r="W10" s="39"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="45"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="51"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
@@ -2125,34 +2170,34 @@
       <c r="BD10" s="4"/>
       <c r="BE10" s="4"/>
     </row>
-    <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="45"/>
+    <row r="11" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="51"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="4"/>
@@ -2184,46 +2229,46 @@
       <c r="BD11" s="4"/>
       <c r="BE11" s="4"/>
     </row>
-    <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30" t="s">
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37">
         <v>45083</v>
       </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31">
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>45085</v>
       </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="28" t="s">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2255,44 +2300,44 @@
       <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
     </row>
-    <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="44" t="s">
+    <row r="13" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="30" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37">
         <v>45083</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31">
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37">
         <v>45084</v>
       </c>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="28" t="s">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2324,44 +2369,44 @@
       <c r="BD13" s="4"/>
       <c r="BE13" s="4"/>
     </row>
-    <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="44" t="s">
+    <row r="14" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="30" t="s">
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31">
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37">
         <v>45083</v>
       </c>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31">
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37">
         <v>45085</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="28" t="s">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2393,44 +2438,44 @@
       <c r="BD14" s="4"/>
       <c r="BE14" s="4"/>
     </row>
-    <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44" t="s">
+    <row r="15" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="44" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="32">
+      <c r="Q15" s="55"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="38">
         <v>45084</v>
       </c>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="32">
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="38">
         <v>45085</v>
       </c>
-      <c r="W15" s="33"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="52" t="s">
+      <c r="W15" s="39"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="4"/>
@@ -2462,44 +2507,44 @@
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
     </row>
-    <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="44" t="s">
+    <row r="16" spans="1:59" ht="18.75" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="44" t="s">
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="32">
+      <c r="Q16" s="55"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="38">
         <v>45084</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="31">
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="37">
         <v>45085</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="28" t="s">
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="4"/>
@@ -2531,44 +2576,44 @@
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
     </row>
-    <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30" t="s">
+    <row r="17" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31">
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37">
         <v>45084</v>
       </c>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31">
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37">
         <v>45084</v>
       </c>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="28" t="s">
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2600,34 +2645,34 @@
       <c r="BD17" s="4"/>
       <c r="BE17" s="4"/>
     </row>
-    <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
+    <row r="18" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2659,40 +2704,40 @@
       <c r="BD18" s="4"/>
       <c r="BE18" s="4"/>
     </row>
-    <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
+    <row r="19" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="31">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="37">
         <v>45085</v>
       </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31">
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37">
         <v>45086</v>
       </c>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2724,44 +2769,44 @@
       <c r="BD19" s="4"/>
       <c r="BE19" s="4"/>
     </row>
-    <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44" t="s">
+    <row r="20" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="44" t="s">
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="32">
+      <c r="Q20" s="55"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="38">
         <v>45086</v>
       </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="32">
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="38">
         <v>45086</v>
       </c>
-      <c r="W20" s="33"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="50" t="s">
+      <c r="W20" s="39"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="45"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="51"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="4"/>
@@ -2793,44 +2838,44 @@
       <c r="BD20" s="4"/>
       <c r="BE20" s="4"/>
     </row>
-    <row r="21" spans="1:57" ht="16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30" t="s">
+    <row r="21" spans="1:57" ht="16.5">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30" t="s">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31">
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37">
         <v>45086</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31">
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37">
         <v>45086</v>
       </c>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="28" t="s">
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2862,34 +2907,34 @@
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
     </row>
-    <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
+    <row r="22" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2921,38 +2966,36 @@
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
     </row>
-    <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29" t="s">
+    <row r="23" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2984,44 +3027,44 @@
       <c r="BD23" s="4"/>
       <c r="BE23" s="4"/>
     </row>
-    <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="29" t="s">
+    <row r="24" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="31">
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="37">
         <v>45089</v>
       </c>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31">
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37">
         <v>45089</v>
       </c>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="28" t="s">
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3053,42 +3096,44 @@
       <c r="BD24" s="4"/>
       <c r="BE24" s="4"/>
     </row>
-    <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30" t="s">
+    <row r="25" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="31">
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="37">
         <v>45086</v>
       </c>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31">
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37">
         <v>45089</v>
       </c>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="28" t="s">
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3120,14 +3165,14 @@
       <c r="BD25" s="4"/>
       <c r="BE25" s="4"/>
     </row>
-    <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+    <row r="26" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="17" t="s">
         <v>38</v>
       </c>
@@ -3143,21 +3188,21 @@
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="22"/>
-      <c r="S26" s="31">
+      <c r="S26" s="37">
         <v>45089</v>
       </c>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31">
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37">
         <v>45090</v>
       </c>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="52">
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="58">
         <v>0.5</v>
       </c>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3170,7 +3215,7 @@
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
       <c r="AM26" s="24"/>
-      <c r="AN26" s="11"/>
+      <c r="AN26" s="24"/>
       <c r="AO26" s="11"/>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="11"/>
@@ -3189,14 +3234,14 @@
       <c r="BD26" s="4"/>
       <c r="BE26" s="4"/>
     </row>
-    <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+    <row r="27" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="18" t="s">
         <v>39</v>
       </c>
@@ -3212,21 +3257,21 @@
       </c>
       <c r="Q27" s="21"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="31">
+      <c r="S27" s="37">
         <v>45089</v>
       </c>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31">
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37">
         <v>45090</v>
       </c>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="52">
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="58">
         <v>0.1</v>
       </c>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3239,7 +3284,7 @@
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
       <c r="AM27" s="24"/>
-      <c r="AN27" s="11"/>
+      <c r="AN27" s="24"/>
       <c r="AO27" s="11"/>
       <c r="AP27" s="11"/>
       <c r="AQ27" s="11"/>
@@ -3258,14 +3303,14 @@
       <c r="BD27" s="4"/>
       <c r="BE27" s="4"/>
     </row>
-    <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+    <row r="28" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="18" t="s">
         <v>40</v>
       </c>
@@ -3281,21 +3326,21 @@
       </c>
       <c r="Q28" s="21"/>
       <c r="R28" s="22"/>
-      <c r="S28" s="31">
+      <c r="S28" s="37">
         <v>45089</v>
       </c>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="53">
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="59">
         <v>45091</v>
       </c>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="28" t="s">
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3327,14 +3372,14 @@
       <c r="BD28" s="4"/>
       <c r="BE28" s="4"/>
     </row>
-    <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+    <row r="29" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="18" t="s">
         <v>42</v>
       </c>
@@ -3350,21 +3395,21 @@
       </c>
       <c r="Q29" s="21"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="31">
+      <c r="S29" s="37">
         <v>45089</v>
       </c>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="74">
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="80">
         <v>45100</v>
       </c>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="52">
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="58">
         <v>0.8</v>
       </c>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3377,17 +3422,17 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
       <c r="AM29" s="24"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
       <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="11"/>
-      <c r="AX29" s="11"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
@@ -3396,14 +3441,14 @@
       <c r="BD29" s="4"/>
       <c r="BE29" s="4"/>
     </row>
-    <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+    <row r="30" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
       <c r="H30" s="18" t="s">
         <v>43</v>
       </c>
@@ -3419,21 +3464,21 @@
       </c>
       <c r="Q30" s="21"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="31">
+      <c r="S30" s="37">
         <v>45089</v>
       </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31">
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37">
         <v>45089</v>
       </c>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="28" t="s">
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3465,14 +3510,14 @@
       <c r="BD30" s="4"/>
       <c r="BE30" s="4"/>
     </row>
-    <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+    <row r="31" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="18" t="s">
         <v>44</v>
       </c>
@@ -3488,21 +3533,21 @@
       </c>
       <c r="Q31" s="21"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="31">
+      <c r="S31" s="37">
         <v>45089</v>
       </c>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31">
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37">
         <v>45091</v>
       </c>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="28" t="s">
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3534,14 +3579,14 @@
       <c r="BD31" s="4"/>
       <c r="BE31" s="4"/>
     </row>
-    <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+    <row r="32" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="18" t="s">
         <v>45</v>
       </c>
@@ -3557,21 +3602,21 @@
       </c>
       <c r="Q32" s="21"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="31">
+      <c r="S32" s="37">
         <v>45089</v>
       </c>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31">
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37">
         <v>45091</v>
       </c>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="52">
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="58">
         <v>0.8</v>
       </c>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3584,8 +3629,8 @@
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
       <c r="AM32" s="24"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
       <c r="AP32" s="11"/>
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
@@ -3603,14 +3648,14 @@
       <c r="BD32" s="4"/>
       <c r="BE32" s="4"/>
     </row>
-    <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+    <row r="33" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="18" t="s">
         <v>46</v>
       </c>
@@ -3626,21 +3671,21 @@
       </c>
       <c r="Q33" s="21"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="31">
+      <c r="S33" s="37">
         <v>45089</v>
       </c>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31">
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37">
         <v>45090</v>
       </c>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="28" t="s">
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3672,14 +3717,14 @@
       <c r="BD33" s="4"/>
       <c r="BE33" s="4"/>
     </row>
-    <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+    <row r="34" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="18" t="s">
         <v>47</v>
       </c>
@@ -3695,21 +3740,21 @@
       </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="31">
+      <c r="S34" s="37">
         <v>45089</v>
       </c>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31">
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37">
         <v>45100</v>
       </c>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="52">
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="58">
         <v>0.5</v>
       </c>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3722,8 +3767,8 @@
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
       <c r="AM34" s="24"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="11"/>
       <c r="AR34" s="11"/>
@@ -3741,14 +3786,14 @@
       <c r="BD34" s="4"/>
       <c r="BE34" s="4"/>
     </row>
-    <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+    <row r="35" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="18" t="s">
         <v>48</v>
       </c>
@@ -3764,21 +3809,21 @@
       </c>
       <c r="Q35" s="21"/>
       <c r="R35" s="22"/>
-      <c r="S35" s="31">
+      <c r="S35" s="37">
         <v>45089</v>
       </c>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31">
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37">
         <v>45100</v>
       </c>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="28" t="s">
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3810,14 +3855,14 @@
       <c r="BD35" s="4"/>
       <c r="BE35" s="4"/>
     </row>
-    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+    <row r="36" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="18" t="s">
         <v>49</v>
       </c>
@@ -3833,21 +3878,21 @@
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="22"/>
-      <c r="S36" s="31">
+      <c r="S36" s="37">
         <v>45089</v>
       </c>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31">
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37">
         <v>45102</v>
       </c>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="28" t="s">
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3879,14 +3924,14 @@
       <c r="BD36" s="4"/>
       <c r="BE36" s="4"/>
     </row>
-    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+    <row r="37" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="18" t="s">
         <v>50</v>
       </c>
@@ -3902,21 +3947,21 @@
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="22"/>
-      <c r="S37" s="31">
+      <c r="S37" s="38">
         <v>45089</v>
       </c>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31">
+      <c r="T37" s="39"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="37">
         <v>45093</v>
       </c>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="52">
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="58">
         <v>0.3</v>
       </c>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3929,10 +3974,10 @@
       <c r="AK37" s="11"/>
       <c r="AL37" s="11"/>
       <c r="AM37" s="24"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="11"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
       <c r="AR37" s="11"/>
       <c r="AS37" s="11"/>
       <c r="AT37" s="11"/>
@@ -3948,14 +3993,14 @@
       <c r="BD37" s="4"/>
       <c r="BE37" s="4"/>
     </row>
-    <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+    <row r="38" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
       <c r="H38" s="18" t="s">
         <v>51</v>
       </c>
@@ -3971,21 +4016,21 @@
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="22"/>
-      <c r="S38" s="31">
+      <c r="S38" s="37">
         <v>45089</v>
       </c>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31">
-        <v>45091</v>
-      </c>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="52">
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37">
+        <v>45092</v>
+      </c>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="58">
         <v>0.1</v>
       </c>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -3998,9 +4043,9 @@
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
       <c r="AM38" s="24"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
       <c r="AQ38" s="11"/>
       <c r="AR38" s="11"/>
       <c r="AS38" s="11"/>
@@ -4017,14 +4062,14 @@
       <c r="BD38" s="4"/>
       <c r="BE38" s="4"/>
     </row>
-    <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+    <row r="39" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="18" t="s">
         <v>52</v>
       </c>
@@ -4040,21 +4085,21 @@
       </c>
       <c r="Q39" s="21"/>
       <c r="R39" s="22"/>
-      <c r="S39" s="31">
+      <c r="S39" s="37">
         <v>45089</v>
       </c>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31">
-        <v>45091</v>
-      </c>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="28" t="s">
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37">
+        <v>45092</v>
+      </c>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4066,10 +4111,10 @@
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
       <c r="AL39" s="11"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="11"/>
-      <c r="AO39" s="11"/>
-      <c r="AP39" s="11"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
       <c r="AQ39" s="11"/>
       <c r="AR39" s="11"/>
       <c r="AS39" s="11"/>
@@ -4086,14 +4131,14 @@
       <c r="BD39" s="4"/>
       <c r="BE39" s="4"/>
     </row>
-    <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+    <row r="40" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="18" t="s">
         <v>53</v>
       </c>
@@ -4109,21 +4154,21 @@
       </c>
       <c r="Q40" s="21"/>
       <c r="R40" s="22"/>
-      <c r="S40" s="31">
+      <c r="S40" s="37">
         <v>45089</v>
       </c>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31">
-        <v>45091</v>
-      </c>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="52">
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37">
+        <v>45092</v>
+      </c>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="58">
         <v>0.05</v>
       </c>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4136,9 +4181,9 @@
       <c r="AK40" s="11"/>
       <c r="AL40" s="11"/>
       <c r="AM40" s="24"/>
-      <c r="AN40" s="11"/>
-      <c r="AO40" s="11"/>
-      <c r="AP40" s="11"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="24"/>
       <c r="AQ40" s="11"/>
       <c r="AR40" s="11"/>
       <c r="AS40" s="11"/>
@@ -4155,14 +4200,14 @@
       <c r="BD40" s="4"/>
       <c r="BE40" s="4"/>
     </row>
-    <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+    <row r="41" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="18" t="s">
         <v>54</v>
       </c>
@@ -4178,21 +4223,21 @@
       </c>
       <c r="Q41" s="21"/>
       <c r="R41" s="22"/>
-      <c r="S41" s="31">
-        <v>45089</v>
-      </c>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31">
+      <c r="S41" s="37">
         <v>45093</v>
       </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="28" t="s">
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37">
+        <v>45099</v>
+      </c>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4208,13 +4253,13 @@
       <c r="AN41" s="11"/>
       <c r="AO41" s="11"/>
       <c r="AP41" s="11"/>
-      <c r="AQ41" s="11"/>
+      <c r="AQ41" s="24"/>
       <c r="AR41" s="11"/>
       <c r="AS41" s="11"/>
-      <c r="AT41" s="11"/>
-      <c r="AU41" s="11"/>
-      <c r="AV41" s="11"/>
-      <c r="AW41" s="11"/>
+      <c r="AT41" s="24"/>
+      <c r="AU41" s="24"/>
+      <c r="AV41" s="24"/>
+      <c r="AW41" s="24"/>
       <c r="AX41" s="11"/>
       <c r="AY41" s="4"/>
       <c r="AZ41" s="4"/>
@@ -4224,14 +4269,14 @@
       <c r="BD41" s="4"/>
       <c r="BE41" s="4"/>
     </row>
-    <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+    <row r="42" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="18" t="s">
         <v>55</v>
       </c>
@@ -4247,21 +4292,21 @@
       </c>
       <c r="Q42" s="21"/>
       <c r="R42" s="22"/>
-      <c r="S42" s="31">
-        <v>45089</v>
-      </c>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31">
+      <c r="S42" s="37">
         <v>45093</v>
       </c>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="28" t="s">
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37">
+        <v>45099</v>
+      </c>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4277,13 +4322,13 @@
       <c r="AN42" s="11"/>
       <c r="AO42" s="11"/>
       <c r="AP42" s="11"/>
-      <c r="AQ42" s="11"/>
+      <c r="AQ42" s="24"/>
       <c r="AR42" s="11"/>
       <c r="AS42" s="11"/>
-      <c r="AT42" s="11"/>
-      <c r="AU42" s="11"/>
-      <c r="AV42" s="11"/>
-      <c r="AW42" s="11"/>
+      <c r="AT42" s="24"/>
+      <c r="AU42" s="24"/>
+      <c r="AV42" s="24"/>
+      <c r="AW42" s="24"/>
       <c r="AX42" s="11"/>
       <c r="AY42" s="4"/>
       <c r="AZ42" s="4"/>
@@ -4293,14 +4338,14 @@
       <c r="BD42" s="4"/>
       <c r="BE42" s="4"/>
     </row>
-    <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+    <row r="43" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="18" t="s">
         <v>56</v>
       </c>
@@ -4316,21 +4361,21 @@
       </c>
       <c r="Q43" s="21"/>
       <c r="R43" s="22"/>
-      <c r="S43" s="31">
-        <v>45089</v>
-      </c>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31">
+      <c r="S43" s="37">
         <v>45093</v>
       </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="28" t="s">
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37">
+        <v>45099</v>
+      </c>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4346,13 +4391,13 @@
       <c r="AN43" s="11"/>
       <c r="AO43" s="11"/>
       <c r="AP43" s="11"/>
-      <c r="AQ43" s="11"/>
+      <c r="AQ43" s="24"/>
       <c r="AR43" s="11"/>
       <c r="AS43" s="11"/>
-      <c r="AT43" s="11"/>
-      <c r="AU43" s="11"/>
-      <c r="AV43" s="11"/>
-      <c r="AW43" s="11"/>
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="24"/>
+      <c r="AW43" s="24"/>
       <c r="AX43" s="11"/>
       <c r="AY43" s="4"/>
       <c r="AZ43" s="4"/>
@@ -4362,14 +4407,14 @@
       <c r="BD43" s="4"/>
       <c r="BE43" s="4"/>
     </row>
-    <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
+    <row r="44" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
       <c r="H44" s="18" t="s">
         <v>57</v>
       </c>
@@ -4385,21 +4430,21 @@
       </c>
       <c r="Q44" s="21"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="32">
-        <v>45089</v>
-      </c>
-      <c r="T44" s="33"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="32">
+      <c r="S44" s="38">
         <v>45093</v>
       </c>
-      <c r="W44" s="33"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="44" t="s">
+      <c r="T44" s="39"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="38">
+        <v>45099</v>
+      </c>
+      <c r="W44" s="39"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="45"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="51"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4415,13 +4460,13 @@
       <c r="AN44" s="11"/>
       <c r="AO44" s="11"/>
       <c r="AP44" s="11"/>
-      <c r="AQ44" s="11"/>
+      <c r="AQ44" s="24"/>
       <c r="AR44" s="11"/>
       <c r="AS44" s="11"/>
-      <c r="AT44" s="11"/>
-      <c r="AU44" s="11"/>
-      <c r="AV44" s="11"/>
-      <c r="AW44" s="11"/>
+      <c r="AT44" s="24"/>
+      <c r="AU44" s="24"/>
+      <c r="AV44" s="24"/>
+      <c r="AW44" s="24"/>
       <c r="AX44" s="11"/>
       <c r="AY44" s="4"/>
       <c r="AZ44" s="4"/>
@@ -4431,14 +4476,14 @@
       <c r="BD44" s="4"/>
       <c r="BE44" s="4"/>
     </row>
-    <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="51"/>
+    <row r="45" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="18" t="s">
         <v>58</v>
       </c>
@@ -4454,21 +4499,21 @@
       </c>
       <c r="Q45" s="21"/>
       <c r="R45" s="22"/>
-      <c r="S45" s="32">
+      <c r="S45" s="38">
         <v>45089</v>
       </c>
-      <c r="T45" s="33"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="32">
+      <c r="T45" s="39"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="38">
         <v>45091</v>
       </c>
-      <c r="W45" s="33"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="50">
+      <c r="W45" s="39"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="56">
         <v>0.3</v>
       </c>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="45"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="51"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4481,8 +4526,8 @@
       <c r="AK45" s="11"/>
       <c r="AL45" s="11"/>
       <c r="AM45" s="24"/>
-      <c r="AN45" s="11"/>
-      <c r="AO45" s="11"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
       <c r="AP45" s="11"/>
       <c r="AQ45" s="11"/>
       <c r="AR45" s="11"/>
@@ -4500,14 +4545,14 @@
       <c r="BD45" s="4"/>
       <c r="BE45" s="4"/>
     </row>
-    <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
+    <row r="46" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="18" t="s">
         <v>59</v>
       </c>
@@ -4523,21 +4568,21 @@
       </c>
       <c r="Q46" s="21"/>
       <c r="R46" s="22"/>
-      <c r="S46" s="32">
+      <c r="S46" s="38">
         <v>45089</v>
       </c>
-      <c r="T46" s="33"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="32">
+      <c r="T46" s="39"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="38">
         <v>45091</v>
       </c>
-      <c r="W46" s="33"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="50">
+      <c r="W46" s="39"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="56">
         <v>0.3</v>
       </c>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="45"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="51"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4550,8 +4595,8 @@
       <c r="AK46" s="11"/>
       <c r="AL46" s="11"/>
       <c r="AM46" s="24"/>
-      <c r="AN46" s="11"/>
-      <c r="AO46" s="11"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
       <c r="AP46" s="11"/>
       <c r="AQ46" s="11"/>
       <c r="AR46" s="11"/>
@@ -4569,14 +4614,14 @@
       <c r="BD46" s="4"/>
       <c r="BE46" s="4"/>
     </row>
-    <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
+    <row r="47" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="18" t="s">
         <v>60</v>
       </c>
@@ -4592,21 +4637,21 @@
       </c>
       <c r="Q47" s="21"/>
       <c r="R47" s="22"/>
-      <c r="S47" s="32">
+      <c r="S47" s="38">
         <v>45089</v>
       </c>
-      <c r="T47" s="33"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="32">
+      <c r="T47" s="39"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="38">
         <v>45093</v>
       </c>
-      <c r="W47" s="33"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="44" t="s">
+      <c r="W47" s="39"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="45"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="51"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4638,14 +4683,14 @@
       <c r="BD47" s="4"/>
       <c r="BE47" s="4"/>
     </row>
-    <row r="48" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
+    <row r="48" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54"/>
       <c r="H48" s="18" t="s">
         <v>61</v>
       </c>
@@ -4661,21 +4706,21 @@
       </c>
       <c r="Q48" s="21"/>
       <c r="R48" s="22"/>
-      <c r="S48" s="32">
+      <c r="S48" s="38">
         <v>45089</v>
       </c>
-      <c r="T48" s="33"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="32">
+      <c r="T48" s="39"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="38">
         <v>45097</v>
       </c>
-      <c r="W48" s="33"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="44" t="s">
+      <c r="W48" s="39"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="45"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="51"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4707,14 +4752,14 @@
       <c r="BD48" s="4"/>
       <c r="BE48" s="4"/>
     </row>
-    <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
+    <row r="49" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="18" t="s">
         <v>62</v>
       </c>
@@ -4730,21 +4775,21 @@
       </c>
       <c r="Q49" s="21"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="32">
+      <c r="S49" s="38">
         <v>45089</v>
       </c>
-      <c r="T49" s="33"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="32">
+      <c r="T49" s="39"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="38">
         <v>45099</v>
       </c>
-      <c r="W49" s="33"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="44" t="s">
+      <c r="W49" s="39"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="45"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="51"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4776,14 +4821,14 @@
       <c r="BD49" s="4"/>
       <c r="BE49" s="4"/>
     </row>
-    <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
+    <row r="50" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="54"/>
       <c r="H50" s="18" t="s">
         <v>63</v>
       </c>
@@ -4799,21 +4844,21 @@
       </c>
       <c r="Q50" s="21"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="32">
+      <c r="S50" s="38">
         <v>45089</v>
       </c>
-      <c r="T50" s="33"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="32">
+      <c r="T50" s="39"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="38">
         <v>45093</v>
       </c>
-      <c r="W50" s="33"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="50">
+      <c r="W50" s="39"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="56">
         <v>0.3</v>
       </c>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="45"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="51"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4826,10 +4871,10 @@
       <c r="AK50" s="11"/>
       <c r="AL50" s="11"/>
       <c r="AM50" s="25"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="11"/>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="25"/>
+      <c r="AP50" s="25"/>
+      <c r="AQ50" s="25"/>
       <c r="AR50" s="11"/>
       <c r="AS50" s="11"/>
       <c r="AT50" s="11"/>
@@ -4845,14 +4890,14 @@
       <c r="BD50" s="4"/>
       <c r="BE50" s="4"/>
     </row>
-    <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
+    <row r="51" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="18" t="s">
         <v>64</v>
       </c>
@@ -4868,21 +4913,21 @@
       </c>
       <c r="Q51" s="21"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="32">
+      <c r="S51" s="38">
         <v>45089</v>
       </c>
-      <c r="T51" s="33"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="35">
+      <c r="T51" s="39"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="41">
         <v>45093</v>
       </c>
-      <c r="W51" s="36"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="50">
+      <c r="W51" s="42"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="56">
         <v>0.1</v>
       </c>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="45"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="51"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4895,10 +4940,10 @@
       <c r="AK51" s="11"/>
       <c r="AL51" s="11"/>
       <c r="AM51" s="24"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="11"/>
-      <c r="AQ51" s="11"/>
+      <c r="AN51" s="24"/>
+      <c r="AO51" s="24"/>
+      <c r="AP51" s="24"/>
+      <c r="AQ51" s="24"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="11"/>
       <c r="AT51" s="11"/>
@@ -4914,14 +4959,14 @@
       <c r="BD51" s="4"/>
       <c r="BE51" s="4"/>
     </row>
-    <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
+    <row r="52" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="18" t="s">
         <v>65</v>
       </c>
@@ -4937,21 +4982,21 @@
       </c>
       <c r="Q52" s="21"/>
       <c r="R52" s="22"/>
-      <c r="S52" s="32">
+      <c r="S52" s="38">
         <v>45089</v>
       </c>
-      <c r="T52" s="33"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="35">
+      <c r="T52" s="39"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="41">
         <v>45093</v>
       </c>
-      <c r="W52" s="36"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="44" t="s">
+      <c r="W52" s="42"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="45"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="51"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -4983,14 +5028,14 @@
       <c r="BD52" s="4"/>
       <c r="BE52" s="4"/>
     </row>
-    <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
+    <row r="53" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="18" t="s">
         <v>66</v>
       </c>
@@ -5006,21 +5051,21 @@
       </c>
       <c r="Q53" s="21"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="32">
+      <c r="S53" s="38">
         <v>45089</v>
       </c>
-      <c r="T53" s="33"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="35">
+      <c r="T53" s="39"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="41">
         <v>45093</v>
       </c>
-      <c r="W53" s="36"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="50">
+      <c r="W53" s="42"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="56">
         <v>0.3</v>
       </c>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="45"/>
+      <c r="Z53" s="55"/>
+      <c r="AA53" s="51"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5033,10 +5078,10 @@
       <c r="AK53" s="11"/>
       <c r="AL53" s="11"/>
       <c r="AM53" s="24"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="11"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
+      <c r="AQ53" s="24"/>
       <c r="AR53" s="11"/>
       <c r="AS53" s="11"/>
       <c r="AT53" s="11"/>
@@ -5052,14 +5097,14 @@
       <c r="BD53" s="4"/>
       <c r="BE53" s="4"/>
     </row>
-    <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
+    <row r="54" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="18" t="s">
         <v>67</v>
       </c>
@@ -5075,21 +5120,21 @@
       </c>
       <c r="Q54" s="21"/>
       <c r="R54" s="22"/>
-      <c r="S54" s="32">
+      <c r="S54" s="38">
         <v>45089</v>
       </c>
-      <c r="T54" s="33"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="32">
+      <c r="T54" s="39"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="38">
         <v>45096</v>
       </c>
-      <c r="W54" s="33"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="50">
+      <c r="W54" s="39"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="56">
         <v>0.6</v>
       </c>
-      <c r="Z54" s="49"/>
-      <c r="AA54" s="45"/>
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="51"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5102,13 +5147,13 @@
       <c r="AK54" s="11"/>
       <c r="AL54" s="11"/>
       <c r="AM54" s="26"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="11"/>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="11"/>
-      <c r="AT54" s="11"/>
+      <c r="AN54" s="26"/>
+      <c r="AO54" s="26"/>
+      <c r="AP54" s="26"/>
+      <c r="AQ54" s="26"/>
+      <c r="AR54" s="27"/>
+      <c r="AS54" s="27"/>
+      <c r="AT54" s="26"/>
       <c r="AU54" s="11"/>
       <c r="AV54" s="11"/>
       <c r="AW54" s="11"/>
@@ -5121,14 +5166,14 @@
       <c r="BD54" s="4"/>
       <c r="BE54" s="4"/>
     </row>
-    <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
+    <row r="55" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="18" t="s">
         <v>69</v>
       </c>
@@ -5144,21 +5189,21 @@
       </c>
       <c r="Q55" s="21"/>
       <c r="R55" s="22"/>
-      <c r="S55" s="32">
+      <c r="S55" s="38">
         <v>45089</v>
       </c>
-      <c r="T55" s="33"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="32">
+      <c r="T55" s="39"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="38">
         <v>45099</v>
       </c>
-      <c r="W55" s="33"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="50">
+      <c r="W55" s="39"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="56">
         <v>0.05</v>
       </c>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="45"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="51"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5171,16 +5216,16 @@
       <c r="AK55" s="11"/>
       <c r="AL55" s="11"/>
       <c r="AM55" s="26"/>
-      <c r="AN55" s="11"/>
-      <c r="AO55" s="11"/>
-      <c r="AP55" s="11"/>
-      <c r="AQ55" s="11"/>
-      <c r="AR55" s="11"/>
-      <c r="AS55" s="11"/>
-      <c r="AT55" s="11"/>
-      <c r="AU55" s="11"/>
-      <c r="AV55" s="11"/>
-      <c r="AW55" s="11"/>
+      <c r="AN55" s="26"/>
+      <c r="AO55" s="26"/>
+      <c r="AP55" s="26"/>
+      <c r="AQ55" s="26"/>
+      <c r="AR55" s="27"/>
+      <c r="AS55" s="27"/>
+      <c r="AT55" s="26"/>
+      <c r="AU55" s="26"/>
+      <c r="AV55" s="26"/>
+      <c r="AW55" s="26"/>
       <c r="AX55" s="11"/>
       <c r="AY55" s="4"/>
       <c r="AZ55" s="4"/>
@@ -5190,14 +5235,14 @@
       <c r="BD55" s="4"/>
       <c r="BE55" s="4"/>
     </row>
-    <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
+    <row r="56" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="54"/>
       <c r="H56" s="18" t="s">
         <v>70</v>
       </c>
@@ -5213,21 +5258,21 @@
       </c>
       <c r="Q56" s="21"/>
       <c r="R56" s="22"/>
-      <c r="S56" s="32">
+      <c r="S56" s="38">
         <v>45089</v>
       </c>
-      <c r="T56" s="33"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="32">
+      <c r="T56" s="39"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="38">
         <v>45099</v>
       </c>
-      <c r="W56" s="33"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="50">
+      <c r="W56" s="39"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="56">
         <v>0.1</v>
       </c>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="45"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="51"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5240,16 +5285,16 @@
       <c r="AK56" s="11"/>
       <c r="AL56" s="11"/>
       <c r="AM56" s="26"/>
-      <c r="AN56" s="11"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="11"/>
-      <c r="AQ56" s="11"/>
-      <c r="AR56" s="11"/>
-      <c r="AS56" s="11"/>
-      <c r="AT56" s="11"/>
-      <c r="AU56" s="11"/>
-      <c r="AV56" s="11"/>
-      <c r="AW56" s="11"/>
+      <c r="AN56" s="26"/>
+      <c r="AO56" s="26"/>
+      <c r="AP56" s="26"/>
+      <c r="AQ56" s="26"/>
+      <c r="AR56" s="27"/>
+      <c r="AS56" s="27"/>
+      <c r="AT56" s="26"/>
+      <c r="AU56" s="26"/>
+      <c r="AV56" s="26"/>
+      <c r="AW56" s="26"/>
       <c r="AX56" s="11"/>
       <c r="AY56" s="4"/>
       <c r="AZ56" s="4"/>
@@ -5259,14 +5304,14 @@
       <c r="BD56" s="4"/>
       <c r="BE56" s="4"/>
     </row>
-    <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
+    <row r="57" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="18" t="s">
         <v>71</v>
       </c>
@@ -5282,21 +5327,21 @@
       </c>
       <c r="Q57" s="21"/>
       <c r="R57" s="22"/>
-      <c r="S57" s="32">
+      <c r="S57" s="38">
         <v>45089</v>
       </c>
-      <c r="T57" s="33"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="32">
+      <c r="T57" s="39"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="38">
         <v>45099</v>
       </c>
-      <c r="W57" s="33"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="44" t="s">
+      <c r="W57" s="39"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="45"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="51"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5328,14 +5373,14 @@
       <c r="BD57" s="4"/>
       <c r="BE57" s="4"/>
     </row>
-    <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
+    <row r="58" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
       <c r="H58" s="18" t="s">
         <v>72</v>
       </c>
@@ -5351,21 +5396,21 @@
       </c>
       <c r="Q58" s="21"/>
       <c r="R58" s="22"/>
-      <c r="S58" s="32">
+      <c r="S58" s="38">
         <v>45089</v>
       </c>
-      <c r="T58" s="33"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="32">
+      <c r="T58" s="39"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="38">
         <v>45099</v>
       </c>
-      <c r="W58" s="33"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="50">
+      <c r="W58" s="39"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="56">
         <v>0.5</v>
       </c>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="45"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="51"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5378,16 +5423,16 @@
       <c r="AK58" s="11"/>
       <c r="AL58" s="11"/>
       <c r="AM58" s="26"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
+      <c r="AN58" s="26"/>
+      <c r="AO58" s="26"/>
+      <c r="AP58" s="26"/>
+      <c r="AQ58" s="26"/>
+      <c r="AR58" s="27"/>
+      <c r="AS58" s="27"/>
+      <c r="AT58" s="26"/>
+      <c r="AU58" s="26"/>
+      <c r="AV58" s="26"/>
+      <c r="AW58" s="26"/>
       <c r="AX58" s="11"/>
       <c r="AY58" s="4"/>
       <c r="AZ58" s="4"/>
@@ -5397,14 +5442,14 @@
       <c r="BD58" s="4"/>
       <c r="BE58" s="4"/>
     </row>
-    <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
+    <row r="59" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="18" t="s">
         <v>73</v>
       </c>
@@ -5420,21 +5465,21 @@
       </c>
       <c r="Q59" s="21"/>
       <c r="R59" s="22"/>
-      <c r="S59" s="32">
-        <v>45089</v>
-      </c>
-      <c r="T59" s="33"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="32">
+      <c r="S59" s="38">
+        <v>45091</v>
+      </c>
+      <c r="T59" s="39"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="38">
         <v>45093</v>
       </c>
-      <c r="W59" s="33"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="44" t="s">
+      <c r="W59" s="39"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="45"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="51"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5466,14 +5511,14 @@
       <c r="BD59" s="4"/>
       <c r="BE59" s="4"/>
     </row>
-    <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
+    <row r="60" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="54"/>
       <c r="H60" s="18" t="s">
         <v>74</v>
       </c>
@@ -5489,21 +5534,21 @@
       </c>
       <c r="Q60" s="21"/>
       <c r="R60" s="22"/>
-      <c r="S60" s="32">
-        <v>45089</v>
-      </c>
-      <c r="T60" s="33"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="32">
-        <v>45093</v>
-      </c>
-      <c r="W60" s="33"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="44" t="s">
+      <c r="S60" s="38">
+        <v>45094</v>
+      </c>
+      <c r="T60" s="39"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="38">
+        <v>45100</v>
+      </c>
+      <c r="W60" s="39"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="45"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="51"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5515,11 +5560,11 @@
       <c r="AJ60" s="11"/>
       <c r="AK60" s="11"/>
       <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
-      <c r="AQ60" s="11"/>
+      <c r="AM60" s="31"/>
+      <c r="AN60" s="31"/>
+      <c r="AO60" s="31"/>
+      <c r="AP60" s="31"/>
+      <c r="AQ60" s="31"/>
       <c r="AR60" s="11"/>
       <c r="AS60" s="11"/>
       <c r="AT60" s="11"/>
@@ -5535,14 +5580,14 @@
       <c r="BD60" s="4"/>
       <c r="BE60" s="4"/>
     </row>
-    <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
+    <row r="61" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="18" t="s">
         <v>75</v>
       </c>
@@ -5558,21 +5603,21 @@
       </c>
       <c r="Q61" s="21"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="32">
+      <c r="S61" s="38">
         <v>45089</v>
       </c>
-      <c r="T61" s="33"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="32">
+      <c r="T61" s="39"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="38">
         <v>45100</v>
       </c>
-      <c r="W61" s="33"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="50">
+      <c r="W61" s="39"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="56">
         <v>0.8</v>
       </c>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="45"/>
+      <c r="Z61" s="55"/>
+      <c r="AA61" s="51"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5583,19 +5628,19 @@
       <c r="AI61" s="11"/>
       <c r="AJ61" s="11"/>
       <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
-      <c r="AM61" s="24"/>
-      <c r="AN61" s="11"/>
-      <c r="AO61" s="11"/>
-      <c r="AP61" s="11"/>
-      <c r="AQ61" s="11"/>
-      <c r="AR61" s="11"/>
+      <c r="AL61" s="29"/>
+      <c r="AM61" s="28"/>
+      <c r="AN61" s="28"/>
+      <c r="AO61" s="28"/>
+      <c r="AP61" s="28"/>
+      <c r="AQ61" s="28"/>
+      <c r="AR61" s="30"/>
       <c r="AS61" s="11"/>
-      <c r="AT61" s="11"/>
-      <c r="AU61" s="11"/>
-      <c r="AV61" s="11"/>
-      <c r="AW61" s="11"/>
-      <c r="AX61" s="11"/>
+      <c r="AT61" s="24"/>
+      <c r="AU61" s="24"/>
+      <c r="AV61" s="24"/>
+      <c r="AW61" s="24"/>
+      <c r="AX61" s="24"/>
       <c r="AY61" s="4"/>
       <c r="AZ61" s="4"/>
       <c r="BA61" s="4"/>
@@ -5604,14 +5649,14 @@
       <c r="BD61" s="4"/>
       <c r="BE61" s="4"/>
     </row>
-    <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
+    <row r="62" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="18" t="s">
         <v>76</v>
       </c>
@@ -5627,21 +5672,21 @@
       </c>
       <c r="Q62" s="21"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="32">
-        <v>45089</v>
-      </c>
-      <c r="T62" s="33"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="32">
+      <c r="S62" s="38">
+        <v>45090</v>
+      </c>
+      <c r="T62" s="39"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="38">
         <v>45093</v>
       </c>
-      <c r="W62" s="33"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="44" t="s">
+      <c r="W62" s="39"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="45"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="51"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5653,11 +5698,11 @@
       <c r="AJ62" s="11"/>
       <c r="AK62" s="11"/>
       <c r="AL62" s="11"/>
-      <c r="AM62" s="11"/>
-      <c r="AN62" s="11"/>
-      <c r="AO62" s="11"/>
-      <c r="AP62" s="11"/>
-      <c r="AQ62" s="11"/>
+      <c r="AM62" s="32"/>
+      <c r="AN62" s="33"/>
+      <c r="AO62" s="33"/>
+      <c r="AP62" s="33"/>
+      <c r="AQ62" s="33"/>
       <c r="AR62" s="11"/>
       <c r="AS62" s="11"/>
       <c r="AT62" s="11"/>
@@ -5673,14 +5718,14 @@
       <c r="BD62" s="4"/>
       <c r="BE62" s="4"/>
     </row>
-    <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
+    <row r="63" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="18" t="s">
         <v>77</v>
       </c>
@@ -5696,21 +5741,21 @@
       </c>
       <c r="Q63" s="21"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="32">
+      <c r="S63" s="38">
         <v>45089</v>
       </c>
-      <c r="T63" s="33"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="32">
+      <c r="T63" s="39"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="38">
         <v>45100</v>
       </c>
-      <c r="W63" s="33"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="50">
+      <c r="W63" s="39"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="56">
         <v>0.1</v>
       </c>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="45"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="51"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5723,17 +5768,17 @@
       <c r="AK63" s="11"/>
       <c r="AL63" s="11"/>
       <c r="AM63" s="24"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
+      <c r="AQ63" s="24"/>
       <c r="AR63" s="11"/>
       <c r="AS63" s="11"/>
-      <c r="AT63" s="11"/>
-      <c r="AU63" s="11"/>
-      <c r="AV63" s="11"/>
-      <c r="AW63" s="11"/>
-      <c r="AX63" s="11"/>
+      <c r="AT63" s="24"/>
+      <c r="AU63" s="24"/>
+      <c r="AV63" s="24"/>
+      <c r="AW63" s="24"/>
+      <c r="AX63" s="24"/>
       <c r="AY63" s="4"/>
       <c r="AZ63" s="4"/>
       <c r="BA63" s="4"/>
@@ -5742,14 +5787,14 @@
       <c r="BD63" s="4"/>
       <c r="BE63" s="4"/>
     </row>
-    <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48"/>
+    <row r="64" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="18" t="s">
         <v>78</v>
       </c>
@@ -5765,21 +5810,21 @@
       </c>
       <c r="Q64" s="21"/>
       <c r="R64" s="22"/>
-      <c r="S64" s="32">
+      <c r="S64" s="38">
         <v>45089</v>
       </c>
-      <c r="T64" s="33"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="32">
+      <c r="T64" s="39"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="38">
         <v>45099</v>
       </c>
-      <c r="W64" s="33"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="44" t="s">
+      <c r="W64" s="39"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="45"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="51"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5811,14 +5856,14 @@
       <c r="BD64" s="4"/>
       <c r="BE64" s="4"/>
     </row>
-    <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="48"/>
+    <row r="65" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A65" s="50"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="18" t="s">
         <v>79</v>
       </c>
@@ -5834,21 +5879,21 @@
       </c>
       <c r="Q65" s="21"/>
       <c r="R65" s="22"/>
-      <c r="S65" s="32">
+      <c r="S65" s="38">
         <v>45089</v>
       </c>
-      <c r="T65" s="33"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="35">
+      <c r="T65" s="39"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="41">
         <v>45099</v>
       </c>
-      <c r="W65" s="36"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="38" t="s">
+      <c r="W65" s="42"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="40"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="46"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5880,14 +5925,14 @@
       <c r="BD65" s="4"/>
       <c r="BE65" s="4"/>
     </row>
-    <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="44"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48"/>
+    <row r="66" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
       <c r="H66" s="18" t="s">
         <v>80</v>
       </c>
@@ -5903,21 +5948,21 @@
       </c>
       <c r="Q66" s="21"/>
       <c r="R66" s="22"/>
-      <c r="S66" s="32">
+      <c r="S66" s="38">
         <v>45089</v>
       </c>
-      <c r="T66" s="33"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="35">
+      <c r="T66" s="39"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="41">
         <v>45099</v>
       </c>
-      <c r="W66" s="36"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="38" t="s">
+      <c r="W66" s="42"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="40"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="46"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5949,14 +5994,14 @@
       <c r="BD66" s="4"/>
       <c r="BE66" s="4"/>
     </row>
-    <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
+    <row r="67" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="18" t="s">
         <v>81</v>
       </c>
@@ -5972,21 +6017,21 @@
       </c>
       <c r="Q67" s="21"/>
       <c r="R67" s="22"/>
-      <c r="S67" s="31">
+      <c r="S67" s="37">
         <v>45089</v>
       </c>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="35">
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="41">
         <v>45099</v>
       </c>
-      <c r="W67" s="36"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="38" t="s">
+      <c r="W67" s="42"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="40"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="46"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6018,14 +6063,14 @@
       <c r="BD67" s="4"/>
       <c r="BE67" s="4"/>
     </row>
-    <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
+    <row r="68" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="18" t="s">
         <v>82</v>
       </c>
@@ -6041,21 +6086,21 @@
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="22"/>
-      <c r="S68" s="31">
+      <c r="S68" s="37">
         <v>45089</v>
       </c>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="35">
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="41">
         <v>45099</v>
       </c>
-      <c r="W68" s="36"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="38" t="s">
+      <c r="W68" s="42"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="40"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="46"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6087,14 +6132,14 @@
       <c r="BD68" s="4"/>
       <c r="BE68" s="4"/>
     </row>
-    <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+    <row r="69" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="18" t="s">
         <v>83</v>
       </c>
@@ -6110,21 +6155,21 @@
       </c>
       <c r="Q69" s="21"/>
       <c r="R69" s="22"/>
-      <c r="S69" s="31">
+      <c r="S69" s="37">
         <v>45089</v>
       </c>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="35">
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="41">
         <v>45099</v>
       </c>
-      <c r="W69" s="36"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="38" t="s">
+      <c r="W69" s="42"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="40"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="46"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6156,14 +6201,14 @@
       <c r="BD69" s="4"/>
       <c r="BE69" s="4"/>
     </row>
-    <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
+    <row r="70" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="18" t="s">
         <v>84</v>
       </c>
@@ -6179,21 +6224,21 @@
       </c>
       <c r="Q70" s="21"/>
       <c r="R70" s="22"/>
-      <c r="S70" s="31">
+      <c r="S70" s="37">
         <v>45089</v>
       </c>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="35">
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="41">
         <v>45099</v>
       </c>
-      <c r="W70" s="36"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="38" t="s">
+      <c r="W70" s="42"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="40"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="46"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6225,14 +6270,14 @@
       <c r="BD70" s="4"/>
       <c r="BE70" s="4"/>
     </row>
-    <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
+    <row r="71" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="18" t="s">
         <v>85</v>
       </c>
@@ -6248,21 +6293,21 @@
       </c>
       <c r="Q71" s="21"/>
       <c r="R71" s="22"/>
-      <c r="S71" s="31">
+      <c r="S71" s="37">
         <v>45089</v>
       </c>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="35">
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="41">
         <v>45099</v>
       </c>
-      <c r="W71" s="36"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="38" t="s">
+      <c r="W71" s="42"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z71" s="39"/>
-      <c r="AA71" s="40"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="46"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6294,14 +6339,14 @@
       <c r="BD71" s="4"/>
       <c r="BE71" s="4"/>
     </row>
-    <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
+    <row r="72" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="18" t="s">
         <v>86</v>
       </c>
@@ -6317,21 +6362,21 @@
       </c>
       <c r="Q72" s="21"/>
       <c r="R72" s="22"/>
-      <c r="S72" s="31">
+      <c r="S72" s="37">
         <v>45089</v>
       </c>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="35">
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="41">
         <v>45099</v>
       </c>
-      <c r="W72" s="36"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="38" t="s">
+      <c r="W72" s="42"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Z72" s="39"/>
-      <c r="AA72" s="40"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="46"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6363,36 +6408,36 @@
       <c r="BD72" s="4"/>
       <c r="BE72" s="4"/>
     </row>
-    <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="31">
+    <row r="73" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="37">
         <v>45089</v>
       </c>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="31"/>
-      <c r="X73" s="31"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6424,34 +6469,34 @@
       <c r="BD73" s="4"/>
       <c r="BE73" s="4"/>
     </row>
-    <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="31"/>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
+    <row r="74" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6483,38 +6528,38 @@
       <c r="BD74" s="4"/>
       <c r="BE74" s="4"/>
     </row>
-    <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29" t="s">
+    <row r="75" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="31">
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="53"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="37">
         <v>45103</v>
       </c>
-      <c r="T75" s="31"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31"/>
-      <c r="W75" s="31"/>
-      <c r="X75" s="31"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6546,38 +6591,38 @@
       <c r="BD75" s="9"/>
       <c r="BE75" s="4"/>
     </row>
-    <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="29" t="s">
+    <row r="76" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="48"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="31">
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="37">
         <v>45103</v>
       </c>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="31"/>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6609,38 +6654,38 @@
       <c r="BD76" s="9"/>
       <c r="BE76" s="4"/>
     </row>
-    <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="29" t="s">
+    <row r="77" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="48"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="31">
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="37">
         <v>45103</v>
       </c>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31"/>
-      <c r="W77" s="31"/>
-      <c r="X77" s="31"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6672,34 +6717,34 @@
       <c r="BD77" s="9"/>
       <c r="BE77" s="4"/>
     </row>
-    <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="31"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
+    <row r="78" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6731,34 +6776,34 @@
       <c r="BD78" s="4"/>
       <c r="BE78" s="4"/>
     </row>
-    <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="48"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
-      <c r="V79" s="31"/>
-      <c r="W79" s="31"/>
-      <c r="X79" s="31"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
+    <row r="79" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6790,42 +6835,42 @@
       <c r="BD79" s="4"/>
       <c r="BE79" s="4"/>
     </row>
-    <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="29" t="s">
+    <row r="80" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="31">
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="37">
         <v>45107</v>
       </c>
-      <c r="T80" s="31"/>
-      <c r="U80" s="31"/>
-      <c r="V80" s="31">
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37">
         <v>45107</v>
       </c>
-      <c r="W80" s="31"/>
-      <c r="X80" s="31"/>
-      <c r="Y80" s="28" t="s">
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6857,34 +6902,34 @@
       <c r="BD80" s="4"/>
       <c r="BE80" s="10"/>
     </row>
-    <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="31"/>
-      <c r="W81" s="31"/>
-      <c r="X81" s="31"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
+    <row r="81" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6916,34 +6961,34 @@
       <c r="BD81" s="4"/>
       <c r="BE81" s="4"/>
     </row>
-    <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="31"/>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
+    <row r="82" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6975,34 +7020,34 @@
       <c r="BD82" s="4"/>
       <c r="BE82" s="4"/>
     </row>
-    <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="48"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="31"/>
-      <c r="T83" s="31"/>
-      <c r="U83" s="31"/>
-      <c r="V83" s="31"/>
-      <c r="W83" s="31"/>
-      <c r="X83" s="31"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
+    <row r="83" spans="1:57" ht="18.75" customHeight="1">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -7034,13 +7079,13 @@
       <c r="BD83" s="4"/>
       <c r="BE83" s="4"/>
     </row>
-    <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:57" ht="18.75" customHeight="1"/>
+    <row r="85" spans="1:57" ht="18.75" customHeight="1"/>
+    <row r="86" spans="1:57" ht="18.75" customHeight="1"/>
+    <row r="87" spans="1:57" ht="18.75" customHeight="1"/>
+    <row r="88" spans="1:57" ht="18.75" customHeight="1"/>
+    <row r="89" spans="1:57" ht="18.75" customHeight="1"/>
+    <row r="90" spans="1:57" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="460">
     <mergeCell ref="A26:B26"/>

--- a/doc/D2_進捗管理表.xlsx
+++ b/doc/D2_進捗管理表.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87911AD4-9070-4052-AD53-DD48F495633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3322DFC2-722C-45DE-8DE6-A51E76306CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$BE$10</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -392,14 +395,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m;@"/>
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -439,6 +443,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -743,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,16 +851,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -867,6 +893,90 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,106 +995,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,16 +1323,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ67" sqref="AJ67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB61" sqref="AB61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="3.25" style="1"/>
     <col min="8" max="8" width="36.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="21" width="3.25" style="1"/>
-    <col min="22" max="22" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="27" width="3.25" style="1"/>
     <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
     <col min="30" max="32" width="3.25" style="1"/>
@@ -1329,140 +1340,140 @@
     <col min="34" max="16384" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="22.5" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="74" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="68" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="65">
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="52">
         <v>45078</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="67"/>
-    </row>
-    <row r="2" spans="1:59" ht="22.5" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="68" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
+    </row>
+    <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="65">
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="52">
         <v>45107</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="67"/>
-    </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
+    </row>
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="72" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72" t="s">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="71" t="s">
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1586,42 +1597,42 @@
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
     </row>
-    <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72" t="s">
+    <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72" t="s">
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1743,34 +1754,34 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1892,31 +1903,31 @@
         <v>金</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35" t="s">
+    <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="35" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="37">
         <v>45079</v>
       </c>
@@ -1927,11 +1938,11 @@
       </c>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="34" t="s">
+      <c r="Y7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="4"/>
@@ -1948,7 +1959,6 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
@@ -1963,44 +1973,44 @@
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
     </row>
-    <row r="8" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50" t="s">
+    <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="50" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="38">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="45">
         <v>45078</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="38">
+      <c r="T8" s="46"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="45">
         <v>45082</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="50" t="s">
+      <c r="W8" s="46"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="51"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="41"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="4"/>
@@ -2032,44 +2042,44 @@
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
     </row>
-    <row r="9" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50" t="s">
+    <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="50" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="38">
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="45">
         <v>45078</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="38">
+      <c r="T9" s="46"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="45">
         <v>45079</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="50" t="s">
+      <c r="W9" s="46"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="51"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="41"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="4"/>
@@ -2101,44 +2111,44 @@
       <c r="BD9" s="4"/>
       <c r="BE9" s="4"/>
     </row>
-    <row r="10" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="50" t="s">
+    <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="50" t="s">
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="38">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="45">
         <v>45079</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="38">
+      <c r="T10" s="46"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="45">
         <v>45082</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="50" t="s">
+      <c r="W10" s="46"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="51"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="41"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
@@ -2170,34 +2180,34 @@
       <c r="BD10" s="4"/>
       <c r="BE10" s="4"/>
     </row>
-    <row r="11" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="51"/>
+    <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="41"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="4"/>
@@ -2229,31 +2239,31 @@
       <c r="BD11" s="4"/>
       <c r="BE11" s="4"/>
     </row>
-    <row r="12" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35" t="s">
+    <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
       <c r="S12" s="37">
         <v>45083</v>
       </c>
@@ -2264,11 +2274,11 @@
       </c>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="34" t="s">
+      <c r="Y12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2300,29 +2310,29 @@
       <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
     </row>
-    <row r="13" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="50" t="s">
+    <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="36" t="s">
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
       <c r="S13" s="37">
         <v>45083</v>
       </c>
@@ -2333,11 +2343,11 @@
       </c>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
-      <c r="Y13" s="34" t="s">
+      <c r="Y13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2369,29 +2379,29 @@
       <c r="BD13" s="4"/>
       <c r="BE13" s="4"/>
     </row>
-    <row r="14" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="50" t="s">
+    <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="36" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
       <c r="S14" s="37">
         <v>45083</v>
       </c>
@@ -2402,11 +2412,11 @@
       </c>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
-      <c r="Y14" s="34" t="s">
+      <c r="Y14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2438,44 +2448,44 @@
       <c r="BD14" s="4"/>
       <c r="BE14" s="4"/>
     </row>
-    <row r="15" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="50" t="s">
+    <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="50" t="s">
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="38">
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="45">
         <v>45084</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="38">
+      <c r="T15" s="46"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="45">
         <v>45085</v>
       </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="58" t="s">
+      <c r="W15" s="46"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="4"/>
@@ -2507,44 +2517,44 @@
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
     </row>
-    <row r="16" spans="1:59" ht="18.75" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="50" t="s">
+    <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="50" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="38">
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="45">
         <v>45084</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="47"/>
       <c r="V16" s="37">
         <v>45085</v>
       </c>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
-      <c r="Y16" s="34" t="s">
+      <c r="Y16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="4"/>
@@ -2576,29 +2586,29 @@
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
     </row>
-    <row r="17" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36" t="s">
+    <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36" t="s">
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
       <c r="S17" s="37">
         <v>45084</v>
       </c>
@@ -2609,11 +2619,11 @@
       </c>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
-      <c r="Y17" s="34" t="s">
+      <c r="Y17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2645,34 +2655,34 @@
       <c r="BD17" s="4"/>
       <c r="BE17" s="4"/>
     </row>
-    <row r="18" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+    <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2704,27 +2714,27 @@
       <c r="BD18" s="4"/>
       <c r="BE18" s="4"/>
     </row>
-    <row r="19" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
+    <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="37">
         <v>45085</v>
       </c>
@@ -2735,9 +2745,9 @@
       </c>
       <c r="W19" s="37"/>
       <c r="X19" s="37"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2769,44 +2779,44 @@
       <c r="BD19" s="4"/>
       <c r="BE19" s="4"/>
     </row>
-    <row r="20" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="50" t="s">
+    <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="50" t="s">
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="38">
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="45">
         <v>45086</v>
       </c>
-      <c r="T20" s="39"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="38">
+      <c r="T20" s="46"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="45">
         <v>45086</v>
       </c>
-      <c r="W20" s="39"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="56" t="s">
+      <c r="W20" s="46"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="51"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="41"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="4"/>
@@ -2838,29 +2848,29 @@
       <c r="BD20" s="4"/>
       <c r="BE20" s="4"/>
     </row>
-    <row r="21" spans="1:57" ht="16.5">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36" t="s">
+    <row r="21" spans="1:57" ht="16" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36" t="s">
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
       <c r="S21" s="37">
         <v>45086</v>
       </c>
@@ -2871,11 +2881,11 @@
       </c>
       <c r="W21" s="37"/>
       <c r="X21" s="37"/>
-      <c r="Y21" s="34" t="s">
+      <c r="Y21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2907,34 +2917,34 @@
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
     </row>
-    <row r="22" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+    <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2966,36 +2976,36 @@
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
     </row>
-    <row r="23" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35" t="s">
+    <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
       <c r="X23" s="37"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3027,29 +3037,29 @@
       <c r="BD23" s="4"/>
       <c r="BE23" s="4"/>
     </row>
-    <row r="24" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36" t="s">
+    <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="35" t="s">
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="37">
         <v>45089</v>
       </c>
@@ -3060,11 +3070,11 @@
       </c>
       <c r="W24" s="37"/>
       <c r="X24" s="37"/>
-      <c r="Y24" s="34" t="s">
+      <c r="Y24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3096,29 +3106,29 @@
       <c r="BD24" s="4"/>
       <c r="BE24" s="4"/>
     </row>
-    <row r="25" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36" t="s">
+    <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="35" t="s">
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="37">
         <v>45086</v>
       </c>
@@ -3129,11 +3139,11 @@
       </c>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
-      <c r="Y25" s="34" t="s">
+      <c r="Y25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3165,14 +3175,14 @@
       <c r="BD25" s="4"/>
       <c r="BE25" s="4"/>
     </row>
-    <row r="26" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+    <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="17" t="s">
         <v>38</v>
       </c>
@@ -3194,15 +3204,15 @@
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
       <c r="V26" s="37">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
-      <c r="Y26" s="58">
+      <c r="Y26" s="38">
         <v>0.5</v>
       </c>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3216,7 +3226,7 @@
       <c r="AL26" s="11"/>
       <c r="AM26" s="24"/>
       <c r="AN26" s="24"/>
-      <c r="AO26" s="11"/>
+      <c r="AO26" s="24"/>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
@@ -3234,14 +3244,14 @@
       <c r="BD26" s="4"/>
       <c r="BE26" s="4"/>
     </row>
-    <row r="27" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+    <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="18" t="s">
         <v>39</v>
       </c>
@@ -3263,15 +3273,15 @@
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
       <c r="V27" s="37">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
-      <c r="Y27" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
+      <c r="Y27" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3285,7 +3295,7 @@
       <c r="AL27" s="11"/>
       <c r="AM27" s="24"/>
       <c r="AN27" s="24"/>
-      <c r="AO27" s="11"/>
+      <c r="AO27" s="24"/>
       <c r="AP27" s="11"/>
       <c r="AQ27" s="11"/>
       <c r="AR27" s="11"/>
@@ -3303,14 +3313,14 @@
       <c r="BD27" s="4"/>
       <c r="BE27" s="4"/>
     </row>
-    <row r="28" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+    <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="18" t="s">
         <v>40</v>
       </c>
@@ -3327,20 +3337,20 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="22"/>
       <c r="S28" s="37">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
-      <c r="V28" s="59">
-        <v>45091</v>
-      </c>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="34" t="s">
+      <c r="V28" s="74">
+        <v>45092</v>
+      </c>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3355,7 +3365,7 @@
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
       <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
+      <c r="AP28" s="24"/>
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
@@ -3372,14 +3382,14 @@
       <c r="BD28" s="4"/>
       <c r="BE28" s="4"/>
     </row>
-    <row r="29" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+    <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="18" t="s">
         <v>42</v>
       </c>
@@ -3400,16 +3410,16 @@
       </c>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
-      <c r="V29" s="80">
+      <c r="V29" s="44">
         <v>45100</v>
       </c>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="58">
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="38">
         <v>0.8</v>
       </c>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3441,14 +3451,14 @@
       <c r="BD29" s="4"/>
       <c r="BE29" s="4"/>
     </row>
-    <row r="30" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+    <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="18" t="s">
         <v>43</v>
       </c>
@@ -3474,11 +3484,11 @@
       </c>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
-      <c r="Y30" s="34" t="s">
+      <c r="Y30" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3510,14 +3520,14 @@
       <c r="BD30" s="4"/>
       <c r="BE30" s="4"/>
     </row>
-    <row r="31" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+    <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="18" t="s">
         <v>44</v>
       </c>
@@ -3534,7 +3544,7 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="22"/>
       <c r="S31" s="37">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -3543,11 +3553,11 @@
       </c>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
-      <c r="Y31" s="34" t="s">
+      <c r="Y31" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3562,7 +3572,7 @@
       <c r="AM31" s="11"/>
       <c r="AN31" s="11"/>
       <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
+      <c r="AP31" s="24"/>
       <c r="AQ31" s="11"/>
       <c r="AR31" s="11"/>
       <c r="AS31" s="11"/>
@@ -3579,14 +3589,14 @@
       <c r="BD31" s="4"/>
       <c r="BE31" s="4"/>
     </row>
-    <row r="32" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
+    <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="18" t="s">
         <v>45</v>
       </c>
@@ -3612,11 +3622,11 @@
       </c>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
-      <c r="Y32" s="58">
+      <c r="Y32" s="38">
         <v>0.8</v>
       </c>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3631,15 +3641,15 @@
       <c r="AM32" s="24"/>
       <c r="AN32" s="24"/>
       <c r="AO32" s="24"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
       <c r="AR32" s="11"/>
       <c r="AS32" s="11"/>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="11"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="11"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="24"/>
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
@@ -3648,14 +3658,14 @@
       <c r="BD32" s="4"/>
       <c r="BE32" s="4"/>
     </row>
-    <row r="33" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+    <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="18" t="s">
         <v>46</v>
       </c>
@@ -3672,20 +3682,20 @@
       <c r="Q33" s="21"/>
       <c r="R33" s="22"/>
       <c r="S33" s="37">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
       <c r="V33" s="37">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
-      <c r="Y33" s="34" t="s">
+      <c r="Y33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3700,7 +3710,7 @@
       <c r="AM33" s="11"/>
       <c r="AN33" s="11"/>
       <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
+      <c r="AP33" s="24"/>
       <c r="AQ33" s="11"/>
       <c r="AR33" s="11"/>
       <c r="AS33" s="11"/>
@@ -3717,14 +3727,14 @@
       <c r="BD33" s="4"/>
       <c r="BE33" s="4"/>
     </row>
-    <row r="34" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+    <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="18" t="s">
         <v>47</v>
       </c>
@@ -3750,11 +3760,11 @@
       </c>
       <c r="W34" s="37"/>
       <c r="X34" s="37"/>
-      <c r="Y34" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
+      <c r="Y34" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3769,15 +3779,15 @@
       <c r="AM34" s="24"/>
       <c r="AN34" s="24"/>
       <c r="AO34" s="24"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="24"/>
       <c r="AR34" s="11"/>
       <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
-      <c r="AU34" s="11"/>
-      <c r="AV34" s="11"/>
-      <c r="AW34" s="11"/>
-      <c r="AX34" s="11"/>
+      <c r="AT34" s="24"/>
+      <c r="AU34" s="24"/>
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="24"/>
+      <c r="AX34" s="24"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4"/>
       <c r="BA34" s="4"/>
@@ -3786,14 +3796,14 @@
       <c r="BD34" s="4"/>
       <c r="BE34" s="4"/>
     </row>
-    <row r="35" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
+    <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="18" t="s">
         <v>48</v>
       </c>
@@ -3810,7 +3820,7 @@
       <c r="Q35" s="21"/>
       <c r="R35" s="22"/>
       <c r="S35" s="37">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
@@ -3819,11 +3829,11 @@
       </c>
       <c r="W35" s="37"/>
       <c r="X35" s="37"/>
-      <c r="Y35" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="Y35" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3838,15 +3848,15 @@
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
-      <c r="AQ35" s="11"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
       <c r="AR35" s="11"/>
       <c r="AS35" s="11"/>
-      <c r="AT35" s="11"/>
-      <c r="AU35" s="11"/>
-      <c r="AV35" s="11"/>
-      <c r="AW35" s="11"/>
-      <c r="AX35" s="11"/>
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="24"/>
+      <c r="AW35" s="24"/>
+      <c r="AX35" s="24"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
@@ -3855,14 +3865,14 @@
       <c r="BD35" s="4"/>
       <c r="BE35" s="4"/>
     </row>
-    <row r="36" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
+    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="18" t="s">
         <v>49</v>
       </c>
@@ -3879,20 +3889,20 @@
       <c r="Q36" s="21"/>
       <c r="R36" s="22"/>
       <c r="S36" s="37">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
       <c r="V36" s="37">
-        <v>45102</v>
+        <v>45092</v>
       </c>
       <c r="W36" s="37"/>
       <c r="X36" s="37"/>
-      <c r="Y36" s="34" t="s">
+      <c r="Y36" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3907,8 +3917,8 @@
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
-      <c r="AQ36" s="11"/>
+      <c r="AP36" s="24"/>
+      <c r="AQ36" s="24"/>
       <c r="AR36" s="11"/>
       <c r="AS36" s="11"/>
       <c r="AT36" s="11"/>
@@ -3924,14 +3934,14 @@
       <c r="BD36" s="4"/>
       <c r="BE36" s="4"/>
     </row>
-    <row r="37" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="18" t="s">
         <v>50</v>
       </c>
@@ -3947,21 +3957,21 @@
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="22"/>
-      <c r="S37" s="38">
+      <c r="S37" s="45">
         <v>45089</v>
       </c>
-      <c r="T37" s="39"/>
-      <c r="U37" s="40"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="47"/>
       <c r="V37" s="37">
         <v>45093</v>
       </c>
       <c r="W37" s="37"/>
       <c r="X37" s="37"/>
-      <c r="Y37" s="58">
-        <v>0.3</v>
-      </c>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
+      <c r="Y37" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3993,14 +4003,14 @@
       <c r="BD37" s="4"/>
       <c r="BE37" s="4"/>
     </row>
-    <row r="38" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+    <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="18" t="s">
         <v>51</v>
       </c>
@@ -4026,11 +4036,11 @@
       </c>
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
-      <c r="Y38" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
+      <c r="Y38" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4062,14 +4072,14 @@
       <c r="BD38" s="4"/>
       <c r="BE38" s="4"/>
     </row>
-    <row r="39" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
+    <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="18" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4096,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="22"/>
       <c r="S39" s="37">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
@@ -4095,11 +4105,11 @@
       </c>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
-      <c r="Y39" s="34" t="s">
+      <c r="Y39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4111,8 +4121,8 @@
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
       <c r="AL39" s="11"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
       <c r="AO39" s="24"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11"/>
@@ -4131,14 +4141,14 @@
       <c r="BD39" s="4"/>
       <c r="BE39" s="4"/>
     </row>
-    <row r="40" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+    <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="18" t="s">
         <v>53</v>
       </c>
@@ -4160,15 +4170,15 @@
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
       <c r="V40" s="37">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
-      <c r="Y40" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
+      <c r="Y40" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4184,14 +4194,14 @@
       <c r="AN40" s="24"/>
       <c r="AO40" s="24"/>
       <c r="AP40" s="24"/>
-      <c r="AQ40" s="11"/>
+      <c r="AQ40" s="24"/>
       <c r="AR40" s="11"/>
       <c r="AS40" s="11"/>
-      <c r="AT40" s="11"/>
-      <c r="AU40" s="11"/>
-      <c r="AV40" s="11"/>
-      <c r="AW40" s="11"/>
-      <c r="AX40" s="11"/>
+      <c r="AT40" s="24"/>
+      <c r="AU40" s="24"/>
+      <c r="AV40" s="24"/>
+      <c r="AW40" s="24"/>
+      <c r="AX40" s="24"/>
       <c r="AY40" s="4"/>
       <c r="AZ40" s="4"/>
       <c r="BA40" s="4"/>
@@ -4200,14 +4210,14 @@
       <c r="BD40" s="4"/>
       <c r="BE40" s="4"/>
     </row>
-    <row r="41" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+    <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="18" t="s">
         <v>54</v>
       </c>
@@ -4233,11 +4243,11 @@
       </c>
       <c r="W41" s="37"/>
       <c r="X41" s="37"/>
-      <c r="Y41" s="34" t="s">
+      <c r="Y41" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4269,14 +4279,14 @@
       <c r="BD41" s="4"/>
       <c r="BE41" s="4"/>
     </row>
-    <row r="42" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
+    <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="18" t="s">
         <v>55</v>
       </c>
@@ -4293,7 +4303,7 @@
       <c r="Q42" s="21"/>
       <c r="R42" s="22"/>
       <c r="S42" s="37">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
@@ -4302,11 +4312,11 @@
       </c>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
-      <c r="Y42" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
+      <c r="Y42" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4320,8 +4330,8 @@
       <c r="AL42" s="11"/>
       <c r="AM42" s="11"/>
       <c r="AN42" s="11"/>
-      <c r="AO42" s="11"/>
-      <c r="AP42" s="11"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
       <c r="AQ42" s="24"/>
       <c r="AR42" s="11"/>
       <c r="AS42" s="11"/>
@@ -4338,14 +4348,14 @@
       <c r="BD42" s="4"/>
       <c r="BE42" s="4"/>
     </row>
-    <row r="43" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+    <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="18" t="s">
         <v>56</v>
       </c>
@@ -4371,11 +4381,11 @@
       </c>
       <c r="W43" s="37"/>
       <c r="X43" s="37"/>
-      <c r="Y43" s="34" t="s">
+      <c r="Y43" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4398,7 +4408,7 @@
       <c r="AU43" s="24"/>
       <c r="AV43" s="24"/>
       <c r="AW43" s="24"/>
-      <c r="AX43" s="11"/>
+      <c r="AX43" s="24"/>
       <c r="AY43" s="4"/>
       <c r="AZ43" s="4"/>
       <c r="BA43" s="4"/>
@@ -4407,14 +4417,14 @@
       <c r="BD43" s="4"/>
       <c r="BE43" s="4"/>
     </row>
-    <row r="44" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
+    <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="18" t="s">
         <v>57</v>
       </c>
@@ -4430,21 +4440,21 @@
       </c>
       <c r="Q44" s="21"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="38">
+      <c r="S44" s="45">
         <v>45093</v>
       </c>
-      <c r="T44" s="39"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="38">
+      <c r="T44" s="46"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="45">
         <v>45099</v>
       </c>
-      <c r="W44" s="39"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="50" t="s">
+      <c r="W44" s="46"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="51"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="41"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4467,7 +4477,7 @@
       <c r="AU44" s="24"/>
       <c r="AV44" s="24"/>
       <c r="AW44" s="24"/>
-      <c r="AX44" s="11"/>
+      <c r="AX44" s="24"/>
       <c r="AY44" s="4"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="4"/>
@@ -4476,14 +4486,14 @@
       <c r="BD44" s="4"/>
       <c r="BE44" s="4"/>
     </row>
-    <row r="45" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="57"/>
+    <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="18" t="s">
         <v>58</v>
       </c>
@@ -4499,21 +4509,21 @@
       </c>
       <c r="Q45" s="21"/>
       <c r="R45" s="22"/>
-      <c r="S45" s="38">
+      <c r="S45" s="45">
         <v>45089</v>
       </c>
-      <c r="T45" s="39"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="38">
+      <c r="T45" s="46"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="45">
         <v>45091</v>
       </c>
-      <c r="W45" s="39"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="51"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="41"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4545,14 +4555,14 @@
       <c r="BD45" s="4"/>
       <c r="BE45" s="4"/>
     </row>
-    <row r="46" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
+    <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="18" t="s">
         <v>59</v>
       </c>
@@ -4568,21 +4578,21 @@
       </c>
       <c r="Q46" s="21"/>
       <c r="R46" s="22"/>
-      <c r="S46" s="38">
+      <c r="S46" s="45">
         <v>45089</v>
       </c>
-      <c r="T46" s="39"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="38">
+      <c r="T46" s="46"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="45">
         <v>45091</v>
       </c>
-      <c r="W46" s="39"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="51"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="41"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4614,14 +4624,14 @@
       <c r="BD46" s="4"/>
       <c r="BE46" s="4"/>
     </row>
-    <row r="47" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
+    <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
       <c r="H47" s="18" t="s">
         <v>60</v>
       </c>
@@ -4637,21 +4647,21 @@
       </c>
       <c r="Q47" s="21"/>
       <c r="R47" s="22"/>
-      <c r="S47" s="38">
+      <c r="S47" s="45">
         <v>45089</v>
       </c>
-      <c r="T47" s="39"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="38">
+      <c r="T47" s="46"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="45">
         <v>45093</v>
       </c>
-      <c r="W47" s="39"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="51"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="41"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4663,11 +4673,11 @@
       <c r="AJ47" s="11"/>
       <c r="AK47" s="11"/>
       <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="11"/>
-      <c r="AQ47" s="11"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="24"/>
       <c r="AR47" s="11"/>
       <c r="AS47" s="11"/>
       <c r="AT47" s="11"/>
@@ -4683,14 +4693,14 @@
       <c r="BD47" s="4"/>
       <c r="BE47" s="4"/>
     </row>
-    <row r="48" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="54"/>
+    <row r="48" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
       <c r="H48" s="18" t="s">
         <v>61</v>
       </c>
@@ -4706,21 +4716,21 @@
       </c>
       <c r="Q48" s="21"/>
       <c r="R48" s="22"/>
-      <c r="S48" s="38">
+      <c r="S48" s="45">
         <v>45089</v>
       </c>
-      <c r="T48" s="39"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="38">
+      <c r="T48" s="46"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="45">
         <v>45097</v>
       </c>
-      <c r="W48" s="39"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="51"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="41"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4732,15 +4742,15 @@
       <c r="AJ48" s="11"/>
       <c r="AK48" s="11"/>
       <c r="AL48" s="11"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="11"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="11"/>
-      <c r="AR48" s="11"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
+      <c r="AQ48" s="24"/>
+      <c r="AR48" s="4"/>
       <c r="AS48" s="11"/>
-      <c r="AT48" s="11"/>
-      <c r="AU48" s="11"/>
+      <c r="AT48" s="24"/>
+      <c r="AU48" s="34"/>
       <c r="AV48" s="11"/>
       <c r="AW48" s="11"/>
       <c r="AX48" s="11"/>
@@ -4752,14 +4762,14 @@
       <c r="BD48" s="4"/>
       <c r="BE48" s="4"/>
     </row>
-    <row r="49" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
+    <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
       <c r="H49" s="18" t="s">
         <v>62</v>
       </c>
@@ -4775,21 +4785,21 @@
       </c>
       <c r="Q49" s="21"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="38">
+      <c r="S49" s="45">
         <v>45089</v>
       </c>
-      <c r="T49" s="39"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="38">
+      <c r="T49" s="46"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="45">
         <v>45099</v>
       </c>
-      <c r="W49" s="39"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="51"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="41"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4802,16 +4812,16 @@
       <c r="AK49" s="11"/>
       <c r="AL49" s="11"/>
       <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="11"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="24"/>
+      <c r="AQ49" s="24"/>
+      <c r="AR49" s="4"/>
       <c r="AS49" s="11"/>
-      <c r="AT49" s="11"/>
-      <c r="AU49" s="11"/>
-      <c r="AV49" s="11"/>
-      <c r="AW49" s="11"/>
+      <c r="AT49" s="24"/>
+      <c r="AU49" s="24"/>
+      <c r="AV49" s="24"/>
+      <c r="AW49" s="24"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="4"/>
       <c r="AZ49" s="4"/>
@@ -4821,14 +4831,14 @@
       <c r="BD49" s="4"/>
       <c r="BE49" s="4"/>
     </row>
-    <row r="50" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="54"/>
+    <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="18" t="s">
         <v>63</v>
       </c>
@@ -4844,21 +4854,21 @@
       </c>
       <c r="Q50" s="21"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="38">
+      <c r="S50" s="45">
         <v>45089</v>
       </c>
-      <c r="T50" s="39"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="38">
+      <c r="T50" s="46"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="45">
         <v>45093</v>
       </c>
-      <c r="W50" s="39"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="56">
+      <c r="W50" s="46"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="39">
         <v>0.3</v>
       </c>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="51"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="41"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4890,14 +4900,14 @@
       <c r="BD50" s="4"/>
       <c r="BE50" s="4"/>
     </row>
-    <row r="51" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A51" s="50"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
+    <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="72"/>
       <c r="H51" s="18" t="s">
         <v>64</v>
       </c>
@@ -4913,21 +4923,21 @@
       </c>
       <c r="Q51" s="21"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="38">
+      <c r="S51" s="45">
         <v>45089</v>
       </c>
-      <c r="T51" s="39"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="41">
+      <c r="T51" s="46"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="76">
         <v>45093</v>
       </c>
-      <c r="W51" s="42"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="56">
+      <c r="W51" s="77"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="39">
         <v>0.1</v>
       </c>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="51"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="41"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4959,14 +4969,14 @@
       <c r="BD51" s="4"/>
       <c r="BE51" s="4"/>
     </row>
-    <row r="52" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
+    <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="72"/>
       <c r="H52" s="18" t="s">
         <v>65</v>
       </c>
@@ -4982,21 +4992,21 @@
       </c>
       <c r="Q52" s="21"/>
       <c r="R52" s="22"/>
-      <c r="S52" s="38">
-        <v>45089</v>
-      </c>
-      <c r="T52" s="39"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="41">
-        <v>45093</v>
-      </c>
-      <c r="W52" s="42"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="50" t="s">
+      <c r="S52" s="45">
+        <v>45096</v>
+      </c>
+      <c r="T52" s="46"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="76">
+        <v>45098</v>
+      </c>
+      <c r="W52" s="77"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="51"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="41"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5015,9 +5025,9 @@
       <c r="AQ52" s="11"/>
       <c r="AR52" s="11"/>
       <c r="AS52" s="11"/>
-      <c r="AT52" s="11"/>
-      <c r="AU52" s="11"/>
-      <c r="AV52" s="11"/>
+      <c r="AT52" s="24"/>
+      <c r="AU52" s="24"/>
+      <c r="AV52" s="24"/>
       <c r="AW52" s="11"/>
       <c r="AX52" s="11"/>
       <c r="AY52" s="4"/>
@@ -5028,14 +5038,14 @@
       <c r="BD52" s="4"/>
       <c r="BE52" s="4"/>
     </row>
-    <row r="53" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="54"/>
+    <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72"/>
       <c r="H53" s="18" t="s">
         <v>66</v>
       </c>
@@ -5051,21 +5061,21 @@
       </c>
       <c r="Q53" s="21"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="38">
+      <c r="S53" s="45">
         <v>45089</v>
       </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="41">
+      <c r="T53" s="46"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="76">
         <v>45093</v>
       </c>
-      <c r="W53" s="42"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="56">
+      <c r="W53" s="77"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="39">
         <v>0.3</v>
       </c>
-      <c r="Z53" s="55"/>
-      <c r="AA53" s="51"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="41"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5097,14 +5107,14 @@
       <c r="BD53" s="4"/>
       <c r="BE53" s="4"/>
     </row>
-    <row r="54" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
+    <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72"/>
       <c r="H54" s="18" t="s">
         <v>67</v>
       </c>
@@ -5120,21 +5130,21 @@
       </c>
       <c r="Q54" s="21"/>
       <c r="R54" s="22"/>
-      <c r="S54" s="38">
+      <c r="S54" s="45">
         <v>45089</v>
       </c>
-      <c r="T54" s="39"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="38">
+      <c r="T54" s="46"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="45">
         <v>45096</v>
       </c>
-      <c r="W54" s="39"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="56">
+      <c r="W54" s="46"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="39">
         <v>0.6</v>
       </c>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="51"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="41"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5166,14 +5176,14 @@
       <c r="BD54" s="4"/>
       <c r="BE54" s="4"/>
     </row>
-    <row r="55" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="54"/>
+    <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
       <c r="H55" s="18" t="s">
         <v>69</v>
       </c>
@@ -5189,21 +5199,21 @@
       </c>
       <c r="Q55" s="21"/>
       <c r="R55" s="22"/>
-      <c r="S55" s="38">
+      <c r="S55" s="45">
         <v>45089</v>
       </c>
-      <c r="T55" s="39"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="38">
+      <c r="T55" s="46"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="45">
         <v>45099</v>
       </c>
-      <c r="W55" s="39"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="56">
+      <c r="W55" s="46"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="39">
         <v>0.05</v>
       </c>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="51"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="41"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5235,14 +5245,14 @@
       <c r="BD55" s="4"/>
       <c r="BE55" s="4"/>
     </row>
-    <row r="56" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A56" s="50"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="54"/>
+    <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="18" t="s">
         <v>70</v>
       </c>
@@ -5258,21 +5268,21 @@
       </c>
       <c r="Q56" s="21"/>
       <c r="R56" s="22"/>
-      <c r="S56" s="38">
+      <c r="S56" s="45">
         <v>45089</v>
       </c>
-      <c r="T56" s="39"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="38">
+      <c r="T56" s="46"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="45">
         <v>45099</v>
       </c>
-      <c r="W56" s="39"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="56">
+      <c r="W56" s="46"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="39">
         <v>0.1</v>
       </c>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="51"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="41"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5304,14 +5314,14 @@
       <c r="BD56" s="4"/>
       <c r="BE56" s="4"/>
     </row>
-    <row r="57" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A57" s="50"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="54"/>
+    <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="72"/>
       <c r="H57" s="18" t="s">
         <v>71</v>
       </c>
@@ -5327,21 +5337,21 @@
       </c>
       <c r="Q57" s="21"/>
       <c r="R57" s="22"/>
-      <c r="S57" s="38">
-        <v>45089</v>
-      </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="38">
-        <v>45099</v>
-      </c>
-      <c r="W57" s="39"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="51"/>
+      <c r="S57" s="45">
+        <v>45090</v>
+      </c>
+      <c r="T57" s="46"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="45">
+        <v>45093</v>
+      </c>
+      <c r="W57" s="46"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="41"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5354,10 +5364,10 @@
       <c r="AK57" s="11"/>
       <c r="AL57" s="11"/>
       <c r="AM57" s="27"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="11"/>
-      <c r="AQ57" s="11"/>
+      <c r="AN57" s="26"/>
+      <c r="AO57" s="26"/>
+      <c r="AP57" s="26"/>
+      <c r="AQ57" s="26"/>
       <c r="AR57" s="11"/>
       <c r="AS57" s="11"/>
       <c r="AT57" s="11"/>
@@ -5373,14 +5383,14 @@
       <c r="BD57" s="4"/>
       <c r="BE57" s="4"/>
     </row>
-    <row r="58" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A58" s="50"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
+    <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="18" t="s">
         <v>72</v>
       </c>
@@ -5396,21 +5406,21 @@
       </c>
       <c r="Q58" s="21"/>
       <c r="R58" s="22"/>
-      <c r="S58" s="38">
+      <c r="S58" s="45">
         <v>45089</v>
       </c>
-      <c r="T58" s="39"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="38">
+      <c r="T58" s="46"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="45">
         <v>45099</v>
       </c>
-      <c r="W58" s="39"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="56">
+      <c r="W58" s="46"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="39">
         <v>0.5</v>
       </c>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="51"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="41"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5442,14 +5452,14 @@
       <c r="BD58" s="4"/>
       <c r="BE58" s="4"/>
     </row>
-    <row r="59" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A59" s="50"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
+    <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="18" t="s">
         <v>73</v>
       </c>
@@ -5465,21 +5475,21 @@
       </c>
       <c r="Q59" s="21"/>
       <c r="R59" s="22"/>
-      <c r="S59" s="38">
-        <v>45091</v>
-      </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="38">
-        <v>45093</v>
-      </c>
-      <c r="W59" s="39"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="51"/>
+      <c r="S59" s="45">
+        <v>45090</v>
+      </c>
+      <c r="T59" s="46"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="45">
+        <v>45090</v>
+      </c>
+      <c r="W59" s="46"/>
+      <c r="X59" s="47"/>
+      <c r="Y59" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="41"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5492,8 +5502,8 @@
       <c r="AK59" s="11"/>
       <c r="AL59" s="11"/>
       <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="11"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="14"/>
       <c r="AP59" s="11"/>
       <c r="AQ59" s="11"/>
       <c r="AR59" s="11"/>
@@ -5511,14 +5521,14 @@
       <c r="BD59" s="4"/>
       <c r="BE59" s="4"/>
     </row>
-    <row r="60" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A60" s="50"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="54"/>
+    <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="18" t="s">
         <v>74</v>
       </c>
@@ -5534,21 +5544,21 @@
       </c>
       <c r="Q60" s="21"/>
       <c r="R60" s="22"/>
-      <c r="S60" s="38">
+      <c r="S60" s="45">
         <v>45094</v>
       </c>
-      <c r="T60" s="39"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="38">
+      <c r="T60" s="46"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="45">
         <v>45100</v>
       </c>
-      <c r="W60" s="39"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="50" t="s">
+      <c r="W60" s="46"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="51"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="41"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5580,14 +5590,14 @@
       <c r="BD60" s="4"/>
       <c r="BE60" s="4"/>
     </row>
-    <row r="61" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="54"/>
+    <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="43"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
       <c r="H61" s="18" t="s">
         <v>75</v>
       </c>
@@ -5603,21 +5613,21 @@
       </c>
       <c r="Q61" s="21"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="38">
+      <c r="S61" s="45">
         <v>45089</v>
       </c>
-      <c r="T61" s="39"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="38">
+      <c r="T61" s="46"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="45">
         <v>45100</v>
       </c>
-      <c r="W61" s="39"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="56">
+      <c r="W61" s="46"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="39">
         <v>0.8</v>
       </c>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="51"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="41"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5649,14 +5659,14 @@
       <c r="BD61" s="4"/>
       <c r="BE61" s="4"/>
     </row>
-    <row r="62" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="54"/>
+    <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="43"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="72"/>
       <c r="H62" s="18" t="s">
         <v>76</v>
       </c>
@@ -5672,21 +5682,21 @@
       </c>
       <c r="Q62" s="21"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="38">
+      <c r="S62" s="45">
         <v>45090</v>
       </c>
-      <c r="T62" s="39"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="38">
+      <c r="T62" s="46"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="45">
         <v>45093</v>
       </c>
-      <c r="W62" s="39"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="50" t="s">
+      <c r="W62" s="46"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="51"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="41"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5718,14 +5728,14 @@
       <c r="BD62" s="4"/>
       <c r="BE62" s="4"/>
     </row>
-    <row r="63" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="54"/>
+    <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="43"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="72"/>
       <c r="H63" s="18" t="s">
         <v>77</v>
       </c>
@@ -5741,21 +5751,21 @@
       </c>
       <c r="Q63" s="21"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="38">
+      <c r="S63" s="45">
         <v>45089</v>
       </c>
-      <c r="T63" s="39"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="38">
+      <c r="T63" s="46"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="45">
         <v>45100</v>
       </c>
-      <c r="W63" s="39"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="Z63" s="55"/>
-      <c r="AA63" s="51"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="41"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5787,14 +5797,14 @@
       <c r="BD63" s="4"/>
       <c r="BE63" s="4"/>
     </row>
-    <row r="64" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
+    <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="18" t="s">
         <v>78</v>
       </c>
@@ -5810,21 +5820,21 @@
       </c>
       <c r="Q64" s="21"/>
       <c r="R64" s="22"/>
-      <c r="S64" s="38">
-        <v>45089</v>
-      </c>
-      <c r="T64" s="39"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="38">
-        <v>45099</v>
-      </c>
-      <c r="W64" s="39"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="51"/>
+      <c r="S64" s="45">
+        <v>45090</v>
+      </c>
+      <c r="T64" s="46"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="45">
+        <v>45091</v>
+      </c>
+      <c r="W64" s="46"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="41"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5837,10 +5847,10 @@
       <c r="AK64" s="11"/>
       <c r="AL64" s="11"/>
       <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
+      <c r="AN64" s="24"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
       <c r="AR64" s="11"/>
       <c r="AS64" s="11"/>
       <c r="AT64" s="11"/>
@@ -5856,14 +5866,14 @@
       <c r="BD64" s="4"/>
       <c r="BE64" s="4"/>
     </row>
-    <row r="65" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A65" s="50"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="54"/>
+    <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="72"/>
       <c r="H65" s="18" t="s">
         <v>79</v>
       </c>
@@ -5879,21 +5889,21 @@
       </c>
       <c r="Q65" s="21"/>
       <c r="R65" s="22"/>
-      <c r="S65" s="38">
-        <v>45089</v>
-      </c>
-      <c r="T65" s="39"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="41">
+      <c r="S65" s="45">
+        <v>45096</v>
+      </c>
+      <c r="T65" s="46"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="76">
         <v>45099</v>
       </c>
-      <c r="W65" s="42"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="44" t="s">
+      <c r="W65" s="77"/>
+      <c r="X65" s="78"/>
+      <c r="Y65" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="46"/>
+      <c r="Z65" s="80"/>
+      <c r="AA65" s="81"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5912,9 +5922,9 @@
       <c r="AQ65" s="11"/>
       <c r="AR65" s="11"/>
       <c r="AS65" s="11"/>
-      <c r="AT65" s="11"/>
-      <c r="AU65" s="11"/>
-      <c r="AV65" s="11"/>
+      <c r="AT65" s="24"/>
+      <c r="AU65" s="24"/>
+      <c r="AV65" s="24"/>
       <c r="AW65" s="11"/>
       <c r="AX65" s="11"/>
       <c r="AY65" s="4"/>
@@ -5925,14 +5935,14 @@
       <c r="BD65" s="4"/>
       <c r="BE65" s="4"/>
     </row>
-    <row r="66" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
+    <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="43"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="72"/>
       <c r="H66" s="18" t="s">
         <v>80</v>
       </c>
@@ -5948,21 +5958,21 @@
       </c>
       <c r="Q66" s="21"/>
       <c r="R66" s="22"/>
-      <c r="S66" s="38">
-        <v>45089</v>
-      </c>
-      <c r="T66" s="39"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="41">
+      <c r="S66" s="45">
+        <v>45096</v>
+      </c>
+      <c r="T66" s="46"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="76">
         <v>45099</v>
       </c>
-      <c r="W66" s="42"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="44" t="s">
+      <c r="W66" s="77"/>
+      <c r="X66" s="78"/>
+      <c r="Y66" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z66" s="45"/>
-      <c r="AA66" s="46"/>
+      <c r="Z66" s="80"/>
+      <c r="AA66" s="81"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5981,9 +5991,9 @@
       <c r="AQ66" s="11"/>
       <c r="AR66" s="11"/>
       <c r="AS66" s="11"/>
-      <c r="AT66" s="11"/>
-      <c r="AU66" s="11"/>
-      <c r="AV66" s="11"/>
+      <c r="AT66" s="26"/>
+      <c r="AU66" s="26"/>
+      <c r="AV66" s="26"/>
       <c r="AW66" s="11"/>
       <c r="AX66" s="11"/>
       <c r="AY66" s="4"/>
@@ -5994,14 +6004,14 @@
       <c r="BD66" s="4"/>
       <c r="BE66" s="4"/>
     </row>
-    <row r="67" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+    <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
       <c r="H67" s="18" t="s">
         <v>81</v>
       </c>
@@ -6017,21 +6027,21 @@
       </c>
       <c r="Q67" s="21"/>
       <c r="R67" s="22"/>
-      <c r="S67" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="41">
+      <c r="S67" s="76">
+        <v>45096</v>
+      </c>
+      <c r="T67" s="77"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="76">
         <v>45099</v>
       </c>
-      <c r="W67" s="42"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="44" t="s">
+      <c r="W67" s="77"/>
+      <c r="X67" s="78"/>
+      <c r="Y67" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z67" s="45"/>
-      <c r="AA67" s="46"/>
+      <c r="Z67" s="80"/>
+      <c r="AA67" s="81"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6050,9 +6060,9 @@
       <c r="AQ67" s="11"/>
       <c r="AR67" s="11"/>
       <c r="AS67" s="11"/>
-      <c r="AT67" s="11"/>
-      <c r="AU67" s="11"/>
-      <c r="AV67" s="11"/>
+      <c r="AT67" s="26"/>
+      <c r="AU67" s="26"/>
+      <c r="AV67" s="26"/>
       <c r="AW67" s="11"/>
       <c r="AX67" s="11"/>
       <c r="AY67" s="4"/>
@@ -6063,14 +6073,14 @@
       <c r="BD67" s="4"/>
       <c r="BE67" s="4"/>
     </row>
-    <row r="68" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
+    <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="18" t="s">
         <v>82</v>
       </c>
@@ -6086,21 +6096,21 @@
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="22"/>
-      <c r="S68" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="41">
+      <c r="S68" s="76">
+        <v>45096</v>
+      </c>
+      <c r="T68" s="77"/>
+      <c r="U68" s="78"/>
+      <c r="V68" s="76">
         <v>45099</v>
       </c>
-      <c r="W68" s="42"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="44" t="s">
+      <c r="W68" s="77"/>
+      <c r="X68" s="78"/>
+      <c r="Y68" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z68" s="45"/>
-      <c r="AA68" s="46"/>
+      <c r="Z68" s="80"/>
+      <c r="AA68" s="81"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6119,9 +6129,9 @@
       <c r="AQ68" s="11"/>
       <c r="AR68" s="11"/>
       <c r="AS68" s="11"/>
-      <c r="AT68" s="11"/>
-      <c r="AU68" s="11"/>
-      <c r="AV68" s="11"/>
+      <c r="AT68" s="26"/>
+      <c r="AU68" s="26"/>
+      <c r="AV68" s="26"/>
       <c r="AW68" s="11"/>
       <c r="AX68" s="11"/>
       <c r="AY68" s="4"/>
@@ -6132,14 +6142,14 @@
       <c r="BD68" s="4"/>
       <c r="BE68" s="4"/>
     </row>
-    <row r="69" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
+    <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
       <c r="H69" s="18" t="s">
         <v>83</v>
       </c>
@@ -6160,16 +6170,16 @@
       </c>
       <c r="T69" s="37"/>
       <c r="U69" s="37"/>
-      <c r="V69" s="41">
+      <c r="V69" s="76">
         <v>45099</v>
       </c>
-      <c r="W69" s="42"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="44" t="s">
+      <c r="W69" s="77"/>
+      <c r="X69" s="78"/>
+      <c r="Y69" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z69" s="45"/>
-      <c r="AA69" s="46"/>
+      <c r="Z69" s="80"/>
+      <c r="AA69" s="81"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6201,14 +6211,14 @@
       <c r="BD69" s="4"/>
       <c r="BE69" s="4"/>
     </row>
-    <row r="70" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
+    <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
       <c r="H70" s="18" t="s">
         <v>84</v>
       </c>
@@ -6229,16 +6239,16 @@
       </c>
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
-      <c r="V70" s="41">
+      <c r="V70" s="76">
         <v>45099</v>
       </c>
-      <c r="W70" s="42"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="44" t="s">
+      <c r="W70" s="77"/>
+      <c r="X70" s="78"/>
+      <c r="Y70" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z70" s="45"/>
-      <c r="AA70" s="46"/>
+      <c r="Z70" s="80"/>
+      <c r="AA70" s="81"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6270,14 +6280,14 @@
       <c r="BD70" s="4"/>
       <c r="BE70" s="4"/>
     </row>
-    <row r="71" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
+    <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
       <c r="H71" s="18" t="s">
         <v>85</v>
       </c>
@@ -6298,16 +6308,16 @@
       </c>
       <c r="T71" s="37"/>
       <c r="U71" s="37"/>
-      <c r="V71" s="41">
+      <c r="V71" s="76">
         <v>45099</v>
       </c>
-      <c r="W71" s="42"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="44" t="s">
+      <c r="W71" s="77"/>
+      <c r="X71" s="78"/>
+      <c r="Y71" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Z71" s="45"/>
-      <c r="AA71" s="46"/>
+      <c r="Z71" s="80"/>
+      <c r="AA71" s="81"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6339,14 +6349,14 @@
       <c r="BD71" s="4"/>
       <c r="BE71" s="4"/>
     </row>
-    <row r="72" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
+    <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
       <c r="H72" s="18" t="s">
         <v>86</v>
       </c>
@@ -6363,20 +6373,20 @@
       <c r="Q72" s="21"/>
       <c r="R72" s="22"/>
       <c r="S72" s="37">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="T72" s="37"/>
       <c r="U72" s="37"/>
-      <c r="V72" s="41">
-        <v>45099</v>
-      </c>
-      <c r="W72" s="42"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z72" s="45"/>
-      <c r="AA72" s="46"/>
+      <c r="V72" s="76">
+        <v>45093</v>
+      </c>
+      <c r="W72" s="77"/>
+      <c r="X72" s="78"/>
+      <c r="Y72" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="Z72" s="80"/>
+      <c r="AA72" s="81"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6389,10 +6399,10 @@
       <c r="AK72" s="11"/>
       <c r="AL72" s="11"/>
       <c r="AM72" s="11"/>
-      <c r="AN72" s="11"/>
-      <c r="AO72" s="11"/>
-      <c r="AP72" s="11"/>
-      <c r="AQ72" s="11"/>
+      <c r="AN72" s="26"/>
+      <c r="AO72" s="26"/>
+      <c r="AP72" s="26"/>
+      <c r="AQ72" s="26"/>
       <c r="AR72" s="11"/>
       <c r="AS72" s="11"/>
       <c r="AT72" s="11"/>
@@ -6408,25 +6418,25 @@
       <c r="BD72" s="4"/>
       <c r="BE72" s="4"/>
     </row>
-    <row r="73" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
+    <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
       <c r="S73" s="37">
         <v>45089</v>
       </c>
@@ -6435,9 +6445,9 @@
       <c r="V73" s="37"/>
       <c r="W73" s="37"/>
       <c r="X73" s="37"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6469,34 +6479,34 @@
       <c r="BD73" s="4"/>
       <c r="BE73" s="4"/>
     </row>
-    <row r="74" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
+    <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
       <c r="V74" s="37"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6528,27 +6538,27 @@
       <c r="BD74" s="4"/>
       <c r="BE74" s="4"/>
     </row>
-    <row r="75" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="35" t="s">
+    <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
       <c r="S75" s="37">
         <v>45103</v>
       </c>
@@ -6557,9 +6567,9 @@
       <c r="V75" s="37"/>
       <c r="W75" s="37"/>
       <c r="X75" s="37"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6591,27 +6601,27 @@
       <c r="BD75" s="9"/>
       <c r="BE75" s="4"/>
     </row>
-    <row r="76" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="35" t="s">
+    <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
       <c r="S76" s="37">
         <v>45103</v>
       </c>
@@ -6620,9 +6630,9 @@
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
       <c r="X76" s="37"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6654,27 +6664,27 @@
       <c r="BD76" s="9"/>
       <c r="BE76" s="4"/>
     </row>
-    <row r="77" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="35" t="s">
+    <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
       <c r="S77" s="37">
         <v>45103</v>
       </c>
@@ -6683,9 +6693,9 @@
       <c r="V77" s="37"/>
       <c r="W77" s="37"/>
       <c r="X77" s="37"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6717,34 +6727,34 @@
       <c r="BD77" s="9"/>
       <c r="BE77" s="4"/>
     </row>
-    <row r="78" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
+    <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
       <c r="S78" s="37"/>
       <c r="T78" s="37"/>
       <c r="U78" s="37"/>
       <c r="V78" s="37"/>
       <c r="W78" s="37"/>
       <c r="X78" s="37"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6776,34 +6786,34 @@
       <c r="BD78" s="4"/>
       <c r="BE78" s="4"/>
     </row>
-    <row r="79" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
+    <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
       <c r="S79" s="37"/>
       <c r="T79" s="37"/>
       <c r="U79" s="37"/>
       <c r="V79" s="37"/>
       <c r="W79" s="37"/>
       <c r="X79" s="37"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6835,27 +6845,27 @@
       <c r="BD79" s="4"/>
       <c r="BE79" s="4"/>
     </row>
-    <row r="80" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="35" t="s">
+    <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="71"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="72"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
       <c r="S80" s="37">
         <v>45107</v>
       </c>
@@ -6866,11 +6876,11 @@
       </c>
       <c r="W80" s="37"/>
       <c r="X80" s="37"/>
-      <c r="Y80" s="34" t="s">
+      <c r="Y80" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z80" s="34"/>
-      <c r="AA80" s="34"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6902,34 +6912,34 @@
       <c r="BD80" s="4"/>
       <c r="BE80" s="10"/>
     </row>
-    <row r="81" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
+    <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="71"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="72"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
       <c r="S81" s="37"/>
       <c r="T81" s="37"/>
       <c r="U81" s="37"/>
       <c r="V81" s="37"/>
       <c r="W81" s="37"/>
       <c r="X81" s="37"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
-      <c r="AA81" s="34"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6961,34 +6971,34 @@
       <c r="BD81" s="4"/>
       <c r="BE81" s="4"/>
     </row>
-    <row r="82" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
+    <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
       <c r="S82" s="37"/>
       <c r="T82" s="37"/>
       <c r="U82" s="37"/>
       <c r="V82" s="37"/>
       <c r="W82" s="37"/>
       <c r="X82" s="37"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -7020,34 +7030,34 @@
       <c r="BD82" s="4"/>
       <c r="BE82" s="4"/>
     </row>
-    <row r="83" spans="1:57" ht="18.75" customHeight="1">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
+    <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
       <c r="S83" s="37"/>
       <c r="T83" s="37"/>
       <c r="U83" s="37"/>
       <c r="V83" s="37"/>
       <c r="W83" s="37"/>
       <c r="X83" s="37"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -7079,58 +7089,406 @@
       <c r="BD83" s="4"/>
       <c r="BE83" s="4"/>
     </row>
-    <row r="84" spans="1:57" ht="18.75" customHeight="1"/>
-    <row r="85" spans="1:57" ht="18.75" customHeight="1"/>
-    <row r="86" spans="1:57" ht="18.75" customHeight="1"/>
-    <row r="87" spans="1:57" ht="18.75" customHeight="1"/>
-    <row r="88" spans="1:57" ht="18.75" customHeight="1"/>
-    <row r="89" spans="1:57" ht="18.75" customHeight="1"/>
-    <row r="90" spans="1:57" ht="18.75" customHeight="1"/>
+    <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="460">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="A14:B14"/>
@@ -7155,399 +7513,51 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:O13"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="S25:U25"/>
     <mergeCell ref="V25:X25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:O82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="S66:U66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/D2_進捗管理表.xlsx
+++ b/doc/D2_進捗管理表.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B469497-93AF-4441-8D12-EDE934530C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C38E288-52BA-4EA7-B20B-E740273F48E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体進捗状況" sheetId="4" r:id="rId1"/>
     <sheet name="本日取り組んだ内容" sheetId="5" r:id="rId2"/>
     <sheet name="omake" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="予実グラフ" sheetId="8" r:id="rId5"/>
+    <sheet name="予実グラフ" sheetId="8" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">omake!$B$2:$E$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全体進捗状況!$P$4:$R$72</definedName>
@@ -1469,7 +1471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1921,6 +1923,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2242,13 +2247,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8768850927532362E-2"/>
+          <c:y val="0.19549228944246741"/>
+          <c:w val="0.87015770274478399"/>
+          <c:h val="0.60012628314699101"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>日付</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2275,7 +2293,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>予実グラフ!$B$2:$R$2</c:f>
+              <c:f>[1]予実グラフ!$B$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2335,7 +2353,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>予実グラフ!$B$2:$R$2</c:f>
+              <c:f>[1]予実グラフ!$B$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2396,13 +2414,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-841C-4B72-96A6-C9E399A35DC0}"/>
+              <c16:uniqueId val="{00000000-BAC6-4D01-ACF6-9AD29CE5C5F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>進捗率</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2429,7 +2450,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>予実グラフ!$B$2:$R$2</c:f>
+              <c:f>[1]予実グラフ!$B$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2489,9 +2510,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>予実グラフ!$B$3:$R$3</c:f>
+              <c:f>[1]予実グラフ!$B$3:$R$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.46296296296296297</c:v>
@@ -2550,13 +2571,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-841C-4B72-96A6-C9E399A35DC0}"/>
+              <c16:uniqueId val="{00000001-BAC6-4D01-ACF6-9AD29CE5C5F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>予定進捗率</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2583,7 +2607,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>予実グラフ!$B$2:$R$2</c:f>
+              <c:f>[1]予実グラフ!$B$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2643,9 +2667,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>予実グラフ!$B$4:$R$4</c:f>
+              <c:f>[1]予実グラフ!$B$4:$R$4</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
@@ -2704,7 +2728,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-841C-4B72-96A6-C9E399A35DC0}"/>
+              <c16:uniqueId val="{00000002-BAC6-4D01-ACF6-9AD29CE5C5F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2794,7 +2818,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2839,6 +2863,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3452,27 +3480,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="グラフ 1">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15469D12-6DE9-DC5C-1E27-B6E86A72CE2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635434A9-F556-404C-9983-F0F0FBF2AAD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3487,6 +3517,190 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="全体進捗状況"/>
+      <sheetName val="本日取り組んだ内容"/>
+      <sheetName val="omake"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="予実グラフ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>14</v>
+          </cell>
+          <cell r="C2">
+            <v>15</v>
+          </cell>
+          <cell r="D2">
+            <v>16</v>
+          </cell>
+          <cell r="E2">
+            <v>17</v>
+          </cell>
+          <cell r="F2">
+            <v>18</v>
+          </cell>
+          <cell r="G2">
+            <v>19</v>
+          </cell>
+          <cell r="H2">
+            <v>20</v>
+          </cell>
+          <cell r="I2">
+            <v>21</v>
+          </cell>
+          <cell r="J2">
+            <v>22</v>
+          </cell>
+          <cell r="K2">
+            <v>23</v>
+          </cell>
+          <cell r="L2">
+            <v>24</v>
+          </cell>
+          <cell r="M2">
+            <v>25</v>
+          </cell>
+          <cell r="N2">
+            <v>26</v>
+          </cell>
+          <cell r="O2">
+            <v>27</v>
+          </cell>
+          <cell r="P2">
+            <v>28</v>
+          </cell>
+          <cell r="Q2">
+            <v>29</v>
+          </cell>
+          <cell r="R2">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.46296296296296297</v>
+          </cell>
+          <cell r="C3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="D3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="E3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="F3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="G3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="H3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="I3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="J3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="K3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="L3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="M3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="N3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="O3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="P3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.58367003367003367</v>
+          </cell>
+          <cell r="R3">
+            <v>0.58367003367003367</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.3</v>
+          </cell>
+          <cell r="C4">
+            <v>0.35</v>
+          </cell>
+          <cell r="D4">
+            <v>0.4</v>
+          </cell>
+          <cell r="E4">
+            <v>0.4</v>
+          </cell>
+          <cell r="F4">
+            <v>0.4</v>
+          </cell>
+          <cell r="G4">
+            <v>0.5</v>
+          </cell>
+          <cell r="H4">
+            <v>0.6</v>
+          </cell>
+          <cell r="I4">
+            <v>0.7</v>
+          </cell>
+          <cell r="J4">
+            <v>0.8</v>
+          </cell>
+          <cell r="K4">
+            <v>0.95</v>
+          </cell>
+          <cell r="L4">
+            <v>0.95</v>
+          </cell>
+          <cell r="M4">
+            <v>0.95</v>
+          </cell>
+          <cell r="N4">
+            <v>0.97</v>
+          </cell>
+          <cell r="O4">
+            <v>0.98</v>
+          </cell>
+          <cell r="P4">
+            <v>0.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>1</v>
+          </cell>
+          <cell r="R4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3754,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView showGridLines="0" topLeftCell="H26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35:AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3776,151 +3990,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="194" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="196"/>
-      <c r="AH1" s="188" t="s">
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="189"/>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="190"/>
-      <c r="AL1" s="185">
+      <c r="AI1" s="190"/>
+      <c r="AJ1" s="190"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="186">
         <v>45078</v>
       </c>
-      <c r="AM1" s="186"/>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="186"/>
-      <c r="AP1" s="186"/>
-      <c r="AQ1" s="186"/>
-      <c r="AR1" s="187"/>
+      <c r="AM1" s="187"/>
+      <c r="AN1" s="187"/>
+      <c r="AO1" s="187"/>
+      <c r="AP1" s="187"/>
+      <c r="AQ1" s="187"/>
+      <c r="AR1" s="188"/>
     </row>
     <row r="2" spans="1:63" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="183"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="188" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="189"/>
-      <c r="AK2" s="190"/>
-      <c r="AL2" s="185">
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="186">
         <v>45107</v>
       </c>
-      <c r="AM2" s="186"/>
-      <c r="AN2" s="186"/>
-      <c r="AO2" s="186"/>
-      <c r="AP2" s="186"/>
-      <c r="AQ2" s="186"/>
-      <c r="AR2" s="187"/>
+      <c r="AM2" s="187"/>
+      <c r="AN2" s="187"/>
+      <c r="AO2" s="187"/>
+      <c r="AP2" s="187"/>
+      <c r="AQ2" s="187"/>
+      <c r="AR2" s="188"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="193" t="s">
+      <c r="B4" s="193"/>
+      <c r="C4" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="192" t="s">
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="192"/>
-      <c r="R4" s="192"/>
-      <c r="S4" s="192" t="s">
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="192"/>
-      <c r="U4" s="192"/>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192"/>
-      <c r="X4" s="192"/>
-      <c r="Y4" s="191" t="s">
+      <c r="T4" s="193"/>
+      <c r="U4" s="193"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="193"/>
+      <c r="X4" s="193"/>
+      <c r="Y4" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="192"/>
       <c r="AB4" s="122"/>
       <c r="AC4" s="139"/>
       <c r="AD4" s="122"/>
-      <c r="AE4" s="200" t="s">
+      <c r="AE4" s="201" t="s">
         <v>9</v>
       </c>
       <c r="AF4" s="7">
@@ -4047,41 +4261,41 @@
       <c r="BK4" s="3"/>
     </row>
     <row r="5" spans="1:63" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="192"/>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192" t="s">
+      <c r="A5" s="193"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192" t="s">
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="192"/>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="192"/>
-      <c r="S5" s="192" t="s">
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="192"/>
-      <c r="U5" s="192"/>
-      <c r="V5" s="192" t="s">
+      <c r="T5" s="193"/>
+      <c r="U5" s="193"/>
+      <c r="V5" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="192"/>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="191"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
+      <c r="W5" s="193"/>
+      <c r="X5" s="193"/>
+      <c r="Y5" s="192"/>
+      <c r="Z5" s="192"/>
+      <c r="AA5" s="192"/>
       <c r="AB5" s="123" t="s">
         <v>12</v>
       </c>
@@ -4091,7 +4305,7 @@
       <c r="AD5" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="201"/>
+      <c r="AE5" s="202"/>
       <c r="AF5" s="5">
         <f>AL1</f>
         <v>45078</v>
@@ -4214,37 +4428,37 @@
       </c>
     </row>
     <row r="6" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="192"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="192"/>
-      <c r="S6" s="192"/>
-      <c r="T6" s="192"/>
-      <c r="U6" s="192"/>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192"/>
-      <c r="X6" s="192"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="192"/>
       <c r="AB6" s="124"/>
       <c r="AC6" s="141"/>
       <c r="AD6" s="124"/>
-      <c r="AE6" s="202"/>
+      <c r="AE6" s="203"/>
       <c r="AF6" s="6" t="str">
         <f>TEXT(AF5,"aaa")</f>
         <v>木</v>
@@ -4367,45 +4581,45 @@
       </c>
     </row>
     <row r="7" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="152" t="s">
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="165" t="s">
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="152" t="s">
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="153">
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="154">
         <v>45079</v>
       </c>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153">
+      <c r="T7" s="154"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="154">
         <v>45082</v>
       </c>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="154" t="s">
+      <c r="W7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="155"/>
       <c r="AB7" s="128">
         <v>1</v>
       </c>
@@ -4445,43 +4659,43 @@
       <c r="BI7" s="4"/>
     </row>
     <row r="8" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="165" t="s">
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="165" t="s">
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="155">
+      <c r="Q8" s="175"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="156">
         <v>45078</v>
       </c>
-      <c r="T8" s="156"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="155">
+      <c r="T8" s="157"/>
+      <c r="U8" s="158"/>
+      <c r="V8" s="156">
         <v>45082</v>
       </c>
-      <c r="W8" s="156"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="165" t="s">
+      <c r="W8" s="157"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="166"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="167"/>
       <c r="AB8" s="135">
         <v>1</v>
       </c>
@@ -4524,43 +4738,43 @@
       <c r="BI8" s="4"/>
     </row>
     <row r="9" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="165"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="165" t="s">
+      <c r="A9" s="166"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="165" t="s">
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="155">
+      <c r="Q9" s="175"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="156">
         <v>45078</v>
       </c>
-      <c r="T9" s="156"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="155">
+      <c r="T9" s="157"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="156">
         <v>45079</v>
       </c>
-      <c r="W9" s="156"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="165" t="s">
+      <c r="W9" s="157"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="166"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="167"/>
       <c r="AB9" s="135">
         <v>1</v>
       </c>
@@ -4603,43 +4817,43 @@
       <c r="BI9" s="4"/>
     </row>
     <row r="10" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="165"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="165" t="s">
+      <c r="A10" s="166"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="165" t="s">
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="155">
+      <c r="Q10" s="175"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="156">
         <v>45079</v>
       </c>
-      <c r="T10" s="156"/>
-      <c r="U10" s="157"/>
-      <c r="V10" s="155">
+      <c r="T10" s="157"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="156">
         <v>45082</v>
       </c>
-      <c r="W10" s="156"/>
-      <c r="X10" s="157"/>
-      <c r="Y10" s="165" t="s">
+      <c r="W10" s="157"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="166"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="167"/>
       <c r="AB10" s="135">
         <v>1</v>
       </c>
@@ -4682,33 +4896,33 @@
       <c r="BI10" s="4"/>
     </row>
     <row r="11" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="165"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="174"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="166"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="167"/>
       <c r="AB11" s="135"/>
       <c r="AC11" s="145"/>
       <c r="AD11" s="29"/>
@@ -4745,45 +4959,45 @@
       <c r="BI11" s="4"/>
     </row>
     <row r="12" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="152" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="151" t="s">
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151" t="s">
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="153">
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="154">
         <v>45083</v>
       </c>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153">
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154">
         <v>45085</v>
       </c>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="154" t="s">
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
       <c r="AB12" s="135">
         <v>1</v>
       </c>
@@ -4826,43 +5040,43 @@
       <c r="BI12" s="4"/>
     </row>
     <row r="13" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="165" t="s">
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="151" t="s">
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="153">
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="154">
         <v>45083</v>
       </c>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153">
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154">
         <v>45084</v>
       </c>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="154" t="s">
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="154"/>
-      <c r="AA13" s="154"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
       <c r="AB13" s="135">
         <v>1</v>
       </c>
@@ -4905,43 +5119,43 @@
       <c r="BI13" s="4"/>
     </row>
     <row r="14" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="165" t="s">
+      <c r="A14" s="155"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="151" t="s">
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="153">
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="154">
         <v>45083</v>
       </c>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153">
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154">
         <v>45085</v>
       </c>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="154" t="s">
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
       <c r="AB14" s="135">
         <v>1</v>
       </c>
@@ -4984,43 +5198,43 @@
       <c r="BI14" s="4"/>
     </row>
     <row r="15" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="165" t="s">
+      <c r="A15" s="166"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="165" t="s">
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="155">
+      <c r="Q15" s="175"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="156">
         <v>45084</v>
       </c>
-      <c r="T15" s="156"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="155">
+      <c r="T15" s="157"/>
+      <c r="U15" s="158"/>
+      <c r="V15" s="156">
         <v>45085</v>
       </c>
-      <c r="W15" s="156"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="178" t="s">
+      <c r="W15" s="157"/>
+      <c r="X15" s="158"/>
+      <c r="Y15" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
       <c r="AB15" s="135">
         <v>1</v>
       </c>
@@ -5063,43 +5277,43 @@
       <c r="BI15" s="4"/>
     </row>
     <row r="16" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="165" t="s">
+      <c r="A16" s="166"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="174"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="165" t="s">
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="155">
+      <c r="Q16" s="175"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="156">
         <v>45084</v>
       </c>
-      <c r="T16" s="156"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="153">
+      <c r="T16" s="157"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="154">
         <v>45085</v>
       </c>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="154" t="s">
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="154"/>
-      <c r="AA16" s="154"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
       <c r="AB16" s="135">
         <v>1</v>
       </c>
@@ -5142,43 +5356,43 @@
       <c r="BI16" s="4"/>
     </row>
     <row r="17" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="151" t="s">
+      <c r="A17" s="155"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151" t="s">
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="153">
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="154">
         <v>45084</v>
       </c>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153">
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154">
         <v>45084</v>
       </c>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="154" t="s">
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z17" s="154"/>
-      <c r="AA17" s="154"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
       <c r="AB17" s="135">
         <v>1</v>
       </c>
@@ -5221,33 +5435,33 @@
       <c r="BI17" s="4"/>
     </row>
     <row r="18" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="152"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
       <c r="AB18" s="135"/>
       <c r="AC18" s="144"/>
       <c r="AD18" s="6"/>
@@ -5284,35 +5498,35 @@
       <c r="BI18" s="4"/>
     </row>
     <row r="19" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="152" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="154"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
       <c r="AB19" s="135"/>
       <c r="AC19" s="144"/>
       <c r="AD19" s="6"/>
@@ -5349,43 +5563,43 @@
       <c r="BI19" s="4"/>
     </row>
     <row r="20" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="165" t="s">
+      <c r="A20" s="166"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="174"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="165" t="s">
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="155">
+      <c r="Q20" s="175"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="156">
         <v>45086</v>
       </c>
-      <c r="T20" s="156"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="155">
+      <c r="T20" s="157"/>
+      <c r="U20" s="158"/>
+      <c r="V20" s="156">
         <v>45086</v>
       </c>
-      <c r="W20" s="156"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="173" t="s">
+      <c r="W20" s="157"/>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="166"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="167"/>
       <c r="AB20" s="135">
         <v>1</v>
       </c>
@@ -5428,43 +5642,43 @@
       <c r="BI20" s="4"/>
     </row>
     <row r="21" spans="1:61" ht="16" x14ac:dyDescent="0.3">
-      <c r="A21" s="154"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="151" t="s">
+      <c r="A21" s="155"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151" t="s">
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="153">
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="154">
         <v>45086</v>
       </c>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="153">
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154">
         <v>45086</v>
       </c>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="154" t="s">
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="154"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
       <c r="AB21" s="135">
         <v>1</v>
       </c>
@@ -5507,33 +5721,33 @@
       <c r="BI21" s="4"/>
     </row>
     <row r="22" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="154"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="144"/>
       <c r="AD22" s="6"/>
@@ -5570,35 +5784,35 @@
       <c r="BI22" s="4"/>
     </row>
     <row r="23" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="154"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="152" t="s">
+      <c r="A23" s="155"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="144"/>
       <c r="AD23" s="6"/>
@@ -5635,43 +5849,43 @@
       <c r="BI23" s="4"/>
     </row>
     <row r="24" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="154"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="151" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152" t="s">
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="153">
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="154">
         <v>45089</v>
       </c>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153">
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="154">
         <v>45089</v>
       </c>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="154" t="s">
+      <c r="W24" s="154"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
       <c r="AB24" s="128">
         <v>1</v>
       </c>
@@ -5714,43 +5928,43 @@
       <c r="BI24" s="4"/>
     </row>
     <row r="25" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="154"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="151" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152" t="s">
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="152"/>
-      <c r="S25" s="153">
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="154">
         <v>45086</v>
       </c>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153">
+      <c r="T25" s="154"/>
+      <c r="U25" s="154"/>
+      <c r="V25" s="154">
         <v>45089</v>
       </c>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="154" t="s">
+      <c r="W25" s="154"/>
+      <c r="X25" s="154"/>
+      <c r="Y25" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="154"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
       <c r="AB25" s="128">
         <v>1</v>
       </c>
@@ -5793,13 +6007,13 @@
       <c r="BI25" s="4"/>
     </row>
     <row r="26" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="154"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
+      <c r="A26" s="155"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
       <c r="H26" s="105" t="s">
         <v>42</v>
       </c>
@@ -5815,21 +6029,21 @@
       </c>
       <c r="Q26" s="108"/>
       <c r="R26" s="110"/>
-      <c r="S26" s="153">
+      <c r="S26" s="154">
         <v>45089</v>
       </c>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153">
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154">
         <v>45091</v>
       </c>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="178" t="s">
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Z26" s="154"/>
-      <c r="AA26" s="154"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
       <c r="AB26" s="128">
         <v>1</v>
       </c>
@@ -5872,13 +6086,13 @@
       <c r="BI26" s="4"/>
     </row>
     <row r="27" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="154"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
       <c r="H27" s="109" t="s">
         <v>43</v>
       </c>
@@ -5894,21 +6108,21 @@
       </c>
       <c r="Q27" s="108"/>
       <c r="R27" s="110"/>
-      <c r="S27" s="153">
+      <c r="S27" s="154">
         <v>45089</v>
       </c>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153">
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154">
         <v>45091</v>
       </c>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="178" t="s">
+      <c r="W27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="154"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
       <c r="AB27" s="128">
         <v>1</v>
       </c>
@@ -5951,13 +6165,13 @@
       <c r="BI27" s="4"/>
     </row>
     <row r="28" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="154"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
+      <c r="A28" s="155"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
       <c r="H28" s="57" t="s">
         <v>44</v>
       </c>
@@ -5973,21 +6187,21 @@
       </c>
       <c r="Q28" s="55"/>
       <c r="R28" s="56"/>
-      <c r="S28" s="153">
+      <c r="S28" s="154">
         <v>45091</v>
       </c>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="179">
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="180">
         <v>45092</v>
       </c>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="178" t="s">
+      <c r="W28" s="180"/>
+      <c r="X28" s="180"/>
+      <c r="Y28" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
       <c r="AB28" s="128">
         <v>1</v>
       </c>
@@ -6030,13 +6244,13 @@
       <c r="BI28" s="4"/>
     </row>
     <row r="29" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="154"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
       <c r="H29" s="57" t="s">
         <v>45</v>
       </c>
@@ -6052,21 +6266,21 @@
       </c>
       <c r="Q29" s="55"/>
       <c r="R29" s="56"/>
-      <c r="S29" s="153">
+      <c r="S29" s="154">
         <v>45089</v>
       </c>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="203">
+      <c r="T29" s="154"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="204">
         <v>45100</v>
       </c>
-      <c r="W29" s="203"/>
-      <c r="X29" s="203"/>
-      <c r="Y29" s="178">
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="179">
         <v>0.8</v>
       </c>
-      <c r="Z29" s="154"/>
-      <c r="AA29" s="154"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
       <c r="AB29" s="128">
         <v>0.8</v>
       </c>
@@ -6111,13 +6325,13 @@
       <c r="BI29" s="4"/>
     </row>
     <row r="30" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="154"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="109" t="s">
         <v>47</v>
       </c>
@@ -6133,21 +6347,21 @@
       </c>
       <c r="Q30" s="108"/>
       <c r="R30" s="110"/>
-      <c r="S30" s="153">
+      <c r="S30" s="154">
         <v>45089</v>
       </c>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153">
+      <c r="T30" s="154"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154">
         <v>45089</v>
       </c>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="154" t="s">
+      <c r="W30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z30" s="154"/>
-      <c r="AA30" s="154"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
       <c r="AB30" s="128">
         <v>1</v>
       </c>
@@ -6190,13 +6404,13 @@
       <c r="BI30" s="4"/>
     </row>
     <row r="31" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="154"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="57" t="s">
         <v>48</v>
       </c>
@@ -6212,21 +6426,21 @@
       </c>
       <c r="Q31" s="55"/>
       <c r="R31" s="56"/>
-      <c r="S31" s="153">
+      <c r="S31" s="154">
         <v>45091</v>
       </c>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153">
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154">
         <v>45092</v>
       </c>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="178">
+      <c r="W31" s="154"/>
+      <c r="X31" s="154"/>
+      <c r="Y31" s="179">
         <v>0.5</v>
       </c>
-      <c r="Z31" s="154"/>
-      <c r="AA31" s="154"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
       <c r="AB31" s="128">
         <v>0.5</v>
       </c>
@@ -6269,13 +6483,13 @@
       <c r="BI31" s="4"/>
     </row>
     <row r="32" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="154"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="57" t="s">
         <v>49</v>
       </c>
@@ -6291,21 +6505,21 @@
       </c>
       <c r="Q32" s="55"/>
       <c r="R32" s="56"/>
-      <c r="S32" s="153">
+      <c r="S32" s="154">
         <v>45089</v>
       </c>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="153">
+      <c r="T32" s="154"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="154">
         <v>45100</v>
       </c>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="178">
+      <c r="W32" s="154"/>
+      <c r="X32" s="154"/>
+      <c r="Y32" s="179">
         <v>0.8</v>
       </c>
-      <c r="Z32" s="154"/>
-      <c r="AA32" s="154"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
       <c r="AB32" s="128">
         <v>0.8</v>
       </c>
@@ -6350,13 +6564,13 @@
       <c r="BI32" s="4"/>
     </row>
     <row r="33" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="154"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="109" t="s">
         <v>50</v>
       </c>
@@ -6372,21 +6586,21 @@
       </c>
       <c r="Q33" s="108"/>
       <c r="R33" s="110"/>
-      <c r="S33" s="153">
+      <c r="S33" s="154">
         <v>45091</v>
       </c>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153">
+      <c r="T33" s="154"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154">
         <v>45091</v>
       </c>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="154" t="s">
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+      <c r="Y33" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="Z33" s="154"/>
-      <c r="AA33" s="154"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
       <c r="AB33" s="128">
         <v>1</v>
       </c>
@@ -6431,13 +6645,13 @@
       <c r="BI33" s="4"/>
     </row>
     <row r="34" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="154"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
       <c r="H34" s="57" t="s">
         <v>52</v>
       </c>
@@ -6453,21 +6667,21 @@
       </c>
       <c r="Q34" s="55"/>
       <c r="R34" s="56"/>
-      <c r="S34" s="153">
+      <c r="S34" s="154">
         <v>45089</v>
       </c>
-      <c r="T34" s="153"/>
-      <c r="U34" s="153"/>
-      <c r="V34" s="153">
+      <c r="T34" s="154"/>
+      <c r="U34" s="154"/>
+      <c r="V34" s="154">
         <v>45100</v>
       </c>
-      <c r="W34" s="153"/>
-      <c r="X34" s="153"/>
-      <c r="Y34" s="178" t="s">
+      <c r="W34" s="154"/>
+      <c r="X34" s="154"/>
+      <c r="Y34" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Z34" s="154"/>
-      <c r="AA34" s="154"/>
+      <c r="Z34" s="155"/>
+      <c r="AA34" s="155"/>
       <c r="AB34" s="128">
         <v>1</v>
       </c>
@@ -6512,13 +6726,13 @@
       <c r="BI34" s="4"/>
     </row>
     <row r="35" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="154"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
@@ -6534,21 +6748,21 @@
       </c>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
-      <c r="S35" s="153">
+      <c r="S35" s="154">
         <v>45091</v>
       </c>
-      <c r="T35" s="153"/>
-      <c r="U35" s="153"/>
-      <c r="V35" s="153">
+      <c r="T35" s="154"/>
+      <c r="U35" s="154"/>
+      <c r="V35" s="154">
         <v>45100</v>
       </c>
-      <c r="W35" s="153"/>
-      <c r="X35" s="153"/>
-      <c r="Y35" s="178">
+      <c r="W35" s="154"/>
+      <c r="X35" s="154"/>
+      <c r="Y35" s="179">
         <v>0.8</v>
       </c>
-      <c r="Z35" s="154"/>
-      <c r="AA35" s="154"/>
+      <c r="Z35" s="155"/>
+      <c r="AA35" s="155"/>
       <c r="AB35" s="128">
         <v>0.8</v>
       </c>
@@ -6593,13 +6807,13 @@
       <c r="BI35" s="4"/>
     </row>
     <row r="36" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="154"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
       <c r="H36" s="57" t="s">
         <v>54</v>
       </c>
@@ -6615,21 +6829,21 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
-      <c r="S36" s="153">
+      <c r="S36" s="154">
         <v>45091</v>
       </c>
-      <c r="T36" s="153"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="153">
+      <c r="T36" s="154"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="154">
         <v>45093</v>
       </c>
-      <c r="W36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="Y36" s="178">
+      <c r="W36" s="154"/>
+      <c r="X36" s="154"/>
+      <c r="Y36" s="179">
         <v>0.5</v>
       </c>
-      <c r="Z36" s="154"/>
-      <c r="AA36" s="154"/>
+      <c r="Z36" s="155"/>
+      <c r="AA36" s="155"/>
       <c r="AB36" s="128">
         <v>0.5</v>
       </c>
@@ -6672,13 +6886,13 @@
       <c r="BI36" s="4"/>
     </row>
     <row r="37" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="154"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
       <c r="H37" s="58" t="s">
         <v>55</v>
       </c>
@@ -6694,21 +6908,21 @@
       </c>
       <c r="Q37" s="61"/>
       <c r="R37" s="62"/>
-      <c r="S37" s="155">
+      <c r="S37" s="156">
         <v>45089</v>
       </c>
-      <c r="T37" s="156"/>
-      <c r="U37" s="157"/>
-      <c r="V37" s="153">
+      <c r="T37" s="157"/>
+      <c r="U37" s="158"/>
+      <c r="V37" s="154">
         <v>45093</v>
       </c>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="178">
+      <c r="W37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="Y37" s="179">
         <v>0.7</v>
       </c>
-      <c r="Z37" s="154"/>
-      <c r="AA37" s="154"/>
+      <c r="Z37" s="155"/>
+      <c r="AA37" s="155"/>
       <c r="AB37" s="128">
         <v>0.7</v>
       </c>
@@ -6753,13 +6967,13 @@
       <c r="BI37" s="4"/>
     </row>
     <row r="38" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="154"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="68" t="s">
         <v>57</v>
       </c>
@@ -6775,21 +6989,21 @@
       </c>
       <c r="Q38" s="71"/>
       <c r="R38" s="72"/>
-      <c r="S38" s="153">
+      <c r="S38" s="154">
         <v>45089</v>
       </c>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153">
+      <c r="T38" s="154"/>
+      <c r="U38" s="154"/>
+      <c r="V38" s="154">
         <v>45093</v>
       </c>
-      <c r="W38" s="153"/>
-      <c r="X38" s="153"/>
-      <c r="Y38" s="178">
+      <c r="W38" s="154"/>
+      <c r="X38" s="154"/>
+      <c r="Y38" s="179">
         <v>0.9</v>
       </c>
-      <c r="Z38" s="154"/>
-      <c r="AA38" s="154"/>
+      <c r="Z38" s="155"/>
+      <c r="AA38" s="155"/>
       <c r="AB38" s="135">
         <v>0.9</v>
       </c>
@@ -6834,13 +7048,13 @@
       <c r="BI38" s="4"/>
     </row>
     <row r="39" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="154"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
       <c r="H39" s="68" t="s">
         <v>59</v>
       </c>
@@ -6856,21 +7070,21 @@
       </c>
       <c r="Q39" s="71"/>
       <c r="R39" s="72"/>
-      <c r="S39" s="153">
+      <c r="S39" s="154">
         <v>45093</v>
       </c>
-      <c r="T39" s="153"/>
-      <c r="U39" s="153"/>
-      <c r="V39" s="153">
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="154">
         <v>45093</v>
       </c>
-      <c r="W39" s="153"/>
-      <c r="X39" s="153"/>
-      <c r="Y39" s="154" t="s">
+      <c r="W39" s="154"/>
+      <c r="X39" s="154"/>
+      <c r="Y39" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="Z39" s="154"/>
-      <c r="AA39" s="154"/>
+      <c r="Z39" s="155"/>
+      <c r="AA39" s="155"/>
       <c r="AB39" s="128">
         <v>0</v>
       </c>
@@ -6913,13 +7127,13 @@
       <c r="BI39" s="4"/>
     </row>
     <row r="40" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="154"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="152"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
       <c r="H40" s="68" t="s">
         <v>61</v>
       </c>
@@ -6935,21 +7149,21 @@
       </c>
       <c r="Q40" s="71"/>
       <c r="R40" s="72"/>
-      <c r="S40" s="153">
+      <c r="S40" s="154">
         <v>45089</v>
       </c>
-      <c r="T40" s="153"/>
-      <c r="U40" s="153"/>
-      <c r="V40" s="153">
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="154">
         <v>45100</v>
       </c>
-      <c r="W40" s="153"/>
-      <c r="X40" s="153"/>
-      <c r="Y40" s="178">
+      <c r="W40" s="154"/>
+      <c r="X40" s="154"/>
+      <c r="Y40" s="179">
         <v>0.8</v>
       </c>
-      <c r="Z40" s="154"/>
-      <c r="AA40" s="154"/>
+      <c r="Z40" s="155"/>
+      <c r="AA40" s="155"/>
       <c r="AB40" s="135">
         <v>0.8</v>
       </c>
@@ -6994,13 +7208,13 @@
       <c r="BI40" s="4"/>
     </row>
     <row r="41" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="154"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="152"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
       <c r="H41" s="68" t="s">
         <v>63</v>
       </c>
@@ -7016,21 +7230,21 @@
       </c>
       <c r="Q41" s="71"/>
       <c r="R41" s="72"/>
-      <c r="S41" s="153">
+      <c r="S41" s="154">
         <v>45093</v>
       </c>
-      <c r="T41" s="153"/>
-      <c r="U41" s="153"/>
-      <c r="V41" s="153">
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="154">
         <v>45099</v>
       </c>
-      <c r="W41" s="153"/>
-      <c r="X41" s="153"/>
-      <c r="Y41" s="154" t="s">
+      <c r="W41" s="154"/>
+      <c r="X41" s="154"/>
+      <c r="Y41" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="Z41" s="154"/>
-      <c r="AA41" s="154"/>
+      <c r="Z41" s="155"/>
+      <c r="AA41" s="155"/>
       <c r="AB41" s="128">
         <v>0</v>
       </c>
@@ -7075,13 +7289,13 @@
       <c r="BI41" s="4"/>
     </row>
     <row r="42" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="154"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="152"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
       <c r="H42" s="68" t="s">
         <v>65</v>
       </c>
@@ -7097,21 +7311,21 @@
       </c>
       <c r="Q42" s="71"/>
       <c r="R42" s="72"/>
-      <c r="S42" s="153">
+      <c r="S42" s="154">
         <v>45091</v>
       </c>
-      <c r="T42" s="153"/>
-      <c r="U42" s="153"/>
-      <c r="V42" s="153">
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="154">
         <v>45099</v>
       </c>
-      <c r="W42" s="153"/>
-      <c r="X42" s="153"/>
-      <c r="Y42" s="178">
+      <c r="W42" s="154"/>
+      <c r="X42" s="154"/>
+      <c r="Y42" s="179">
         <v>0.8</v>
       </c>
-      <c r="Z42" s="154"/>
-      <c r="AA42" s="154"/>
+      <c r="Z42" s="155"/>
+      <c r="AA42" s="155"/>
       <c r="AB42" s="128">
         <v>0.8</v>
       </c>
@@ -7156,13 +7370,13 @@
       <c r="BI42" s="4"/>
     </row>
     <row r="43" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="154"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
       <c r="H43" s="68" t="s">
         <v>67</v>
       </c>
@@ -7178,21 +7392,21 @@
       </c>
       <c r="Q43" s="71"/>
       <c r="R43" s="72"/>
-      <c r="S43" s="153">
+      <c r="S43" s="154">
         <v>45096</v>
       </c>
-      <c r="T43" s="153"/>
-      <c r="U43" s="153"/>
-      <c r="V43" s="153">
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="154">
         <v>45099</v>
       </c>
-      <c r="W43" s="153"/>
-      <c r="X43" s="153"/>
-      <c r="Y43" s="154" t="s">
+      <c r="W43" s="154"/>
+      <c r="X43" s="154"/>
+      <c r="Y43" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="154"/>
+      <c r="Z43" s="155"/>
+      <c r="AA43" s="155"/>
       <c r="AB43" s="128">
         <v>0</v>
       </c>
@@ -7235,13 +7449,13 @@
       <c r="BI43" s="4"/>
     </row>
     <row r="44" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="165"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="169"/>
+      <c r="A44" s="166"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="170"/>
       <c r="H44" s="68" t="s">
         <v>68</v>
       </c>
@@ -7257,21 +7471,21 @@
       </c>
       <c r="Q44" s="71"/>
       <c r="R44" s="72"/>
-      <c r="S44" s="155">
+      <c r="S44" s="156">
         <v>45096</v>
       </c>
-      <c r="T44" s="156"/>
-      <c r="U44" s="157"/>
-      <c r="V44" s="155">
+      <c r="T44" s="157"/>
+      <c r="U44" s="158"/>
+      <c r="V44" s="156">
         <v>45099</v>
       </c>
-      <c r="W44" s="156"/>
-      <c r="X44" s="157"/>
-      <c r="Y44" s="165" t="s">
+      <c r="W44" s="157"/>
+      <c r="X44" s="158"/>
+      <c r="Y44" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="Z44" s="174"/>
-      <c r="AA44" s="166"/>
+      <c r="Z44" s="175"/>
+      <c r="AA44" s="167"/>
       <c r="AB44" s="121">
         <v>0</v>
       </c>
@@ -7314,13 +7528,13 @@
       <c r="BI44" s="4"/>
     </row>
     <row r="45" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="165"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="177"/>
+      <c r="A45" s="166"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="73" t="s">
         <v>69</v>
       </c>
@@ -7336,21 +7550,21 @@
       </c>
       <c r="Q45" s="76"/>
       <c r="R45" s="77"/>
-      <c r="S45" s="155">
+      <c r="S45" s="156">
         <v>45089</v>
       </c>
-      <c r="T45" s="156"/>
-      <c r="U45" s="157"/>
-      <c r="V45" s="155">
+      <c r="T45" s="157"/>
+      <c r="U45" s="158"/>
+      <c r="V45" s="156">
         <v>45093</v>
       </c>
-      <c r="W45" s="156"/>
-      <c r="X45" s="157"/>
-      <c r="Y45" s="173">
+      <c r="W45" s="157"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="174">
         <v>0.5</v>
       </c>
-      <c r="Z45" s="174"/>
-      <c r="AA45" s="166"/>
+      <c r="Z45" s="175"/>
+      <c r="AA45" s="167"/>
       <c r="AB45" s="121">
         <v>0.5</v>
       </c>
@@ -7395,13 +7609,13 @@
       <c r="BI45" s="4"/>
     </row>
     <row r="46" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="169"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="170"/>
       <c r="H46" s="73" t="s">
         <v>71</v>
       </c>
@@ -7417,21 +7631,21 @@
       </c>
       <c r="Q46" s="76"/>
       <c r="R46" s="77"/>
-      <c r="S46" s="155">
+      <c r="S46" s="156">
         <v>45089</v>
       </c>
-      <c r="T46" s="156"/>
-      <c r="U46" s="157"/>
-      <c r="V46" s="155">
+      <c r="T46" s="157"/>
+      <c r="U46" s="158"/>
+      <c r="V46" s="156">
         <v>45093</v>
       </c>
-      <c r="W46" s="156"/>
-      <c r="X46" s="157"/>
-      <c r="Y46" s="173">
+      <c r="W46" s="157"/>
+      <c r="X46" s="158"/>
+      <c r="Y46" s="174">
         <v>0.5</v>
       </c>
-      <c r="Z46" s="174"/>
-      <c r="AA46" s="166"/>
+      <c r="Z46" s="175"/>
+      <c r="AA46" s="167"/>
       <c r="AB46" s="121">
         <v>0.5</v>
       </c>
@@ -7474,13 +7688,13 @@
       <c r="BI46" s="4"/>
     </row>
     <row r="47" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="165"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="169"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="170"/>
       <c r="H47" s="73" t="s">
         <v>72</v>
       </c>
@@ -7496,21 +7710,21 @@
       </c>
       <c r="Q47" s="76"/>
       <c r="R47" s="77"/>
-      <c r="S47" s="155">
+      <c r="S47" s="156">
         <v>45090</v>
       </c>
-      <c r="T47" s="156"/>
-      <c r="U47" s="157"/>
-      <c r="V47" s="155">
+      <c r="T47" s="157"/>
+      <c r="U47" s="158"/>
+      <c r="V47" s="156">
         <v>45097</v>
       </c>
-      <c r="W47" s="156"/>
-      <c r="X47" s="157"/>
-      <c r="Y47" s="173">
+      <c r="W47" s="157"/>
+      <c r="X47" s="158"/>
+      <c r="Y47" s="174">
         <v>0.5</v>
       </c>
-      <c r="Z47" s="174"/>
-      <c r="AA47" s="166"/>
+      <c r="Z47" s="175"/>
+      <c r="AA47" s="167"/>
       <c r="AB47" s="121">
         <v>0.5</v>
       </c>
@@ -7553,13 +7767,13 @@
       <c r="BI47" s="4"/>
     </row>
     <row r="48" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="165"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="169"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="170"/>
       <c r="H48" s="73" t="s">
         <v>73</v>
       </c>
@@ -7575,21 +7789,21 @@
       </c>
       <c r="Q48" s="76"/>
       <c r="R48" s="77"/>
-      <c r="S48" s="155">
+      <c r="S48" s="156">
         <v>45090</v>
       </c>
-      <c r="T48" s="156"/>
-      <c r="U48" s="157"/>
-      <c r="V48" s="155">
+      <c r="T48" s="157"/>
+      <c r="U48" s="158"/>
+      <c r="V48" s="156">
         <v>45097</v>
       </c>
-      <c r="W48" s="156"/>
-      <c r="X48" s="157"/>
-      <c r="Y48" s="173">
+      <c r="W48" s="157"/>
+      <c r="X48" s="158"/>
+      <c r="Y48" s="174">
         <v>0.5</v>
       </c>
-      <c r="Z48" s="174"/>
-      <c r="AA48" s="166"/>
+      <c r="Z48" s="175"/>
+      <c r="AA48" s="167"/>
       <c r="AB48" s="121">
         <v>0.5</v>
       </c>
@@ -7632,13 +7846,13 @@
       <c r="BI48" s="4"/>
     </row>
     <row r="49" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="165"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="169"/>
+      <c r="A49" s="166"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="170"/>
       <c r="H49" s="73" t="s">
         <v>74</v>
       </c>
@@ -7654,21 +7868,21 @@
       </c>
       <c r="Q49" s="76"/>
       <c r="R49" s="77"/>
-      <c r="S49" s="155">
+      <c r="S49" s="156">
         <v>45090</v>
       </c>
-      <c r="T49" s="156"/>
-      <c r="U49" s="157"/>
-      <c r="V49" s="155">
+      <c r="T49" s="157"/>
+      <c r="U49" s="158"/>
+      <c r="V49" s="156">
         <v>45099</v>
       </c>
-      <c r="W49" s="156"/>
-      <c r="X49" s="157"/>
-      <c r="Y49" s="173">
+      <c r="W49" s="157"/>
+      <c r="X49" s="158"/>
+      <c r="Y49" s="174">
         <v>0.5</v>
       </c>
-      <c r="Z49" s="174"/>
-      <c r="AA49" s="166"/>
+      <c r="Z49" s="175"/>
+      <c r="AA49" s="167"/>
       <c r="AB49" s="121">
         <v>0.5</v>
       </c>
@@ -7711,13 +7925,13 @@
       <c r="BI49" s="4"/>
     </row>
     <row r="50" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="165"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="169"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="170"/>
       <c r="H50" s="58" t="s">
         <v>75</v>
       </c>
@@ -7733,21 +7947,21 @@
       </c>
       <c r="Q50" s="61"/>
       <c r="R50" s="62"/>
-      <c r="S50" s="155">
+      <c r="S50" s="156">
         <v>45089</v>
       </c>
-      <c r="T50" s="156"/>
-      <c r="U50" s="157"/>
-      <c r="V50" s="155">
+      <c r="T50" s="157"/>
+      <c r="U50" s="158"/>
+      <c r="V50" s="156">
         <v>45093</v>
       </c>
-      <c r="W50" s="156"/>
-      <c r="X50" s="157"/>
-      <c r="Y50" s="173">
+      <c r="W50" s="157"/>
+      <c r="X50" s="158"/>
+      <c r="Y50" s="174">
         <v>0.3</v>
       </c>
-      <c r="Z50" s="174"/>
-      <c r="AA50" s="166"/>
+      <c r="Z50" s="175"/>
+      <c r="AA50" s="167"/>
       <c r="AB50" s="121">
         <v>0.3</v>
       </c>
@@ -7792,13 +8006,13 @@
       <c r="BI50" s="4"/>
     </row>
     <row r="51" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="165"/>
-      <c r="B51" s="166"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="169"/>
+      <c r="A51" s="166"/>
+      <c r="B51" s="167"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="170"/>
       <c r="H51" s="58" t="s">
         <v>76</v>
       </c>
@@ -7814,21 +8028,21 @@
       </c>
       <c r="Q51" s="61"/>
       <c r="R51" s="62"/>
-      <c r="S51" s="155">
+      <c r="S51" s="156">
         <v>45089</v>
       </c>
-      <c r="T51" s="156"/>
-      <c r="U51" s="157"/>
-      <c r="V51" s="158">
+      <c r="T51" s="157"/>
+      <c r="U51" s="158"/>
+      <c r="V51" s="159">
         <v>45093</v>
       </c>
-      <c r="W51" s="159"/>
-      <c r="X51" s="160"/>
-      <c r="Y51" s="173">
+      <c r="W51" s="160"/>
+      <c r="X51" s="161"/>
+      <c r="Y51" s="174">
         <v>0.1</v>
       </c>
-      <c r="Z51" s="174"/>
-      <c r="AA51" s="166"/>
+      <c r="Z51" s="175"/>
+      <c r="AA51" s="167"/>
       <c r="AB51" s="121">
         <v>0.1</v>
       </c>
@@ -7871,13 +8085,13 @@
       <c r="BI51" s="4"/>
     </row>
     <row r="52" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="165"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="169"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="167"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="170"/>
       <c r="H52" s="58" t="s">
         <v>77</v>
       </c>
@@ -7893,21 +8107,21 @@
       </c>
       <c r="Q52" s="61"/>
       <c r="R52" s="62"/>
-      <c r="S52" s="155">
+      <c r="S52" s="156">
         <v>45096</v>
       </c>
-      <c r="T52" s="156"/>
-      <c r="U52" s="157"/>
-      <c r="V52" s="158">
+      <c r="T52" s="157"/>
+      <c r="U52" s="158"/>
+      <c r="V52" s="159">
         <v>45098</v>
       </c>
-      <c r="W52" s="159"/>
-      <c r="X52" s="160"/>
-      <c r="Y52" s="165" t="s">
+      <c r="W52" s="160"/>
+      <c r="X52" s="161"/>
+      <c r="Y52" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="Z52" s="174"/>
-      <c r="AA52" s="166"/>
+      <c r="Z52" s="175"/>
+      <c r="AA52" s="167"/>
       <c r="AB52" s="121">
         <v>0</v>
       </c>
@@ -7951,13 +8165,13 @@
       <c r="BI52" s="4"/>
     </row>
     <row r="53" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="165"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="169"/>
+      <c r="A53" s="166"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="170"/>
       <c r="H53" s="58" t="s">
         <v>78</v>
       </c>
@@ -7973,21 +8187,21 @@
       </c>
       <c r="Q53" s="61"/>
       <c r="R53" s="62"/>
-      <c r="S53" s="155">
+      <c r="S53" s="156">
         <v>45089</v>
       </c>
-      <c r="T53" s="156"/>
-      <c r="U53" s="157"/>
-      <c r="V53" s="158">
+      <c r="T53" s="157"/>
+      <c r="U53" s="158"/>
+      <c r="V53" s="159">
         <v>45093</v>
       </c>
-      <c r="W53" s="159"/>
-      <c r="X53" s="160"/>
-      <c r="Y53" s="173">
+      <c r="W53" s="160"/>
+      <c r="X53" s="161"/>
+      <c r="Y53" s="174">
         <v>0.3</v>
       </c>
-      <c r="Z53" s="174"/>
-      <c r="AA53" s="166"/>
+      <c r="Z53" s="175"/>
+      <c r="AA53" s="167"/>
       <c r="AB53" s="121">
         <v>0.3</v>
       </c>
@@ -8032,13 +8246,13 @@
       <c r="BI53" s="4"/>
     </row>
     <row r="54" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="165"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="169"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="170"/>
       <c r="H54" s="63" t="s">
         <v>79</v>
       </c>
@@ -8054,21 +8268,21 @@
       </c>
       <c r="Q54" s="66"/>
       <c r="R54" s="67"/>
-      <c r="S54" s="155">
+      <c r="S54" s="156">
         <v>45089</v>
       </c>
-      <c r="T54" s="156"/>
-      <c r="U54" s="157"/>
-      <c r="V54" s="155">
+      <c r="T54" s="157"/>
+      <c r="U54" s="158"/>
+      <c r="V54" s="156">
         <v>45096</v>
       </c>
-      <c r="W54" s="156"/>
-      <c r="X54" s="157"/>
-      <c r="Y54" s="173">
+      <c r="W54" s="157"/>
+      <c r="X54" s="158"/>
+      <c r="Y54" s="174">
         <v>0.6</v>
       </c>
-      <c r="Z54" s="174"/>
-      <c r="AA54" s="166"/>
+      <c r="Z54" s="175"/>
+      <c r="AA54" s="167"/>
       <c r="AB54" s="121">
         <v>0.9</v>
       </c>
@@ -8113,13 +8327,13 @@
       <c r="BI54" s="4"/>
     </row>
     <row r="55" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="165"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="169"/>
+      <c r="A55" s="166"/>
+      <c r="B55" s="167"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="170"/>
       <c r="H55" s="63" t="s">
         <v>82</v>
       </c>
@@ -8135,21 +8349,21 @@
       </c>
       <c r="Q55" s="66"/>
       <c r="R55" s="67"/>
-      <c r="S55" s="155">
+      <c r="S55" s="156">
         <v>45089</v>
       </c>
-      <c r="T55" s="156"/>
-      <c r="U55" s="157"/>
-      <c r="V55" s="155">
+      <c r="T55" s="157"/>
+      <c r="U55" s="158"/>
+      <c r="V55" s="156">
         <v>45099</v>
       </c>
-      <c r="W55" s="156"/>
-      <c r="X55" s="157"/>
-      <c r="Y55" s="173">
+      <c r="W55" s="157"/>
+      <c r="X55" s="158"/>
+      <c r="Y55" s="174">
         <v>0.05</v>
       </c>
-      <c r="Z55" s="174"/>
-      <c r="AA55" s="166"/>
+      <c r="Z55" s="175"/>
+      <c r="AA55" s="167"/>
       <c r="AB55" s="121">
         <v>0.3</v>
       </c>
@@ -8192,13 +8406,13 @@
       <c r="BI55" s="4"/>
     </row>
     <row r="56" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="165"/>
-      <c r="B56" s="166"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="168"/>
-      <c r="E56" s="168"/>
-      <c r="F56" s="168"/>
-      <c r="G56" s="169"/>
+      <c r="A56" s="166"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="170"/>
       <c r="H56" s="63" t="s">
         <v>83</v>
       </c>
@@ -8214,21 +8428,21 @@
       </c>
       <c r="Q56" s="66"/>
       <c r="R56" s="67"/>
-      <c r="S56" s="155">
+      <c r="S56" s="156">
         <v>45089</v>
       </c>
-      <c r="T56" s="156"/>
-      <c r="U56" s="157"/>
-      <c r="V56" s="155">
+      <c r="T56" s="157"/>
+      <c r="U56" s="158"/>
+      <c r="V56" s="156">
         <v>45099</v>
       </c>
-      <c r="W56" s="156"/>
-      <c r="X56" s="157"/>
-      <c r="Y56" s="173">
+      <c r="W56" s="157"/>
+      <c r="X56" s="158"/>
+      <c r="Y56" s="174">
         <v>0.3</v>
       </c>
-      <c r="Z56" s="174"/>
-      <c r="AA56" s="166"/>
+      <c r="Z56" s="175"/>
+      <c r="AA56" s="167"/>
       <c r="AB56" s="121">
         <v>0.3</v>
       </c>
@@ -8271,13 +8485,13 @@
       <c r="BI56" s="4"/>
     </row>
     <row r="57" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="165"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="168"/>
-      <c r="E57" s="168"/>
-      <c r="F57" s="168"/>
-      <c r="G57" s="169"/>
+      <c r="A57" s="166"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="170"/>
       <c r="H57" s="63" t="s">
         <v>84</v>
       </c>
@@ -8293,21 +8507,21 @@
       </c>
       <c r="Q57" s="66"/>
       <c r="R57" s="67"/>
-      <c r="S57" s="155">
+      <c r="S57" s="156">
         <v>45090</v>
       </c>
-      <c r="T57" s="156"/>
-      <c r="U57" s="157"/>
-      <c r="V57" s="155">
+      <c r="T57" s="157"/>
+      <c r="U57" s="158"/>
+      <c r="V57" s="156">
         <v>45093</v>
       </c>
-      <c r="W57" s="156"/>
-      <c r="X57" s="157"/>
-      <c r="Y57" s="173">
+      <c r="W57" s="157"/>
+      <c r="X57" s="158"/>
+      <c r="Y57" s="174">
         <v>0.1</v>
       </c>
-      <c r="Z57" s="174"/>
-      <c r="AA57" s="166"/>
+      <c r="Z57" s="175"/>
+      <c r="AA57" s="167"/>
       <c r="AB57" s="121">
         <v>0.1</v>
       </c>
@@ -8350,13 +8564,13 @@
       <c r="BI57" s="4"/>
     </row>
     <row r="58" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="165"/>
-      <c r="B58" s="166"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="168"/>
-      <c r="F58" s="168"/>
-      <c r="G58" s="169"/>
+      <c r="A58" s="166"/>
+      <c r="B58" s="167"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="170"/>
       <c r="H58" s="63" t="s">
         <v>85</v>
       </c>
@@ -8372,21 +8586,21 @@
       </c>
       <c r="Q58" s="66"/>
       <c r="R58" s="67"/>
-      <c r="S58" s="155">
+      <c r="S58" s="156">
         <v>45089</v>
       </c>
-      <c r="T58" s="156"/>
-      <c r="U58" s="157"/>
-      <c r="V58" s="155">
+      <c r="T58" s="157"/>
+      <c r="U58" s="158"/>
+      <c r="V58" s="156">
         <v>45099</v>
       </c>
-      <c r="W58" s="156"/>
-      <c r="X58" s="157"/>
-      <c r="Y58" s="173">
+      <c r="W58" s="157"/>
+      <c r="X58" s="158"/>
+      <c r="Y58" s="174">
         <v>0.5</v>
       </c>
-      <c r="Z58" s="174"/>
-      <c r="AA58" s="166"/>
+      <c r="Z58" s="175"/>
+      <c r="AA58" s="167"/>
       <c r="AB58" s="121">
         <v>0.9</v>
       </c>
@@ -8431,13 +8645,13 @@
       <c r="BI58" s="4"/>
     </row>
     <row r="59" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="165"/>
-      <c r="B59" s="166"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="169"/>
+      <c r="A59" s="166"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="170"/>
       <c r="H59" s="109" t="s">
         <v>86</v>
       </c>
@@ -8453,21 +8667,21 @@
       </c>
       <c r="Q59" s="108"/>
       <c r="R59" s="110"/>
-      <c r="S59" s="155">
+      <c r="S59" s="156">
         <v>45090</v>
       </c>
-      <c r="T59" s="156"/>
-      <c r="U59" s="157"/>
-      <c r="V59" s="155">
+      <c r="T59" s="157"/>
+      <c r="U59" s="158"/>
+      <c r="V59" s="156">
         <v>45090</v>
       </c>
-      <c r="W59" s="156"/>
-      <c r="X59" s="157"/>
-      <c r="Y59" s="165" t="s">
+      <c r="W59" s="157"/>
+      <c r="X59" s="158"/>
+      <c r="Y59" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="Z59" s="174"/>
-      <c r="AA59" s="166"/>
+      <c r="Z59" s="175"/>
+      <c r="AA59" s="167"/>
       <c r="AB59" s="121">
         <v>1</v>
       </c>
@@ -8512,13 +8726,13 @@
       <c r="BI59" s="4"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="165"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="169"/>
+      <c r="A60" s="166"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="170"/>
       <c r="H60" s="109" t="s">
         <v>87</v>
       </c>
@@ -8534,21 +8748,21 @@
       </c>
       <c r="Q60" s="108"/>
       <c r="R60" s="110"/>
-      <c r="S60" s="155">
+      <c r="S60" s="156">
         <v>45091</v>
       </c>
-      <c r="T60" s="156"/>
-      <c r="U60" s="157"/>
-      <c r="V60" s="155">
+      <c r="T60" s="157"/>
+      <c r="U60" s="158"/>
+      <c r="V60" s="156">
         <v>45092</v>
       </c>
-      <c r="W60" s="156"/>
-      <c r="X60" s="157"/>
-      <c r="Y60" s="173" t="s">
+      <c r="W60" s="157"/>
+      <c r="X60" s="158"/>
+      <c r="Y60" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="Z60" s="174"/>
-      <c r="AA60" s="166"/>
+      <c r="Z60" s="175"/>
+      <c r="AA60" s="167"/>
       <c r="AB60" s="121">
         <v>1</v>
       </c>
@@ -8593,13 +8807,13 @@
       <c r="BI60" s="4"/>
     </row>
     <row r="61" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="165"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="168"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="169"/>
+      <c r="A61" s="166"/>
+      <c r="B61" s="167"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="170"/>
       <c r="H61" s="78" t="s">
         <v>88</v>
       </c>
@@ -8615,21 +8829,21 @@
       </c>
       <c r="Q61" s="81"/>
       <c r="R61" s="82"/>
-      <c r="S61" s="155">
+      <c r="S61" s="156">
         <v>45089</v>
       </c>
-      <c r="T61" s="156"/>
-      <c r="U61" s="157"/>
-      <c r="V61" s="155">
+      <c r="T61" s="157"/>
+      <c r="U61" s="158"/>
+      <c r="V61" s="156">
         <v>45100</v>
       </c>
-      <c r="W61" s="156"/>
-      <c r="X61" s="157"/>
-      <c r="Y61" s="173">
+      <c r="W61" s="157"/>
+      <c r="X61" s="158"/>
+      <c r="Y61" s="174">
         <v>0.8</v>
       </c>
-      <c r="Z61" s="174"/>
-      <c r="AA61" s="166"/>
+      <c r="Z61" s="175"/>
+      <c r="AA61" s="167"/>
       <c r="AB61" s="121">
         <v>0.8</v>
       </c>
@@ -8674,13 +8888,13 @@
       <c r="BI61" s="4"/>
     </row>
     <row r="62" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="165"/>
-      <c r="B62" s="166"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="169"/>
+      <c r="A62" s="166"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="170"/>
       <c r="H62" s="78" t="s">
         <v>90</v>
       </c>
@@ -8696,21 +8910,21 @@
       </c>
       <c r="Q62" s="81"/>
       <c r="R62" s="82"/>
-      <c r="S62" s="155">
+      <c r="S62" s="156">
         <v>45091</v>
       </c>
-      <c r="T62" s="156"/>
-      <c r="U62" s="157"/>
-      <c r="V62" s="155">
+      <c r="T62" s="157"/>
+      <c r="U62" s="158"/>
+      <c r="V62" s="156">
         <v>45093</v>
       </c>
-      <c r="W62" s="156"/>
-      <c r="X62" s="157"/>
-      <c r="Y62" s="173">
+      <c r="W62" s="157"/>
+      <c r="X62" s="158"/>
+      <c r="Y62" s="174">
         <v>0.9</v>
       </c>
-      <c r="Z62" s="174"/>
-      <c r="AA62" s="166"/>
+      <c r="Z62" s="175"/>
+      <c r="AA62" s="167"/>
       <c r="AB62" s="121">
         <v>0.9</v>
       </c>
@@ -8755,13 +8969,13 @@
       <c r="BI62" s="4"/>
     </row>
     <row r="63" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="165"/>
-      <c r="B63" s="166"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="169"/>
+      <c r="A63" s="166"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="170"/>
       <c r="H63" s="78" t="s">
         <v>91</v>
       </c>
@@ -8777,21 +8991,21 @@
       </c>
       <c r="Q63" s="81"/>
       <c r="R63" s="82"/>
-      <c r="S63" s="155">
+      <c r="S63" s="156">
         <v>45089</v>
       </c>
-      <c r="T63" s="156"/>
-      <c r="U63" s="157"/>
-      <c r="V63" s="155">
+      <c r="T63" s="157"/>
+      <c r="U63" s="158"/>
+      <c r="V63" s="156">
         <v>45100</v>
       </c>
-      <c r="W63" s="156"/>
-      <c r="X63" s="157"/>
-      <c r="Y63" s="173">
+      <c r="W63" s="157"/>
+      <c r="X63" s="158"/>
+      <c r="Y63" s="174">
         <v>0.8</v>
       </c>
-      <c r="Z63" s="175"/>
-      <c r="AA63" s="176"/>
+      <c r="Z63" s="176"/>
+      <c r="AA63" s="177"/>
       <c r="AB63" s="121">
         <v>0.8</v>
       </c>
@@ -8836,13 +9050,13 @@
       <c r="BI63" s="4"/>
     </row>
     <row r="64" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="165"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="169"/>
+      <c r="A64" s="166"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="170"/>
       <c r="H64" s="58" t="s">
         <v>92</v>
       </c>
@@ -8858,21 +9072,21 @@
       </c>
       <c r="Q64" s="61"/>
       <c r="R64" s="62"/>
-      <c r="S64" s="155">
+      <c r="S64" s="156">
         <v>45090</v>
       </c>
-      <c r="T64" s="156"/>
-      <c r="U64" s="157"/>
-      <c r="V64" s="155">
+      <c r="T64" s="157"/>
+      <c r="U64" s="158"/>
+      <c r="V64" s="156">
         <v>45093</v>
       </c>
-      <c r="W64" s="156"/>
-      <c r="X64" s="157"/>
-      <c r="Y64" s="173">
+      <c r="W64" s="157"/>
+      <c r="X64" s="158"/>
+      <c r="Y64" s="174">
         <v>0.95</v>
       </c>
-      <c r="Z64" s="174"/>
-      <c r="AA64" s="166"/>
+      <c r="Z64" s="175"/>
+      <c r="AA64" s="167"/>
       <c r="AB64" s="121">
         <v>0.95</v>
       </c>
@@ -8917,13 +9131,13 @@
       <c r="BI64" s="4"/>
     </row>
     <row r="65" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="165"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="168"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="168"/>
-      <c r="G65" s="169"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="169"/>
+      <c r="G65" s="170"/>
       <c r="H65" s="63" t="s">
         <v>94</v>
       </c>
@@ -8939,21 +9153,21 @@
       </c>
       <c r="Q65" s="66"/>
       <c r="R65" s="67"/>
-      <c r="S65" s="155">
+      <c r="S65" s="156">
         <v>45096</v>
       </c>
-      <c r="T65" s="156"/>
-      <c r="U65" s="157"/>
-      <c r="V65" s="158">
+      <c r="T65" s="157"/>
+      <c r="U65" s="158"/>
+      <c r="V65" s="159">
         <v>45099</v>
       </c>
-      <c r="W65" s="159"/>
-      <c r="X65" s="160"/>
-      <c r="Y65" s="164" t="s">
+      <c r="W65" s="160"/>
+      <c r="X65" s="161"/>
+      <c r="Y65" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="Z65" s="162"/>
-      <c r="AA65" s="163"/>
+      <c r="Z65" s="163"/>
+      <c r="AA65" s="164"/>
       <c r="AB65" s="143">
         <v>0.4</v>
       </c>
@@ -8996,13 +9210,13 @@
       <c r="BI65" s="4"/>
     </row>
     <row r="66" spans="1:61" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="168"/>
-      <c r="E66" s="168"/>
-      <c r="F66" s="168"/>
-      <c r="G66" s="169"/>
+      <c r="A66" s="166"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="169"/>
+      <c r="E66" s="169"/>
+      <c r="F66" s="169"/>
+      <c r="G66" s="170"/>
       <c r="H66" s="58" t="s">
         <v>95</v>
       </c>
@@ -9018,21 +9232,21 @@
       </c>
       <c r="Q66" s="61"/>
       <c r="R66" s="62"/>
-      <c r="S66" s="155">
+      <c r="S66" s="156">
         <v>45091</v>
       </c>
-      <c r="T66" s="156"/>
-      <c r="U66" s="157"/>
-      <c r="V66" s="158">
+      <c r="T66" s="157"/>
+      <c r="U66" s="158"/>
+      <c r="V66" s="159">
         <v>45093</v>
       </c>
-      <c r="W66" s="159"/>
-      <c r="X66" s="160"/>
-      <c r="Y66" s="161">
+      <c r="W66" s="160"/>
+      <c r="X66" s="161"/>
+      <c r="Y66" s="162">
         <v>0.9</v>
       </c>
-      <c r="Z66" s="162"/>
-      <c r="AA66" s="163"/>
+      <c r="Z66" s="163"/>
+      <c r="AA66" s="164"/>
       <c r="AB66" s="143">
         <v>0.9</v>
       </c>
@@ -9077,13 +9291,13 @@
       <c r="BI66" s="4"/>
     </row>
     <row r="67" spans="1:61" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="154"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="152"/>
-      <c r="G67" s="152"/>
+      <c r="A67" s="155"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="153"/>
       <c r="H67" s="58" t="s">
         <v>97</v>
       </c>
@@ -9099,21 +9313,21 @@
       </c>
       <c r="Q67" s="61"/>
       <c r="R67" s="62"/>
-      <c r="S67" s="158">
+      <c r="S67" s="159">
         <v>45096</v>
       </c>
-      <c r="T67" s="159"/>
-      <c r="U67" s="160"/>
-      <c r="V67" s="158">
+      <c r="T67" s="160"/>
+      <c r="U67" s="161"/>
+      <c r="V67" s="159">
         <v>45099</v>
       </c>
-      <c r="W67" s="159"/>
-      <c r="X67" s="160"/>
-      <c r="Y67" s="161">
+      <c r="W67" s="160"/>
+      <c r="X67" s="161"/>
+      <c r="Y67" s="162">
         <v>0.9</v>
       </c>
-      <c r="Z67" s="162"/>
-      <c r="AA67" s="163"/>
+      <c r="Z67" s="163"/>
+      <c r="AA67" s="164"/>
       <c r="AB67" s="143">
         <v>0.9</v>
       </c>
@@ -9158,13 +9372,13 @@
       <c r="BI67" s="4"/>
     </row>
     <row r="68" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="154"/>
-      <c r="B68" s="154"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="152"/>
+      <c r="A68" s="155"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="153"/>
+      <c r="D68" s="153"/>
+      <c r="E68" s="153"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="153"/>
       <c r="H68" s="58" t="s">
         <v>99</v>
       </c>
@@ -9180,21 +9394,21 @@
       </c>
       <c r="Q68" s="61"/>
       <c r="R68" s="62"/>
-      <c r="S68" s="158">
+      <c r="S68" s="159">
         <v>45096</v>
       </c>
-      <c r="T68" s="159"/>
-      <c r="U68" s="160"/>
-      <c r="V68" s="158">
+      <c r="T68" s="160"/>
+      <c r="U68" s="161"/>
+      <c r="V68" s="159">
         <v>45099</v>
       </c>
-      <c r="W68" s="159"/>
-      <c r="X68" s="160"/>
-      <c r="Y68" s="164" t="s">
+      <c r="W68" s="160"/>
+      <c r="X68" s="161"/>
+      <c r="Y68" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="Z68" s="162"/>
-      <c r="AA68" s="163"/>
+      <c r="Z68" s="163"/>
+      <c r="AA68" s="164"/>
       <c r="AB68" s="143">
         <v>0</v>
       </c>
@@ -9237,13 +9451,13 @@
       <c r="BI68" s="4"/>
     </row>
     <row r="69" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="154"/>
-      <c r="B69" s="154"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="152"/>
+      <c r="A69" s="155"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="153"/>
+      <c r="G69" s="153"/>
       <c r="H69" s="63" t="s">
         <v>100</v>
       </c>
@@ -9259,21 +9473,21 @@
       </c>
       <c r="Q69" s="66"/>
       <c r="R69" s="67"/>
-      <c r="S69" s="153">
+      <c r="S69" s="154">
         <v>45089</v>
       </c>
-      <c r="T69" s="153"/>
-      <c r="U69" s="153"/>
-      <c r="V69" s="158">
+      <c r="T69" s="154"/>
+      <c r="U69" s="154"/>
+      <c r="V69" s="159">
         <v>45099</v>
       </c>
-      <c r="W69" s="159"/>
-      <c r="X69" s="160"/>
-      <c r="Y69" s="164" t="s">
+      <c r="W69" s="160"/>
+      <c r="X69" s="161"/>
+      <c r="Y69" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="Z69" s="162"/>
-      <c r="AA69" s="163"/>
+      <c r="Z69" s="163"/>
+      <c r="AA69" s="164"/>
       <c r="AB69" s="143">
         <v>0</v>
       </c>
@@ -9316,13 +9530,13 @@
       <c r="BI69" s="4"/>
     </row>
     <row r="70" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="154"/>
-      <c r="B70" s="154"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
+      <c r="A70" s="155"/>
+      <c r="B70" s="155"/>
+      <c r="C70" s="153"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
       <c r="H70" s="58" t="s">
         <v>101</v>
       </c>
@@ -9338,21 +9552,21 @@
       </c>
       <c r="Q70" s="61"/>
       <c r="R70" s="62"/>
-      <c r="S70" s="153">
+      <c r="S70" s="154">
         <v>45089</v>
       </c>
-      <c r="T70" s="153"/>
-      <c r="U70" s="153"/>
-      <c r="V70" s="158">
+      <c r="T70" s="154"/>
+      <c r="U70" s="154"/>
+      <c r="V70" s="159">
         <v>45099</v>
       </c>
-      <c r="W70" s="159"/>
-      <c r="X70" s="160"/>
-      <c r="Y70" s="164" t="s">
+      <c r="W70" s="160"/>
+      <c r="X70" s="161"/>
+      <c r="Y70" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="Z70" s="162"/>
-      <c r="AA70" s="163"/>
+      <c r="Z70" s="163"/>
+      <c r="AA70" s="164"/>
       <c r="AB70" s="143">
         <v>0</v>
       </c>
@@ -9395,13 +9609,13 @@
       <c r="BI70" s="4"/>
     </row>
     <row r="71" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="154"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="152"/>
-      <c r="E71" s="152"/>
-      <c r="F71" s="152"/>
-      <c r="G71" s="152"/>
+      <c r="A71" s="155"/>
+      <c r="B71" s="155"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="153"/>
       <c r="H71" s="63" t="s">
         <v>102</v>
       </c>
@@ -9417,21 +9631,21 @@
       </c>
       <c r="Q71" s="66"/>
       <c r="R71" s="67"/>
-      <c r="S71" s="153">
+      <c r="S71" s="154">
         <v>45095</v>
       </c>
-      <c r="T71" s="153"/>
-      <c r="U71" s="153"/>
-      <c r="V71" s="158">
+      <c r="T71" s="154"/>
+      <c r="U71" s="154"/>
+      <c r="V71" s="159">
         <v>45099</v>
       </c>
-      <c r="W71" s="159"/>
-      <c r="X71" s="160"/>
-      <c r="Y71" s="164" t="s">
+      <c r="W71" s="160"/>
+      <c r="X71" s="161"/>
+      <c r="Y71" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="Z71" s="162"/>
-      <c r="AA71" s="163"/>
+      <c r="Z71" s="163"/>
+      <c r="AA71" s="164"/>
       <c r="AB71" s="143">
         <v>0</v>
       </c>
@@ -9474,13 +9688,13 @@
       <c r="BI71" s="4"/>
     </row>
     <row r="72" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="154"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="152"/>
-      <c r="F72" s="152"/>
-      <c r="G72" s="152"/>
+      <c r="A72" s="155"/>
+      <c r="B72" s="155"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
       <c r="H72" s="63" t="s">
         <v>103</v>
       </c>
@@ -9496,21 +9710,21 @@
       </c>
       <c r="Q72" s="66"/>
       <c r="R72" s="67"/>
-      <c r="S72" s="153">
+      <c r="S72" s="154">
         <v>45090</v>
       </c>
-      <c r="T72" s="153"/>
-      <c r="U72" s="153"/>
-      <c r="V72" s="158">
+      <c r="T72" s="154"/>
+      <c r="U72" s="154"/>
+      <c r="V72" s="159">
         <v>45093</v>
       </c>
-      <c r="W72" s="159"/>
-      <c r="X72" s="160"/>
-      <c r="Y72" s="161">
+      <c r="W72" s="160"/>
+      <c r="X72" s="161"/>
+      <c r="Y72" s="162">
         <v>0.1</v>
       </c>
-      <c r="Z72" s="162"/>
-      <c r="AA72" s="163"/>
+      <c r="Z72" s="163"/>
+      <c r="AA72" s="164"/>
       <c r="AB72" s="143">
         <v>0.9</v>
       </c>
@@ -9555,35 +9769,35 @@
       <c r="BI72" s="4"/>
     </row>
     <row r="73" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="154"/>
-      <c r="B73" s="154"/>
-      <c r="C73" s="152"/>
-      <c r="D73" s="152"/>
-      <c r="E73" s="152"/>
-      <c r="F73" s="152"/>
-      <c r="G73" s="152"/>
-      <c r="H73" s="170"/>
-      <c r="I73" s="171"/>
-      <c r="J73" s="171"/>
-      <c r="K73" s="171"/>
-      <c r="L73" s="171"/>
-      <c r="M73" s="171"/>
-      <c r="N73" s="171"/>
-      <c r="O73" s="172"/>
-      <c r="P73" s="152"/>
-      <c r="Q73" s="152"/>
-      <c r="R73" s="152"/>
-      <c r="S73" s="153">
+      <c r="A73" s="155"/>
+      <c r="B73" s="155"/>
+      <c r="C73" s="153"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="153"/>
+      <c r="H73" s="171"/>
+      <c r="I73" s="172"/>
+      <c r="J73" s="172"/>
+      <c r="K73" s="172"/>
+      <c r="L73" s="172"/>
+      <c r="M73" s="172"/>
+      <c r="N73" s="172"/>
+      <c r="O73" s="173"/>
+      <c r="P73" s="153"/>
+      <c r="Q73" s="153"/>
+      <c r="R73" s="153"/>
+      <c r="S73" s="154">
         <v>45089</v>
       </c>
-      <c r="T73" s="153"/>
-      <c r="U73" s="153"/>
-      <c r="V73" s="153"/>
-      <c r="W73" s="153"/>
-      <c r="X73" s="153"/>
-      <c r="Y73" s="154"/>
-      <c r="Z73" s="154"/>
-      <c r="AA73" s="154"/>
+      <c r="T73" s="154"/>
+      <c r="U73" s="154"/>
+      <c r="V73" s="154"/>
+      <c r="W73" s="154"/>
+      <c r="X73" s="154"/>
+      <c r="Y73" s="155"/>
+      <c r="Z73" s="155"/>
+      <c r="AA73" s="155"/>
       <c r="AB73" s="6"/>
       <c r="AC73" s="144"/>
       <c r="AD73" s="6"/>
@@ -9620,33 +9834,33 @@
       <c r="BI73" s="4"/>
     </row>
     <row r="74" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="154"/>
-      <c r="B74" s="154"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="152"/>
-      <c r="F74" s="152"/>
-      <c r="G74" s="152"/>
-      <c r="H74" s="170"/>
-      <c r="I74" s="171"/>
-      <c r="J74" s="171"/>
-      <c r="K74" s="171"/>
-      <c r="L74" s="171"/>
-      <c r="M74" s="171"/>
-      <c r="N74" s="171"/>
-      <c r="O74" s="172"/>
-      <c r="P74" s="152"/>
-      <c r="Q74" s="152"/>
-      <c r="R74" s="152"/>
-      <c r="S74" s="153"/>
-      <c r="T74" s="153"/>
-      <c r="U74" s="153"/>
-      <c r="V74" s="153"/>
-      <c r="W74" s="153"/>
-      <c r="X74" s="153"/>
-      <c r="Y74" s="154"/>
-      <c r="Z74" s="154"/>
-      <c r="AA74" s="154"/>
+      <c r="A74" s="155"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="153"/>
+      <c r="D74" s="153"/>
+      <c r="E74" s="153"/>
+      <c r="F74" s="153"/>
+      <c r="G74" s="153"/>
+      <c r="H74" s="171"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="172"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="172"/>
+      <c r="M74" s="172"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="153"/>
+      <c r="Q74" s="153"/>
+      <c r="R74" s="153"/>
+      <c r="S74" s="154"/>
+      <c r="T74" s="154"/>
+      <c r="U74" s="154"/>
+      <c r="V74" s="154"/>
+      <c r="W74" s="154"/>
+      <c r="X74" s="154"/>
+      <c r="Y74" s="155"/>
+      <c r="Z74" s="155"/>
+      <c r="AA74" s="155"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="144"/>
       <c r="AD74" s="6"/>
@@ -9683,39 +9897,39 @@
       <c r="BI74" s="4"/>
     </row>
     <row r="75" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="154"/>
-      <c r="B75" s="154"/>
-      <c r="C75" s="152" t="s">
+      <c r="A75" s="155"/>
+      <c r="B75" s="155"/>
+      <c r="C75" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="152"/>
-      <c r="E75" s="152"/>
-      <c r="F75" s="152"/>
-      <c r="G75" s="152"/>
-      <c r="H75" s="167"/>
-      <c r="I75" s="168"/>
-      <c r="J75" s="168"/>
-      <c r="K75" s="168"/>
-      <c r="L75" s="168"/>
-      <c r="M75" s="168"/>
-      <c r="N75" s="168"/>
-      <c r="O75" s="169"/>
-      <c r="P75" s="180"/>
-      <c r="Q75" s="152"/>
-      <c r="R75" s="152"/>
-      <c r="S75" s="153">
+      <c r="D75" s="153"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="153"/>
+      <c r="H75" s="168"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169"/>
+      <c r="K75" s="169"/>
+      <c r="L75" s="169"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="169"/>
+      <c r="O75" s="170"/>
+      <c r="P75" s="181"/>
+      <c r="Q75" s="153"/>
+      <c r="R75" s="153"/>
+      <c r="S75" s="154">
         <v>45103</v>
       </c>
-      <c r="T75" s="153"/>
-      <c r="U75" s="153"/>
-      <c r="V75" s="153">
+      <c r="T75" s="154"/>
+      <c r="U75" s="154"/>
+      <c r="V75" s="154">
         <v>45106</v>
       </c>
-      <c r="W75" s="153"/>
-      <c r="X75" s="153"/>
-      <c r="Y75" s="154"/>
-      <c r="Z75" s="154"/>
-      <c r="AA75" s="154"/>
+      <c r="W75" s="154"/>
+      <c r="X75" s="154"/>
+      <c r="Y75" s="155"/>
+      <c r="Z75" s="155"/>
+      <c r="AA75" s="155"/>
       <c r="AB75" s="128">
         <v>0</v>
       </c>
@@ -9758,39 +9972,39 @@
       <c r="BI75" s="4"/>
     </row>
     <row r="76" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="154"/>
-      <c r="B76" s="154"/>
-      <c r="C76" s="152" t="s">
+      <c r="A76" s="155"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="152"/>
-      <c r="E76" s="152"/>
-      <c r="F76" s="152"/>
-      <c r="G76" s="152"/>
-      <c r="H76" s="167"/>
-      <c r="I76" s="168"/>
-      <c r="J76" s="168"/>
-      <c r="K76" s="168"/>
-      <c r="L76" s="168"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="168"/>
-      <c r="O76" s="169"/>
-      <c r="P76" s="152"/>
-      <c r="Q76" s="152"/>
-      <c r="R76" s="152"/>
-      <c r="S76" s="153">
+      <c r="D76" s="153"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="153"/>
+      <c r="G76" s="153"/>
+      <c r="H76" s="168"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="169"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="170"/>
+      <c r="P76" s="153"/>
+      <c r="Q76" s="153"/>
+      <c r="R76" s="153"/>
+      <c r="S76" s="154">
         <v>45103</v>
       </c>
-      <c r="T76" s="153"/>
-      <c r="U76" s="153"/>
-      <c r="V76" s="153">
+      <c r="T76" s="154"/>
+      <c r="U76" s="154"/>
+      <c r="V76" s="154">
         <v>45106</v>
       </c>
-      <c r="W76" s="153"/>
-      <c r="X76" s="153"/>
-      <c r="Y76" s="154"/>
-      <c r="Z76" s="154"/>
-      <c r="AA76" s="154"/>
+      <c r="W76" s="154"/>
+      <c r="X76" s="154"/>
+      <c r="Y76" s="155"/>
+      <c r="Z76" s="155"/>
+      <c r="AA76" s="155"/>
       <c r="AB76" s="128">
         <v>0</v>
       </c>
@@ -9833,39 +10047,39 @@
       <c r="BI76" s="4"/>
     </row>
     <row r="77" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="154"/>
-      <c r="B77" s="154"/>
-      <c r="C77" s="152" t="s">
+      <c r="A77" s="155"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="152"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="152"/>
-      <c r="H77" s="167"/>
-      <c r="I77" s="168"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="169"/>
-      <c r="P77" s="152"/>
-      <c r="Q77" s="152"/>
-      <c r="R77" s="152"/>
-      <c r="S77" s="153">
+      <c r="D77" s="153"/>
+      <c r="E77" s="153"/>
+      <c r="F77" s="153"/>
+      <c r="G77" s="153"/>
+      <c r="H77" s="168"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="169"/>
+      <c r="M77" s="169"/>
+      <c r="N77" s="169"/>
+      <c r="O77" s="170"/>
+      <c r="P77" s="153"/>
+      <c r="Q77" s="153"/>
+      <c r="R77" s="153"/>
+      <c r="S77" s="154">
         <v>45103</v>
       </c>
-      <c r="T77" s="153"/>
-      <c r="U77" s="153"/>
-      <c r="V77" s="153">
+      <c r="T77" s="154"/>
+      <c r="U77" s="154"/>
+      <c r="V77" s="154">
         <v>45106</v>
       </c>
-      <c r="W77" s="153"/>
-      <c r="X77" s="153"/>
-      <c r="Y77" s="154"/>
-      <c r="Z77" s="154"/>
-      <c r="AA77" s="154"/>
+      <c r="W77" s="154"/>
+      <c r="X77" s="154"/>
+      <c r="Y77" s="155"/>
+      <c r="Z77" s="155"/>
+      <c r="AA77" s="155"/>
       <c r="AB77" s="128">
         <v>0</v>
       </c>
@@ -9908,33 +10122,33 @@
       <c r="BI77" s="4"/>
     </row>
     <row r="78" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="154"/>
-      <c r="B78" s="154"/>
-      <c r="C78" s="152"/>
-      <c r="D78" s="152"/>
-      <c r="E78" s="152"/>
-      <c r="F78" s="152"/>
-      <c r="G78" s="152"/>
-      <c r="H78" s="167"/>
-      <c r="I78" s="168"/>
-      <c r="J78" s="168"/>
-      <c r="K78" s="168"/>
-      <c r="L78" s="168"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="168"/>
-      <c r="O78" s="169"/>
-      <c r="P78" s="152"/>
-      <c r="Q78" s="152"/>
-      <c r="R78" s="152"/>
-      <c r="S78" s="153"/>
-      <c r="T78" s="153"/>
-      <c r="U78" s="153"/>
-      <c r="V78" s="153"/>
-      <c r="W78" s="153"/>
-      <c r="X78" s="153"/>
-      <c r="Y78" s="154"/>
-      <c r="Z78" s="154"/>
-      <c r="AA78" s="154"/>
+      <c r="A78" s="155"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="153"/>
+      <c r="G78" s="153"/>
+      <c r="H78" s="168"/>
+      <c r="I78" s="169"/>
+      <c r="J78" s="169"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="169"/>
+      <c r="M78" s="169"/>
+      <c r="N78" s="169"/>
+      <c r="O78" s="170"/>
+      <c r="P78" s="153"/>
+      <c r="Q78" s="153"/>
+      <c r="R78" s="153"/>
+      <c r="S78" s="154"/>
+      <c r="T78" s="154"/>
+      <c r="U78" s="154"/>
+      <c r="V78" s="154"/>
+      <c r="W78" s="154"/>
+      <c r="X78" s="154"/>
+      <c r="Y78" s="155"/>
+      <c r="Z78" s="155"/>
+      <c r="AA78" s="155"/>
       <c r="AB78" s="6"/>
       <c r="AC78" s="144"/>
       <c r="AD78" s="6"/>
@@ -9971,33 +10185,33 @@
       <c r="BI78" s="4"/>
     </row>
     <row r="79" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="154"/>
-      <c r="B79" s="154"/>
-      <c r="C79" s="152"/>
-      <c r="D79" s="152"/>
-      <c r="E79" s="152"/>
-      <c r="F79" s="152"/>
-      <c r="G79" s="152"/>
-      <c r="H79" s="167"/>
-      <c r="I79" s="168"/>
-      <c r="J79" s="168"/>
-      <c r="K79" s="168"/>
-      <c r="L79" s="168"/>
-      <c r="M79" s="168"/>
-      <c r="N79" s="168"/>
-      <c r="O79" s="169"/>
-      <c r="P79" s="152"/>
-      <c r="Q79" s="152"/>
-      <c r="R79" s="152"/>
-      <c r="S79" s="153"/>
-      <c r="T79" s="153"/>
-      <c r="U79" s="153"/>
-      <c r="V79" s="153"/>
-      <c r="W79" s="153"/>
-      <c r="X79" s="153"/>
-      <c r="Y79" s="154"/>
-      <c r="Z79" s="154"/>
-      <c r="AA79" s="154"/>
+      <c r="A79" s="155"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="153"/>
+      <c r="D79" s="153"/>
+      <c r="E79" s="153"/>
+      <c r="F79" s="153"/>
+      <c r="G79" s="153"/>
+      <c r="H79" s="168"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="169"/>
+      <c r="K79" s="169"/>
+      <c r="L79" s="169"/>
+      <c r="M79" s="169"/>
+      <c r="N79" s="169"/>
+      <c r="O79" s="170"/>
+      <c r="P79" s="153"/>
+      <c r="Q79" s="153"/>
+      <c r="R79" s="153"/>
+      <c r="S79" s="154"/>
+      <c r="T79" s="154"/>
+      <c r="U79" s="154"/>
+      <c r="V79" s="154"/>
+      <c r="W79" s="154"/>
+      <c r="X79" s="154"/>
+      <c r="Y79" s="155"/>
+      <c r="Z79" s="155"/>
+      <c r="AA79" s="155"/>
       <c r="AB79" s="6"/>
       <c r="AC79" s="144"/>
       <c r="AD79" s="6"/>
@@ -10034,41 +10248,41 @@
       <c r="BI79" s="4"/>
     </row>
     <row r="80" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="154"/>
-      <c r="B80" s="154"/>
-      <c r="C80" s="152" t="s">
+      <c r="A80" s="155"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="152"/>
-      <c r="E80" s="152"/>
-      <c r="F80" s="152"/>
-      <c r="G80" s="152"/>
-      <c r="H80" s="167"/>
-      <c r="I80" s="168"/>
-      <c r="J80" s="168"/>
-      <c r="K80" s="168"/>
-      <c r="L80" s="168"/>
-      <c r="M80" s="168"/>
-      <c r="N80" s="168"/>
-      <c r="O80" s="169"/>
-      <c r="P80" s="152"/>
-      <c r="Q80" s="152"/>
-      <c r="R80" s="152"/>
-      <c r="S80" s="153">
+      <c r="D80" s="153"/>
+      <c r="E80" s="153"/>
+      <c r="F80" s="153"/>
+      <c r="G80" s="153"/>
+      <c r="H80" s="168"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="169"/>
+      <c r="M80" s="169"/>
+      <c r="N80" s="169"/>
+      <c r="O80" s="170"/>
+      <c r="P80" s="153"/>
+      <c r="Q80" s="153"/>
+      <c r="R80" s="153"/>
+      <c r="S80" s="154">
         <v>45107</v>
       </c>
-      <c r="T80" s="153"/>
-      <c r="U80" s="153"/>
-      <c r="V80" s="153">
+      <c r="T80" s="154"/>
+      <c r="U80" s="154"/>
+      <c r="V80" s="154">
         <v>45107</v>
       </c>
-      <c r="W80" s="153"/>
-      <c r="X80" s="153"/>
-      <c r="Y80" s="154" t="s">
+      <c r="W80" s="154"/>
+      <c r="X80" s="154"/>
+      <c r="Y80" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="Z80" s="154"/>
-      <c r="AA80" s="154"/>
+      <c r="Z80" s="155"/>
+      <c r="AA80" s="155"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="144"/>
       <c r="AD80" s="6"/>
@@ -10105,33 +10319,33 @@
       <c r="BI80" s="10"/>
     </row>
     <row r="81" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="154"/>
-      <c r="B81" s="154"/>
-      <c r="C81" s="152"/>
-      <c r="D81" s="152"/>
-      <c r="E81" s="152"/>
-      <c r="F81" s="152"/>
-      <c r="G81" s="152"/>
-      <c r="H81" s="167"/>
-      <c r="I81" s="168"/>
-      <c r="J81" s="168"/>
-      <c r="K81" s="168"/>
-      <c r="L81" s="168"/>
-      <c r="M81" s="168"/>
-      <c r="N81" s="168"/>
-      <c r="O81" s="169"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="152"/>
-      <c r="R81" s="152"/>
-      <c r="S81" s="153"/>
-      <c r="T81" s="153"/>
-      <c r="U81" s="153"/>
-      <c r="V81" s="153"/>
-      <c r="W81" s="153"/>
-      <c r="X81" s="153"/>
-      <c r="Y81" s="154"/>
-      <c r="Z81" s="154"/>
-      <c r="AA81" s="154"/>
+      <c r="A81" s="155"/>
+      <c r="B81" s="155"/>
+      <c r="C81" s="153"/>
+      <c r="D81" s="153"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="153"/>
+      <c r="G81" s="153"/>
+      <c r="H81" s="168"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="170"/>
+      <c r="P81" s="153"/>
+      <c r="Q81" s="153"/>
+      <c r="R81" s="153"/>
+      <c r="S81" s="154"/>
+      <c r="T81" s="154"/>
+      <c r="U81" s="154"/>
+      <c r="V81" s="154"/>
+      <c r="W81" s="154"/>
+      <c r="X81" s="154"/>
+      <c r="Y81" s="155"/>
+      <c r="Z81" s="155"/>
+      <c r="AA81" s="155"/>
       <c r="AB81" s="6"/>
       <c r="AC81" s="144"/>
       <c r="AD81" s="6"/>
@@ -10168,33 +10382,33 @@
       <c r="BI81" s="4"/>
     </row>
     <row r="82" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="154"/>
-      <c r="B82" s="154"/>
-      <c r="C82" s="152"/>
-      <c r="D82" s="152"/>
-      <c r="E82" s="152"/>
-      <c r="F82" s="152"/>
-      <c r="G82" s="152"/>
-      <c r="H82" s="167"/>
-      <c r="I82" s="168"/>
-      <c r="J82" s="168"/>
-      <c r="K82" s="168"/>
-      <c r="L82" s="168"/>
-      <c r="M82" s="168"/>
-      <c r="N82" s="168"/>
-      <c r="O82" s="169"/>
-      <c r="P82" s="152"/>
-      <c r="Q82" s="152"/>
-      <c r="R82" s="152"/>
-      <c r="S82" s="153"/>
-      <c r="T82" s="153"/>
-      <c r="U82" s="153"/>
-      <c r="V82" s="153"/>
-      <c r="W82" s="153"/>
-      <c r="X82" s="153"/>
-      <c r="Y82" s="154"/>
-      <c r="Z82" s="154"/>
-      <c r="AA82" s="154"/>
+      <c r="A82" s="155"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="153"/>
+      <c r="D82" s="153"/>
+      <c r="E82" s="153"/>
+      <c r="F82" s="153"/>
+      <c r="G82" s="153"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="169"/>
+      <c r="J82" s="169"/>
+      <c r="K82" s="169"/>
+      <c r="L82" s="169"/>
+      <c r="M82" s="169"/>
+      <c r="N82" s="169"/>
+      <c r="O82" s="170"/>
+      <c r="P82" s="153"/>
+      <c r="Q82" s="153"/>
+      <c r="R82" s="153"/>
+      <c r="S82" s="154"/>
+      <c r="T82" s="154"/>
+      <c r="U82" s="154"/>
+      <c r="V82" s="154"/>
+      <c r="W82" s="154"/>
+      <c r="X82" s="154"/>
+      <c r="Y82" s="155"/>
+      <c r="Z82" s="155"/>
+      <c r="AA82" s="155"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="144"/>
       <c r="AD82" s="6"/>
@@ -10231,33 +10445,33 @@
       <c r="BI82" s="4"/>
     </row>
     <row r="83" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="154"/>
-      <c r="B83" s="154"/>
-      <c r="C83" s="152"/>
-      <c r="D83" s="152"/>
-      <c r="E83" s="152"/>
-      <c r="F83" s="152"/>
-      <c r="G83" s="152"/>
-      <c r="H83" s="167"/>
-      <c r="I83" s="168"/>
-      <c r="J83" s="168"/>
-      <c r="K83" s="168"/>
-      <c r="L83" s="168"/>
-      <c r="M83" s="168"/>
-      <c r="N83" s="168"/>
-      <c r="O83" s="169"/>
-      <c r="P83" s="152"/>
-      <c r="Q83" s="152"/>
-      <c r="R83" s="152"/>
-      <c r="S83" s="153"/>
-      <c r="T83" s="153"/>
-      <c r="U83" s="153"/>
-      <c r="V83" s="153"/>
-      <c r="W83" s="153"/>
-      <c r="X83" s="153"/>
-      <c r="Y83" s="154"/>
-      <c r="Z83" s="154"/>
-      <c r="AA83" s="154"/>
+      <c r="A83" s="155"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="153"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="153"/>
+      <c r="G83" s="153"/>
+      <c r="H83" s="168"/>
+      <c r="I83" s="169"/>
+      <c r="J83" s="169"/>
+      <c r="K83" s="169"/>
+      <c r="L83" s="169"/>
+      <c r="M83" s="169"/>
+      <c r="N83" s="169"/>
+      <c r="O83" s="170"/>
+      <c r="P83" s="153"/>
+      <c r="Q83" s="153"/>
+      <c r="R83" s="153"/>
+      <c r="S83" s="154"/>
+      <c r="T83" s="154"/>
+      <c r="U83" s="154"/>
+      <c r="V83" s="154"/>
+      <c r="W83" s="154"/>
+      <c r="X83" s="154"/>
+      <c r="Y83" s="155"/>
+      <c r="Z83" s="155"/>
+      <c r="AA83" s="155"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="144"/>
       <c r="AD83" s="6"/>
@@ -10833,42 +11047,42 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="209" t="s">
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="208" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="206" t="s">
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="207" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="205" t="s">
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="207" t="s">
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="207"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="100" t="s">
@@ -11487,106 +11701,106 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="101"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="116">
         <v>0.7</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="116">
         <v>0.8</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="35" t="s">
+      <c r="J14" s="114"/>
+      <c r="K14" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="116">
         <v>0.8</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="116">
         <v>1</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="35" t="s">
+      <c r="N14" s="114"/>
+      <c r="O14" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="115">
         <v>0</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="115">
         <v>0.4</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="44" t="s">
+      <c r="R14" s="112"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="X14" s="51">
+      <c r="X14" s="116">
         <v>0.1</v>
       </c>
-      <c r="Y14" s="51">
+      <c r="Y14" s="116">
         <v>0.5</v>
       </c>
-      <c r="Z14" s="42" t="s">
+      <c r="Z14" s="114" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="101">
         <v>45093</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z15" s="35"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z15" s="42"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
@@ -12397,8 +12611,8 @@
       <c r="E2" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="213"/>
     </row>
     <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="57">
@@ -13071,24 +13285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB10DE-182B-4CD5-8822-288E9494F1E6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA1432-11D3-432F-9CDF-4F1EFF8C582D}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/doc/D2_進捗管理表.xlsx
+++ b/doc/D2_進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2388" documentId="8_{37996BA0-FB90-4FD0-AAEE-46B97A589DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29FD32A6-4214-4430-8475-C3D7D82A0F5B}"/>
+  <xr:revisionPtr revIDLastSave="2564" documentId="8_{37996BA0-FB90-4FD0-AAEE-46B97A589DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21AC9FD9-B3A6-4994-A195-B36A11CB97A3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体進捗状況" sheetId="4" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="予実グラフ" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全体進捗状況!$P$4:$R$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">omake!$B$2:$E$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全体進捗状況!$P$4:$R$73</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="185">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -286,18 +286,21 @@
     <t>post.js</t>
   </si>
   <si>
+    <t>エラー表示などpostに併せて書き換える</t>
+  </si>
+  <si>
+    <t>post.jsp</t>
+  </si>
+  <si>
+    <t>機能完了</t>
+  </si>
+  <si>
+    <t>PostConfirmServlet.java</t>
+  </si>
+  <si>
     <t>未着手</t>
   </si>
   <si>
-    <t>post.jsp</t>
-  </si>
-  <si>
-    <t>機能完了</t>
-  </si>
-  <si>
-    <t>PostConfirmServlet.java</t>
-  </si>
-  <si>
     <t>PostServletの内容を移す必要あり</t>
   </si>
   <si>
@@ -325,15 +328,18 @@
     <t>edit.jsp</t>
   </si>
   <si>
+    <t>css、jsまだ</t>
+  </si>
+  <si>
+    <t>EditResultServlet.java</t>
+  </si>
+  <si>
+    <t>edit_confirm.jsp</t>
+  </si>
+  <si>
     <t>cssまだ</t>
   </si>
   <si>
-    <t>EditConfirmServlet.java</t>
-  </si>
-  <si>
-    <t>edit_confirm.jsp</t>
-  </si>
-  <si>
     <t>edit_result.jsp</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
     <t>article.jsp</t>
   </si>
   <si>
+    <t>機能面ほとんど完成</t>
+  </si>
+  <si>
     <t>community_search.jsp</t>
   </si>
   <si>
@@ -400,7 +409,7 @@
     <t>create.css</t>
   </si>
   <si>
-    <t>post.jsp/edit.jspが出来次第</t>
+    <t>community_createに適用済み</t>
   </si>
   <si>
     <t>confirm.css</t>
@@ -578,6 +587,24 @@
     <t>火</t>
   </si>
   <si>
+    <t>画像の処理のみ</t>
+  </si>
+  <si>
+    <t>CommunityDAO</t>
+  </si>
+  <si>
+    <t>EditResultSuevlet</t>
+  </si>
+  <si>
+    <t>進みはしたが、増えもしたので進捗はなし</t>
+  </si>
+  <si>
+    <t>CSS未実装</t>
+  </si>
+  <si>
+    <t>CSS実装中</t>
+  </si>
+  <si>
     <t>項番</t>
   </si>
   <si>
@@ -600,6 +627,9 @@
   </si>
   <si>
     <t>SignUpConfirmServlet.java</t>
+  </si>
+  <si>
+    <t>EditConfirmServlet.java</t>
   </si>
   <si>
     <t>article_xxxx.jsp</t>
@@ -1021,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1519,6 +1549,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1528,7 +1589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2081,12 +2142,42 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2102,15 +2193,6 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2267,20 +2349,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3782,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AE70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE74" sqref="AE74"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64:U64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -3804,151 +3883,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="22.5" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="228"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="221" t="s">
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="235"/>
+      <c r="AB1" s="235"/>
+      <c r="AC1" s="235"/>
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="235"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="218">
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="230"/>
+      <c r="AL1" s="225">
         <v>45078</v>
       </c>
-      <c r="AM1" s="219"/>
-      <c r="AN1" s="219"/>
-      <c r="AO1" s="219"/>
-      <c r="AP1" s="219"/>
-      <c r="AQ1" s="219"/>
-      <c r="AR1" s="220"/>
+      <c r="AM1" s="226"/>
+      <c r="AN1" s="226"/>
+      <c r="AO1" s="226"/>
+      <c r="AP1" s="226"/>
+      <c r="AQ1" s="226"/>
+      <c r="AR1" s="227"/>
     </row>
     <row r="2" spans="1:63" ht="22.5" customHeight="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="231"/>
-      <c r="AB2" s="231"/>
-      <c r="AC2" s="231"/>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="231"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="221" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="238"/>
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="238"/>
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238"/>
+      <c r="AF2" s="238"/>
+      <c r="AG2" s="239"/>
+      <c r="AH2" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="222"/>
-      <c r="AJ2" s="222"/>
-      <c r="AK2" s="223"/>
-      <c r="AL2" s="218">
+      <c r="AI2" s="229"/>
+      <c r="AJ2" s="229"/>
+      <c r="AK2" s="230"/>
+      <c r="AL2" s="225">
         <v>45107</v>
       </c>
-      <c r="AM2" s="219"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="219"/>
-      <c r="AP2" s="219"/>
-      <c r="AQ2" s="219"/>
-      <c r="AR2" s="220"/>
+      <c r="AM2" s="226"/>
+      <c r="AN2" s="226"/>
+      <c r="AO2" s="226"/>
+      <c r="AP2" s="226"/>
+      <c r="AQ2" s="226"/>
+      <c r="AR2" s="227"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="226" t="s">
+      <c r="B4" s="232"/>
+      <c r="C4" s="233" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="226"/>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="225" t="s">
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="233"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="233"/>
+      <c r="N4" s="233"/>
+      <c r="O4" s="233"/>
+      <c r="P4" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="225"/>
-      <c r="R4" s="225"/>
-      <c r="S4" s="225" t="s">
+      <c r="Q4" s="232"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="225"/>
-      <c r="U4" s="225"/>
-      <c r="V4" s="225"/>
-      <c r="W4" s="225"/>
-      <c r="X4" s="225"/>
-      <c r="Y4" s="224" t="s">
+      <c r="T4" s="232"/>
+      <c r="U4" s="232"/>
+      <c r="V4" s="232"/>
+      <c r="W4" s="232"/>
+      <c r="X4" s="232"/>
+      <c r="Y4" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="224"/>
-      <c r="AA4" s="224"/>
+      <c r="Z4" s="231"/>
+      <c r="AA4" s="231"/>
       <c r="AB4" s="120"/>
       <c r="AC4" s="136"/>
       <c r="AD4" s="120"/>
-      <c r="AE4" s="233" t="s">
+      <c r="AE4" s="240" t="s">
         <v>9</v>
       </c>
       <c r="AF4" s="7">
@@ -4075,41 +4154,41 @@
       <c r="BK4" s="3"/>
     </row>
     <row r="5" spans="1:63" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="225"/>
-      <c r="B5" s="225"/>
-      <c r="C5" s="225" t="s">
+      <c r="A5" s="232"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="225"/>
-      <c r="S5" s="225" t="s">
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="232"/>
+      <c r="O5" s="232"/>
+      <c r="P5" s="232"/>
+      <c r="Q5" s="232"/>
+      <c r="R5" s="232"/>
+      <c r="S5" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225" t="s">
+      <c r="T5" s="232"/>
+      <c r="U5" s="232"/>
+      <c r="V5" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="225"/>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
+      <c r="W5" s="232"/>
+      <c r="X5" s="232"/>
+      <c r="Y5" s="231"/>
+      <c r="Z5" s="231"/>
+      <c r="AA5" s="231"/>
       <c r="AB5" s="121" t="s">
         <v>12</v>
       </c>
@@ -4119,7 +4198,7 @@
       <c r="AD5" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="234"/>
+      <c r="AE5" s="241"/>
       <c r="AF5" s="5">
         <f>AL1</f>
         <v>45078</v>
@@ -4242,37 +4321,37 @@
       </c>
     </row>
     <row r="6" spans="1:63" ht="15" customHeight="1">
-      <c r="A6" s="225"/>
-      <c r="B6" s="225"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="225"/>
-      <c r="U6" s="225"/>
-      <c r="V6" s="225"/>
-      <c r="W6" s="225"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="224"/>
-      <c r="Z6" s="224"/>
-      <c r="AA6" s="224"/>
+      <c r="A6" s="232"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="232"/>
+      <c r="P6" s="232"/>
+      <c r="Q6" s="232"/>
+      <c r="R6" s="232"/>
+      <c r="S6" s="232"/>
+      <c r="T6" s="232"/>
+      <c r="U6" s="232"/>
+      <c r="V6" s="232"/>
+      <c r="W6" s="232"/>
+      <c r="X6" s="232"/>
+      <c r="Y6" s="231"/>
+      <c r="Z6" s="231"/>
+      <c r="AA6" s="231"/>
       <c r="AB6" s="122"/>
       <c r="AC6" s="138"/>
       <c r="AD6" s="122"/>
-      <c r="AE6" s="235"/>
+      <c r="AE6" s="242"/>
       <c r="AF6" s="6" t="str">
         <f>TEXT(AF5,"aaa")</f>
         <v>木</v>
@@ -4395,45 +4474,45 @@
       </c>
     </row>
     <row r="7" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="185" t="s">
+      <c r="A7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="198" t="s">
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="207"/>
-      <c r="J7" s="207"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="185" t="s">
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="186">
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="196">
         <v>45079</v>
       </c>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186">
+      <c r="T7" s="196"/>
+      <c r="U7" s="196"/>
+      <c r="V7" s="196">
         <v>45082</v>
       </c>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="187" t="s">
+      <c r="W7" s="196"/>
+      <c r="X7" s="196"/>
+      <c r="Y7" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
+      <c r="Z7" s="197"/>
+      <c r="AA7" s="197"/>
       <c r="AB7" s="126">
         <v>1</v>
       </c>
@@ -4473,43 +4552,43 @@
       <c r="BI7" s="4"/>
     </row>
     <row r="8" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="198" t="s">
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="207"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="198" t="s">
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="188">
+      <c r="Q8" s="214"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="198">
         <v>45078</v>
       </c>
-      <c r="T8" s="189"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="188">
+      <c r="T8" s="199"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="198">
         <v>45082</v>
       </c>
-      <c r="W8" s="189"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="198" t="s">
+      <c r="W8" s="199"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="207"/>
-      <c r="AA8" s="199"/>
+      <c r="Z8" s="214"/>
+      <c r="AA8" s="206"/>
       <c r="AB8" s="132">
         <v>1</v>
       </c>
@@ -4552,43 +4631,43 @@
       <c r="BI8" s="4"/>
     </row>
     <row r="9" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="198" t="s">
+      <c r="A9" s="205"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="198" t="s">
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="206"/>
+      <c r="P9" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="188">
+      <c r="Q9" s="214"/>
+      <c r="R9" s="206"/>
+      <c r="S9" s="198">
         <v>45078</v>
       </c>
-      <c r="T9" s="189"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="188">
+      <c r="T9" s="199"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="198">
         <v>45079</v>
       </c>
-      <c r="W9" s="189"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="198" t="s">
+      <c r="W9" s="199"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="207"/>
-      <c r="AA9" s="199"/>
+      <c r="Z9" s="214"/>
+      <c r="AA9" s="206"/>
       <c r="AB9" s="132">
         <v>1</v>
       </c>
@@ -4631,43 +4710,43 @@
       <c r="BI9" s="4"/>
     </row>
     <row r="10" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A10" s="198"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="198" t="s">
+      <c r="A10" s="205"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="207"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
-      <c r="M10" s="207"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="198" t="s">
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="206"/>
+      <c r="P10" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="199"/>
-      <c r="S10" s="188">
+      <c r="Q10" s="214"/>
+      <c r="R10" s="206"/>
+      <c r="S10" s="198">
         <v>45079</v>
       </c>
-      <c r="T10" s="189"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="188">
+      <c r="T10" s="199"/>
+      <c r="U10" s="200"/>
+      <c r="V10" s="198">
         <v>45082</v>
       </c>
-      <c r="W10" s="189"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="198" t="s">
+      <c r="W10" s="199"/>
+      <c r="X10" s="200"/>
+      <c r="Y10" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="207"/>
-      <c r="AA10" s="199"/>
+      <c r="Z10" s="214"/>
+      <c r="AA10" s="206"/>
       <c r="AB10" s="132">
         <v>1</v>
       </c>
@@ -4710,33 +4789,33 @@
       <c r="BI10" s="4"/>
     </row>
     <row r="11" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A11" s="198"/>
-      <c r="B11" s="199"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="207"/>
-      <c r="L11" s="207"/>
-      <c r="M11" s="207"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="199"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="199"/>
-      <c r="S11" s="188"/>
-      <c r="T11" s="189"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="188"/>
-      <c r="W11" s="189"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="207"/>
-      <c r="AA11" s="199"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="206"/>
+      <c r="P11" s="205"/>
+      <c r="Q11" s="214"/>
+      <c r="R11" s="206"/>
+      <c r="S11" s="198"/>
+      <c r="T11" s="199"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="198"/>
+      <c r="W11" s="199"/>
+      <c r="X11" s="200"/>
+      <c r="Y11" s="205"/>
+      <c r="Z11" s="214"/>
+      <c r="AA11" s="206"/>
       <c r="AB11" s="132"/>
       <c r="AC11" s="142"/>
       <c r="AD11" s="29"/>
@@ -4773,45 +4852,45 @@
       <c r="BI11" s="4"/>
     </row>
     <row r="12" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A12" s="187"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="185" t="s">
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="184" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="184" t="s">
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="195"/>
+      <c r="O12" s="195"/>
+      <c r="P12" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="184"/>
-      <c r="S12" s="186">
+      <c r="Q12" s="195"/>
+      <c r="R12" s="195"/>
+      <c r="S12" s="196">
         <v>45083</v>
       </c>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186">
+      <c r="T12" s="196"/>
+      <c r="U12" s="196"/>
+      <c r="V12" s="196">
         <v>45085</v>
       </c>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="187" t="s">
+      <c r="W12" s="196"/>
+      <c r="X12" s="196"/>
+      <c r="Y12" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
       <c r="AB12" s="132">
         <v>1</v>
       </c>
@@ -4854,43 +4933,43 @@
       <c r="BI12" s="4"/>
     </row>
     <row r="13" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A13" s="187"/>
-      <c r="B13" s="187"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="198" t="s">
+      <c r="A13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="207"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="207"/>
-      <c r="L13" s="207"/>
-      <c r="M13" s="207"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="184" t="s">
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="184"/>
-      <c r="S13" s="186">
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="196">
         <v>45083</v>
       </c>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186">
+      <c r="T13" s="196"/>
+      <c r="U13" s="196"/>
+      <c r="V13" s="196">
         <v>45084</v>
       </c>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="187" t="s">
+      <c r="W13" s="196"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="197"/>
       <c r="AB13" s="132">
         <v>1</v>
       </c>
@@ -4933,43 +5012,43 @@
       <c r="BI13" s="4"/>
     </row>
     <row r="14" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A14" s="187"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="198" t="s">
+      <c r="A14" s="197"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="207"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="207"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="184" t="s">
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="206"/>
+      <c r="P14" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="184"/>
-      <c r="S14" s="186">
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="196">
         <v>45083</v>
       </c>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186">
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196">
         <v>45085</v>
       </c>
-      <c r="W14" s="186"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="187" t="s">
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
       <c r="AB14" s="132">
         <v>1</v>
       </c>
@@ -5012,43 +5091,43 @@
       <c r="BI14" s="4"/>
     </row>
     <row r="15" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A15" s="198"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="198" t="s">
+      <c r="A15" s="205"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="199"/>
-      <c r="P15" s="198" t="s">
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="206"/>
+      <c r="P15" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="199"/>
-      <c r="S15" s="188">
+      <c r="Q15" s="214"/>
+      <c r="R15" s="206"/>
+      <c r="S15" s="198">
         <v>45084</v>
       </c>
-      <c r="T15" s="189"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="188">
+      <c r="T15" s="199"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="198">
         <v>45085</v>
       </c>
-      <c r="W15" s="189"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="211" t="s">
+      <c r="W15" s="199"/>
+      <c r="X15" s="200"/>
+      <c r="Y15" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
       <c r="AB15" s="132">
         <v>1</v>
       </c>
@@ -5091,43 +5170,43 @@
       <c r="BI15" s="4"/>
     </row>
     <row r="16" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="198" t="s">
+      <c r="A16" s="205"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="207"/>
-      <c r="M16" s="207"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="199"/>
-      <c r="P16" s="198" t="s">
+      <c r="I16" s="214"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="206"/>
+      <c r="P16" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="199"/>
-      <c r="S16" s="188">
+      <c r="Q16" s="214"/>
+      <c r="R16" s="206"/>
+      <c r="S16" s="198">
         <v>45084</v>
       </c>
-      <c r="T16" s="189"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="186">
+      <c r="T16" s="199"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="196">
         <v>45085</v>
       </c>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="187" t="s">
+      <c r="W16" s="196"/>
+      <c r="X16" s="196"/>
+      <c r="Y16" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="187"/>
-      <c r="AA16" s="187"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
       <c r="AB16" s="132">
         <v>1</v>
       </c>
@@ -5170,43 +5249,43 @@
       <c r="BI16" s="4"/>
     </row>
     <row r="17" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A17" s="187"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="184" t="s">
+      <c r="A17" s="197"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="184" t="s">
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="195"/>
+      <c r="P17" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="184"/>
-      <c r="S17" s="186">
+      <c r="Q17" s="195"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="196">
         <v>45084</v>
       </c>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="186">
+      <c r="T17" s="196"/>
+      <c r="U17" s="196"/>
+      <c r="V17" s="196">
         <v>45084</v>
       </c>
-      <c r="W17" s="186"/>
-      <c r="X17" s="186"/>
-      <c r="Y17" s="187" t="s">
+      <c r="W17" s="196"/>
+      <c r="X17" s="196"/>
+      <c r="Y17" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
       <c r="AB17" s="132">
         <v>1</v>
       </c>
@@ -5249,33 +5328,33 @@
       <c r="BI17" s="4"/>
     </row>
     <row r="18" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A18" s="187"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="186"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="187"/>
-      <c r="Z18" s="187"/>
-      <c r="AA18" s="187"/>
+      <c r="A18" s="197"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="196"/>
+      <c r="T18" s="196"/>
+      <c r="U18" s="196"/>
+      <c r="V18" s="196"/>
+      <c r="W18" s="196"/>
+      <c r="X18" s="196"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
       <c r="AB18" s="132"/>
       <c r="AC18" s="141"/>
       <c r="AD18" s="6"/>
@@ -5312,35 +5391,35 @@
       <c r="BI18" s="4"/>
     </row>
     <row r="19" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A19" s="187"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="185" t="s">
+      <c r="A19" s="197"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="196"/>
+      <c r="T19" s="196"/>
+      <c r="U19" s="196"/>
+      <c r="V19" s="196"/>
+      <c r="W19" s="196"/>
+      <c r="X19" s="196"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
       <c r="AB19" s="132"/>
       <c r="AC19" s="141"/>
       <c r="AD19" s="6"/>
@@ -5377,43 +5456,43 @@
       <c r="BI19" s="4"/>
     </row>
     <row r="20" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A20" s="198"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="198" t="s">
+      <c r="A20" s="205"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="207"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="199"/>
-      <c r="P20" s="198" t="s">
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="206"/>
+      <c r="P20" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="199"/>
-      <c r="S20" s="188">
+      <c r="Q20" s="214"/>
+      <c r="R20" s="206"/>
+      <c r="S20" s="198">
         <v>45086</v>
       </c>
-      <c r="T20" s="189"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="188">
+      <c r="T20" s="199"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="198">
         <v>45086</v>
       </c>
-      <c r="W20" s="189"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="206" t="s">
+      <c r="W20" s="199"/>
+      <c r="X20" s="200"/>
+      <c r="Y20" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="Z20" s="207"/>
-      <c r="AA20" s="199"/>
+      <c r="Z20" s="214"/>
+      <c r="AA20" s="206"/>
       <c r="AB20" s="132">
         <v>1</v>
       </c>
@@ -5456,43 +5535,43 @@
       <c r="BI20" s="4"/>
     </row>
     <row r="21" spans="1:61" ht="15.95">
-      <c r="A21" s="187"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="184" t="s">
+      <c r="A21" s="197"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184" t="s">
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="195"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="184"/>
-      <c r="S21" s="186">
+      <c r="Q21" s="195"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="196">
         <v>45086</v>
       </c>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186">
+      <c r="T21" s="196"/>
+      <c r="U21" s="196"/>
+      <c r="V21" s="196">
         <v>45086</v>
       </c>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="187" t="s">
+      <c r="W21" s="196"/>
+      <c r="X21" s="196"/>
+      <c r="Y21" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
+      <c r="Z21" s="197"/>
+      <c r="AA21" s="197"/>
       <c r="AB21" s="132">
         <v>1</v>
       </c>
@@ -5535,33 +5614,33 @@
       <c r="BI21" s="4"/>
     </row>
     <row r="22" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A22" s="187"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="187"/>
-      <c r="Z22" s="187"/>
-      <c r="AA22" s="187"/>
+      <c r="A22" s="197"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="196"/>
+      <c r="T22" s="196"/>
+      <c r="U22" s="196"/>
+      <c r="V22" s="196"/>
+      <c r="W22" s="196"/>
+      <c r="X22" s="196"/>
+      <c r="Y22" s="197"/>
+      <c r="Z22" s="197"/>
+      <c r="AA22" s="197"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="141"/>
       <c r="AD22" s="6"/>
@@ -5598,35 +5677,35 @@
       <c r="BI22" s="4"/>
     </row>
     <row r="23" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A23" s="187"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="185" t="s">
+      <c r="A23" s="197"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="187"/>
-      <c r="Z23" s="187"/>
-      <c r="AA23" s="187"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="196"/>
+      <c r="T23" s="196"/>
+      <c r="U23" s="196"/>
+      <c r="V23" s="196"/>
+      <c r="W23" s="196"/>
+      <c r="X23" s="196"/>
+      <c r="Y23" s="197"/>
+      <c r="Z23" s="197"/>
+      <c r="AA23" s="197"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="141"/>
       <c r="AD23" s="6"/>
@@ -5663,43 +5742,43 @@
       <c r="BI23" s="4"/>
     </row>
     <row r="24" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A24" s="187"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="184" t="s">
+      <c r="A24" s="197"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="185" t="s">
+      <c r="I24" s="195"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="195"/>
+      <c r="O24" s="195"/>
+      <c r="P24" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="185"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="186">
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="196">
         <v>45089</v>
       </c>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="186">
+      <c r="T24" s="196"/>
+      <c r="U24" s="196"/>
+      <c r="V24" s="196">
         <v>45089</v>
       </c>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="187" t="s">
+      <c r="W24" s="196"/>
+      <c r="X24" s="196"/>
+      <c r="Y24" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z24" s="187"/>
-      <c r="AA24" s="187"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
       <c r="AB24" s="126">
         <v>1</v>
       </c>
@@ -5742,43 +5821,43 @@
       <c r="BI24" s="4"/>
     </row>
     <row r="25" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A25" s="187"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="184" t="s">
+      <c r="A25" s="197"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="185" t="s">
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="186">
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="196">
         <v>45086</v>
       </c>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186">
+      <c r="T25" s="196"/>
+      <c r="U25" s="196"/>
+      <c r="V25" s="196">
         <v>45089</v>
       </c>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="187" t="s">
+      <c r="W25" s="196"/>
+      <c r="X25" s="196"/>
+      <c r="Y25" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z25" s="187"/>
-      <c r="AA25" s="187"/>
+      <c r="Z25" s="197"/>
+      <c r="AA25" s="197"/>
       <c r="AB25" s="126">
         <v>1</v>
       </c>
@@ -5821,13 +5900,13 @@
       <c r="BI25" s="4"/>
     </row>
     <row r="26" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A26" s="187"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="185"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
       <c r="H26" s="164" t="s">
         <v>42</v>
       </c>
@@ -5843,21 +5922,21 @@
       </c>
       <c r="Q26" s="160"/>
       <c r="R26" s="159"/>
-      <c r="S26" s="186">
+      <c r="S26" s="196">
         <v>45089</v>
       </c>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186">
+      <c r="T26" s="196"/>
+      <c r="U26" s="196"/>
+      <c r="V26" s="196">
         <v>45091</v>
       </c>
-      <c r="W26" s="186"/>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="211" t="s">
+      <c r="W26" s="196"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
+      <c r="Z26" s="197"/>
+      <c r="AA26" s="197"/>
       <c r="AB26" s="126">
         <v>1</v>
       </c>
@@ -5900,13 +5979,13 @@
       <c r="BI26" s="4"/>
     </row>
     <row r="27" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A27" s="187"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
+      <c r="A27" s="197"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
       <c r="H27" s="163" t="s">
         <v>43</v>
       </c>
@@ -5922,21 +6001,21 @@
       </c>
       <c r="Q27" s="160"/>
       <c r="R27" s="159"/>
-      <c r="S27" s="186">
+      <c r="S27" s="196">
         <v>45089</v>
       </c>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186">
+      <c r="T27" s="196"/>
+      <c r="U27" s="196"/>
+      <c r="V27" s="196">
         <v>45091</v>
       </c>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="211" t="s">
+      <c r="W27" s="196"/>
+      <c r="X27" s="196"/>
+      <c r="Y27" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
+      <c r="Z27" s="197"/>
+      <c r="AA27" s="197"/>
       <c r="AB27" s="126">
         <v>1</v>
       </c>
@@ -5979,13 +6058,13 @@
       <c r="BI27" s="4"/>
     </row>
     <row r="28" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A28" s="187"/>
-      <c r="B28" s="187"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
+      <c r="A28" s="197"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
       <c r="H28" s="169" t="s">
         <v>44</v>
       </c>
@@ -6001,21 +6080,21 @@
       </c>
       <c r="Q28" s="166"/>
       <c r="R28" s="165"/>
-      <c r="S28" s="186">
+      <c r="S28" s="196">
         <v>45091</v>
       </c>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="212">
+      <c r="T28" s="196"/>
+      <c r="U28" s="196"/>
+      <c r="V28" s="219">
         <v>45092</v>
       </c>
-      <c r="W28" s="212"/>
-      <c r="X28" s="212"/>
-      <c r="Y28" s="211" t="s">
+      <c r="W28" s="219"/>
+      <c r="X28" s="219"/>
+      <c r="Y28" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
       <c r="AB28" s="126">
         <v>1</v>
       </c>
@@ -6058,48 +6137,48 @@
       <c r="BI28" s="4"/>
     </row>
     <row r="29" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A29" s="187"/>
-      <c r="B29" s="187"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="56" t="s">
+      <c r="A29" s="197"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="56" t="s">
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="186">
+      <c r="Q29" s="182"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="196">
         <v>45089</v>
       </c>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="236">
+      <c r="T29" s="196"/>
+      <c r="U29" s="196"/>
+      <c r="V29" s="243">
         <v>45100</v>
       </c>
-      <c r="W29" s="236"/>
-      <c r="X29" s="236"/>
-      <c r="Y29" s="211">
-        <v>0.8</v>
-      </c>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="187"/>
+      <c r="W29" s="243"/>
+      <c r="X29" s="243"/>
+      <c r="Y29" s="218" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z29" s="197"/>
+      <c r="AA29" s="197"/>
       <c r="AB29" s="126">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="6">
         <v>10</v>
@@ -6118,18 +6197,18 @@
       <c r="AN29" s="11"/>
       <c r="AO29" s="11"/>
       <c r="AP29" s="11"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="18"/>
-      <c r="AS29" s="18"/>
-      <c r="AT29" s="18"/>
-      <c r="AU29" s="18"/>
+      <c r="AQ29" s="155"/>
+      <c r="AR29" s="155"/>
+      <c r="AS29" s="155"/>
+      <c r="AT29" s="155"/>
+      <c r="AU29" s="155"/>
       <c r="AV29" s="11"/>
       <c r="AW29" s="11"/>
-      <c r="AX29" s="18"/>
-      <c r="AY29" s="18"/>
-      <c r="AZ29" s="18"/>
-      <c r="BA29" s="18"/>
-      <c r="BB29" s="18"/>
+      <c r="AX29" s="155"/>
+      <c r="AY29" s="155"/>
+      <c r="AZ29" s="155"/>
+      <c r="BA29" s="155"/>
+      <c r="BB29" s="155"/>
       <c r="BC29" s="4"/>
       <c r="BD29" s="4"/>
       <c r="BE29" s="4"/>
@@ -6139,13 +6218,13 @@
       <c r="BI29" s="4"/>
     </row>
     <row r="30" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A30" s="187"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
+      <c r="A30" s="197"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
       <c r="H30" s="163" t="s">
         <v>47</v>
       </c>
@@ -6161,21 +6240,21 @@
       </c>
       <c r="Q30" s="160"/>
       <c r="R30" s="159"/>
-      <c r="S30" s="186">
+      <c r="S30" s="196">
         <v>45089</v>
       </c>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186">
+      <c r="T30" s="196"/>
+      <c r="U30" s="196"/>
+      <c r="V30" s="196">
         <v>45089</v>
       </c>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="187" t="s">
+      <c r="W30" s="196"/>
+      <c r="X30" s="196"/>
+      <c r="Y30" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="197"/>
       <c r="AB30" s="126">
         <v>1</v>
       </c>
@@ -6218,13 +6297,13 @@
       <c r="BI30" s="4"/>
     </row>
     <row r="31" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A31" s="187"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
+      <c r="A31" s="197"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
       <c r="H31" s="169" t="s">
         <v>48</v>
       </c>
@@ -6240,21 +6319,21 @@
       </c>
       <c r="Q31" s="166"/>
       <c r="R31" s="165"/>
-      <c r="S31" s="186">
+      <c r="S31" s="196">
         <v>45091</v>
       </c>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="186">
+      <c r="T31" s="196"/>
+      <c r="U31" s="196"/>
+      <c r="V31" s="196">
         <v>45092</v>
       </c>
-      <c r="W31" s="186"/>
-      <c r="X31" s="186"/>
-      <c r="Y31" s="211" t="s">
+      <c r="W31" s="196"/>
+      <c r="X31" s="196"/>
+      <c r="Y31" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
+      <c r="Z31" s="197"/>
+      <c r="AA31" s="197"/>
       <c r="AB31" s="126">
         <v>1</v>
       </c>
@@ -6297,13 +6376,13 @@
       <c r="BI31" s="4"/>
     </row>
     <row r="32" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A32" s="187"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
+      <c r="A32" s="197"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
       <c r="H32" s="56" t="s">
         <v>49</v>
       </c>
@@ -6319,21 +6398,21 @@
       </c>
       <c r="Q32" s="54"/>
       <c r="R32" s="55"/>
-      <c r="S32" s="186">
+      <c r="S32" s="196">
         <v>45089</v>
       </c>
-      <c r="T32" s="186"/>
-      <c r="U32" s="186"/>
-      <c r="V32" s="186">
+      <c r="T32" s="196"/>
+      <c r="U32" s="196"/>
+      <c r="V32" s="196">
         <v>45100</v>
       </c>
-      <c r="W32" s="186"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="211">
+      <c r="W32" s="196"/>
+      <c r="X32" s="196"/>
+      <c r="Y32" s="218">
         <v>0.8</v>
       </c>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
+      <c r="Z32" s="197"/>
+      <c r="AA32" s="197"/>
       <c r="AB32" s="126">
         <v>0.8</v>
       </c>
@@ -6378,13 +6457,13 @@
       <c r="BI32" s="4"/>
     </row>
     <row r="33" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A33" s="187"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
+      <c r="A33" s="197"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
       <c r="H33" s="163" t="s">
         <v>50</v>
       </c>
@@ -6400,21 +6479,21 @@
       </c>
       <c r="Q33" s="160"/>
       <c r="R33" s="159"/>
-      <c r="S33" s="186">
+      <c r="S33" s="196">
         <v>45091</v>
       </c>
-      <c r="T33" s="186"/>
-      <c r="U33" s="186"/>
-      <c r="V33" s="186">
+      <c r="T33" s="196"/>
+      <c r="U33" s="196"/>
+      <c r="V33" s="196">
         <v>45091</v>
       </c>
-      <c r="W33" s="186"/>
-      <c r="X33" s="186"/>
-      <c r="Y33" s="187" t="s">
+      <c r="W33" s="196"/>
+      <c r="X33" s="196"/>
+      <c r="Y33" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="187"/>
+      <c r="Z33" s="197"/>
+      <c r="AA33" s="197"/>
       <c r="AB33" s="126">
         <v>1</v>
       </c>
@@ -6459,13 +6538,13 @@
       <c r="BI33" s="4"/>
     </row>
     <row r="34" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A34" s="187"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
+      <c r="A34" s="197"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
       <c r="H34" s="169" t="s">
         <v>52</v>
       </c>
@@ -6481,21 +6560,21 @@
       </c>
       <c r="Q34" s="166"/>
       <c r="R34" s="165"/>
-      <c r="S34" s="186">
+      <c r="S34" s="196">
         <v>45089</v>
       </c>
-      <c r="T34" s="186"/>
-      <c r="U34" s="186"/>
-      <c r="V34" s="186">
+      <c r="T34" s="196"/>
+      <c r="U34" s="196"/>
+      <c r="V34" s="196">
         <v>45100</v>
       </c>
-      <c r="W34" s="186"/>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="211" t="s">
+      <c r="W34" s="196"/>
+      <c r="X34" s="196"/>
+      <c r="Y34" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="Z34" s="187"/>
-      <c r="AA34" s="187"/>
+      <c r="Z34" s="197"/>
+      <c r="AA34" s="197"/>
       <c r="AB34" s="126">
         <v>1</v>
       </c>
@@ -6538,13 +6617,13 @@
       <c r="BI34" s="4"/>
     </row>
     <row r="35" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A35" s="187"/>
-      <c r="B35" s="187"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
+      <c r="A35" s="197"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
       <c r="H35" s="56" t="s">
         <v>53</v>
       </c>
@@ -6560,21 +6639,21 @@
       </c>
       <c r="Q35" s="54"/>
       <c r="R35" s="55"/>
-      <c r="S35" s="186">
+      <c r="S35" s="196">
         <v>45091</v>
       </c>
-      <c r="T35" s="186"/>
-      <c r="U35" s="186"/>
-      <c r="V35" s="186">
+      <c r="T35" s="196"/>
+      <c r="U35" s="196"/>
+      <c r="V35" s="196">
         <v>45100</v>
       </c>
-      <c r="W35" s="186"/>
-      <c r="X35" s="186"/>
-      <c r="Y35" s="211">
+      <c r="W35" s="196"/>
+      <c r="X35" s="196"/>
+      <c r="Y35" s="218">
         <v>0.8</v>
       </c>
-      <c r="Z35" s="187"/>
-      <c r="AA35" s="187"/>
+      <c r="Z35" s="197"/>
+      <c r="AA35" s="197"/>
       <c r="AB35" s="126">
         <v>0.8</v>
       </c>
@@ -6619,13 +6698,13 @@
       <c r="BI35" s="4"/>
     </row>
     <row r="36" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A36" s="187"/>
-      <c r="B36" s="187"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
+      <c r="A36" s="197"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
       <c r="H36" s="179" t="s">
         <v>54</v>
       </c>
@@ -6641,21 +6720,21 @@
       </c>
       <c r="Q36" s="182"/>
       <c r="R36" s="183"/>
-      <c r="S36" s="186">
+      <c r="S36" s="196">
         <v>45091</v>
       </c>
-      <c r="T36" s="186"/>
-      <c r="U36" s="186"/>
-      <c r="V36" s="186">
+      <c r="T36" s="196"/>
+      <c r="U36" s="196"/>
+      <c r="V36" s="196">
         <v>45093</v>
       </c>
-      <c r="W36" s="186"/>
-      <c r="X36" s="186"/>
-      <c r="Y36" s="211" t="s">
+      <c r="W36" s="196"/>
+      <c r="X36" s="196"/>
+      <c r="Y36" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="Z36" s="187"/>
-      <c r="AA36" s="187"/>
+      <c r="Z36" s="197"/>
+      <c r="AA36" s="197"/>
       <c r="AB36" s="126">
         <v>1</v>
       </c>
@@ -6698,13 +6777,13 @@
       <c r="BI36" s="4"/>
     </row>
     <row r="37" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A37" s="187"/>
-      <c r="B37" s="187"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
+      <c r="A37" s="197"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
       <c r="H37" s="57" t="s">
         <v>55</v>
       </c>
@@ -6720,27 +6799,26 @@
       </c>
       <c r="Q37" s="60"/>
       <c r="R37" s="61"/>
-      <c r="S37" s="188">
+      <c r="S37" s="198">
         <v>45089</v>
       </c>
-      <c r="T37" s="189"/>
-      <c r="U37" s="190"/>
-      <c r="V37" s="186">
+      <c r="T37" s="199"/>
+      <c r="U37" s="200"/>
+      <c r="V37" s="196">
         <v>45093</v>
       </c>
-      <c r="W37" s="186"/>
-      <c r="X37" s="186"/>
-      <c r="Y37" s="211">
+      <c r="W37" s="196"/>
+      <c r="X37" s="196"/>
+      <c r="Y37" s="218">
         <v>0.75</v>
       </c>
-      <c r="Z37" s="187"/>
-      <c r="AA37" s="187"/>
+      <c r="Z37" s="197"/>
+      <c r="AA37" s="197"/>
       <c r="AB37" s="126">
         <v>0.75</v>
       </c>
       <c r="AC37" s="141">
-        <f>AD37*0.05</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="6">
         <v>5</v>
@@ -6780,13 +6858,13 @@
       <c r="BI37" s="4"/>
     </row>
     <row r="38" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A38" s="187"/>
-      <c r="B38" s="187"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
+      <c r="A38" s="197"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
       <c r="H38" s="67" t="s">
         <v>57</v>
       </c>
@@ -6802,29 +6880,29 @@
       </c>
       <c r="Q38" s="70"/>
       <c r="R38" s="71"/>
-      <c r="S38" s="186">
+      <c r="S38" s="196">
         <v>45089</v>
       </c>
-      <c r="T38" s="186"/>
-      <c r="U38" s="186"/>
-      <c r="V38" s="186">
-        <v>45093</v>
-      </c>
-      <c r="W38" s="186"/>
-      <c r="X38" s="186"/>
-      <c r="Y38" s="211">
+      <c r="T38" s="196"/>
+      <c r="U38" s="196"/>
+      <c r="V38" s="196">
+        <v>45098</v>
+      </c>
+      <c r="W38" s="196"/>
+      <c r="X38" s="196"/>
+      <c r="Y38" s="218">
         <v>0.9</v>
       </c>
-      <c r="Z38" s="187"/>
-      <c r="AA38" s="187"/>
+      <c r="Z38" s="197"/>
+      <c r="AA38" s="197"/>
       <c r="AB38" s="132">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AC38" s="142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD38" s="133">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE38" s="101" t="s">
         <v>58</v>
@@ -6847,9 +6925,9 @@
       <c r="AU38" s="18"/>
       <c r="AV38" s="11"/>
       <c r="AW38" s="11"/>
-      <c r="AX38" s="11"/>
-      <c r="AY38" s="11"/>
-      <c r="AZ38" s="11"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="18"/>
       <c r="BA38" s="11"/>
       <c r="BB38" s="11"/>
       <c r="BC38" s="4"/>
@@ -6861,13 +6939,13 @@
       <c r="BI38" s="4"/>
     </row>
     <row r="39" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A39" s="187"/>
-      <c r="B39" s="187"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
+      <c r="A39" s="197"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
       <c r="H39" s="67" t="s">
         <v>59</v>
       </c>
@@ -6883,31 +6961,33 @@
       </c>
       <c r="Q39" s="70"/>
       <c r="R39" s="71"/>
-      <c r="S39" s="186">
-        <v>45093</v>
-      </c>
-      <c r="T39" s="186"/>
-      <c r="U39" s="186"/>
-      <c r="V39" s="186">
-        <v>45093</v>
-      </c>
-      <c r="W39" s="186"/>
-      <c r="X39" s="186"/>
-      <c r="Y39" s="187" t="s">
+      <c r="S39" s="196">
+        <v>45097</v>
+      </c>
+      <c r="T39" s="196"/>
+      <c r="U39" s="196"/>
+      <c r="V39" s="196">
+        <v>45098</v>
+      </c>
+      <c r="W39" s="196"/>
+      <c r="X39" s="196"/>
+      <c r="Y39" s="218">
+        <v>0.6</v>
+      </c>
+      <c r="Z39" s="197"/>
+      <c r="AA39" s="197"/>
+      <c r="AB39" s="126">
+        <v>0.6</v>
+      </c>
+      <c r="AC39" s="141">
+        <v>1.2</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="Z39" s="187"/>
-      <c r="AA39" s="187"/>
-      <c r="AB39" s="126">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="141">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="6">
-        <v>5</v>
-      </c>
-      <c r="AE39" s="6"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
@@ -6921,14 +7001,14 @@
       <c r="AP39" s="11"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
-      <c r="AS39" s="18"/>
-      <c r="AT39" s="18"/>
-      <c r="AU39" s="18"/>
+      <c r="AS39" s="253"/>
+      <c r="AT39" s="253"/>
+      <c r="AU39" s="253"/>
       <c r="AV39" s="11"/>
       <c r="AW39" s="11"/>
       <c r="AX39" s="11"/>
-      <c r="AY39" s="11"/>
-      <c r="AZ39" s="11"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="18"/>
       <c r="BA39" s="11"/>
       <c r="BB39" s="11"/>
       <c r="BC39" s="4"/>
@@ -6940,13 +7020,13 @@
       <c r="BI39" s="4"/>
     </row>
     <row r="40" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A40" s="187"/>
-      <c r="B40" s="187"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
+      <c r="A40" s="197"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
       <c r="H40" s="67" t="s">
         <v>61</v>
       </c>
@@ -6962,21 +7042,21 @@
       </c>
       <c r="Q40" s="70"/>
       <c r="R40" s="71"/>
-      <c r="S40" s="186">
+      <c r="S40" s="196">
         <v>45089</v>
       </c>
-      <c r="T40" s="186"/>
-      <c r="U40" s="186"/>
-      <c r="V40" s="186">
+      <c r="T40" s="196"/>
+      <c r="U40" s="196"/>
+      <c r="V40" s="196">
         <v>45100</v>
       </c>
-      <c r="W40" s="186"/>
-      <c r="X40" s="186"/>
-      <c r="Y40" s="211">
+      <c r="W40" s="196"/>
+      <c r="X40" s="196"/>
+      <c r="Y40" s="218">
         <v>0.8</v>
       </c>
-      <c r="Z40" s="187"/>
-      <c r="AA40" s="187"/>
+      <c r="Z40" s="197"/>
+      <c r="AA40" s="197"/>
       <c r="AB40" s="132">
         <v>0.8</v>
       </c>
@@ -7021,13 +7101,13 @@
       <c r="BI40" s="4"/>
     </row>
     <row r="41" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A41" s="187"/>
-      <c r="B41" s="187"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
+      <c r="A41" s="197"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
       <c r="H41" s="67" t="s">
         <v>63</v>
       </c>
@@ -7043,21 +7123,21 @@
       </c>
       <c r="Q41" s="70"/>
       <c r="R41" s="71"/>
-      <c r="S41" s="186">
+      <c r="S41" s="196">
         <v>45093</v>
       </c>
-      <c r="T41" s="186"/>
-      <c r="U41" s="186"/>
-      <c r="V41" s="186">
+      <c r="T41" s="196"/>
+      <c r="U41" s="196"/>
+      <c r="V41" s="196">
         <v>45099</v>
       </c>
-      <c r="W41" s="186"/>
-      <c r="X41" s="186"/>
-      <c r="Y41" s="187" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z41" s="187"/>
-      <c r="AA41" s="187"/>
+      <c r="W41" s="196"/>
+      <c r="X41" s="196"/>
+      <c r="Y41" s="197" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z41" s="197"/>
+      <c r="AA41" s="197"/>
       <c r="AB41" s="126">
         <v>0</v>
       </c>
@@ -7068,7 +7148,7 @@
         <v>10</v>
       </c>
       <c r="AE41" s="101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
@@ -7102,15 +7182,15 @@
       <c r="BI41" s="4"/>
     </row>
     <row r="42" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A42" s="187"/>
-      <c r="B42" s="187"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
+      <c r="A42" s="197"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
       <c r="H42" s="67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I42" s="68"/>
       <c r="J42" s="68"/>
@@ -7124,32 +7204,32 @@
       </c>
       <c r="Q42" s="70"/>
       <c r="R42" s="71"/>
-      <c r="S42" s="186">
+      <c r="S42" s="196">
         <v>45091</v>
       </c>
-      <c r="T42" s="186"/>
-      <c r="U42" s="186"/>
-      <c r="V42" s="186">
+      <c r="T42" s="196"/>
+      <c r="U42" s="196"/>
+      <c r="V42" s="196">
         <v>45099</v>
       </c>
-      <c r="W42" s="186"/>
-      <c r="X42" s="186"/>
-      <c r="Y42" s="211">
+      <c r="W42" s="196"/>
+      <c r="X42" s="196"/>
+      <c r="Y42" s="218">
         <v>0.95</v>
       </c>
-      <c r="Z42" s="187"/>
-      <c r="AA42" s="187"/>
+      <c r="Z42" s="197"/>
+      <c r="AA42" s="197"/>
       <c r="AB42" s="126">
         <v>0.95</v>
       </c>
       <c r="AC42" s="141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="6">
         <v>5</v>
       </c>
       <c r="AE42" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
@@ -7183,48 +7263,48 @@
       <c r="BI42" s="4"/>
     </row>
     <row r="43" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A43" s="187"/>
-      <c r="B43" s="187"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="67" t="s">
+      <c r="A43" s="197"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="194"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="186">
+      <c r="Q43" s="80"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="196">
         <v>45096</v>
       </c>
-      <c r="T43" s="186"/>
-      <c r="U43" s="186"/>
-      <c r="V43" s="186">
+      <c r="T43" s="196"/>
+      <c r="U43" s="196"/>
+      <c r="V43" s="196">
         <v>45099</v>
       </c>
-      <c r="W43" s="186"/>
-      <c r="X43" s="186"/>
-      <c r="Y43" s="211">
+      <c r="W43" s="196"/>
+      <c r="X43" s="196"/>
+      <c r="Y43" s="218">
         <v>0.65</v>
       </c>
-      <c r="Z43" s="187"/>
-      <c r="AA43" s="187"/>
+      <c r="Z43" s="197"/>
+      <c r="AA43" s="197"/>
       <c r="AB43" s="126">
         <v>0.65</v>
       </c>
       <c r="AC43" s="141">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="6">
         <v>6</v>
@@ -7262,48 +7342,48 @@
       <c r="BI43" s="4"/>
     </row>
     <row r="44" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A44" s="198"/>
-      <c r="B44" s="199"/>
-      <c r="C44" s="200"/>
-      <c r="D44" s="201"/>
-      <c r="E44" s="201"/>
-      <c r="F44" s="201"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="67" t="s">
+      <c r="A44" s="205"/>
+      <c r="B44" s="206"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="209"/>
+      <c r="H44" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="188">
+      <c r="Q44" s="80"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="198">
         <v>45096</v>
       </c>
-      <c r="T44" s="189"/>
-      <c r="U44" s="190"/>
-      <c r="V44" s="188">
+      <c r="T44" s="199"/>
+      <c r="U44" s="200"/>
+      <c r="V44" s="198">
         <v>45099</v>
       </c>
-      <c r="W44" s="189"/>
-      <c r="X44" s="190"/>
-      <c r="Y44" s="206">
+      <c r="W44" s="199"/>
+      <c r="X44" s="200"/>
+      <c r="Y44" s="213">
         <v>0.7</v>
       </c>
-      <c r="Z44" s="207"/>
-      <c r="AA44" s="199"/>
+      <c r="Z44" s="214"/>
+      <c r="AA44" s="206"/>
       <c r="AB44" s="119">
         <v>0.7</v>
       </c>
       <c r="AC44" s="143">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="29">
         <v>6</v>
@@ -7349,7 +7429,7 @@
       <c r="F45" s="150"/>
       <c r="G45" s="150"/>
       <c r="H45" s="163" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I45" s="162"/>
       <c r="J45" s="162"/>
@@ -7373,11 +7453,11 @@
       </c>
       <c r="W45" s="192"/>
       <c r="X45" s="193"/>
-      <c r="Y45" s="194" t="s">
+      <c r="Y45" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="Z45" s="195"/>
-      <c r="AA45" s="196"/>
+      <c r="Z45" s="202"/>
+      <c r="AA45" s="203"/>
       <c r="AB45" s="119">
         <v>1</v>
       </c>
@@ -7420,15 +7500,15 @@
       <c r="BI45" s="4"/>
     </row>
     <row r="46" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A46" s="198"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="200"/>
-      <c r="D46" s="201"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="201"/>
-      <c r="G46" s="210"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="206"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="208"/>
+      <c r="G46" s="217"/>
       <c r="H46" s="72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I46" s="73"/>
       <c r="J46" s="73"/>
@@ -7442,32 +7522,32 @@
       </c>
       <c r="Q46" s="75"/>
       <c r="R46" s="76"/>
-      <c r="S46" s="188">
+      <c r="S46" s="198">
         <v>45089</v>
       </c>
-      <c r="T46" s="189"/>
-      <c r="U46" s="190"/>
-      <c r="V46" s="188">
+      <c r="T46" s="199"/>
+      <c r="U46" s="200"/>
+      <c r="V46" s="198">
         <v>45093</v>
       </c>
-      <c r="W46" s="189"/>
-      <c r="X46" s="190"/>
-      <c r="Y46" s="206">
+      <c r="W46" s="199"/>
+      <c r="X46" s="200"/>
+      <c r="Y46" s="213">
         <v>0.9</v>
       </c>
-      <c r="Z46" s="207"/>
-      <c r="AA46" s="199"/>
+      <c r="Z46" s="214"/>
+      <c r="AA46" s="206"/>
       <c r="AB46" s="119">
         <v>0.9</v>
       </c>
       <c r="AC46" s="143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="29">
         <v>5</v>
       </c>
       <c r="AE46" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
@@ -7501,15 +7581,15 @@
       <c r="BI46" s="4"/>
     </row>
     <row r="47" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A47" s="198"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="200"/>
-      <c r="D47" s="201"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="201"/>
-      <c r="G47" s="202"/>
+      <c r="A47" s="205"/>
+      <c r="B47" s="206"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="208"/>
+      <c r="E47" s="208"/>
+      <c r="F47" s="208"/>
+      <c r="G47" s="209"/>
       <c r="H47" s="72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" s="73"/>
       <c r="J47" s="73"/>
@@ -7523,32 +7603,32 @@
       </c>
       <c r="Q47" s="75"/>
       <c r="R47" s="76"/>
-      <c r="S47" s="188">
+      <c r="S47" s="198">
         <v>45089</v>
       </c>
-      <c r="T47" s="189"/>
-      <c r="U47" s="190"/>
-      <c r="V47" s="188">
+      <c r="T47" s="199"/>
+      <c r="U47" s="200"/>
+      <c r="V47" s="198">
         <v>45093</v>
       </c>
-      <c r="W47" s="189"/>
-      <c r="X47" s="190"/>
-      <c r="Y47" s="206">
+      <c r="W47" s="199"/>
+      <c r="X47" s="200"/>
+      <c r="Y47" s="213">
         <v>0.8</v>
       </c>
-      <c r="Z47" s="207"/>
-      <c r="AA47" s="199"/>
+      <c r="Z47" s="214"/>
+      <c r="AA47" s="206"/>
       <c r="AB47" s="119">
         <v>0.8</v>
       </c>
       <c r="AC47" s="143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="29">
         <v>5</v>
       </c>
       <c r="AE47" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
@@ -7582,15 +7662,15 @@
       <c r="BI47" s="4"/>
     </row>
     <row r="48" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A48" s="198"/>
-      <c r="B48" s="199"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="201"/>
-      <c r="F48" s="201"/>
-      <c r="G48" s="202"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="208"/>
+      <c r="E48" s="208"/>
+      <c r="F48" s="208"/>
+      <c r="G48" s="209"/>
       <c r="H48" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I48" s="73"/>
       <c r="J48" s="73"/>
@@ -7604,31 +7684,33 @@
       </c>
       <c r="Q48" s="75"/>
       <c r="R48" s="76"/>
-      <c r="S48" s="188">
+      <c r="S48" s="198">
         <v>45090</v>
       </c>
-      <c r="T48" s="189"/>
-      <c r="U48" s="190"/>
-      <c r="V48" s="188">
+      <c r="T48" s="199"/>
+      <c r="U48" s="200"/>
+      <c r="V48" s="198">
         <v>45097</v>
       </c>
-      <c r="W48" s="189"/>
-      <c r="X48" s="190"/>
-      <c r="Y48" s="206">
-        <v>0.5</v>
-      </c>
-      <c r="Z48" s="207"/>
-      <c r="AA48" s="199"/>
+      <c r="W48" s="199"/>
+      <c r="X48" s="200"/>
+      <c r="Y48" s="213">
+        <v>0.8</v>
+      </c>
+      <c r="Z48" s="214"/>
+      <c r="AA48" s="206"/>
       <c r="AB48" s="119">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC48" s="143">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD48" s="29">
         <v>6</v>
       </c>
-      <c r="AE48" s="29"/>
+      <c r="AE48" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
@@ -7661,15 +7743,15 @@
       <c r="BI48" s="4"/>
     </row>
     <row r="49" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A49" s="198"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="201"/>
-      <c r="E49" s="201"/>
-      <c r="F49" s="201"/>
-      <c r="G49" s="202"/>
+      <c r="A49" s="205"/>
+      <c r="B49" s="206"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="208"/>
+      <c r="E49" s="208"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="209"/>
       <c r="H49" s="72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I49" s="73"/>
       <c r="J49" s="73"/>
@@ -7683,31 +7765,33 @@
       </c>
       <c r="Q49" s="75"/>
       <c r="R49" s="76"/>
-      <c r="S49" s="188">
+      <c r="S49" s="198">
         <v>45090</v>
       </c>
-      <c r="T49" s="189"/>
-      <c r="U49" s="190"/>
-      <c r="V49" s="188">
+      <c r="T49" s="199"/>
+      <c r="U49" s="200"/>
+      <c r="V49" s="198">
         <v>45097</v>
       </c>
-      <c r="W49" s="189"/>
-      <c r="X49" s="190"/>
-      <c r="Y49" s="206">
-        <v>0.5</v>
-      </c>
-      <c r="Z49" s="207"/>
-      <c r="AA49" s="199"/>
+      <c r="W49" s="199"/>
+      <c r="X49" s="200"/>
+      <c r="Y49" s="213">
+        <v>0.8</v>
+      </c>
+      <c r="Z49" s="214"/>
+      <c r="AA49" s="206"/>
       <c r="AB49" s="119">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC49" s="143">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD49" s="29">
         <v>6</v>
       </c>
-      <c r="AE49" s="29"/>
+      <c r="AE49" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
@@ -7740,15 +7824,15 @@
       <c r="BI49" s="4"/>
     </row>
     <row r="50" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A50" s="198"/>
-      <c r="B50" s="199"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="202"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="206"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="208"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="208"/>
+      <c r="G50" s="209"/>
       <c r="H50" s="72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I50" s="73"/>
       <c r="J50" s="73"/>
@@ -7762,32 +7846,32 @@
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="76"/>
-      <c r="S50" s="188">
+      <c r="S50" s="198">
         <v>45090</v>
       </c>
-      <c r="T50" s="189"/>
-      <c r="U50" s="190"/>
-      <c r="V50" s="188">
+      <c r="T50" s="199"/>
+      <c r="U50" s="200"/>
+      <c r="V50" s="198">
         <v>45099</v>
       </c>
-      <c r="W50" s="189"/>
-      <c r="X50" s="190"/>
-      <c r="Y50" s="206">
+      <c r="W50" s="199"/>
+      <c r="X50" s="200"/>
+      <c r="Y50" s="213">
         <v>0.8</v>
       </c>
-      <c r="Z50" s="207"/>
-      <c r="AA50" s="199"/>
+      <c r="Z50" s="214"/>
+      <c r="AA50" s="206"/>
       <c r="AB50" s="119">
         <v>0.8</v>
       </c>
       <c r="AC50" s="143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="29">
         <v>8</v>
       </c>
       <c r="AE50" s="29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
@@ -7821,15 +7905,15 @@
       <c r="BI50" s="4"/>
     </row>
     <row r="51" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A51" s="198"/>
-      <c r="B51" s="199"/>
-      <c r="C51" s="200"/>
-      <c r="D51" s="201"/>
-      <c r="E51" s="201"/>
-      <c r="F51" s="201"/>
-      <c r="G51" s="202"/>
+      <c r="A51" s="205"/>
+      <c r="B51" s="206"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="208"/>
+      <c r="F51" s="208"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
@@ -7843,26 +7927,27 @@
       </c>
       <c r="Q51" s="60"/>
       <c r="R51" s="61"/>
-      <c r="S51" s="188">
+      <c r="S51" s="198">
         <v>45089</v>
       </c>
-      <c r="T51" s="189"/>
-      <c r="U51" s="190"/>
-      <c r="V51" s="188">
+      <c r="T51" s="199"/>
+      <c r="U51" s="200"/>
+      <c r="V51" s="198">
         <v>45093</v>
       </c>
-      <c r="W51" s="189"/>
-      <c r="X51" s="190"/>
-      <c r="Y51" s="206">
+      <c r="W51" s="199"/>
+      <c r="X51" s="200"/>
+      <c r="Y51" s="213">
         <v>0.3</v>
       </c>
-      <c r="Z51" s="207"/>
-      <c r="AA51" s="199"/>
+      <c r="Z51" s="214"/>
+      <c r="AA51" s="206"/>
       <c r="AB51" s="119">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC51" s="143">
-        <v>0</v>
+        <f>AD51*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="AD51" s="29">
         <v>5</v>
@@ -7902,15 +7987,15 @@
       <c r="BI51" s="4"/>
     </row>
     <row r="52" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A52" s="198"/>
-      <c r="B52" s="199"/>
-      <c r="C52" s="200"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="202"/>
+      <c r="A52" s="205"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="208"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
@@ -7924,27 +8009,27 @@
       </c>
       <c r="Q52" s="60"/>
       <c r="R52" s="61"/>
-      <c r="S52" s="188">
+      <c r="S52" s="198">
         <v>45089</v>
       </c>
-      <c r="T52" s="189"/>
-      <c r="U52" s="190"/>
+      <c r="T52" s="199"/>
+      <c r="U52" s="200"/>
       <c r="V52" s="191">
         <v>45093</v>
       </c>
       <c r="W52" s="192"/>
       <c r="X52" s="193"/>
-      <c r="Y52" s="206">
+      <c r="Y52" s="213">
         <v>0.3</v>
       </c>
-      <c r="Z52" s="207"/>
-      <c r="AA52" s="199"/>
+      <c r="Z52" s="214"/>
+      <c r="AA52" s="206"/>
       <c r="AB52" s="119">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC52" s="143">
-        <f>AD52*0.2</f>
-        <v>1</v>
+        <f>AD52*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="AD52" s="29">
         <v>5</v>
@@ -7982,15 +8067,15 @@
       <c r="BI52" s="4"/>
     </row>
     <row r="53" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A53" s="198"/>
-      <c r="B53" s="199"/>
-      <c r="C53" s="200"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="202"/>
+      <c r="A53" s="205"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="208"/>
+      <c r="F53" s="208"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I53" s="78"/>
       <c r="J53" s="78"/>
@@ -8004,26 +8089,26 @@
       </c>
       <c r="Q53" s="80"/>
       <c r="R53" s="81"/>
-      <c r="S53" s="188">
+      <c r="S53" s="198">
         <v>45096</v>
       </c>
-      <c r="T53" s="189"/>
-      <c r="U53" s="190"/>
+      <c r="T53" s="199"/>
+      <c r="U53" s="200"/>
       <c r="V53" s="191">
         <v>45098</v>
       </c>
       <c r="W53" s="192"/>
       <c r="X53" s="193"/>
-      <c r="Y53" s="206">
+      <c r="Y53" s="213">
         <v>0.8</v>
       </c>
-      <c r="Z53" s="207"/>
-      <c r="AA53" s="199"/>
+      <c r="Z53" s="214"/>
+      <c r="AA53" s="206"/>
       <c r="AB53" s="119">
         <v>0.8</v>
       </c>
       <c r="AC53" s="143">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="29">
         <v>3</v>
@@ -8061,15 +8146,15 @@
       <c r="BI53" s="4"/>
     </row>
     <row r="54" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A54" s="198"/>
-      <c r="B54" s="199"/>
-      <c r="C54" s="200"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="202"/>
+      <c r="A54" s="205"/>
+      <c r="B54" s="206"/>
+      <c r="C54" s="207"/>
+      <c r="D54" s="208"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="208"/>
+      <c r="G54" s="209"/>
       <c r="H54" s="57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I54" s="58"/>
       <c r="J54" s="58"/>
@@ -8083,21 +8168,21 @@
       </c>
       <c r="Q54" s="60"/>
       <c r="R54" s="61"/>
-      <c r="S54" s="188">
+      <c r="S54" s="198">
         <v>45089</v>
       </c>
-      <c r="T54" s="189"/>
-      <c r="U54" s="190"/>
+      <c r="T54" s="199"/>
+      <c r="U54" s="200"/>
       <c r="V54" s="191">
         <v>45093</v>
       </c>
       <c r="W54" s="192"/>
       <c r="X54" s="193"/>
-      <c r="Y54" s="206">
+      <c r="Y54" s="213">
         <v>0.8</v>
       </c>
-      <c r="Z54" s="207"/>
-      <c r="AA54" s="199"/>
+      <c r="Z54" s="214"/>
+      <c r="AA54" s="206"/>
       <c r="AB54" s="119">
         <v>0.8</v>
       </c>
@@ -8108,7 +8193,7 @@
         <v>5</v>
       </c>
       <c r="AE54" s="29" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
@@ -8142,15 +8227,15 @@
       <c r="BI54" s="4"/>
     </row>
     <row r="55" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A55" s="198"/>
-      <c r="B55" s="199"/>
-      <c r="C55" s="200"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="202"/>
+      <c r="A55" s="205"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="207"/>
+      <c r="D55" s="208"/>
+      <c r="E55" s="208"/>
+      <c r="F55" s="208"/>
+      <c r="G55" s="209"/>
       <c r="H55" s="62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I55" s="63"/>
       <c r="J55" s="63"/>
@@ -8160,36 +8245,36 @@
       <c r="N55" s="63"/>
       <c r="O55" s="64"/>
       <c r="P55" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q55" s="65"/>
       <c r="R55" s="66"/>
-      <c r="S55" s="188">
+      <c r="S55" s="198">
         <v>45089</v>
       </c>
-      <c r="T55" s="189"/>
-      <c r="U55" s="190"/>
-      <c r="V55" s="188">
+      <c r="T55" s="199"/>
+      <c r="U55" s="200"/>
+      <c r="V55" s="198">
         <v>45096</v>
       </c>
-      <c r="W55" s="189"/>
-      <c r="X55" s="190"/>
-      <c r="Y55" s="206">
-        <v>0.9</v>
-      </c>
-      <c r="Z55" s="207"/>
-      <c r="AA55" s="199"/>
+      <c r="W55" s="199"/>
+      <c r="X55" s="200"/>
+      <c r="Y55" s="213">
+        <v>0.92</v>
+      </c>
+      <c r="Z55" s="214"/>
+      <c r="AA55" s="206"/>
       <c r="AB55" s="119">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="143">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="AD55" s="29">
         <v>6</v>
       </c>
       <c r="AE55" s="29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
@@ -8223,15 +8308,15 @@
       <c r="BI55" s="4"/>
     </row>
     <row r="56" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A56" s="198"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="200"/>
-      <c r="D56" s="201"/>
-      <c r="E56" s="201"/>
-      <c r="F56" s="201"/>
-      <c r="G56" s="202"/>
+      <c r="A56" s="205"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="207"/>
+      <c r="D56" s="208"/>
+      <c r="E56" s="208"/>
+      <c r="F56" s="208"/>
+      <c r="G56" s="209"/>
       <c r="H56" s="62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I56" s="63"/>
       <c r="J56" s="63"/>
@@ -8241,35 +8326,37 @@
       <c r="N56" s="63"/>
       <c r="O56" s="64"/>
       <c r="P56" s="62" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="Q56" s="65"/>
       <c r="R56" s="66"/>
-      <c r="S56" s="188">
+      <c r="S56" s="198">
         <v>45089</v>
       </c>
-      <c r="T56" s="189"/>
-      <c r="U56" s="190"/>
-      <c r="V56" s="188">
+      <c r="T56" s="199"/>
+      <c r="U56" s="200"/>
+      <c r="V56" s="198">
         <v>45099</v>
       </c>
-      <c r="W56" s="189"/>
-      <c r="X56" s="190"/>
-      <c r="Y56" s="206">
-        <v>0.3</v>
-      </c>
-      <c r="Z56" s="207"/>
-      <c r="AA56" s="199"/>
+      <c r="W56" s="199"/>
+      <c r="X56" s="200"/>
+      <c r="Y56" s="213">
+        <v>0.9</v>
+      </c>
+      <c r="Z56" s="214"/>
+      <c r="AA56" s="206"/>
       <c r="AB56" s="119">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="AC56" s="143">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AD56" s="29">
         <v>9</v>
       </c>
-      <c r="AE56" s="29"/>
+      <c r="AE56" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
@@ -8302,15 +8389,15 @@
       <c r="BI56" s="4"/>
     </row>
     <row r="57" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A57" s="198"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="201"/>
-      <c r="F57" s="201"/>
-      <c r="G57" s="202"/>
+      <c r="A57" s="205"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="207"/>
+      <c r="D57" s="208"/>
+      <c r="E57" s="208"/>
+      <c r="F57" s="208"/>
+      <c r="G57" s="209"/>
       <c r="H57" s="62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I57" s="63"/>
       <c r="J57" s="63"/>
@@ -8320,30 +8407,30 @@
       <c r="N57" s="63"/>
       <c r="O57" s="64"/>
       <c r="P57" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q57" s="65"/>
       <c r="R57" s="66"/>
-      <c r="S57" s="188">
+      <c r="S57" s="198">
         <v>45089</v>
       </c>
-      <c r="T57" s="189"/>
-      <c r="U57" s="190"/>
-      <c r="V57" s="188">
+      <c r="T57" s="199"/>
+      <c r="U57" s="200"/>
+      <c r="V57" s="198">
         <v>45099</v>
       </c>
-      <c r="W57" s="189"/>
-      <c r="X57" s="190"/>
-      <c r="Y57" s="206">
+      <c r="W57" s="199"/>
+      <c r="X57" s="200"/>
+      <c r="Y57" s="213">
         <v>0.3</v>
       </c>
-      <c r="Z57" s="207"/>
-      <c r="AA57" s="199"/>
+      <c r="Z57" s="214"/>
+      <c r="AA57" s="206"/>
       <c r="AB57" s="119">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AC57" s="143">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD57" s="29">
         <v>9</v>
@@ -8381,15 +8468,15 @@
       <c r="BI57" s="4"/>
     </row>
     <row r="58" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A58" s="198"/>
-      <c r="B58" s="199"/>
-      <c r="C58" s="200"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="201"/>
-      <c r="F58" s="201"/>
-      <c r="G58" s="202"/>
+      <c r="A58" s="205"/>
+      <c r="B58" s="206"/>
+      <c r="C58" s="207"/>
+      <c r="D58" s="208"/>
+      <c r="E58" s="208"/>
+      <c r="F58" s="208"/>
+      <c r="G58" s="209"/>
       <c r="H58" s="62" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I58" s="63"/>
       <c r="J58" s="63"/>
@@ -8399,30 +8486,30 @@
       <c r="N58" s="63"/>
       <c r="O58" s="64"/>
       <c r="P58" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q58" s="65"/>
       <c r="R58" s="66"/>
-      <c r="S58" s="188">
+      <c r="S58" s="198">
         <v>45090</v>
       </c>
-      <c r="T58" s="189"/>
-      <c r="U58" s="190"/>
-      <c r="V58" s="188">
+      <c r="T58" s="199"/>
+      <c r="U58" s="200"/>
+      <c r="V58" s="198">
         <v>45093</v>
       </c>
-      <c r="W58" s="189"/>
-      <c r="X58" s="190"/>
-      <c r="Y58" s="206">
-        <v>0.1</v>
-      </c>
-      <c r="Z58" s="207"/>
-      <c r="AA58" s="199"/>
+      <c r="W58" s="199"/>
+      <c r="X58" s="200"/>
+      <c r="Y58" s="213">
+        <v>0.3</v>
+      </c>
+      <c r="Z58" s="214"/>
+      <c r="AA58" s="206"/>
       <c r="AB58" s="119">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AC58" s="143">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD58" s="29">
         <v>4</v>
@@ -8460,15 +8547,15 @@
       <c r="BI58" s="4"/>
     </row>
     <row r="59" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A59" s="198"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="201"/>
-      <c r="F59" s="201"/>
-      <c r="G59" s="202"/>
+      <c r="A59" s="205"/>
+      <c r="B59" s="206"/>
+      <c r="C59" s="207"/>
+      <c r="D59" s="208"/>
+      <c r="E59" s="208"/>
+      <c r="F59" s="208"/>
+      <c r="G59" s="209"/>
       <c r="H59" s="62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I59" s="63"/>
       <c r="J59" s="63"/>
@@ -8478,25 +8565,25 @@
       <c r="N59" s="63"/>
       <c r="O59" s="156"/>
       <c r="P59" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q59" s="65"/>
       <c r="R59" s="66"/>
-      <c r="S59" s="188">
+      <c r="S59" s="198">
         <v>45089</v>
       </c>
-      <c r="T59" s="189"/>
-      <c r="U59" s="190"/>
-      <c r="V59" s="188">
+      <c r="T59" s="199"/>
+      <c r="U59" s="200"/>
+      <c r="V59" s="198">
         <v>45099</v>
       </c>
-      <c r="W59" s="189"/>
-      <c r="X59" s="190"/>
-      <c r="Y59" s="206">
+      <c r="W59" s="199"/>
+      <c r="X59" s="200"/>
+      <c r="Y59" s="213">
         <v>0.9</v>
       </c>
-      <c r="Z59" s="207"/>
-      <c r="AA59" s="199"/>
+      <c r="Z59" s="214"/>
+      <c r="AA59" s="206"/>
       <c r="AB59" s="119">
         <v>0.9</v>
       </c>
@@ -8507,7 +8594,7 @@
         <v>9</v>
       </c>
       <c r="AE59" s="29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
@@ -8541,15 +8628,15 @@
       <c r="BI59" s="4"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A60" s="198"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="200"/>
-      <c r="D60" s="201"/>
-      <c r="E60" s="201"/>
-      <c r="F60" s="201"/>
-      <c r="G60" s="202"/>
+      <c r="A60" s="205"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="207"/>
+      <c r="D60" s="208"/>
+      <c r="E60" s="208"/>
+      <c r="F60" s="208"/>
+      <c r="G60" s="209"/>
       <c r="H60" s="107" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I60" s="104"/>
       <c r="J60" s="104"/>
@@ -8563,21 +8650,21 @@
       </c>
       <c r="Q60" s="106"/>
       <c r="R60" s="108"/>
-      <c r="S60" s="188">
+      <c r="S60" s="198">
         <v>45090</v>
       </c>
-      <c r="T60" s="189"/>
-      <c r="U60" s="190"/>
-      <c r="V60" s="188">
+      <c r="T60" s="199"/>
+      <c r="U60" s="200"/>
+      <c r="V60" s="198">
         <v>45090</v>
       </c>
-      <c r="W60" s="189"/>
-      <c r="X60" s="190"/>
-      <c r="Y60" s="198" t="s">
+      <c r="W60" s="199"/>
+      <c r="X60" s="200"/>
+      <c r="Y60" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="Z60" s="207"/>
-      <c r="AA60" s="199"/>
+      <c r="Z60" s="214"/>
+      <c r="AA60" s="206"/>
       <c r="AB60" s="119">
         <v>1</v>
       </c>
@@ -8622,15 +8709,15 @@
       <c r="BI60" s="4"/>
     </row>
     <row r="61" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A61" s="198"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="200"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="201"/>
-      <c r="F61" s="201"/>
-      <c r="G61" s="202"/>
+      <c r="A61" s="205"/>
+      <c r="B61" s="206"/>
+      <c r="C61" s="207"/>
+      <c r="D61" s="208"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="208"/>
+      <c r="G61" s="209"/>
       <c r="H61" s="107" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I61" s="104"/>
       <c r="J61" s="104"/>
@@ -8644,21 +8731,21 @@
       </c>
       <c r="Q61" s="106"/>
       <c r="R61" s="108"/>
-      <c r="S61" s="188">
+      <c r="S61" s="198">
         <v>45091</v>
       </c>
-      <c r="T61" s="189"/>
-      <c r="U61" s="190"/>
-      <c r="V61" s="188">
+      <c r="T61" s="199"/>
+      <c r="U61" s="200"/>
+      <c r="V61" s="198">
         <v>45092</v>
       </c>
-      <c r="W61" s="189"/>
-      <c r="X61" s="190"/>
-      <c r="Y61" s="206" t="s">
+      <c r="W61" s="199"/>
+      <c r="X61" s="200"/>
+      <c r="Y61" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="Z61" s="207"/>
-      <c r="AA61" s="199"/>
+      <c r="Z61" s="214"/>
+      <c r="AA61" s="206"/>
       <c r="AB61" s="119">
         <v>1</v>
       </c>
@@ -8703,15 +8790,15 @@
       <c r="BI61" s="4"/>
     </row>
     <row r="62" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A62" s="198"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="200"/>
-      <c r="D62" s="201"/>
-      <c r="E62" s="201"/>
-      <c r="F62" s="201"/>
-      <c r="G62" s="202"/>
+      <c r="A62" s="205"/>
+      <c r="B62" s="206"/>
+      <c r="C62" s="207"/>
+      <c r="D62" s="208"/>
+      <c r="E62" s="208"/>
+      <c r="F62" s="208"/>
+      <c r="G62" s="209"/>
       <c r="H62" s="77" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I62" s="78"/>
       <c r="J62" s="78"/>
@@ -8725,21 +8812,21 @@
       </c>
       <c r="Q62" s="80"/>
       <c r="R62" s="81"/>
-      <c r="S62" s="188">
+      <c r="S62" s="198">
         <v>45089</v>
       </c>
-      <c r="T62" s="189"/>
-      <c r="U62" s="190"/>
-      <c r="V62" s="188">
+      <c r="T62" s="199"/>
+      <c r="U62" s="200"/>
+      <c r="V62" s="198">
         <v>45100</v>
       </c>
-      <c r="W62" s="189"/>
-      <c r="X62" s="190"/>
-      <c r="Y62" s="206">
+      <c r="W62" s="199"/>
+      <c r="X62" s="200"/>
+      <c r="Y62" s="213">
         <v>0.8</v>
       </c>
-      <c r="Z62" s="207"/>
-      <c r="AA62" s="199"/>
+      <c r="Z62" s="214"/>
+      <c r="AA62" s="206"/>
       <c r="AB62" s="119">
         <v>0.8</v>
       </c>
@@ -8750,7 +8837,7 @@
         <v>10</v>
       </c>
       <c r="AE62" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AF62" s="4"/>
       <c r="AG62" s="4"/>
@@ -8784,15 +8871,15 @@
       <c r="BI62" s="4"/>
     </row>
     <row r="63" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A63" s="198"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="200"/>
-      <c r="D63" s="201"/>
-      <c r="E63" s="201"/>
-      <c r="F63" s="201"/>
-      <c r="G63" s="202"/>
+      <c r="A63" s="205"/>
+      <c r="B63" s="206"/>
+      <c r="C63" s="207"/>
+      <c r="D63" s="208"/>
+      <c r="E63" s="208"/>
+      <c r="F63" s="208"/>
+      <c r="G63" s="209"/>
       <c r="H63" s="77" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I63" s="78"/>
       <c r="J63" s="78"/>
@@ -8806,21 +8893,21 @@
       </c>
       <c r="Q63" s="80"/>
       <c r="R63" s="81"/>
-      <c r="S63" s="188">
+      <c r="S63" s="198">
         <v>45091</v>
       </c>
-      <c r="T63" s="189"/>
-      <c r="U63" s="190"/>
-      <c r="V63" s="188">
+      <c r="T63" s="199"/>
+      <c r="U63" s="200"/>
+      <c r="V63" s="198">
         <v>45093</v>
       </c>
-      <c r="W63" s="189"/>
-      <c r="X63" s="190"/>
-      <c r="Y63" s="206">
+      <c r="W63" s="199"/>
+      <c r="X63" s="200"/>
+      <c r="Y63" s="213">
         <v>0.9</v>
       </c>
-      <c r="Z63" s="207"/>
-      <c r="AA63" s="199"/>
+      <c r="Z63" s="214"/>
+      <c r="AA63" s="206"/>
       <c r="AB63" s="119">
         <v>0.9</v>
       </c>
@@ -8831,7 +8918,7 @@
         <v>3</v>
       </c>
       <c r="AE63" s="29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
@@ -8865,55 +8952,53 @@
       <c r="BI63" s="4"/>
     </row>
     <row r="64" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A64" s="198"/>
-      <c r="B64" s="199"/>
-      <c r="C64" s="200"/>
-      <c r="D64" s="201"/>
-      <c r="E64" s="201"/>
-      <c r="F64" s="201"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="78"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="79"/>
-      <c r="P64" s="77" t="s">
+      <c r="A64" s="205"/>
+      <c r="B64" s="206"/>
+      <c r="C64" s="207"/>
+      <c r="D64" s="208"/>
+      <c r="E64" s="208"/>
+      <c r="F64" s="208"/>
+      <c r="G64" s="209"/>
+      <c r="H64" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="80"/>
-      <c r="R64" s="81"/>
-      <c r="S64" s="188">
+      <c r="Q64" s="255"/>
+      <c r="R64" s="256"/>
+      <c r="S64" s="198">
         <v>45089</v>
       </c>
-      <c r="T64" s="189"/>
-      <c r="U64" s="190"/>
-      <c r="V64" s="188">
+      <c r="T64" s="199"/>
+      <c r="U64" s="200"/>
+      <c r="V64" s="198">
         <v>45100</v>
       </c>
-      <c r="W64" s="189"/>
-      <c r="X64" s="190"/>
-      <c r="Y64" s="206">
-        <v>0.8</v>
-      </c>
-      <c r="Z64" s="208"/>
-      <c r="AA64" s="209"/>
+      <c r="W64" s="199"/>
+      <c r="X64" s="200"/>
+      <c r="Y64" s="213" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z64" s="215"/>
+      <c r="AA64" s="216"/>
       <c r="AB64" s="119">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD64" s="28">
         <v>10</v>
       </c>
-      <c r="AE64" s="29" t="s">
-        <v>91</v>
-      </c>
+      <c r="AE64" s="29"/>
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
       <c r="AH64" s="4"/>
@@ -8946,15 +9031,15 @@
       <c r="BI64" s="4"/>
     </row>
     <row r="65" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A65" s="198"/>
-      <c r="B65" s="199"/>
-      <c r="C65" s="200"/>
-      <c r="D65" s="201"/>
-      <c r="E65" s="201"/>
-      <c r="F65" s="201"/>
-      <c r="G65" s="202"/>
+      <c r="A65" s="205"/>
+      <c r="B65" s="206"/>
+      <c r="C65" s="207"/>
+      <c r="D65" s="208"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="208"/>
+      <c r="G65" s="209"/>
       <c r="H65" s="107" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="104"/>
@@ -8968,21 +9053,21 @@
       </c>
       <c r="Q65" s="106"/>
       <c r="R65" s="108"/>
-      <c r="S65" s="188">
+      <c r="S65" s="198">
         <v>45090</v>
       </c>
-      <c r="T65" s="189"/>
-      <c r="U65" s="190"/>
-      <c r="V65" s="188">
+      <c r="T65" s="199"/>
+      <c r="U65" s="200"/>
+      <c r="V65" s="198">
         <v>45093</v>
       </c>
-      <c r="W65" s="189"/>
-      <c r="X65" s="190"/>
-      <c r="Y65" s="206" t="s">
+      <c r="W65" s="199"/>
+      <c r="X65" s="200"/>
+      <c r="Y65" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="Z65" s="207"/>
-      <c r="AA65" s="199"/>
+      <c r="Z65" s="214"/>
+      <c r="AA65" s="206"/>
       <c r="AB65" s="119">
         <v>1</v>
       </c>
@@ -8994,7 +9079,7 @@
         <v>4</v>
       </c>
       <c r="AE65" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
@@ -9028,15 +9113,15 @@
       <c r="BI65" s="4"/>
     </row>
     <row r="66" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A66" s="198"/>
-      <c r="B66" s="199"/>
-      <c r="C66" s="200"/>
-      <c r="D66" s="201"/>
-      <c r="E66" s="201"/>
-      <c r="F66" s="201"/>
-      <c r="G66" s="202"/>
+      <c r="A66" s="205"/>
+      <c r="B66" s="206"/>
+      <c r="C66" s="207"/>
+      <c r="D66" s="208"/>
+      <c r="E66" s="208"/>
+      <c r="F66" s="208"/>
+      <c r="G66" s="209"/>
       <c r="H66" s="107" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I66" s="104"/>
       <c r="J66" s="104"/>
@@ -9046,30 +9131,30 @@
       <c r="N66" s="104"/>
       <c r="O66" s="105"/>
       <c r="P66" s="107" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q66" s="106"/>
       <c r="R66" s="108"/>
-      <c r="S66" s="188">
+      <c r="S66" s="198">
         <v>45096</v>
       </c>
-      <c r="T66" s="189"/>
-      <c r="U66" s="190"/>
+      <c r="T66" s="199"/>
+      <c r="U66" s="200"/>
       <c r="V66" s="191">
         <v>45099</v>
       </c>
       <c r="W66" s="192"/>
       <c r="X66" s="193"/>
-      <c r="Y66" s="194">
-        <v>0.4</v>
-      </c>
-      <c r="Z66" s="195"/>
-      <c r="AA66" s="196"/>
+      <c r="Y66" s="201">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="202"/>
+      <c r="AA66" s="203"/>
       <c r="AB66" s="140">
         <v>1</v>
       </c>
       <c r="AC66" s="144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="28">
         <v>3</v>
@@ -9107,15 +9192,15 @@
       <c r="BI66" s="4"/>
     </row>
     <row r="67" spans="1:61" ht="18">
-      <c r="A67" s="198"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="200"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="201"/>
-      <c r="F67" s="201"/>
-      <c r="G67" s="202"/>
+      <c r="A67" s="205"/>
+      <c r="B67" s="206"/>
+      <c r="C67" s="207"/>
+      <c r="D67" s="208"/>
+      <c r="E67" s="208"/>
+      <c r="F67" s="208"/>
+      <c r="G67" s="209"/>
       <c r="H67" s="57" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I67" s="58"/>
       <c r="J67" s="58"/>
@@ -9129,21 +9214,21 @@
       </c>
       <c r="Q67" s="60"/>
       <c r="R67" s="61"/>
-      <c r="S67" s="188">
+      <c r="S67" s="198">
         <v>45091</v>
       </c>
-      <c r="T67" s="189"/>
-      <c r="U67" s="190"/>
+      <c r="T67" s="199"/>
+      <c r="U67" s="200"/>
       <c r="V67" s="191">
         <v>45093</v>
       </c>
       <c r="W67" s="192"/>
       <c r="X67" s="193"/>
-      <c r="Y67" s="194">
+      <c r="Y67" s="201">
         <v>0.9</v>
       </c>
-      <c r="Z67" s="195"/>
-      <c r="AA67" s="196"/>
+      <c r="Z67" s="202"/>
+      <c r="AA67" s="203"/>
       <c r="AB67" s="140">
         <v>0.9</v>
       </c>
@@ -9154,7 +9239,7 @@
         <v>6</v>
       </c>
       <c r="AE67" s="28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
@@ -9188,15 +9273,15 @@
       <c r="BI67" s="4"/>
     </row>
     <row r="68" spans="1:61" ht="18">
-      <c r="A68" s="187"/>
-      <c r="B68" s="187"/>
-      <c r="C68" s="185"/>
-      <c r="D68" s="185"/>
-      <c r="E68" s="185"/>
-      <c r="F68" s="185"/>
-      <c r="G68" s="185"/>
+      <c r="A68" s="197"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="194"/>
+      <c r="D68" s="194"/>
+      <c r="E68" s="194"/>
+      <c r="F68" s="194"/>
+      <c r="G68" s="194"/>
       <c r="H68" s="57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I68" s="58"/>
       <c r="J68" s="58"/>
@@ -9220,11 +9305,11 @@
       </c>
       <c r="W68" s="192"/>
       <c r="X68" s="193"/>
-      <c r="Y68" s="194">
+      <c r="Y68" s="201">
         <v>0.9</v>
       </c>
-      <c r="Z68" s="195"/>
-      <c r="AA68" s="196"/>
+      <c r="Z68" s="202"/>
+      <c r="AA68" s="203"/>
       <c r="AB68" s="140">
         <v>0.9</v>
       </c>
@@ -9235,7 +9320,7 @@
         <v>6</v>
       </c>
       <c r="AE68" s="28" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
@@ -9269,15 +9354,15 @@
       <c r="BI68" s="4"/>
     </row>
     <row r="69" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A69" s="187"/>
-      <c r="B69" s="187"/>
-      <c r="C69" s="185"/>
-      <c r="D69" s="185"/>
-      <c r="E69" s="185"/>
-      <c r="F69" s="185"/>
-      <c r="G69" s="185"/>
+      <c r="A69" s="197"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="194"/>
+      <c r="D69" s="194"/>
+      <c r="E69" s="194"/>
+      <c r="F69" s="194"/>
+      <c r="G69" s="194"/>
       <c r="H69" s="57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I69" s="58"/>
       <c r="J69" s="58"/>
@@ -9301,11 +9386,11 @@
       </c>
       <c r="W69" s="192"/>
       <c r="X69" s="193"/>
-      <c r="Y69" s="197" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z69" s="195"/>
-      <c r="AA69" s="196"/>
+      <c r="Y69" s="204" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z69" s="202"/>
+      <c r="AA69" s="203"/>
       <c r="AB69" s="140">
         <v>0</v>
       </c>
@@ -9348,15 +9433,15 @@
       <c r="BI69" s="4"/>
     </row>
     <row r="70" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A70" s="187"/>
-      <c r="B70" s="187"/>
-      <c r="C70" s="185"/>
-      <c r="D70" s="185"/>
-      <c r="E70" s="185"/>
-      <c r="F70" s="185"/>
-      <c r="G70" s="185"/>
+      <c r="A70" s="197"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="194"/>
+      <c r="D70" s="194"/>
+      <c r="E70" s="194"/>
+      <c r="F70" s="194"/>
+      <c r="G70" s="194"/>
       <c r="H70" s="107" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="104"/>
@@ -9366,30 +9451,30 @@
       <c r="N70" s="104"/>
       <c r="O70" s="105"/>
       <c r="P70" s="107" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q70" s="106"/>
       <c r="R70" s="108"/>
-      <c r="S70" s="186">
+      <c r="S70" s="196">
         <v>45089</v>
       </c>
-      <c r="T70" s="186"/>
-      <c r="U70" s="186"/>
+      <c r="T70" s="196"/>
+      <c r="U70" s="196"/>
       <c r="V70" s="191">
         <v>45099</v>
       </c>
       <c r="W70" s="192"/>
       <c r="X70" s="193"/>
-      <c r="Y70" s="197" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z70" s="195"/>
-      <c r="AA70" s="196"/>
+      <c r="Y70" s="201">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="202"/>
+      <c r="AA70" s="203"/>
       <c r="AB70" s="140">
         <v>1</v>
       </c>
       <c r="AC70" s="144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD70" s="28">
         <v>4</v>
@@ -9427,15 +9512,15 @@
       <c r="BI70" s="4"/>
     </row>
     <row r="71" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A71" s="187"/>
-      <c r="B71" s="187"/>
-      <c r="C71" s="185"/>
-      <c r="D71" s="185"/>
-      <c r="E71" s="185"/>
-      <c r="F71" s="185"/>
-      <c r="G71" s="185"/>
+      <c r="A71" s="197"/>
+      <c r="B71" s="197"/>
+      <c r="C71" s="194"/>
+      <c r="D71" s="194"/>
+      <c r="E71" s="194"/>
+      <c r="F71" s="194"/>
+      <c r="G71" s="194"/>
       <c r="H71" s="57" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I71" s="58"/>
       <c r="J71" s="58"/>
@@ -9449,21 +9534,21 @@
       </c>
       <c r="Q71" s="60"/>
       <c r="R71" s="61"/>
-      <c r="S71" s="186">
+      <c r="S71" s="196">
         <v>45089</v>
       </c>
-      <c r="T71" s="186"/>
-      <c r="U71" s="186"/>
+      <c r="T71" s="196"/>
+      <c r="U71" s="196"/>
       <c r="V71" s="191">
         <v>45099</v>
       </c>
       <c r="W71" s="192"/>
       <c r="X71" s="193"/>
-      <c r="Y71" s="197" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z71" s="195"/>
-      <c r="AA71" s="196"/>
+      <c r="Y71" s="204" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z71" s="202"/>
+      <c r="AA71" s="203"/>
       <c r="AB71" s="140">
         <v>0</v>
       </c>
@@ -9506,15 +9591,15 @@
       <c r="BI71" s="4"/>
     </row>
     <row r="72" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A72" s="187"/>
-      <c r="B72" s="187"/>
-      <c r="C72" s="185"/>
-      <c r="D72" s="185"/>
-      <c r="E72" s="185"/>
-      <c r="F72" s="185"/>
-      <c r="G72" s="185"/>
+      <c r="A72" s="197"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="194"/>
+      <c r="D72" s="194"/>
+      <c r="E72" s="194"/>
+      <c r="F72" s="194"/>
+      <c r="G72" s="194"/>
       <c r="H72" s="62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I72" s="63"/>
       <c r="J72" s="63"/>
@@ -9524,30 +9609,30 @@
       <c r="N72" s="63"/>
       <c r="O72" s="64"/>
       <c r="P72" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q72" s="65"/>
       <c r="R72" s="66"/>
-      <c r="S72" s="186">
+      <c r="S72" s="196">
         <v>45095</v>
       </c>
-      <c r="T72" s="186"/>
-      <c r="U72" s="186"/>
+      <c r="T72" s="196"/>
+      <c r="U72" s="196"/>
       <c r="V72" s="191">
         <v>45099</v>
       </c>
       <c r="W72" s="192"/>
       <c r="X72" s="193"/>
-      <c r="Y72" s="197" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z72" s="195"/>
-      <c r="AA72" s="196"/>
+      <c r="Y72" s="201">
+        <v>0.3</v>
+      </c>
+      <c r="Z72" s="202"/>
+      <c r="AA72" s="203"/>
       <c r="AB72" s="140">
         <v>0.3</v>
       </c>
       <c r="AC72" s="144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="28">
         <v>4</v>
@@ -9585,15 +9670,15 @@
       <c r="BI72" s="4"/>
     </row>
     <row r="73" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A73" s="187"/>
-      <c r="B73" s="187"/>
-      <c r="C73" s="185"/>
-      <c r="D73" s="185"/>
-      <c r="E73" s="185"/>
-      <c r="F73" s="185"/>
-      <c r="G73" s="185"/>
+      <c r="A73" s="197"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="194"/>
+      <c r="D73" s="194"/>
+      <c r="E73" s="194"/>
+      <c r="F73" s="194"/>
+      <c r="G73" s="194"/>
       <c r="H73" s="107" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I73" s="104"/>
       <c r="J73" s="104"/>
@@ -9603,25 +9688,25 @@
       <c r="N73" s="104"/>
       <c r="O73" s="105"/>
       <c r="P73" s="107" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q73" s="106"/>
       <c r="R73" s="108"/>
-      <c r="S73" s="186">
+      <c r="S73" s="196">
         <v>45090</v>
       </c>
-      <c r="T73" s="186"/>
-      <c r="U73" s="186"/>
+      <c r="T73" s="196"/>
+      <c r="U73" s="196"/>
       <c r="V73" s="191">
         <v>45093</v>
       </c>
       <c r="W73" s="192"/>
       <c r="X73" s="193"/>
-      <c r="Y73" s="194">
+      <c r="Y73" s="201">
         <v>0.9</v>
       </c>
-      <c r="Z73" s="195"/>
-      <c r="AA73" s="196"/>
+      <c r="Z73" s="202"/>
+      <c r="AA73" s="203"/>
       <c r="AB73" s="140">
         <v>1</v>
       </c>
@@ -9632,7 +9717,7 @@
         <v>4</v>
       </c>
       <c r="AE73" s="28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF73" s="4"/>
       <c r="AG73" s="4"/>
@@ -9666,35 +9751,35 @@
       <c r="BI73" s="4"/>
     </row>
     <row r="74" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A74" s="187"/>
-      <c r="B74" s="187"/>
-      <c r="C74" s="185"/>
-      <c r="D74" s="185"/>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="185"/>
-      <c r="H74" s="203"/>
-      <c r="I74" s="204"/>
-      <c r="J74" s="204"/>
-      <c r="K74" s="204"/>
-      <c r="L74" s="204"/>
-      <c r="M74" s="204"/>
-      <c r="N74" s="204"/>
-      <c r="O74" s="205"/>
-      <c r="P74" s="185"/>
-      <c r="Q74" s="185"/>
-      <c r="R74" s="185"/>
-      <c r="S74" s="186">
+      <c r="A74" s="197"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="194"/>
+      <c r="D74" s="194"/>
+      <c r="E74" s="194"/>
+      <c r="F74" s="194"/>
+      <c r="G74" s="194"/>
+      <c r="H74" s="210"/>
+      <c r="I74" s="211"/>
+      <c r="J74" s="211"/>
+      <c r="K74" s="211"/>
+      <c r="L74" s="211"/>
+      <c r="M74" s="211"/>
+      <c r="N74" s="211"/>
+      <c r="O74" s="212"/>
+      <c r="P74" s="194"/>
+      <c r="Q74" s="194"/>
+      <c r="R74" s="194"/>
+      <c r="S74" s="196">
         <v>45089</v>
       </c>
-      <c r="T74" s="186"/>
-      <c r="U74" s="186"/>
-      <c r="V74" s="186"/>
-      <c r="W74" s="186"/>
-      <c r="X74" s="186"/>
-      <c r="Y74" s="187"/>
-      <c r="Z74" s="187"/>
-      <c r="AA74" s="187"/>
+      <c r="T74" s="196"/>
+      <c r="U74" s="196"/>
+      <c r="V74" s="196"/>
+      <c r="W74" s="196"/>
+      <c r="X74" s="196"/>
+      <c r="Y74" s="197"/>
+      <c r="Z74" s="197"/>
+      <c r="AA74" s="197"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="141"/>
       <c r="AD74" s="6"/>
@@ -9731,33 +9816,33 @@
       <c r="BI74" s="4"/>
     </row>
     <row r="75" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A75" s="187"/>
-      <c r="B75" s="187"/>
-      <c r="C75" s="185"/>
-      <c r="D75" s="185"/>
-      <c r="E75" s="185"/>
-      <c r="F75" s="185"/>
-      <c r="G75" s="185"/>
-      <c r="H75" s="203"/>
-      <c r="I75" s="204"/>
-      <c r="J75" s="204"/>
-      <c r="K75" s="204"/>
-      <c r="L75" s="204"/>
-      <c r="M75" s="204"/>
-      <c r="N75" s="204"/>
-      <c r="O75" s="205"/>
-      <c r="P75" s="185"/>
-      <c r="Q75" s="185"/>
-      <c r="R75" s="185"/>
-      <c r="S75" s="186"/>
-      <c r="T75" s="186"/>
-      <c r="U75" s="186"/>
-      <c r="V75" s="186"/>
-      <c r="W75" s="186"/>
-      <c r="X75" s="186"/>
-      <c r="Y75" s="187"/>
-      <c r="Z75" s="187"/>
-      <c r="AA75" s="187"/>
+      <c r="A75" s="197"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="194"/>
+      <c r="D75" s="194"/>
+      <c r="E75" s="194"/>
+      <c r="F75" s="194"/>
+      <c r="G75" s="194"/>
+      <c r="H75" s="210"/>
+      <c r="I75" s="211"/>
+      <c r="J75" s="211"/>
+      <c r="K75" s="211"/>
+      <c r="L75" s="211"/>
+      <c r="M75" s="211"/>
+      <c r="N75" s="211"/>
+      <c r="O75" s="212"/>
+      <c r="P75" s="194"/>
+      <c r="Q75" s="194"/>
+      <c r="R75" s="194"/>
+      <c r="S75" s="196"/>
+      <c r="T75" s="196"/>
+      <c r="U75" s="196"/>
+      <c r="V75" s="196"/>
+      <c r="W75" s="196"/>
+      <c r="X75" s="196"/>
+      <c r="Y75" s="197"/>
+      <c r="Z75" s="197"/>
+      <c r="AA75" s="197"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="141"/>
       <c r="AD75" s="6"/>
@@ -9794,39 +9879,39 @@
       <c r="BI75" s="4"/>
     </row>
     <row r="76" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A76" s="187"/>
-      <c r="B76" s="187"/>
-      <c r="C76" s="185" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="185"/>
-      <c r="E76" s="185"/>
-      <c r="F76" s="185"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="200"/>
-      <c r="I76" s="201"/>
-      <c r="J76" s="201"/>
-      <c r="K76" s="201"/>
-      <c r="L76" s="201"/>
-      <c r="M76" s="201"/>
-      <c r="N76" s="201"/>
-      <c r="O76" s="202"/>
-      <c r="P76" s="213"/>
-      <c r="Q76" s="185"/>
-      <c r="R76" s="185"/>
-      <c r="S76" s="186">
+      <c r="A76" s="197"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="194"/>
+      <c r="E76" s="194"/>
+      <c r="F76" s="194"/>
+      <c r="G76" s="194"/>
+      <c r="H76" s="207"/>
+      <c r="I76" s="208"/>
+      <c r="J76" s="208"/>
+      <c r="K76" s="208"/>
+      <c r="L76" s="208"/>
+      <c r="M76" s="208"/>
+      <c r="N76" s="208"/>
+      <c r="O76" s="209"/>
+      <c r="P76" s="220"/>
+      <c r="Q76" s="194"/>
+      <c r="R76" s="194"/>
+      <c r="S76" s="196">
         <v>45103</v>
       </c>
-      <c r="T76" s="186"/>
-      <c r="U76" s="186"/>
-      <c r="V76" s="186">
+      <c r="T76" s="196"/>
+      <c r="U76" s="196"/>
+      <c r="V76" s="196">
         <v>45106</v>
       </c>
-      <c r="W76" s="186"/>
-      <c r="X76" s="186"/>
-      <c r="Y76" s="187"/>
-      <c r="Z76" s="187"/>
-      <c r="AA76" s="187"/>
+      <c r="W76" s="196"/>
+      <c r="X76" s="196"/>
+      <c r="Y76" s="197"/>
+      <c r="Z76" s="197"/>
+      <c r="AA76" s="197"/>
       <c r="AB76" s="126">
         <v>0</v>
       </c>
@@ -9869,39 +9954,39 @@
       <c r="BI76" s="4"/>
     </row>
     <row r="77" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A77" s="187"/>
-      <c r="B77" s="187"/>
-      <c r="C77" s="185" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="185"/>
-      <c r="E77" s="185"/>
-      <c r="F77" s="185"/>
-      <c r="G77" s="185"/>
-      <c r="H77" s="200"/>
-      <c r="I77" s="201"/>
-      <c r="J77" s="201"/>
-      <c r="K77" s="201"/>
-      <c r="L77" s="201"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="201"/>
-      <c r="O77" s="202"/>
-      <c r="P77" s="185"/>
-      <c r="Q77" s="185"/>
-      <c r="R77" s="185"/>
-      <c r="S77" s="186">
+      <c r="A77" s="197"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="194"/>
+      <c r="E77" s="194"/>
+      <c r="F77" s="194"/>
+      <c r="G77" s="194"/>
+      <c r="H77" s="207"/>
+      <c r="I77" s="208"/>
+      <c r="J77" s="208"/>
+      <c r="K77" s="208"/>
+      <c r="L77" s="208"/>
+      <c r="M77" s="208"/>
+      <c r="N77" s="208"/>
+      <c r="O77" s="209"/>
+      <c r="P77" s="194"/>
+      <c r="Q77" s="194"/>
+      <c r="R77" s="194"/>
+      <c r="S77" s="196">
         <v>45103</v>
       </c>
-      <c r="T77" s="186"/>
-      <c r="U77" s="186"/>
-      <c r="V77" s="186">
+      <c r="T77" s="196"/>
+      <c r="U77" s="196"/>
+      <c r="V77" s="196">
         <v>45106</v>
       </c>
-      <c r="W77" s="186"/>
-      <c r="X77" s="186"/>
-      <c r="Y77" s="187"/>
-      <c r="Z77" s="187"/>
-      <c r="AA77" s="187"/>
+      <c r="W77" s="196"/>
+      <c r="X77" s="196"/>
+      <c r="Y77" s="197"/>
+      <c r="Z77" s="197"/>
+      <c r="AA77" s="197"/>
       <c r="AB77" s="126">
         <v>0</v>
       </c>
@@ -9944,39 +10029,39 @@
       <c r="BI77" s="4"/>
     </row>
     <row r="78" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A78" s="187"/>
-      <c r="B78" s="187"/>
-      <c r="C78" s="185" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="185"/>
-      <c r="E78" s="185"/>
-      <c r="F78" s="185"/>
-      <c r="G78" s="185"/>
-      <c r="H78" s="200"/>
-      <c r="I78" s="201"/>
-      <c r="J78" s="201"/>
-      <c r="K78" s="201"/>
-      <c r="L78" s="201"/>
-      <c r="M78" s="201"/>
-      <c r="N78" s="201"/>
-      <c r="O78" s="202"/>
-      <c r="P78" s="185"/>
-      <c r="Q78" s="185"/>
-      <c r="R78" s="185"/>
-      <c r="S78" s="186">
+      <c r="A78" s="197"/>
+      <c r="B78" s="197"/>
+      <c r="C78" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="194"/>
+      <c r="E78" s="194"/>
+      <c r="F78" s="194"/>
+      <c r="G78" s="194"/>
+      <c r="H78" s="207"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="208"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="208"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="208"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="194"/>
+      <c r="Q78" s="194"/>
+      <c r="R78" s="194"/>
+      <c r="S78" s="196">
         <v>45103</v>
       </c>
-      <c r="T78" s="186"/>
-      <c r="U78" s="186"/>
-      <c r="V78" s="186">
+      <c r="T78" s="196"/>
+      <c r="U78" s="196"/>
+      <c r="V78" s="196">
         <v>45106</v>
       </c>
-      <c r="W78" s="186"/>
-      <c r="X78" s="186"/>
-      <c r="Y78" s="187"/>
-      <c r="Z78" s="187"/>
-      <c r="AA78" s="187"/>
+      <c r="W78" s="196"/>
+      <c r="X78" s="196"/>
+      <c r="Y78" s="197"/>
+      <c r="Z78" s="197"/>
+      <c r="AA78" s="197"/>
       <c r="AB78" s="126">
         <v>0</v>
       </c>
@@ -10019,33 +10104,33 @@
       <c r="BI78" s="4"/>
     </row>
     <row r="79" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A79" s="187"/>
-      <c r="B79" s="187"/>
-      <c r="C79" s="185"/>
-      <c r="D79" s="185"/>
-      <c r="E79" s="185"/>
-      <c r="F79" s="185"/>
-      <c r="G79" s="185"/>
-      <c r="H79" s="200"/>
-      <c r="I79" s="201"/>
-      <c r="J79" s="201"/>
-      <c r="K79" s="201"/>
-      <c r="L79" s="201"/>
-      <c r="M79" s="201"/>
-      <c r="N79" s="201"/>
-      <c r="O79" s="202"/>
-      <c r="P79" s="185"/>
-      <c r="Q79" s="185"/>
-      <c r="R79" s="185"/>
-      <c r="S79" s="186"/>
-      <c r="T79" s="186"/>
-      <c r="U79" s="186"/>
-      <c r="V79" s="186"/>
-      <c r="W79" s="186"/>
-      <c r="X79" s="186"/>
-      <c r="Y79" s="187"/>
-      <c r="Z79" s="187"/>
-      <c r="AA79" s="187"/>
+      <c r="A79" s="197"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="194"/>
+      <c r="D79" s="194"/>
+      <c r="E79" s="194"/>
+      <c r="F79" s="194"/>
+      <c r="G79" s="194"/>
+      <c r="H79" s="207"/>
+      <c r="I79" s="208"/>
+      <c r="J79" s="208"/>
+      <c r="K79" s="208"/>
+      <c r="L79" s="208"/>
+      <c r="M79" s="208"/>
+      <c r="N79" s="208"/>
+      <c r="O79" s="209"/>
+      <c r="P79" s="194"/>
+      <c r="Q79" s="194"/>
+      <c r="R79" s="194"/>
+      <c r="S79" s="196"/>
+      <c r="T79" s="196"/>
+      <c r="U79" s="196"/>
+      <c r="V79" s="196"/>
+      <c r="W79" s="196"/>
+      <c r="X79" s="196"/>
+      <c r="Y79" s="197"/>
+      <c r="Z79" s="197"/>
+      <c r="AA79" s="197"/>
       <c r="AB79" s="6"/>
       <c r="AC79" s="141"/>
       <c r="AD79" s="6"/>
@@ -10082,33 +10167,33 @@
       <c r="BI79" s="4"/>
     </row>
     <row r="80" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A80" s="187"/>
-      <c r="B80" s="187"/>
-      <c r="C80" s="185"/>
-      <c r="D80" s="185"/>
-      <c r="E80" s="185"/>
-      <c r="F80" s="185"/>
-      <c r="G80" s="185"/>
-      <c r="H80" s="200"/>
-      <c r="I80" s="201"/>
-      <c r="J80" s="201"/>
-      <c r="K80" s="201"/>
-      <c r="L80" s="201"/>
-      <c r="M80" s="201"/>
-      <c r="N80" s="201"/>
-      <c r="O80" s="202"/>
-      <c r="P80" s="185"/>
-      <c r="Q80" s="185"/>
-      <c r="R80" s="185"/>
-      <c r="S80" s="186"/>
-      <c r="T80" s="186"/>
-      <c r="U80" s="186"/>
-      <c r="V80" s="186"/>
-      <c r="W80" s="186"/>
-      <c r="X80" s="186"/>
-      <c r="Y80" s="187"/>
-      <c r="Z80" s="187"/>
-      <c r="AA80" s="187"/>
+      <c r="A80" s="197"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="194"/>
+      <c r="D80" s="194"/>
+      <c r="E80" s="194"/>
+      <c r="F80" s="194"/>
+      <c r="G80" s="194"/>
+      <c r="H80" s="207"/>
+      <c r="I80" s="208"/>
+      <c r="J80" s="208"/>
+      <c r="K80" s="208"/>
+      <c r="L80" s="208"/>
+      <c r="M80" s="208"/>
+      <c r="N80" s="208"/>
+      <c r="O80" s="209"/>
+      <c r="P80" s="194"/>
+      <c r="Q80" s="194"/>
+      <c r="R80" s="194"/>
+      <c r="S80" s="196"/>
+      <c r="T80" s="196"/>
+      <c r="U80" s="196"/>
+      <c r="V80" s="196"/>
+      <c r="W80" s="196"/>
+      <c r="X80" s="196"/>
+      <c r="Y80" s="197"/>
+      <c r="Z80" s="197"/>
+      <c r="AA80" s="197"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="141"/>
       <c r="AD80" s="6"/>
@@ -10145,41 +10230,41 @@
       <c r="BI80" s="4"/>
     </row>
     <row r="81" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A81" s="187"/>
-      <c r="B81" s="187"/>
-      <c r="C81" s="185" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="185"/>
-      <c r="E81" s="185"/>
-      <c r="F81" s="185"/>
-      <c r="G81" s="185"/>
-      <c r="H81" s="200"/>
-      <c r="I81" s="201"/>
-      <c r="J81" s="201"/>
-      <c r="K81" s="201"/>
-      <c r="L81" s="201"/>
-      <c r="M81" s="201"/>
-      <c r="N81" s="201"/>
-      <c r="O81" s="202"/>
-      <c r="P81" s="185"/>
-      <c r="Q81" s="185"/>
-      <c r="R81" s="185"/>
-      <c r="S81" s="186">
+      <c r="A81" s="197"/>
+      <c r="B81" s="197"/>
+      <c r="C81" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="194"/>
+      <c r="E81" s="194"/>
+      <c r="F81" s="194"/>
+      <c r="G81" s="194"/>
+      <c r="H81" s="207"/>
+      <c r="I81" s="208"/>
+      <c r="J81" s="208"/>
+      <c r="K81" s="208"/>
+      <c r="L81" s="208"/>
+      <c r="M81" s="208"/>
+      <c r="N81" s="208"/>
+      <c r="O81" s="209"/>
+      <c r="P81" s="194"/>
+      <c r="Q81" s="194"/>
+      <c r="R81" s="194"/>
+      <c r="S81" s="196">
         <v>45107</v>
       </c>
-      <c r="T81" s="186"/>
-      <c r="U81" s="186"/>
-      <c r="V81" s="186">
+      <c r="T81" s="196"/>
+      <c r="U81" s="196"/>
+      <c r="V81" s="196">
         <v>45107</v>
       </c>
-      <c r="W81" s="186"/>
-      <c r="X81" s="186"/>
-      <c r="Y81" s="187" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z81" s="187"/>
-      <c r="AA81" s="187"/>
+      <c r="W81" s="196"/>
+      <c r="X81" s="196"/>
+      <c r="Y81" s="197" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z81" s="197"/>
+      <c r="AA81" s="197"/>
       <c r="AB81" s="6"/>
       <c r="AC81" s="141"/>
       <c r="AD81" s="6"/>
@@ -10216,33 +10301,33 @@
       <c r="BI81" s="10"/>
     </row>
     <row r="82" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A82" s="187"/>
-      <c r="B82" s="187"/>
-      <c r="C82" s="185"/>
-      <c r="D82" s="185"/>
-      <c r="E82" s="185"/>
-      <c r="F82" s="185"/>
-      <c r="G82" s="185"/>
-      <c r="H82" s="200"/>
-      <c r="I82" s="201"/>
-      <c r="J82" s="201"/>
-      <c r="K82" s="201"/>
-      <c r="L82" s="201"/>
-      <c r="M82" s="201"/>
-      <c r="N82" s="201"/>
-      <c r="O82" s="202"/>
-      <c r="P82" s="185"/>
-      <c r="Q82" s="185"/>
-      <c r="R82" s="185"/>
-      <c r="S82" s="186"/>
-      <c r="T82" s="186"/>
-      <c r="U82" s="186"/>
-      <c r="V82" s="186"/>
-      <c r="W82" s="186"/>
-      <c r="X82" s="186"/>
-      <c r="Y82" s="187"/>
-      <c r="Z82" s="187"/>
-      <c r="AA82" s="187"/>
+      <c r="A82" s="197"/>
+      <c r="B82" s="197"/>
+      <c r="C82" s="194"/>
+      <c r="D82" s="194"/>
+      <c r="E82" s="194"/>
+      <c r="F82" s="194"/>
+      <c r="G82" s="194"/>
+      <c r="H82" s="207"/>
+      <c r="I82" s="208"/>
+      <c r="J82" s="208"/>
+      <c r="K82" s="208"/>
+      <c r="L82" s="208"/>
+      <c r="M82" s="208"/>
+      <c r="N82" s="208"/>
+      <c r="O82" s="209"/>
+      <c r="P82" s="194"/>
+      <c r="Q82" s="194"/>
+      <c r="R82" s="194"/>
+      <c r="S82" s="196"/>
+      <c r="T82" s="196"/>
+      <c r="U82" s="196"/>
+      <c r="V82" s="196"/>
+      <c r="W82" s="196"/>
+      <c r="X82" s="196"/>
+      <c r="Y82" s="197"/>
+      <c r="Z82" s="197"/>
+      <c r="AA82" s="197"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="141"/>
       <c r="AD82" s="6"/>
@@ -10279,33 +10364,33 @@
       <c r="BI82" s="4"/>
     </row>
     <row r="83" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A83" s="187"/>
-      <c r="B83" s="187"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
-      <c r="G83" s="185"/>
-      <c r="H83" s="200"/>
-      <c r="I83" s="201"/>
-      <c r="J83" s="201"/>
-      <c r="K83" s="201"/>
-      <c r="L83" s="201"/>
-      <c r="M83" s="201"/>
-      <c r="N83" s="201"/>
-      <c r="O83" s="202"/>
-      <c r="P83" s="185"/>
-      <c r="Q83" s="185"/>
-      <c r="R83" s="185"/>
-      <c r="S83" s="186"/>
-      <c r="T83" s="186"/>
-      <c r="U83" s="186"/>
-      <c r="V83" s="186"/>
-      <c r="W83" s="186"/>
-      <c r="X83" s="186"/>
-      <c r="Y83" s="187"/>
-      <c r="Z83" s="187"/>
-      <c r="AA83" s="187"/>
+      <c r="A83" s="197"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
+      <c r="F83" s="194"/>
+      <c r="G83" s="194"/>
+      <c r="H83" s="207"/>
+      <c r="I83" s="208"/>
+      <c r="J83" s="208"/>
+      <c r="K83" s="208"/>
+      <c r="L83" s="208"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="208"/>
+      <c r="O83" s="209"/>
+      <c r="P83" s="194"/>
+      <c r="Q83" s="194"/>
+      <c r="R83" s="194"/>
+      <c r="S83" s="196"/>
+      <c r="T83" s="196"/>
+      <c r="U83" s="196"/>
+      <c r="V83" s="196"/>
+      <c r="W83" s="196"/>
+      <c r="X83" s="196"/>
+      <c r="Y83" s="197"/>
+      <c r="Z83" s="197"/>
+      <c r="AA83" s="197"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="141"/>
       <c r="AD83" s="6"/>
@@ -10342,33 +10427,33 @@
       <c r="BI83" s="4"/>
     </row>
     <row r="84" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A84" s="187"/>
-      <c r="B84" s="187"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
-      <c r="F84" s="185"/>
-      <c r="G84" s="185"/>
-      <c r="H84" s="200"/>
-      <c r="I84" s="201"/>
-      <c r="J84" s="201"/>
-      <c r="K84" s="201"/>
-      <c r="L84" s="201"/>
-      <c r="M84" s="201"/>
-      <c r="N84" s="201"/>
-      <c r="O84" s="202"/>
-      <c r="P84" s="185"/>
-      <c r="Q84" s="185"/>
-      <c r="R84" s="185"/>
-      <c r="S84" s="186"/>
-      <c r="T84" s="186"/>
-      <c r="U84" s="186"/>
-      <c r="V84" s="186"/>
-      <c r="W84" s="186"/>
-      <c r="X84" s="186"/>
-      <c r="Y84" s="187"/>
-      <c r="Z84" s="187"/>
-      <c r="AA84" s="187"/>
+      <c r="A84" s="197"/>
+      <c r="B84" s="197"/>
+      <c r="C84" s="194"/>
+      <c r="D84" s="194"/>
+      <c r="E84" s="194"/>
+      <c r="F84" s="194"/>
+      <c r="G84" s="194"/>
+      <c r="H84" s="207"/>
+      <c r="I84" s="208"/>
+      <c r="J84" s="208"/>
+      <c r="K84" s="208"/>
+      <c r="L84" s="208"/>
+      <c r="M84" s="208"/>
+      <c r="N84" s="208"/>
+      <c r="O84" s="209"/>
+      <c r="P84" s="194"/>
+      <c r="Q84" s="194"/>
+      <c r="R84" s="194"/>
+      <c r="S84" s="196"/>
+      <c r="T84" s="196"/>
+      <c r="U84" s="196"/>
+      <c r="V84" s="196"/>
+      <c r="W84" s="196"/>
+      <c r="X84" s="196"/>
+      <c r="Y84" s="197"/>
+      <c r="Z84" s="197"/>
+      <c r="AA84" s="197"/>
       <c r="AB84" s="6"/>
       <c r="AC84" s="141"/>
       <c r="AD84" s="6"/>
@@ -10416,7 +10501,7 @@
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="464">
+  <mergeCells count="465">
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="S26:U26"/>
@@ -10680,7 +10765,6 @@
     <mergeCell ref="P25:R25"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
-    <mergeCell ref="Y33:AA33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="S34:U34"/>
@@ -10691,7 +10775,6 @@
     <mergeCell ref="S35:U35"/>
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="S37:U37"/>
@@ -10702,7 +10785,6 @@
     <mergeCell ref="S38:U38"/>
     <mergeCell ref="V38:X38"/>
     <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="S40:U40"/>
@@ -10723,7 +10805,6 @@
     <mergeCell ref="S42:U42"/>
     <mergeCell ref="V42:X42"/>
     <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y47:AA47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="S48:U48"/>
@@ -10754,7 +10835,6 @@
     <mergeCell ref="S50:U50"/>
     <mergeCell ref="V50:X50"/>
     <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="V52:X52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="S53:U53"/>
@@ -10814,22 +10894,6 @@
     <mergeCell ref="S62:U62"/>
     <mergeCell ref="V62:X62"/>
     <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y64:AA64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="S65:U65"/>
@@ -10840,12 +10904,16 @@
     <mergeCell ref="S66:U66"/>
     <mergeCell ref="V66:X66"/>
     <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="P64:R64"/>
     <mergeCell ref="Y74:AA74"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C71:G71"/>
@@ -10857,12 +10925,18 @@
     <mergeCell ref="S72:U72"/>
     <mergeCell ref="V72:X72"/>
     <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="C73:G73"/>
     <mergeCell ref="S73:U73"/>
@@ -10876,11 +10950,23 @@
     <mergeCell ref="S70:U70"/>
     <mergeCell ref="V70:X70"/>
     <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="S67:U67"/>
     <mergeCell ref="V67:X67"/>
     <mergeCell ref="C69:G69"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y33:AA33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AG5:BI6">
@@ -10911,10 +10997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02DD201-A8EE-4056-8C6B-993B1F23F172}">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10923,7 +11009,7 @@
     <col min="2" max="2" width="3.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.125" customWidth="1"/>
     <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
@@ -10944,119 +11030,119 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="C2" s="237" t="s">
+      <c r="C2" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="242" t="s">
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="241" t="s">
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="239" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="238" t="s">
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="246" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="240" t="s">
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="240"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="247"/>
     </row>
     <row r="3" spans="1:26">
       <c r="C3" s="99" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>112</v>
-      </c>
       <c r="H3" s="47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J3" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="94" t="s">
-        <v>112</v>
-      </c>
       <c r="L3" s="94" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M3" s="94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N3" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="95" t="s">
-        <v>112</v>
-      </c>
       <c r="P3" s="95" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="95" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R3" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="S3" s="96" t="s">
-        <v>112</v>
-      </c>
       <c r="T3" s="96" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U3" s="96" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V3" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="W3" s="48" t="s">
-        <v>112</v>
-      </c>
       <c r="X3" s="48" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y3" s="48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z3" s="49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="18">
@@ -11064,10 +11150,10 @@
         <v>45091</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" s="98">
         <v>0.6</v>
@@ -11076,10 +11162,10 @@
         <v>0.8</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H4" s="50">
         <v>0.6</v>
@@ -11088,7 +11174,7 @@
         <v>0.7</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>42</v>
@@ -11101,7 +11187,7 @@
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="127" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P4" s="44">
         <v>0.1</v>
@@ -11111,7 +11197,7 @@
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T4" s="44">
         <v>0.85</v>
@@ -11120,10 +11206,10 @@
         <v>0.95</v>
       </c>
       <c r="V4" s="34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="W4" s="42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X4" s="50">
         <v>0.4</v>
@@ -11137,7 +11223,7 @@
       <c r="A5" s="35"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="98">
         <v>0</v>
@@ -11146,7 +11232,7 @@
         <v>0.9</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>57</v>
@@ -11158,7 +11244,7 @@
         <v>0.7</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>43</v>
@@ -11171,7 +11257,7 @@
       </c>
       <c r="N5" s="34"/>
       <c r="O5" s="44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P5" s="44">
         <v>0</v>
@@ -11190,10 +11276,10 @@
         <v>0.7</v>
       </c>
       <c r="V5" s="34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="W5" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" s="44">
         <v>0.4</v>
@@ -11207,7 +11293,7 @@
       <c r="A6" s="100"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="50">
         <v>0</v>
@@ -11217,7 +11303,7 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="44">
         <v>0.3</v>
@@ -11226,7 +11312,7 @@
         <v>0.6</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>50</v>
@@ -11241,7 +11327,7 @@
         <v>51</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P6" s="44">
         <v>0.1</v>
@@ -11250,10 +11336,10 @@
         <v>0.1</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T6" s="44">
         <v>0</v>
@@ -11263,7 +11349,7 @@
       </c>
       <c r="V6" s="34"/>
       <c r="W6" s="93" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="X6" s="44">
         <v>0.1</v>
@@ -11305,7 +11391,7 @@
       <c r="U7" s="34"/>
       <c r="V7" s="34"/>
       <c r="W7" s="93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" s="44">
         <v>0.1</v>
@@ -11347,7 +11433,7 @@
       <c r="U8" s="34"/>
       <c r="V8" s="34"/>
       <c r="W8" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X8" s="44">
         <v>0.1</v>
@@ -11464,10 +11550,10 @@
         <v>45092</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12" s="50">
         <v>0.3</v>
@@ -11479,7 +11565,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="50">
         <v>0.6</v>
@@ -11488,7 +11574,7 @@
         <v>0.8</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>44</v>
@@ -11501,7 +11587,7 @@
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="146" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P12" s="44">
         <v>0.2</v>
@@ -11510,10 +11596,10 @@
         <v>0.3</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S12" s="41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T12" s="50">
         <v>0.6</v>
@@ -11522,10 +11608,10 @@
         <v>0.9</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W12" s="93" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="X12" s="50">
         <v>0.1</v>
@@ -11534,7 +11620,7 @@
         <v>0.5</v>
       </c>
       <c r="Z12" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -11545,7 +11631,7 @@
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H13" s="50">
         <v>0.7</v>
@@ -11567,7 +11653,7 @@
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P13" s="44">
         <v>0.1</v>
@@ -11577,7 +11663,7 @@
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T13" s="50">
         <v>0</v>
@@ -11586,10 +11672,10 @@
         <v>0.9</v>
       </c>
       <c r="V13" s="41" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="W13" s="93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" s="50">
         <v>0.1</v>
@@ -11598,7 +11684,7 @@
         <v>0.5</v>
       </c>
       <c r="Z13" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -11629,7 +11715,7 @@
       </c>
       <c r="N14" s="112"/>
       <c r="O14" s="110" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P14" s="113">
         <v>0</v>
@@ -11643,7 +11729,7 @@
       <c r="U14" s="114"/>
       <c r="V14" s="112"/>
       <c r="W14" s="116" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X14" s="114">
         <v>0.1</v>
@@ -11652,7 +11738,7 @@
         <v>0.5</v>
       </c>
       <c r="Z14" s="112" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -11660,10 +11746,10 @@
         <v>45093</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15" s="41">
         <v>0</v>
@@ -11672,10 +11758,10 @@
         <v>0.3</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="50">
         <v>0</v>
@@ -11695,7 +11781,7 @@
       </c>
       <c r="N15" s="41"/>
       <c r="O15" s="41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P15" s="50">
         <v>0.4</v>
@@ -11704,10 +11790,10 @@
         <v>1</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S15" s="41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T15" s="50">
         <v>0.95</v>
@@ -11716,10 +11802,10 @@
         <v>1</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W15" s="41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X15" s="50">
         <v>0.5</v>
@@ -11728,7 +11814,7 @@
         <v>0.7</v>
       </c>
       <c r="Z15" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25">
@@ -11739,7 +11825,7 @@
       <c r="E16" s="152"/>
       <c r="F16" s="152"/>
       <c r="G16" s="152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H16" s="154">
         <v>0.8</v>
@@ -11748,7 +11834,7 @@
         <v>0.9</v>
       </c>
       <c r="J16" s="152" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K16" s="152" t="s">
         <v>54</v>
@@ -11761,7 +11847,7 @@
       </c>
       <c r="N16" s="152"/>
       <c r="O16" s="152" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P16" s="154">
         <v>0</v>
@@ -11770,10 +11856,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="152" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S16" s="152" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T16" s="154">
         <v>0.3</v>
@@ -11783,7 +11869,7 @@
       </c>
       <c r="V16" s="152"/>
       <c r="W16" s="152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" s="154">
         <v>0.5</v>
@@ -11792,7 +11878,7 @@
         <v>0.7</v>
       </c>
       <c r="Z16" s="152" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25">
@@ -11811,7 +11897,7 @@
       <c r="M17" s="110"/>
       <c r="N17" s="110"/>
       <c r="O17" s="110" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P17" s="113">
         <v>0.9</v>
@@ -11820,14 +11906,14 @@
         <v>1</v>
       </c>
       <c r="R17" s="110" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S17" s="110"/>
       <c r="T17" s="110"/>
       <c r="U17" s="110"/>
       <c r="V17" s="110"/>
       <c r="W17" s="110" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X17" s="113">
         <v>0.5</v>
@@ -11842,38 +11928,38 @@
         <v>45094</v>
       </c>
       <c r="B18" s="173" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C18" s="174"/>
       <c r="D18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F18" s="175"/>
       <c r="G18" s="175"/>
       <c r="H18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J18" s="175"/>
       <c r="K18" s="175"/>
       <c r="L18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N18" s="175"/>
       <c r="O18" s="175"/>
       <c r="P18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R18" s="175"/>
       <c r="S18" s="175"/>
@@ -11882,10 +11968,10 @@
       <c r="V18" s="175"/>
       <c r="W18" s="175"/>
       <c r="X18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y18" s="175" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z18" s="175"/>
     </row>
@@ -11894,38 +11980,38 @@
         <v>45095</v>
       </c>
       <c r="B19" s="171" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C19" s="176"/>
       <c r="D19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F19" s="177"/>
       <c r="G19" s="177"/>
       <c r="H19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J19" s="177"/>
       <c r="K19" s="177"/>
       <c r="L19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N19" s="177"/>
       <c r="O19" s="177"/>
       <c r="P19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R19" s="177"/>
       <c r="S19" s="177"/>
@@ -11934,10 +12020,10 @@
       <c r="V19" s="177"/>
       <c r="W19" s="177"/>
       <c r="X19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y19" s="177" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z19" s="177"/>
     </row>
@@ -11946,10 +12032,10 @@
         <v>45096</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="50">
         <v>0</v>
@@ -11958,10 +12044,10 @@
         <v>0.65</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H20" s="50">
         <v>0.9</v>
@@ -11970,7 +12056,7 @@
         <v>0.95</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K20" s="41" t="s">
         <v>54</v>
@@ -11983,7 +12069,7 @@
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P20" s="50">
         <v>0.1</v>
@@ -11992,10 +12078,10 @@
         <v>0.3</v>
       </c>
       <c r="R20" s="41" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S20" s="41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T20" s="50">
         <v>0.1</v>
@@ -12005,7 +12091,7 @@
       </c>
       <c r="V20" s="41"/>
       <c r="W20" s="41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X20" s="50">
         <v>0.7</v>
@@ -12014,14 +12100,14 @@
         <v>0.9</v>
       </c>
       <c r="Z20" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42" t="s">
-        <v>68</v>
+      <c r="A21" s="151"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153" t="s">
+        <v>69</v>
       </c>
       <c r="D21" s="154">
         <v>0</v>
@@ -12029,295 +12115,325 @@
       <c r="E21" s="154">
         <v>0.7</v>
       </c>
-      <c r="F21" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="P21" s="50">
+      <c r="F21" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="152"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="154">
         <v>0</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="154">
         <v>0.3</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="41"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="154">
+        <v>0.7</v>
+      </c>
+      <c r="U21" s="154">
+        <v>0.75</v>
+      </c>
+      <c r="V21" s="152"/>
+      <c r="W21" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="Y21" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="Z21" s="152" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="14.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="41"/>
-      <c r="C22" t="s">
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="188" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="189">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="113">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="188" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="Q22" s="113">
+        <v>0.93</v>
+      </c>
+      <c r="R22" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" s="110"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="X22" s="113">
+        <v>0.7</v>
+      </c>
+      <c r="Y22" s="113">
+        <v>0.8</v>
+      </c>
+      <c r="Z22" s="110" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="14.25">
+      <c r="A23" s="100">
+        <v>45097</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="50">
+        <v>1</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="50">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="50">
+        <v>0.95</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="50">
+        <v>1</v>
+      </c>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="Q23" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="U23" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="V23" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="X23" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="Z23" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75">
+      <c r="A24" s="100"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="50">
+        <v>0.95</v>
+      </c>
+      <c r="I24" s="50">
+        <v>0.95</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="Q24" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="250">
+      <c r="T24" s="50">
         <v>0.3</v>
       </c>
-      <c r="E22" s="44">
+      <c r="U24" s="50">
         <v>0.8</v>
       </c>
-      <c r="F22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="P22" s="50">
-        <v>0.9</v>
-      </c>
-      <c r="Q22" s="50">
-        <v>0.93</v>
-      </c>
-      <c r="R22" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="S22" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" s="50">
-        <v>0.7</v>
-      </c>
-      <c r="U22" s="50">
-        <v>0.75</v>
-      </c>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X22" s="50">
-        <v>0.7</v>
-      </c>
-      <c r="Y22" s="50">
+      <c r="V24" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="W24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="X24" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" s="50">
         <v>0.8</v>
       </c>
-      <c r="Z22" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="35">
-        <v>45097</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="X23" s="44">
-        <v>0.7</v>
-      </c>
-      <c r="Y23" s="44">
+      <c r="Z24" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25">
+      <c r="A25" s="100"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="Q25" s="50">
+        <v>1</v>
+      </c>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="50">
         <v>0.8</v>
       </c>
-      <c r="Z23" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="35">
+      <c r="U25" s="50">
+        <v>0.85</v>
+      </c>
+      <c r="V25" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="W25" s="41"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="41"/>
+    </row>
+    <row r="26" spans="1:26" ht="14.25">
+      <c r="A26" s="35">
         <v>45098</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y24" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z24" s="34"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="35">
-        <v>45099</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z25" s="34"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="35">
-        <v>45100</v>
-      </c>
       <c r="B26" s="34" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R26" s="34"/>
       <c r="S26" s="34"/>
@@ -12326,50 +12442,50 @@
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
       <c r="X26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y26" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z26" s="34"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="36">
-        <v>45101</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>142</v>
+      <c r="A27" s="35">
+        <v>45099</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
       <c r="P27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
@@ -12378,50 +12494,50 @@
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
       <c r="X27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y27" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z27" s="34"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="38">
-        <v>45102</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>144</v>
+      <c r="A28" s="35">
+        <v>45100</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
       <c r="P28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
@@ -12430,50 +12546,50 @@
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
       <c r="X28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y28" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z28" s="34"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="35">
-        <v>45103</v>
-      </c>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="36">
+        <v>45101</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N29" s="34"/>
       <c r="O29" s="34"/>
       <c r="P29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
@@ -12482,50 +12598,50 @@
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
       <c r="X29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y29" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z29" s="34"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="35">
-        <v>45104</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>151</v>
+      <c r="A30" s="38">
+        <v>45102</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N30" s="34"/>
       <c r="O30" s="34"/>
       <c r="P30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
@@ -12534,50 +12650,50 @@
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
       <c r="X30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y30" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z30" s="34"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="35">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N31" s="34"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
@@ -12586,50 +12702,50 @@
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
       <c r="X31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y31" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z31" s="34"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="35">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J32" s="34"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="M32" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="N32" s="90"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" s="34"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
@@ -12638,50 +12754,50 @@
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
       <c r="X32" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y32" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z32" s="34"/>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="35">
-        <v>45107</v>
+        <v>45105</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J33" s="34"/>
-      <c r="K33" s="89"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N33" s="89"/>
+        <v>146</v>
+      </c>
+      <c r="N33" s="34"/>
       <c r="O33" s="34"/>
       <c r="P33" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q33" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R33" s="34"/>
       <c r="S33" s="34"/>
@@ -12690,18 +12806,116 @@
       <c r="V33" s="34"/>
       <c r="W33" s="34"/>
       <c r="X33" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y33" s="34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Z33" s="34"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="31"/>
+      <c r="A34" s="35">
+        <v>45106</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="34"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="N34" s="90"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q34" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y34" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z34" s="34"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="31"/>
+      <c r="A35" s="35">
+        <v>45107</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N35" s="89"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z35" s="34"/>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="31"/>
@@ -12732,6 +12946,12 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="31"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="31"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12752,7 +12972,7 @@
   <dimension ref="B2:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12767,26 +12987,26 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18">
       <c r="B2" s="32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+        <v>164</v>
+      </c>
+      <c r="F2" s="251"/>
+      <c r="G2" s="252"/>
     </row>
     <row r="3" spans="2:7" ht="18">
       <c r="B3" s="56">
         <v>1</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>42</v>
@@ -12801,7 +13021,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -12816,7 +13036,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>44</v>
@@ -12830,7 +13050,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>45</v>
@@ -12844,7 +13064,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>47</v>
@@ -12858,7 +13078,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>48</v>
@@ -12872,7 +13092,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>49</v>
@@ -12886,10 +13106,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E10" s="82" t="s">
         <v>36</v>
@@ -12900,7 +13120,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>52</v>
@@ -12914,7 +13134,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>53</v>
@@ -12928,7 +13148,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>54</v>
@@ -12942,7 +13162,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>55</v>
@@ -12956,7 +13176,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>57</v>
@@ -12970,7 +13190,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>59</v>
@@ -12984,7 +13204,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D17" s="67" t="s">
         <v>61</v>
@@ -12998,7 +13218,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D18" s="67" t="s">
         <v>63</v>
@@ -13012,10 +13232,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="84" t="s">
         <v>30</v>
@@ -13026,10 +13246,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="84" t="s">
         <v>30</v>
@@ -13040,10 +13260,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="84" t="s">
         <v>30</v>
@@ -13054,10 +13274,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="85" t="s">
         <v>33</v>
@@ -13068,10 +13288,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="85" t="s">
         <v>33</v>
@@ -13082,10 +13302,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="E24" s="85" t="s">
         <v>33</v>
@@ -13096,10 +13316,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="85" t="s">
         <v>33</v>
@@ -13110,10 +13330,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" s="85" t="s">
         <v>33</v>
@@ -13124,10 +13344,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="83" t="s">
         <v>27</v>
@@ -13138,10 +13358,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E28" s="83" t="s">
         <v>27</v>
@@ -13152,10 +13372,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E29" s="83" t="s">
         <v>27</v>
@@ -13166,10 +13386,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E30" s="83" t="s">
         <v>27</v>
@@ -13180,13 +13400,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="86" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E31" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18">
@@ -13194,13 +13414,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="86" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E32" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18">
@@ -13208,13 +13428,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="86" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D33" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="86" t="s">
         <v>85</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18">
@@ -13222,13 +13442,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="86" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E34" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18">
@@ -13236,13 +13456,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="86" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E35" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18">
@@ -13250,10 +13470,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="87" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E36" s="87" t="s">
         <v>23</v>
@@ -13264,10 +13484,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E37" s="87" t="s">
         <v>23</v>
@@ -13278,10 +13498,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E38" s="87" t="s">
         <v>23</v>
@@ -13292,10 +13512,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E39" s="87" t="s">
         <v>23</v>
@@ -13306,10 +13526,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E40" s="87" t="s">
         <v>23</v>
@@ -13320,10 +13540,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E41" s="83" t="s">
         <v>27</v>
@@ -13334,13 +13554,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="86" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E42" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="18">
@@ -13348,10 +13568,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E43" s="83" t="s">
         <v>27</v>
@@ -13362,10 +13582,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E44" s="83" t="s">
         <v>27</v>
@@ -13376,10 +13596,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E45" s="83" t="s">
         <v>27</v>
@@ -13390,13 +13610,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="86" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E46" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="18">
@@ -13404,10 +13624,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E47" s="83" t="s">
         <v>27</v>
@@ -13418,13 +13638,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="86" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E48" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18">
@@ -13432,13 +13652,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="86" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E49" s="86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -13455,8 +13675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA1432-11D3-432F-9CDF-4F1EFF8C582D}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13467,55 +13687,55 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="129" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C1" s="129" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D1" s="129" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E1" s="129" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F1" s="129" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G1" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="129" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="129" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="129" t="s">
-        <v>142</v>
-      </c>
       <c r="M1" s="129" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N1" s="129" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O1" s="129" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P1" s="129" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="129" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R1" s="129" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="S1" s="40"/>
       <c r="T1">
@@ -13524,7 +13744,7 @@
       </c>
       <c r="U1">
         <f>SUM(全体進捗状況!AC7:AC84)</f>
-        <v>25.2</v>
+        <v>25.029999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -13586,7 +13806,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="124" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B3" s="131">
         <f t="shared" ref="B3:R3" si="0">B7/B5</f>
@@ -13659,7 +13879,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="124" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B4" s="125">
         <v>0.3</v>
@@ -13715,7 +13935,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="124" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B5" s="123">
         <f>$T1-1</f>
@@ -13726,23 +13946,19 @@
         <v>294</v>
       </c>
       <c r="D5" s="123">
+        <v>295</v>
+      </c>
+      <c r="E5" s="123">
+        <v>295</v>
+      </c>
+      <c r="F5" s="123">
+        <v>295</v>
+      </c>
+      <c r="G5" s="123">
+        <v>295</v>
+      </c>
+      <c r="H5" s="123">
         <f t="shared" ref="C5:R5" si="1">$T1</f>
-        <v>295</v>
-      </c>
-      <c r="E5" s="123">
-        <f t="shared" si="1"/>
-        <v>295</v>
-      </c>
-      <c r="F5" s="123">
-        <f t="shared" si="1"/>
-        <v>295</v>
-      </c>
-      <c r="G5" s="123">
-        <f t="shared" si="1"/>
-        <v>295</v>
-      </c>
-      <c r="H5" s="123">
-        <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="I5" s="123">
@@ -13788,7 +14004,7 @@
     </row>
     <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="124" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B6" s="123">
         <v>137.44999999999999</v>
@@ -13799,54 +14015,54 @@
       <c r="D6" s="123">
         <v>16.399999999999999</v>
       </c>
-      <c r="E6" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="123" t="s">
-        <v>166</v>
+      <c r="E6" s="123">
+        <v>0</v>
+      </c>
+      <c r="F6" s="123">
+        <v>0</v>
       </c>
       <c r="G6" s="123">
         <v>25.2</v>
       </c>
       <c r="H6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="R6" s="123" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="248" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="247">
+      <c r="A7" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="185">
         <v>137.5</v>
       </c>
       <c r="C7" s="123">
@@ -13899,42 +14115,42 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="249"/>
-      <c r="B8" s="246"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="184"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/doc/D2_進捗管理表.xlsx
+++ b/doc/D2_進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2564" documentId="8_{37996BA0-FB90-4FD0-AAEE-46B97A589DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21AC9FD9-B3A6-4994-A195-B36A11CB97A3}"/>
+  <xr:revisionPtr revIDLastSave="2785" documentId="8_{37996BA0-FB90-4FD0-AAEE-46B97A589DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A312344C-32AF-4EA9-9416-E9F2F09A7465}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体進捗状況" sheetId="4" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="予実グラフ" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">omake!$B$2:$E$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全体進捗状況!$P$4:$R$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">omake!$B$2:$E$49</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="193">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -274,7 +274,7 @@
     <t>top.jsp</t>
   </si>
   <si>
-    <t>画面表示完了、機能面まだ</t>
+    <t>機能面ほとんど完成</t>
   </si>
   <si>
     <t>PostServlet.java</t>
@@ -328,7 +328,7 @@
     <t>edit.jsp</t>
   </si>
   <si>
-    <t>css、jsまだ</t>
+    <t>css作成中</t>
   </si>
   <si>
     <t>EditResultServlet.java</t>
@@ -337,27 +337,27 @@
     <t>edit_confirm.jsp</t>
   </si>
   <si>
-    <t>cssまだ</t>
-  </si>
-  <si>
     <t>edit_result.jsp</t>
   </si>
   <si>
     <t>article_search.jsp</t>
   </si>
   <si>
+    <t>CSS未適用</t>
+  </si>
+  <si>
     <t>ArticleServlet.java</t>
   </si>
   <si>
+    <t>いいね機能未実装</t>
+  </si>
+  <si>
     <t>article.js</t>
   </si>
   <si>
     <t>article.jsp</t>
   </si>
   <si>
-    <t>機能面ほとんど完成</t>
-  </si>
-  <si>
     <t>community_search.jsp</t>
   </si>
   <si>
@@ -409,7 +409,7 @@
     <t>create.css</t>
   </si>
   <si>
-    <t>community_createに適用済み</t>
+    <t>community_create/sign_upに適用済み</t>
   </si>
   <si>
     <t>confirm.css</t>
@@ -578,6 +578,9 @@
     <t>画像が入れば完成</t>
   </si>
   <si>
+    <t>cssまだ</t>
+  </si>
+  <si>
     <t>いいねボタンの仕様次第</t>
   </si>
   <si>
@@ -603,6 +606,30 @@
   </si>
   <si>
     <t>CSS実装中</t>
+  </si>
+  <si>
+    <t>修正</t>
+  </si>
+  <si>
+    <t>文字カウント、エラー表示をpostように書き換え</t>
+  </si>
+  <si>
+    <t>CommunityDao</t>
+  </si>
+  <si>
+    <t>CSS適用中</t>
+  </si>
+  <si>
+    <t>画像の処理悩み中</t>
+  </si>
+  <si>
+    <t>ひとまず終了</t>
+  </si>
+  <si>
+    <t>edit_resultに適用中</t>
+  </si>
+  <si>
+    <t>edit_resultに適用済み</t>
   </si>
   <si>
     <t>項番</t>
@@ -665,13 +692,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>コウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未入力</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1537,19 +1557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1580,6 +1587,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1589,7 +1611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2148,21 +2170,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2173,10 +2201,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2202,9 +2230,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2220,6 +2245,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
@@ -2229,12 +2260,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,17 +2374,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2598,52 +2614,52 @@
                   <c:v>0.46768707482993199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58979591836734691</c:v>
+                  <c:v>0.58962585034013604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64338983050847465</c:v>
+                  <c:v>0.64322033898305087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64338983050847465</c:v>
+                  <c:v>0.64322033898305087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64338983050847465</c:v>
+                  <c:v>0.64322033898305087</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.72864406779661017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.81349152542372882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72881355932203384</c:v>
+                  <c:v>0.85688135593220338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S64" sqref="S64:U64"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC69" sqref="AC69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -3883,151 +3899,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="22.5" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="234" t="s">
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="235"/>
-      <c r="AB1" s="235"/>
-      <c r="AC1" s="235"/>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="235"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="228" t="s">
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="230"/>
-      <c r="AL1" s="225">
+      <c r="AI1" s="230"/>
+      <c r="AJ1" s="230"/>
+      <c r="AK1" s="231"/>
+      <c r="AL1" s="226">
         <v>45078</v>
       </c>
-      <c r="AM1" s="226"/>
-      <c r="AN1" s="226"/>
-      <c r="AO1" s="226"/>
-      <c r="AP1" s="226"/>
-      <c r="AQ1" s="226"/>
-      <c r="AR1" s="227"/>
+      <c r="AM1" s="227"/>
+      <c r="AN1" s="227"/>
+      <c r="AO1" s="227"/>
+      <c r="AP1" s="227"/>
+      <c r="AQ1" s="227"/>
+      <c r="AR1" s="228"/>
     </row>
     <row r="2" spans="1:63" ht="22.5" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="238"/>
-      <c r="AB2" s="238"/>
-      <c r="AC2" s="238"/>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="238"/>
-      <c r="AG2" s="239"/>
-      <c r="AH2" s="228" t="s">
+      <c r="A2" s="224"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="239"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="240"/>
+      <c r="AH2" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="229"/>
-      <c r="AJ2" s="229"/>
-      <c r="AK2" s="230"/>
-      <c r="AL2" s="225">
+      <c r="AI2" s="230"/>
+      <c r="AJ2" s="230"/>
+      <c r="AK2" s="231"/>
+      <c r="AL2" s="226">
         <v>45107</v>
       </c>
-      <c r="AM2" s="226"/>
-      <c r="AN2" s="226"/>
-      <c r="AO2" s="226"/>
-      <c r="AP2" s="226"/>
-      <c r="AQ2" s="226"/>
-      <c r="AR2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="227"/>
+      <c r="AO2" s="227"/>
+      <c r="AP2" s="227"/>
+      <c r="AQ2" s="227"/>
+      <c r="AR2" s="228"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="233" t="s">
+      <c r="B4" s="233"/>
+      <c r="C4" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="233"/>
-      <c r="M4" s="233"/>
-      <c r="N4" s="233"/>
-      <c r="O4" s="233"/>
-      <c r="P4" s="232" t="s">
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="233" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="232"/>
-      <c r="R4" s="232"/>
-      <c r="S4" s="232" t="s">
+      <c r="Q4" s="233"/>
+      <c r="R4" s="233"/>
+      <c r="S4" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="232"/>
-      <c r="U4" s="232"/>
-      <c r="V4" s="232"/>
-      <c r="W4" s="232"/>
-      <c r="X4" s="232"/>
-      <c r="Y4" s="231" t="s">
+      <c r="T4" s="233"/>
+      <c r="U4" s="233"/>
+      <c r="V4" s="233"/>
+      <c r="W4" s="233"/>
+      <c r="X4" s="233"/>
+      <c r="Y4" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="231"/>
-      <c r="AA4" s="231"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
       <c r="AB4" s="120"/>
       <c r="AC4" s="136"/>
       <c r="AD4" s="120"/>
-      <c r="AE4" s="240" t="s">
+      <c r="AE4" s="241" t="s">
         <v>9</v>
       </c>
       <c r="AF4" s="7">
@@ -4154,41 +4170,41 @@
       <c r="BK4" s="3"/>
     </row>
     <row r="5" spans="1:63" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="232"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="232" t="s">
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232" t="s">
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="232"/>
-      <c r="J5" s="232"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="232"/>
-      <c r="M5" s="232"/>
-      <c r="N5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="232"/>
-      <c r="S5" s="232" t="s">
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="233"/>
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="232"/>
-      <c r="U5" s="232"/>
-      <c r="V5" s="232" t="s">
+      <c r="T5" s="233"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="232"/>
-      <c r="X5" s="232"/>
-      <c r="Y5" s="231"/>
-      <c r="Z5" s="231"/>
-      <c r="AA5" s="231"/>
+      <c r="W5" s="233"/>
+      <c r="X5" s="233"/>
+      <c r="Y5" s="232"/>
+      <c r="Z5" s="232"/>
+      <c r="AA5" s="232"/>
       <c r="AB5" s="121" t="s">
         <v>12</v>
       </c>
@@ -4198,7 +4214,7 @@
       <c r="AD5" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="241"/>
+      <c r="AE5" s="242"/>
       <c r="AF5" s="5">
         <f>AL1</f>
         <v>45078</v>
@@ -4321,37 +4337,37 @@
       </c>
     </row>
     <row r="6" spans="1:63" ht="15" customHeight="1">
-      <c r="A6" s="232"/>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="232"/>
-      <c r="I6" s="232"/>
-      <c r="J6" s="232"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="232"/>
-      <c r="M6" s="232"/>
-      <c r="N6" s="232"/>
-      <c r="O6" s="232"/>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="232"/>
-      <c r="R6" s="232"/>
-      <c r="S6" s="232"/>
-      <c r="T6" s="232"/>
-      <c r="U6" s="232"/>
-      <c r="V6" s="232"/>
-      <c r="W6" s="232"/>
-      <c r="X6" s="232"/>
-      <c r="Y6" s="231"/>
-      <c r="Z6" s="231"/>
-      <c r="AA6" s="231"/>
+      <c r="A6" s="233"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="233"/>
+      <c r="M6" s="233"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="233"/>
+      <c r="R6" s="233"/>
+      <c r="S6" s="233"/>
+      <c r="T6" s="233"/>
+      <c r="U6" s="233"/>
+      <c r="V6" s="233"/>
+      <c r="W6" s="233"/>
+      <c r="X6" s="233"/>
+      <c r="Y6" s="232"/>
+      <c r="Z6" s="232"/>
+      <c r="AA6" s="232"/>
       <c r="AB6" s="122"/>
       <c r="AC6" s="138"/>
       <c r="AD6" s="122"/>
-      <c r="AE6" s="242"/>
+      <c r="AE6" s="243"/>
       <c r="AF6" s="6" t="str">
         <f>TEXT(AF5,"aaa")</f>
         <v>木</v>
@@ -4474,45 +4490,45 @@
       </c>
     </row>
     <row r="7" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A7" s="197"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="194" t="s">
+      <c r="A7" s="199"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="205" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="194" t="s">
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="194"/>
-      <c r="R7" s="194"/>
-      <c r="S7" s="196">
+      <c r="Q7" s="197"/>
+      <c r="R7" s="197"/>
+      <c r="S7" s="198">
         <v>45079</v>
       </c>
-      <c r="T7" s="196"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196">
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198">
         <v>45082</v>
       </c>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196"/>
-      <c r="Y7" s="197" t="s">
+      <c r="W7" s="198"/>
+      <c r="X7" s="198"/>
+      <c r="Y7" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="197"/>
-      <c r="AA7" s="197"/>
+      <c r="Z7" s="199"/>
+      <c r="AA7" s="199"/>
       <c r="AB7" s="126">
         <v>1</v>
       </c>
@@ -4552,43 +4568,43 @@
       <c r="BI7" s="4"/>
     </row>
     <row r="8" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="205" t="s">
+      <c r="A8" s="206"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="214"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="205" t="s">
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="198">
+      <c r="Q8" s="212"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="200">
         <v>45078</v>
       </c>
-      <c r="T8" s="199"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="198">
+      <c r="T8" s="201"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="200">
         <v>45082</v>
       </c>
-      <c r="W8" s="199"/>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="205" t="s">
+      <c r="W8" s="201"/>
+      <c r="X8" s="202"/>
+      <c r="Y8" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="214"/>
-      <c r="AA8" s="206"/>
+      <c r="Z8" s="212"/>
+      <c r="AA8" s="207"/>
       <c r="AB8" s="132">
         <v>1</v>
       </c>
@@ -4631,43 +4647,43 @@
       <c r="BI8" s="4"/>
     </row>
     <row r="9" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A9" s="205"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="205" t="s">
+      <c r="A9" s="206"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="205" t="s">
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="214"/>
-      <c r="R9" s="206"/>
-      <c r="S9" s="198">
+      <c r="Q9" s="212"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="200">
         <v>45078</v>
       </c>
-      <c r="T9" s="199"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="198">
+      <c r="T9" s="201"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="200">
         <v>45079</v>
       </c>
-      <c r="W9" s="199"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="205" t="s">
+      <c r="W9" s="201"/>
+      <c r="X9" s="202"/>
+      <c r="Y9" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="214"/>
-      <c r="AA9" s="206"/>
+      <c r="Z9" s="212"/>
+      <c r="AA9" s="207"/>
       <c r="AB9" s="132">
         <v>1</v>
       </c>
@@ -4710,43 +4726,43 @@
       <c r="BI9" s="4"/>
     </row>
     <row r="10" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A10" s="205"/>
-      <c r="B10" s="206"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="205" t="s">
+      <c r="A10" s="206"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="205" t="s">
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="214"/>
-      <c r="R10" s="206"/>
-      <c r="S10" s="198">
+      <c r="Q10" s="212"/>
+      <c r="R10" s="207"/>
+      <c r="S10" s="200">
         <v>45079</v>
       </c>
-      <c r="T10" s="199"/>
-      <c r="U10" s="200"/>
-      <c r="V10" s="198">
+      <c r="T10" s="201"/>
+      <c r="U10" s="202"/>
+      <c r="V10" s="200">
         <v>45082</v>
       </c>
-      <c r="W10" s="199"/>
-      <c r="X10" s="200"/>
-      <c r="Y10" s="205" t="s">
+      <c r="W10" s="201"/>
+      <c r="X10" s="202"/>
+      <c r="Y10" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="214"/>
-      <c r="AA10" s="206"/>
+      <c r="Z10" s="212"/>
+      <c r="AA10" s="207"/>
       <c r="AB10" s="132">
         <v>1</v>
       </c>
@@ -4789,33 +4805,33 @@
       <c r="BI10" s="4"/>
     </row>
     <row r="11" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A11" s="205"/>
-      <c r="B11" s="206"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="214"/>
-      <c r="R11" s="206"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="199"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="199"/>
-      <c r="X11" s="200"/>
-      <c r="Y11" s="205"/>
-      <c r="Z11" s="214"/>
-      <c r="AA11" s="206"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="206"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="207"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="201"/>
+      <c r="X11" s="202"/>
+      <c r="Y11" s="206"/>
+      <c r="Z11" s="212"/>
+      <c r="AA11" s="207"/>
       <c r="AB11" s="132"/>
       <c r="AC11" s="142"/>
       <c r="AD11" s="29"/>
@@ -4852,45 +4868,45 @@
       <c r="BI11" s="4"/>
     </row>
     <row r="12" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="194" t="s">
+      <c r="A12" s="199"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="195" t="s">
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
-      <c r="P12" s="195" t="s">
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
+      <c r="N12" s="196"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="195"/>
-      <c r="R12" s="195"/>
-      <c r="S12" s="196">
+      <c r="Q12" s="196"/>
+      <c r="R12" s="196"/>
+      <c r="S12" s="198">
         <v>45083</v>
       </c>
-      <c r="T12" s="196"/>
-      <c r="U12" s="196"/>
-      <c r="V12" s="196">
+      <c r="T12" s="198"/>
+      <c r="U12" s="198"/>
+      <c r="V12" s="198">
         <v>45085</v>
       </c>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="197" t="s">
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
+      <c r="Z12" s="199"/>
+      <c r="AA12" s="199"/>
       <c r="AB12" s="132">
         <v>1</v>
       </c>
@@ -4933,43 +4949,43 @@
       <c r="BI12" s="4"/>
     </row>
     <row r="13" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A13" s="197"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="205" t="s">
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="206"/>
-      <c r="P13" s="195" t="s">
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="212"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="196">
+      <c r="Q13" s="196"/>
+      <c r="R13" s="196"/>
+      <c r="S13" s="198">
         <v>45083</v>
       </c>
-      <c r="T13" s="196"/>
-      <c r="U13" s="196"/>
-      <c r="V13" s="196">
+      <c r="T13" s="198"/>
+      <c r="U13" s="198"/>
+      <c r="V13" s="198">
         <v>45084</v>
       </c>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="197" t="s">
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
+      <c r="Z13" s="199"/>
+      <c r="AA13" s="199"/>
       <c r="AB13" s="132">
         <v>1</v>
       </c>
@@ -5012,43 +5028,43 @@
       <c r="BI13" s="4"/>
     </row>
     <row r="14" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A14" s="197"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="205" t="s">
+      <c r="A14" s="199"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="214"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="195" t="s">
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="196">
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
+      <c r="S14" s="198">
         <v>45083</v>
       </c>
-      <c r="T14" s="196"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="196">
+      <c r="T14" s="198"/>
+      <c r="U14" s="198"/>
+      <c r="V14" s="198">
         <v>45085</v>
       </c>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="197" t="s">
+      <c r="W14" s="198"/>
+      <c r="X14" s="198"/>
+      <c r="Y14" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
+      <c r="Z14" s="199"/>
+      <c r="AA14" s="199"/>
       <c r="AB14" s="132">
         <v>1</v>
       </c>
@@ -5091,43 +5107,43 @@
       <c r="BI14" s="4"/>
     </row>
     <row r="15" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A15" s="205"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="205" t="s">
+      <c r="A15" s="206"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="214"/>
-      <c r="J15" s="214"/>
-      <c r="K15" s="214"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="205" t="s">
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="212"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="214"/>
-      <c r="R15" s="206"/>
-      <c r="S15" s="198">
+      <c r="Q15" s="212"/>
+      <c r="R15" s="207"/>
+      <c r="S15" s="200">
         <v>45084</v>
       </c>
-      <c r="T15" s="199"/>
-      <c r="U15" s="200"/>
-      <c r="V15" s="198">
+      <c r="T15" s="201"/>
+      <c r="U15" s="202"/>
+      <c r="V15" s="200">
         <v>45085</v>
       </c>
-      <c r="W15" s="199"/>
-      <c r="X15" s="200"/>
-      <c r="Y15" s="218" t="s">
+      <c r="W15" s="201"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
+      <c r="Z15" s="199"/>
+      <c r="AA15" s="199"/>
       <c r="AB15" s="132">
         <v>1</v>
       </c>
@@ -5170,43 +5186,43 @@
       <c r="BI15" s="4"/>
     </row>
     <row r="16" spans="1:63" ht="18.75" customHeight="1">
-      <c r="A16" s="205"/>
-      <c r="B16" s="206"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="205" t="s">
+      <c r="A16" s="206"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="214"/>
-      <c r="J16" s="214"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-      <c r="N16" s="214"/>
-      <c r="O16" s="206"/>
-      <c r="P16" s="205" t="s">
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="212"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="212"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="214"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="198">
+      <c r="Q16" s="212"/>
+      <c r="R16" s="207"/>
+      <c r="S16" s="200">
         <v>45084</v>
       </c>
-      <c r="T16" s="199"/>
-      <c r="U16" s="200"/>
-      <c r="V16" s="196">
+      <c r="T16" s="201"/>
+      <c r="U16" s="202"/>
+      <c r="V16" s="198">
         <v>45085</v>
       </c>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="197" t="s">
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
+      <c r="Z16" s="199"/>
+      <c r="AA16" s="199"/>
       <c r="AB16" s="132">
         <v>1</v>
       </c>
@@ -5249,43 +5265,43 @@
       <c r="BI16" s="4"/>
     </row>
     <row r="17" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A17" s="197"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="195" t="s">
+      <c r="A17" s="199"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
-      <c r="N17" s="195"/>
-      <c r="O17" s="195"/>
-      <c r="P17" s="195" t="s">
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
+      <c r="N17" s="196"/>
+      <c r="O17" s="196"/>
+      <c r="P17" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="195"/>
-      <c r="R17" s="195"/>
-      <c r="S17" s="196">
+      <c r="Q17" s="196"/>
+      <c r="R17" s="196"/>
+      <c r="S17" s="198">
         <v>45084</v>
       </c>
-      <c r="T17" s="196"/>
-      <c r="U17" s="196"/>
-      <c r="V17" s="196">
+      <c r="T17" s="198"/>
+      <c r="U17" s="198"/>
+      <c r="V17" s="198">
         <v>45084</v>
       </c>
-      <c r="W17" s="196"/>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="197" t="s">
+      <c r="W17" s="198"/>
+      <c r="X17" s="198"/>
+      <c r="Y17" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
+      <c r="Z17" s="199"/>
+      <c r="AA17" s="199"/>
       <c r="AB17" s="132">
         <v>1</v>
       </c>
@@ -5328,33 +5344,33 @@
       <c r="BI17" s="4"/>
     </row>
     <row r="18" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A18" s="197"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="194"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="194"/>
-      <c r="S18" s="196"/>
-      <c r="T18" s="196"/>
-      <c r="U18" s="196"/>
-      <c r="V18" s="196"/>
-      <c r="W18" s="196"/>
-      <c r="X18" s="196"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="197"/>
+      <c r="O18" s="197"/>
+      <c r="P18" s="197"/>
+      <c r="Q18" s="197"/>
+      <c r="R18" s="197"/>
+      <c r="S18" s="198"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="198"/>
+      <c r="V18" s="198"/>
+      <c r="W18" s="198"/>
+      <c r="X18" s="198"/>
+      <c r="Y18" s="199"/>
+      <c r="Z18" s="199"/>
+      <c r="AA18" s="199"/>
       <c r="AB18" s="132"/>
       <c r="AC18" s="141"/>
       <c r="AD18" s="6"/>
@@ -5391,35 +5407,35 @@
       <c r="BI18" s="4"/>
     </row>
     <row r="19" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A19" s="197"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="194" t="s">
+      <c r="A19" s="199"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="196"/>
-      <c r="T19" s="196"/>
-      <c r="U19" s="196"/>
-      <c r="V19" s="196"/>
-      <c r="W19" s="196"/>
-      <c r="X19" s="196"/>
-      <c r="Y19" s="197"/>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="197"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="197"/>
+      <c r="R19" s="197"/>
+      <c r="S19" s="198"/>
+      <c r="T19" s="198"/>
+      <c r="U19" s="198"/>
+      <c r="V19" s="198"/>
+      <c r="W19" s="198"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="199"/>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
       <c r="AB19" s="132"/>
       <c r="AC19" s="141"/>
       <c r="AD19" s="6"/>
@@ -5456,43 +5472,43 @@
       <c r="BI19" s="4"/>
     </row>
     <row r="20" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A20" s="205"/>
-      <c r="B20" s="206"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="205" t="s">
+      <c r="A20" s="206"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="214"/>
-      <c r="J20" s="214"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="206"/>
-      <c r="P20" s="205" t="s">
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="212"/>
+      <c r="L20" s="212"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="214"/>
-      <c r="R20" s="206"/>
-      <c r="S20" s="198">
+      <c r="Q20" s="212"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="200">
         <v>45086</v>
       </c>
-      <c r="T20" s="199"/>
-      <c r="U20" s="200"/>
-      <c r="V20" s="198">
+      <c r="T20" s="201"/>
+      <c r="U20" s="202"/>
+      <c r="V20" s="200">
         <v>45086</v>
       </c>
-      <c r="W20" s="199"/>
-      <c r="X20" s="200"/>
-      <c r="Y20" s="213" t="s">
+      <c r="W20" s="201"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="206"/>
+      <c r="Z20" s="212"/>
+      <c r="AA20" s="207"/>
       <c r="AB20" s="132">
         <v>1</v>
       </c>
@@ -5535,43 +5551,43 @@
       <c r="BI20" s="4"/>
     </row>
     <row r="21" spans="1:61" ht="15.95">
-      <c r="A21" s="197"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="195" t="s">
+      <c r="A21" s="199"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="195"/>
-      <c r="L21" s="195"/>
-      <c r="M21" s="195"/>
-      <c r="N21" s="195"/>
-      <c r="O21" s="195"/>
-      <c r="P21" s="195" t="s">
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="196"/>
+      <c r="O21" s="196"/>
+      <c r="P21" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="195"/>
-      <c r="R21" s="195"/>
-      <c r="S21" s="196">
+      <c r="Q21" s="196"/>
+      <c r="R21" s="196"/>
+      <c r="S21" s="198">
         <v>45086</v>
       </c>
-      <c r="T21" s="196"/>
-      <c r="U21" s="196"/>
-      <c r="V21" s="196">
+      <c r="T21" s="198"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198">
         <v>45086</v>
       </c>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="197" t="s">
+      <c r="W21" s="198"/>
+      <c r="X21" s="198"/>
+      <c r="Y21" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z21" s="197"/>
-      <c r="AA21" s="197"/>
+      <c r="Z21" s="199"/>
+      <c r="AA21" s="199"/>
       <c r="AB21" s="132">
         <v>1</v>
       </c>
@@ -5614,33 +5630,33 @@
       <c r="BI21" s="4"/>
     </row>
     <row r="22" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A22" s="197"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
-      <c r="M22" s="194"/>
-      <c r="N22" s="194"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="194"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="194"/>
-      <c r="S22" s="196"/>
-      <c r="T22" s="196"/>
-      <c r="U22" s="196"/>
-      <c r="V22" s="196"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="197"/>
-      <c r="Z22" s="197"/>
-      <c r="AA22" s="197"/>
+      <c r="A22" s="199"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="197"/>
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="197"/>
+      <c r="R22" s="197"/>
+      <c r="S22" s="198"/>
+      <c r="T22" s="198"/>
+      <c r="U22" s="198"/>
+      <c r="V22" s="198"/>
+      <c r="W22" s="198"/>
+      <c r="X22" s="198"/>
+      <c r="Y22" s="199"/>
+      <c r="Z22" s="199"/>
+      <c r="AA22" s="199"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="141"/>
       <c r="AD22" s="6"/>
@@ -5677,35 +5693,35 @@
       <c r="BI22" s="4"/>
     </row>
     <row r="23" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A23" s="197"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="194" t="s">
+      <c r="A23" s="199"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="195"/>
-      <c r="P23" s="194"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="194"/>
-      <c r="S23" s="196"/>
-      <c r="T23" s="196"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="197"/>
-      <c r="Z23" s="197"/>
-      <c r="AA23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="196"/>
+      <c r="M23" s="196"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="196"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="197"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="198"/>
+      <c r="T23" s="198"/>
+      <c r="U23" s="198"/>
+      <c r="V23" s="198"/>
+      <c r="W23" s="198"/>
+      <c r="X23" s="198"/>
+      <c r="Y23" s="199"/>
+      <c r="Z23" s="199"/>
+      <c r="AA23" s="199"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="141"/>
       <c r="AD23" s="6"/>
@@ -5742,43 +5758,43 @@
       <c r="BI23" s="4"/>
     </row>
     <row r="24" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A24" s="197"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="195" t="s">
+      <c r="A24" s="199"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="195"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="195"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="194" t="s">
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
+      <c r="L24" s="196"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="196"/>
+      <c r="O24" s="196"/>
+      <c r="P24" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="194"/>
-      <c r="R24" s="194"/>
-      <c r="S24" s="196">
+      <c r="Q24" s="197"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="198">
         <v>45089</v>
       </c>
-      <c r="T24" s="196"/>
-      <c r="U24" s="196"/>
-      <c r="V24" s="196">
+      <c r="T24" s="198"/>
+      <c r="U24" s="198"/>
+      <c r="V24" s="198">
         <v>45089</v>
       </c>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="197" t="s">
+      <c r="W24" s="198"/>
+      <c r="X24" s="198"/>
+      <c r="Y24" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z24" s="197"/>
-      <c r="AA24" s="197"/>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
       <c r="AB24" s="126">
         <v>1</v>
       </c>
@@ -5821,43 +5837,43 @@
       <c r="BI24" s="4"/>
     </row>
     <row r="25" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A25" s="197"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="195" t="s">
+      <c r="A25" s="199"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="195"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
-      <c r="L25" s="195"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="195"/>
-      <c r="O25" s="195"/>
-      <c r="P25" s="194" t="s">
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="196"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="196"/>
+      <c r="O25" s="196"/>
+      <c r="P25" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="194"/>
-      <c r="S25" s="196">
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="198">
         <v>45086</v>
       </c>
-      <c r="T25" s="196"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196">
+      <c r="T25" s="198"/>
+      <c r="U25" s="198"/>
+      <c r="V25" s="198">
         <v>45089</v>
       </c>
-      <c r="W25" s="196"/>
-      <c r="X25" s="196"/>
-      <c r="Y25" s="197" t="s">
+      <c r="W25" s="198"/>
+      <c r="X25" s="198"/>
+      <c r="Y25" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z25" s="197"/>
-      <c r="AA25" s="197"/>
+      <c r="Z25" s="199"/>
+      <c r="AA25" s="199"/>
       <c r="AB25" s="126">
         <v>1</v>
       </c>
@@ -5900,13 +5916,13 @@
       <c r="BI25" s="4"/>
     </row>
     <row r="26" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A26" s="197"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
+      <c r="A26" s="199"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
       <c r="H26" s="164" t="s">
         <v>42</v>
       </c>
@@ -5922,21 +5938,21 @@
       </c>
       <c r="Q26" s="160"/>
       <c r="R26" s="159"/>
-      <c r="S26" s="196">
+      <c r="S26" s="198">
         <v>45089</v>
       </c>
-      <c r="T26" s="196"/>
-      <c r="U26" s="196"/>
-      <c r="V26" s="196">
+      <c r="T26" s="198"/>
+      <c r="U26" s="198"/>
+      <c r="V26" s="198">
         <v>45091</v>
       </c>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="218" t="s">
+      <c r="W26" s="198"/>
+      <c r="X26" s="198"/>
+      <c r="Y26" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z26" s="197"/>
-      <c r="AA26" s="197"/>
+      <c r="Z26" s="199"/>
+      <c r="AA26" s="199"/>
       <c r="AB26" s="126">
         <v>1</v>
       </c>
@@ -5979,13 +5995,13 @@
       <c r="BI26" s="4"/>
     </row>
     <row r="27" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A27" s="197"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
       <c r="H27" s="163" t="s">
         <v>43</v>
       </c>
@@ -6001,21 +6017,21 @@
       </c>
       <c r="Q27" s="160"/>
       <c r="R27" s="159"/>
-      <c r="S27" s="196">
+      <c r="S27" s="198">
         <v>45089</v>
       </c>
-      <c r="T27" s="196"/>
-      <c r="U27" s="196"/>
-      <c r="V27" s="196">
+      <c r="T27" s="198"/>
+      <c r="U27" s="198"/>
+      <c r="V27" s="198">
         <v>45091</v>
       </c>
-      <c r="W27" s="196"/>
-      <c r="X27" s="196"/>
-      <c r="Y27" s="218" t="s">
+      <c r="W27" s="198"/>
+      <c r="X27" s="198"/>
+      <c r="Y27" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="197"/>
+      <c r="Z27" s="199"/>
+      <c r="AA27" s="199"/>
       <c r="AB27" s="126">
         <v>1</v>
       </c>
@@ -6058,13 +6074,13 @@
       <c r="BI27" s="4"/>
     </row>
     <row r="28" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A28" s="197"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
+      <c r="A28" s="199"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
       <c r="H28" s="169" t="s">
         <v>44</v>
       </c>
@@ -6080,21 +6096,21 @@
       </c>
       <c r="Q28" s="166"/>
       <c r="R28" s="165"/>
-      <c r="S28" s="196">
+      <c r="S28" s="198">
         <v>45091</v>
       </c>
-      <c r="T28" s="196"/>
-      <c r="U28" s="196"/>
-      <c r="V28" s="219">
+      <c r="T28" s="198"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="220">
         <v>45092</v>
       </c>
-      <c r="W28" s="219"/>
-      <c r="X28" s="219"/>
-      <c r="Y28" s="218" t="s">
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
+      <c r="Z28" s="199"/>
+      <c r="AA28" s="199"/>
       <c r="AB28" s="126">
         <v>1</v>
       </c>
@@ -6137,13 +6153,13 @@
       <c r="BI28" s="4"/>
     </row>
     <row r="29" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A29" s="197"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
       <c r="H29" s="179" t="s">
         <v>45</v>
       </c>
@@ -6159,26 +6175,26 @@
       </c>
       <c r="Q29" s="182"/>
       <c r="R29" s="183"/>
-      <c r="S29" s="196">
+      <c r="S29" s="198">
         <v>45089</v>
       </c>
-      <c r="T29" s="196"/>
-      <c r="U29" s="196"/>
-      <c r="V29" s="243">
+      <c r="T29" s="198"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="244">
         <v>45100</v>
       </c>
-      <c r="W29" s="243"/>
-      <c r="X29" s="243"/>
-      <c r="Y29" s="218" t="s">
+      <c r="W29" s="244"/>
+      <c r="X29" s="244"/>
+      <c r="Y29" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z29" s="197"/>
-      <c r="AA29" s="197"/>
+      <c r="Z29" s="199"/>
+      <c r="AA29" s="199"/>
       <c r="AB29" s="126">
         <v>1</v>
       </c>
       <c r="AC29" s="141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="6">
         <v>10</v>
@@ -6218,13 +6234,13 @@
       <c r="BI29" s="4"/>
     </row>
     <row r="30" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A30" s="197"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
+      <c r="A30" s="199"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="197"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
       <c r="H30" s="163" t="s">
         <v>47</v>
       </c>
@@ -6240,21 +6256,21 @@
       </c>
       <c r="Q30" s="160"/>
       <c r="R30" s="159"/>
-      <c r="S30" s="196">
+      <c r="S30" s="198">
         <v>45089</v>
       </c>
-      <c r="T30" s="196"/>
-      <c r="U30" s="196"/>
-      <c r="V30" s="196">
+      <c r="T30" s="198"/>
+      <c r="U30" s="198"/>
+      <c r="V30" s="198">
         <v>45089</v>
       </c>
-      <c r="W30" s="196"/>
-      <c r="X30" s="196"/>
-      <c r="Y30" s="197" t="s">
+      <c r="W30" s="198"/>
+      <c r="X30" s="198"/>
+      <c r="Y30" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z30" s="197"/>
-      <c r="AA30" s="197"/>
+      <c r="Z30" s="199"/>
+      <c r="AA30" s="199"/>
       <c r="AB30" s="126">
         <v>1</v>
       </c>
@@ -6297,13 +6313,13 @@
       <c r="BI30" s="4"/>
     </row>
     <row r="31" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A31" s="197"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
       <c r="H31" s="169" t="s">
         <v>48</v>
       </c>
@@ -6319,21 +6335,21 @@
       </c>
       <c r="Q31" s="166"/>
       <c r="R31" s="165"/>
-      <c r="S31" s="196">
+      <c r="S31" s="198">
         <v>45091</v>
       </c>
-      <c r="T31" s="196"/>
-      <c r="U31" s="196"/>
-      <c r="V31" s="196">
+      <c r="T31" s="198"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="198">
         <v>45092</v>
       </c>
-      <c r="W31" s="196"/>
-      <c r="X31" s="196"/>
-      <c r="Y31" s="218" t="s">
+      <c r="W31" s="198"/>
+      <c r="X31" s="198"/>
+      <c r="Y31" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z31" s="197"/>
-      <c r="AA31" s="197"/>
+      <c r="Z31" s="199"/>
+      <c r="AA31" s="199"/>
       <c r="AB31" s="126">
         <v>1</v>
       </c>
@@ -6376,48 +6392,48 @@
       <c r="BI31" s="4"/>
     </row>
     <row r="32" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A32" s="197"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="56" t="s">
+      <c r="A32" s="199"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="56" t="s">
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="196">
+      <c r="Q32" s="182"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="198">
         <v>45089</v>
       </c>
-      <c r="T32" s="196"/>
-      <c r="U32" s="196"/>
-      <c r="V32" s="196">
+      <c r="T32" s="198"/>
+      <c r="U32" s="198"/>
+      <c r="V32" s="198">
         <v>45100</v>
       </c>
-      <c r="W32" s="196"/>
-      <c r="X32" s="196"/>
-      <c r="Y32" s="218">
-        <v>0.8</v>
-      </c>
-      <c r="Z32" s="197"/>
-      <c r="AA32" s="197"/>
+      <c r="W32" s="198"/>
+      <c r="X32" s="198"/>
+      <c r="Y32" s="219" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z32" s="199"/>
+      <c r="AA32" s="199"/>
       <c r="AB32" s="126">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD32" s="6">
         <v>10</v>
@@ -6457,13 +6473,13 @@
       <c r="BI32" s="4"/>
     </row>
     <row r="33" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A33" s="197"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
       <c r="H33" s="163" t="s">
         <v>50</v>
       </c>
@@ -6479,21 +6495,21 @@
       </c>
       <c r="Q33" s="160"/>
       <c r="R33" s="159"/>
-      <c r="S33" s="196">
+      <c r="S33" s="198">
         <v>45091</v>
       </c>
-      <c r="T33" s="196"/>
-      <c r="U33" s="196"/>
-      <c r="V33" s="196">
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="198">
         <v>45091</v>
       </c>
-      <c r="W33" s="196"/>
-      <c r="X33" s="196"/>
-      <c r="Y33" s="197" t="s">
+      <c r="W33" s="198"/>
+      <c r="X33" s="198"/>
+      <c r="Y33" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Z33" s="197"/>
-      <c r="AA33" s="197"/>
+      <c r="Z33" s="199"/>
+      <c r="AA33" s="199"/>
       <c r="AB33" s="126">
         <v>1</v>
       </c>
@@ -6538,13 +6554,13 @@
       <c r="BI33" s="4"/>
     </row>
     <row r="34" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A34" s="197"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
+      <c r="A34" s="199"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
       <c r="H34" s="169" t="s">
         <v>52</v>
       </c>
@@ -6560,21 +6576,21 @@
       </c>
       <c r="Q34" s="166"/>
       <c r="R34" s="165"/>
-      <c r="S34" s="196">
+      <c r="S34" s="198">
         <v>45089</v>
       </c>
-      <c r="T34" s="196"/>
-      <c r="U34" s="196"/>
-      <c r="V34" s="196">
+      <c r="T34" s="198"/>
+      <c r="U34" s="198"/>
+      <c r="V34" s="198">
         <v>45100</v>
       </c>
-      <c r="W34" s="196"/>
-      <c r="X34" s="196"/>
-      <c r="Y34" s="218" t="s">
+      <c r="W34" s="198"/>
+      <c r="X34" s="198"/>
+      <c r="Y34" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z34" s="197"/>
-      <c r="AA34" s="197"/>
+      <c r="Z34" s="199"/>
+      <c r="AA34" s="199"/>
       <c r="AB34" s="126">
         <v>1</v>
       </c>
@@ -6617,13 +6633,13 @@
       <c r="BI34" s="4"/>
     </row>
     <row r="35" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A35" s="197"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
       <c r="H35" s="56" t="s">
         <v>53</v>
       </c>
@@ -6639,21 +6655,21 @@
       </c>
       <c r="Q35" s="54"/>
       <c r="R35" s="55"/>
-      <c r="S35" s="196">
+      <c r="S35" s="198">
         <v>45091</v>
       </c>
-      <c r="T35" s="196"/>
-      <c r="U35" s="196"/>
-      <c r="V35" s="196">
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="198">
         <v>45100</v>
       </c>
-      <c r="W35" s="196"/>
-      <c r="X35" s="196"/>
-      <c r="Y35" s="218">
+      <c r="W35" s="198"/>
+      <c r="X35" s="198"/>
+      <c r="Y35" s="219">
         <v>0.8</v>
       </c>
-      <c r="Z35" s="197"/>
-      <c r="AA35" s="197"/>
+      <c r="Z35" s="199"/>
+      <c r="AA35" s="199"/>
       <c r="AB35" s="126">
         <v>0.8</v>
       </c>
@@ -6698,13 +6714,13 @@
       <c r="BI35" s="4"/>
     </row>
     <row r="36" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A36" s="197"/>
-      <c r="B36" s="197"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
+      <c r="A36" s="199"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
       <c r="H36" s="179" t="s">
         <v>54</v>
       </c>
@@ -6720,26 +6736,26 @@
       </c>
       <c r="Q36" s="182"/>
       <c r="R36" s="183"/>
-      <c r="S36" s="196">
+      <c r="S36" s="198">
         <v>45091</v>
       </c>
-      <c r="T36" s="196"/>
-      <c r="U36" s="196"/>
-      <c r="V36" s="196">
+      <c r="T36" s="198"/>
+      <c r="U36" s="198"/>
+      <c r="V36" s="198">
         <v>45093</v>
       </c>
-      <c r="W36" s="196"/>
-      <c r="X36" s="196"/>
-      <c r="Y36" s="218" t="s">
+      <c r="W36" s="198"/>
+      <c r="X36" s="198"/>
+      <c r="Y36" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="Z36" s="197"/>
-      <c r="AA36" s="197"/>
+      <c r="Z36" s="199"/>
+      <c r="AA36" s="199"/>
       <c r="AB36" s="126">
         <v>1</v>
       </c>
       <c r="AC36" s="141">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="6">
         <v>3</v>
@@ -6777,13 +6793,13 @@
       <c r="BI36" s="4"/>
     </row>
     <row r="37" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A37" s="197"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
+      <c r="A37" s="199"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
       <c r="H37" s="57" t="s">
         <v>55</v>
       </c>
@@ -6799,26 +6815,27 @@
       </c>
       <c r="Q37" s="60"/>
       <c r="R37" s="61"/>
-      <c r="S37" s="198">
+      <c r="S37" s="200">
         <v>45089</v>
       </c>
-      <c r="T37" s="199"/>
-      <c r="U37" s="200"/>
-      <c r="V37" s="196">
+      <c r="T37" s="201"/>
+      <c r="U37" s="202"/>
+      <c r="V37" s="198">
         <v>45093</v>
       </c>
-      <c r="W37" s="196"/>
-      <c r="X37" s="196"/>
-      <c r="Y37" s="218">
+      <c r="W37" s="198"/>
+      <c r="X37" s="198"/>
+      <c r="Y37" s="219">
         <v>0.75</v>
       </c>
-      <c r="Z37" s="197"/>
-      <c r="AA37" s="197"/>
+      <c r="Z37" s="199"/>
+      <c r="AA37" s="199"/>
       <c r="AB37" s="126">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC37" s="141">
-        <v>0</v>
+        <f>AD37*0.05</f>
+        <v>0.25</v>
       </c>
       <c r="AD37" s="6">
         <v>5</v>
@@ -6858,13 +6875,13 @@
       <c r="BI37" s="4"/>
     </row>
     <row r="38" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A38" s="197"/>
-      <c r="B38" s="197"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
+      <c r="A38" s="199"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
       <c r="H38" s="67" t="s">
         <v>57</v>
       </c>
@@ -6880,26 +6897,26 @@
       </c>
       <c r="Q38" s="70"/>
       <c r="R38" s="71"/>
-      <c r="S38" s="196">
+      <c r="S38" s="198">
         <v>45089</v>
       </c>
-      <c r="T38" s="196"/>
-      <c r="U38" s="196"/>
-      <c r="V38" s="196">
+      <c r="T38" s="198"/>
+      <c r="U38" s="198"/>
+      <c r="V38" s="198">
         <v>45098</v>
       </c>
-      <c r="W38" s="196"/>
-      <c r="X38" s="196"/>
-      <c r="Y38" s="218">
+      <c r="W38" s="198"/>
+      <c r="X38" s="198"/>
+      <c r="Y38" s="219">
         <v>0.9</v>
       </c>
-      <c r="Z38" s="197"/>
-      <c r="AA38" s="197"/>
+      <c r="Z38" s="199"/>
+      <c r="AA38" s="199"/>
       <c r="AB38" s="132">
         <v>0.95</v>
       </c>
       <c r="AC38" s="142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="133">
         <v>8</v>
@@ -6939,13 +6956,13 @@
       <c r="BI38" s="4"/>
     </row>
     <row r="39" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A39" s="197"/>
-      <c r="B39" s="197"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
+      <c r="A39" s="199"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
       <c r="H39" s="67" t="s">
         <v>59</v>
       </c>
@@ -6961,26 +6978,26 @@
       </c>
       <c r="Q39" s="70"/>
       <c r="R39" s="71"/>
-      <c r="S39" s="196">
+      <c r="S39" s="198">
         <v>45097</v>
       </c>
-      <c r="T39" s="196"/>
-      <c r="U39" s="196"/>
-      <c r="V39" s="196">
+      <c r="T39" s="198"/>
+      <c r="U39" s="198"/>
+      <c r="V39" s="198">
         <v>45098</v>
       </c>
-      <c r="W39" s="196"/>
-      <c r="X39" s="196"/>
-      <c r="Y39" s="218">
+      <c r="W39" s="198"/>
+      <c r="X39" s="198"/>
+      <c r="Y39" s="219">
         <v>0.6</v>
       </c>
-      <c r="Z39" s="197"/>
-      <c r="AA39" s="197"/>
+      <c r="Z39" s="199"/>
+      <c r="AA39" s="199"/>
       <c r="AB39" s="126">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC39" s="141">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD39" s="6">
         <v>2</v>
@@ -7001,9 +7018,9 @@
       <c r="AP39" s="11"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
-      <c r="AS39" s="253"/>
-      <c r="AT39" s="253"/>
-      <c r="AU39" s="253"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
       <c r="AV39" s="11"/>
       <c r="AW39" s="11"/>
       <c r="AX39" s="11"/>
@@ -7020,13 +7037,13 @@
       <c r="BI39" s="4"/>
     </row>
     <row r="40" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A40" s="197"/>
-      <c r="B40" s="197"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
+      <c r="A40" s="199"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
       <c r="H40" s="67" t="s">
         <v>61</v>
       </c>
@@ -7042,21 +7059,21 @@
       </c>
       <c r="Q40" s="70"/>
       <c r="R40" s="71"/>
-      <c r="S40" s="196">
+      <c r="S40" s="198">
         <v>45089</v>
       </c>
-      <c r="T40" s="196"/>
-      <c r="U40" s="196"/>
-      <c r="V40" s="196">
+      <c r="T40" s="198"/>
+      <c r="U40" s="198"/>
+      <c r="V40" s="198">
         <v>45100</v>
       </c>
-      <c r="W40" s="196"/>
-      <c r="X40" s="196"/>
-      <c r="Y40" s="218">
+      <c r="W40" s="198"/>
+      <c r="X40" s="198"/>
+      <c r="Y40" s="219">
         <v>0.8</v>
       </c>
-      <c r="Z40" s="197"/>
-      <c r="AA40" s="197"/>
+      <c r="Z40" s="199"/>
+      <c r="AA40" s="199"/>
       <c r="AB40" s="132">
         <v>0.8</v>
       </c>
@@ -7101,13 +7118,13 @@
       <c r="BI40" s="4"/>
     </row>
     <row r="41" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A41" s="197"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
+      <c r="A41" s="199"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
       <c r="H41" s="67" t="s">
         <v>63</v>
       </c>
@@ -7123,21 +7140,21 @@
       </c>
       <c r="Q41" s="70"/>
       <c r="R41" s="71"/>
-      <c r="S41" s="196">
+      <c r="S41" s="198">
         <v>45093</v>
       </c>
-      <c r="T41" s="196"/>
-      <c r="U41" s="196"/>
-      <c r="V41" s="196">
+      <c r="T41" s="198"/>
+      <c r="U41" s="198"/>
+      <c r="V41" s="198">
         <v>45099</v>
       </c>
-      <c r="W41" s="196"/>
-      <c r="X41" s="196"/>
-      <c r="Y41" s="197" t="s">
+      <c r="W41" s="198"/>
+      <c r="X41" s="198"/>
+      <c r="Y41" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="197"/>
+      <c r="Z41" s="199"/>
+      <c r="AA41" s="199"/>
       <c r="AB41" s="126">
         <v>0</v>
       </c>
@@ -7182,13 +7199,13 @@
       <c r="BI41" s="4"/>
     </row>
     <row r="42" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A42" s="197"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
+      <c r="A42" s="199"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
       <c r="H42" s="67" t="s">
         <v>66</v>
       </c>
@@ -7204,21 +7221,21 @@
       </c>
       <c r="Q42" s="70"/>
       <c r="R42" s="71"/>
-      <c r="S42" s="196">
+      <c r="S42" s="198">
         <v>45091</v>
       </c>
-      <c r="T42" s="196"/>
-      <c r="U42" s="196"/>
-      <c r="V42" s="196">
+      <c r="T42" s="198"/>
+      <c r="U42" s="198"/>
+      <c r="V42" s="198">
         <v>45099</v>
       </c>
-      <c r="W42" s="196"/>
-      <c r="X42" s="196"/>
-      <c r="Y42" s="218">
+      <c r="W42" s="198"/>
+      <c r="X42" s="198"/>
+      <c r="Y42" s="219">
         <v>0.95</v>
       </c>
-      <c r="Z42" s="197"/>
-      <c r="AA42" s="197"/>
+      <c r="Z42" s="199"/>
+      <c r="AA42" s="199"/>
       <c r="AB42" s="126">
         <v>0.95</v>
       </c>
@@ -7263,13 +7280,13 @@
       <c r="BI42" s="4"/>
     </row>
     <row r="43" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A43" s="197"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
+      <c r="A43" s="199"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
       <c r="H43" s="77" t="s">
         <v>68</v>
       </c>
@@ -7285,21 +7302,21 @@
       </c>
       <c r="Q43" s="80"/>
       <c r="R43" s="81"/>
-      <c r="S43" s="196">
+      <c r="S43" s="198">
         <v>45096</v>
       </c>
-      <c r="T43" s="196"/>
-      <c r="U43" s="196"/>
-      <c r="V43" s="196">
+      <c r="T43" s="198"/>
+      <c r="U43" s="198"/>
+      <c r="V43" s="198">
         <v>45099</v>
       </c>
-      <c r="W43" s="196"/>
-      <c r="X43" s="196"/>
-      <c r="Y43" s="218">
+      <c r="W43" s="198"/>
+      <c r="X43" s="198"/>
+      <c r="Y43" s="219">
         <v>0.65</v>
       </c>
-      <c r="Z43" s="197"/>
-      <c r="AA43" s="197"/>
+      <c r="Z43" s="199"/>
+      <c r="AA43" s="199"/>
       <c r="AB43" s="126">
         <v>0.65</v>
       </c>
@@ -7342,13 +7359,13 @@
       <c r="BI43" s="4"/>
     </row>
     <row r="44" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A44" s="205"/>
-      <c r="B44" s="206"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="209"/>
+      <c r="A44" s="206"/>
+      <c r="B44" s="207"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="210"/>
       <c r="H44" s="77" t="s">
         <v>69</v>
       </c>
@@ -7364,21 +7381,21 @@
       </c>
       <c r="Q44" s="80"/>
       <c r="R44" s="81"/>
-      <c r="S44" s="198">
+      <c r="S44" s="200">
         <v>45096</v>
       </c>
-      <c r="T44" s="199"/>
-      <c r="U44" s="200"/>
-      <c r="V44" s="198">
+      <c r="T44" s="201"/>
+      <c r="U44" s="202"/>
+      <c r="V44" s="200">
         <v>45099</v>
       </c>
-      <c r="W44" s="199"/>
-      <c r="X44" s="200"/>
-      <c r="Y44" s="213">
+      <c r="W44" s="201"/>
+      <c r="X44" s="202"/>
+      <c r="Y44" s="211">
         <v>0.7</v>
       </c>
-      <c r="Z44" s="214"/>
-      <c r="AA44" s="206"/>
+      <c r="Z44" s="212"/>
+      <c r="AA44" s="207"/>
       <c r="AB44" s="119">
         <v>0.7</v>
       </c>
@@ -7443,21 +7460,21 @@
       </c>
       <c r="Q45" s="160"/>
       <c r="R45" s="159"/>
-      <c r="S45" s="191">
+      <c r="S45" s="193">
         <v>45093</v>
       </c>
-      <c r="T45" s="192"/>
-      <c r="U45" s="193"/>
-      <c r="V45" s="191">
+      <c r="T45" s="194"/>
+      <c r="U45" s="195"/>
+      <c r="V45" s="193">
         <v>45093</v>
       </c>
-      <c r="W45" s="192"/>
-      <c r="X45" s="193"/>
-      <c r="Y45" s="201" t="s">
+      <c r="W45" s="194"/>
+      <c r="X45" s="195"/>
+      <c r="Y45" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="Z45" s="202"/>
-      <c r="AA45" s="203"/>
+      <c r="Z45" s="204"/>
+      <c r="AA45" s="205"/>
       <c r="AB45" s="119">
         <v>1</v>
       </c>
@@ -7500,13 +7517,13 @@
       <c r="BI45" s="4"/>
     </row>
     <row r="46" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A46" s="205"/>
-      <c r="B46" s="206"/>
-      <c r="C46" s="207"/>
-      <c r="D46" s="208"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="217"/>
+      <c r="A46" s="206"/>
+      <c r="B46" s="207"/>
+      <c r="C46" s="208"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="209"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="218"/>
       <c r="H46" s="72" t="s">
         <v>71</v>
       </c>
@@ -7522,21 +7539,21 @@
       </c>
       <c r="Q46" s="75"/>
       <c r="R46" s="76"/>
-      <c r="S46" s="198">
+      <c r="S46" s="200">
         <v>45089</v>
       </c>
-      <c r="T46" s="199"/>
-      <c r="U46" s="200"/>
-      <c r="V46" s="198">
+      <c r="T46" s="201"/>
+      <c r="U46" s="202"/>
+      <c r="V46" s="200">
         <v>45093</v>
       </c>
-      <c r="W46" s="199"/>
-      <c r="X46" s="200"/>
-      <c r="Y46" s="213">
+      <c r="W46" s="201"/>
+      <c r="X46" s="202"/>
+      <c r="Y46" s="211">
         <v>0.9</v>
       </c>
-      <c r="Z46" s="214"/>
-      <c r="AA46" s="206"/>
+      <c r="Z46" s="212"/>
+      <c r="AA46" s="207"/>
       <c r="AB46" s="119">
         <v>0.9</v>
       </c>
@@ -7581,13 +7598,13 @@
       <c r="BI46" s="4"/>
     </row>
     <row r="47" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A47" s="205"/>
-      <c r="B47" s="206"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="208"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="209"/>
+      <c r="A47" s="206"/>
+      <c r="B47" s="207"/>
+      <c r="C47" s="208"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="209"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="210"/>
       <c r="H47" s="72" t="s">
         <v>73</v>
       </c>
@@ -7603,26 +7620,26 @@
       </c>
       <c r="Q47" s="75"/>
       <c r="R47" s="76"/>
-      <c r="S47" s="198">
+      <c r="S47" s="200">
         <v>45089</v>
       </c>
-      <c r="T47" s="199"/>
-      <c r="U47" s="200"/>
-      <c r="V47" s="198">
+      <c r="T47" s="201"/>
+      <c r="U47" s="202"/>
+      <c r="V47" s="200">
         <v>45093</v>
       </c>
-      <c r="W47" s="199"/>
-      <c r="X47" s="200"/>
-      <c r="Y47" s="213">
-        <v>0.8</v>
-      </c>
-      <c r="Z47" s="214"/>
-      <c r="AA47" s="206"/>
+      <c r="W47" s="201"/>
+      <c r="X47" s="202"/>
+      <c r="Y47" s="211">
+        <v>0.9</v>
+      </c>
+      <c r="Z47" s="212"/>
+      <c r="AA47" s="207"/>
       <c r="AB47" s="119">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC47" s="143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD47" s="29">
         <v>5</v>
@@ -7662,13 +7679,13 @@
       <c r="BI47" s="4"/>
     </row>
     <row r="48" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A48" s="205"/>
-      <c r="B48" s="206"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="208"/>
-      <c r="E48" s="208"/>
-      <c r="F48" s="208"/>
-      <c r="G48" s="209"/>
+      <c r="A48" s="206"/>
+      <c r="B48" s="207"/>
+      <c r="C48" s="208"/>
+      <c r="D48" s="209"/>
+      <c r="E48" s="209"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="210"/>
       <c r="H48" s="72" t="s">
         <v>75</v>
       </c>
@@ -7684,26 +7701,26 @@
       </c>
       <c r="Q48" s="75"/>
       <c r="R48" s="76"/>
-      <c r="S48" s="198">
+      <c r="S48" s="200">
         <v>45090</v>
       </c>
-      <c r="T48" s="199"/>
-      <c r="U48" s="200"/>
-      <c r="V48" s="198">
+      <c r="T48" s="201"/>
+      <c r="U48" s="202"/>
+      <c r="V48" s="200">
         <v>45097</v>
       </c>
-      <c r="W48" s="199"/>
-      <c r="X48" s="200"/>
-      <c r="Y48" s="213">
-        <v>0.8</v>
-      </c>
-      <c r="Z48" s="214"/>
-      <c r="AA48" s="206"/>
+      <c r="W48" s="201"/>
+      <c r="X48" s="202"/>
+      <c r="Y48" s="211">
+        <v>0.9</v>
+      </c>
+      <c r="Z48" s="212"/>
+      <c r="AA48" s="207"/>
       <c r="AB48" s="119">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC48" s="143">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD48" s="29">
         <v>6</v>
@@ -7743,13 +7760,13 @@
       <c r="BI48" s="4"/>
     </row>
     <row r="49" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A49" s="205"/>
-      <c r="B49" s="206"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="208"/>
-      <c r="E49" s="208"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="209"/>
+      <c r="A49" s="206"/>
+      <c r="B49" s="207"/>
+      <c r="C49" s="208"/>
+      <c r="D49" s="209"/>
+      <c r="E49" s="209"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="210"/>
       <c r="H49" s="72" t="s">
         <v>76</v>
       </c>
@@ -7765,32 +7782,32 @@
       </c>
       <c r="Q49" s="75"/>
       <c r="R49" s="76"/>
-      <c r="S49" s="198">
+      <c r="S49" s="200">
         <v>45090</v>
       </c>
-      <c r="T49" s="199"/>
-      <c r="U49" s="200"/>
-      <c r="V49" s="198">
+      <c r="T49" s="201"/>
+      <c r="U49" s="202"/>
+      <c r="V49" s="200">
         <v>45097</v>
       </c>
-      <c r="W49" s="199"/>
-      <c r="X49" s="200"/>
-      <c r="Y49" s="213">
-        <v>0.8</v>
-      </c>
-      <c r="Z49" s="214"/>
-      <c r="AA49" s="206"/>
+      <c r="W49" s="201"/>
+      <c r="X49" s="202"/>
+      <c r="Y49" s="211">
+        <v>0.9</v>
+      </c>
+      <c r="Z49" s="212"/>
+      <c r="AA49" s="207"/>
       <c r="AB49" s="119">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC49" s="143">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD49" s="29">
         <v>6</v>
       </c>
       <c r="AE49" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
@@ -7824,15 +7841,15 @@
       <c r="BI49" s="4"/>
     </row>
     <row r="50" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A50" s="205"/>
-      <c r="B50" s="206"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="208"/>
-      <c r="E50" s="208"/>
-      <c r="F50" s="208"/>
-      <c r="G50" s="209"/>
+      <c r="A50" s="206"/>
+      <c r="B50" s="207"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="209"/>
+      <c r="E50" s="209"/>
+      <c r="F50" s="209"/>
+      <c r="G50" s="210"/>
       <c r="H50" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I50" s="73"/>
       <c r="J50" s="73"/>
@@ -7846,32 +7863,32 @@
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="76"/>
-      <c r="S50" s="198">
+      <c r="S50" s="200">
         <v>45090</v>
       </c>
-      <c r="T50" s="199"/>
-      <c r="U50" s="200"/>
-      <c r="V50" s="198">
+      <c r="T50" s="201"/>
+      <c r="U50" s="202"/>
+      <c r="V50" s="200">
         <v>45099</v>
       </c>
-      <c r="W50" s="199"/>
-      <c r="X50" s="200"/>
-      <c r="Y50" s="213">
+      <c r="W50" s="201"/>
+      <c r="X50" s="202"/>
+      <c r="Y50" s="211">
+        <v>0.9</v>
+      </c>
+      <c r="Z50" s="212"/>
+      <c r="AA50" s="207"/>
+      <c r="AB50" s="119">
+        <v>0.9</v>
+      </c>
+      <c r="AC50" s="143">
         <v>0.8</v>
-      </c>
-      <c r="Z50" s="214"/>
-      <c r="AA50" s="206"/>
-      <c r="AB50" s="119">
-        <v>0.8</v>
-      </c>
-      <c r="AC50" s="143">
-        <v>0</v>
       </c>
       <c r="AD50" s="29">
         <v>8</v>
       </c>
       <c r="AE50" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
@@ -7905,15 +7922,15 @@
       <c r="BI50" s="4"/>
     </row>
     <row r="51" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A51" s="205"/>
-      <c r="B51" s="206"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="208"/>
-      <c r="F51" s="208"/>
-      <c r="G51" s="209"/>
+      <c r="A51" s="206"/>
+      <c r="B51" s="207"/>
+      <c r="C51" s="208"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="210"/>
       <c r="H51" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
@@ -7927,33 +7944,32 @@
       </c>
       <c r="Q51" s="60"/>
       <c r="R51" s="61"/>
-      <c r="S51" s="198">
+      <c r="S51" s="200">
         <v>45089</v>
       </c>
-      <c r="T51" s="199"/>
-      <c r="U51" s="200"/>
-      <c r="V51" s="198">
+      <c r="T51" s="201"/>
+      <c r="U51" s="202"/>
+      <c r="V51" s="200">
         <v>45093</v>
       </c>
-      <c r="W51" s="199"/>
-      <c r="X51" s="200"/>
-      <c r="Y51" s="213">
+      <c r="W51" s="201"/>
+      <c r="X51" s="202"/>
+      <c r="Y51" s="211">
         <v>0.3</v>
       </c>
-      <c r="Z51" s="214"/>
-      <c r="AA51" s="206"/>
+      <c r="Z51" s="212"/>
+      <c r="AA51" s="207"/>
       <c r="AB51" s="119">
         <v>0.8</v>
       </c>
       <c r="AC51" s="143">
-        <f>AD51*0.5</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="29">
         <v>5</v>
       </c>
       <c r="AE51" s="29" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
@@ -7987,13 +8003,13 @@
       <c r="BI51" s="4"/>
     </row>
     <row r="52" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A52" s="205"/>
-      <c r="B52" s="206"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="208"/>
-      <c r="F52" s="208"/>
-      <c r="G52" s="209"/>
+      <c r="A52" s="206"/>
+      <c r="B52" s="207"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="209"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="209"/>
+      <c r="G52" s="210"/>
       <c r="H52" s="57" t="s">
         <v>80</v>
       </c>
@@ -8009,32 +8025,33 @@
       </c>
       <c r="Q52" s="60"/>
       <c r="R52" s="61"/>
-      <c r="S52" s="198">
+      <c r="S52" s="200">
         <v>45089</v>
       </c>
-      <c r="T52" s="199"/>
-      <c r="U52" s="200"/>
-      <c r="V52" s="191">
+      <c r="T52" s="201"/>
+      <c r="U52" s="202"/>
+      <c r="V52" s="193">
         <v>45093</v>
       </c>
-      <c r="W52" s="192"/>
-      <c r="X52" s="193"/>
-      <c r="Y52" s="213">
+      <c r="W52" s="194"/>
+      <c r="X52" s="195"/>
+      <c r="Y52" s="211">
         <v>0.3</v>
       </c>
-      <c r="Z52" s="214"/>
-      <c r="AA52" s="206"/>
+      <c r="Z52" s="212"/>
+      <c r="AA52" s="207"/>
       <c r="AB52" s="119">
         <v>0.8</v>
       </c>
       <c r="AC52" s="143">
-        <f>AD52*0.5</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="29">
         <v>5</v>
       </c>
-      <c r="AE52" s="29"/>
+      <c r="AE52" s="29" t="s">
+        <v>81</v>
+      </c>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
@@ -8067,15 +8084,15 @@
       <c r="BI52" s="4"/>
     </row>
     <row r="53" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A53" s="205"/>
-      <c r="B53" s="206"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="208"/>
-      <c r="F53" s="208"/>
-      <c r="G53" s="209"/>
+      <c r="A53" s="206"/>
+      <c r="B53" s="207"/>
+      <c r="C53" s="208"/>
+      <c r="D53" s="209"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="209"/>
+      <c r="G53" s="210"/>
       <c r="H53" s="77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I53" s="78"/>
       <c r="J53" s="78"/>
@@ -8089,21 +8106,21 @@
       </c>
       <c r="Q53" s="80"/>
       <c r="R53" s="81"/>
-      <c r="S53" s="198">
+      <c r="S53" s="200">
         <v>45096</v>
       </c>
-      <c r="T53" s="199"/>
-      <c r="U53" s="200"/>
-      <c r="V53" s="191">
+      <c r="T53" s="201"/>
+      <c r="U53" s="202"/>
+      <c r="V53" s="193">
         <v>45098</v>
       </c>
-      <c r="W53" s="192"/>
-      <c r="X53" s="193"/>
-      <c r="Y53" s="213">
+      <c r="W53" s="194"/>
+      <c r="X53" s="195"/>
+      <c r="Y53" s="211">
         <v>0.8</v>
       </c>
-      <c r="Z53" s="214"/>
-      <c r="AA53" s="206"/>
+      <c r="Z53" s="212"/>
+      <c r="AA53" s="207"/>
       <c r="AB53" s="119">
         <v>0.8</v>
       </c>
@@ -8146,15 +8163,15 @@
       <c r="BI53" s="4"/>
     </row>
     <row r="54" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A54" s="205"/>
-      <c r="B54" s="206"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="208"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="208"/>
-      <c r="G54" s="209"/>
+      <c r="A54" s="206"/>
+      <c r="B54" s="207"/>
+      <c r="C54" s="208"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
       <c r="H54" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I54" s="58"/>
       <c r="J54" s="58"/>
@@ -8168,21 +8185,21 @@
       </c>
       <c r="Q54" s="60"/>
       <c r="R54" s="61"/>
-      <c r="S54" s="198">
+      <c r="S54" s="200">
         <v>45089</v>
       </c>
-      <c r="T54" s="199"/>
-      <c r="U54" s="200"/>
-      <c r="V54" s="191">
+      <c r="T54" s="201"/>
+      <c r="U54" s="202"/>
+      <c r="V54" s="193">
         <v>45093</v>
       </c>
-      <c r="W54" s="192"/>
-      <c r="X54" s="193"/>
-      <c r="Y54" s="213">
+      <c r="W54" s="194"/>
+      <c r="X54" s="195"/>
+      <c r="Y54" s="211">
         <v>0.8</v>
       </c>
-      <c r="Z54" s="214"/>
-      <c r="AA54" s="206"/>
+      <c r="Z54" s="212"/>
+      <c r="AA54" s="207"/>
       <c r="AB54" s="119">
         <v>0.8</v>
       </c>
@@ -8193,7 +8210,7 @@
         <v>5</v>
       </c>
       <c r="AE54" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
@@ -8227,13 +8244,13 @@
       <c r="BI54" s="4"/>
     </row>
     <row r="55" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A55" s="205"/>
-      <c r="B55" s="206"/>
-      <c r="C55" s="207"/>
-      <c r="D55" s="208"/>
-      <c r="E55" s="208"/>
-      <c r="F55" s="208"/>
-      <c r="G55" s="209"/>
+      <c r="A55" s="206"/>
+      <c r="B55" s="207"/>
+      <c r="C55" s="208"/>
+      <c r="D55" s="209"/>
+      <c r="E55" s="209"/>
+      <c r="F55" s="209"/>
+      <c r="G55" s="210"/>
       <c r="H55" s="62" t="s">
         <v>84</v>
       </c>
@@ -8249,26 +8266,26 @@
       </c>
       <c r="Q55" s="65"/>
       <c r="R55" s="66"/>
-      <c r="S55" s="198">
+      <c r="S55" s="200">
         <v>45089</v>
       </c>
-      <c r="T55" s="199"/>
-      <c r="U55" s="200"/>
-      <c r="V55" s="198">
+      <c r="T55" s="201"/>
+      <c r="U55" s="202"/>
+      <c r="V55" s="200">
         <v>45096</v>
       </c>
-      <c r="W55" s="199"/>
-      <c r="X55" s="200"/>
-      <c r="Y55" s="213">
-        <v>0.92</v>
-      </c>
-      <c r="Z55" s="214"/>
-      <c r="AA55" s="206"/>
+      <c r="W55" s="201"/>
+      <c r="X55" s="202"/>
+      <c r="Y55" s="211" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z55" s="212"/>
+      <c r="AA55" s="207"/>
       <c r="AB55" s="119">
         <v>1</v>
       </c>
       <c r="AC55" s="143">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="29">
         <v>6</v>
@@ -8308,48 +8325,48 @@
       <c r="BI55" s="4"/>
     </row>
     <row r="56" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A56" s="205"/>
-      <c r="B56" s="206"/>
-      <c r="C56" s="207"/>
-      <c r="D56" s="208"/>
-      <c r="E56" s="208"/>
-      <c r="F56" s="208"/>
-      <c r="G56" s="209"/>
-      <c r="H56" s="62" t="s">
+      <c r="A56" s="206"/>
+      <c r="B56" s="207"/>
+      <c r="C56" s="208"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="209"/>
+      <c r="F56" s="209"/>
+      <c r="G56" s="210"/>
+      <c r="H56" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="62" t="s">
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="66"/>
-      <c r="S56" s="198">
+      <c r="Q56" s="80"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="200">
         <v>45089</v>
       </c>
-      <c r="T56" s="199"/>
-      <c r="U56" s="200"/>
-      <c r="V56" s="198">
+      <c r="T56" s="201"/>
+      <c r="U56" s="202"/>
+      <c r="V56" s="200">
         <v>45099</v>
       </c>
-      <c r="W56" s="199"/>
-      <c r="X56" s="200"/>
-      <c r="Y56" s="213">
+      <c r="W56" s="201"/>
+      <c r="X56" s="202"/>
+      <c r="Y56" s="211">
         <v>0.9</v>
       </c>
-      <c r="Z56" s="214"/>
-      <c r="AA56" s="206"/>
+      <c r="Z56" s="212"/>
+      <c r="AA56" s="207"/>
       <c r="AB56" s="119">
         <v>0.9</v>
       </c>
       <c r="AC56" s="143">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="29">
         <v>9</v>
@@ -8389,13 +8406,13 @@
       <c r="BI56" s="4"/>
     </row>
     <row r="57" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A57" s="205"/>
-      <c r="B57" s="206"/>
-      <c r="C57" s="207"/>
-      <c r="D57" s="208"/>
-      <c r="E57" s="208"/>
-      <c r="F57" s="208"/>
-      <c r="G57" s="209"/>
+      <c r="A57" s="206"/>
+      <c r="B57" s="207"/>
+      <c r="C57" s="208"/>
+      <c r="D57" s="209"/>
+      <c r="E57" s="209"/>
+      <c r="F57" s="209"/>
+      <c r="G57" s="210"/>
       <c r="H57" s="62" t="s">
         <v>88</v>
       </c>
@@ -8411,26 +8428,26 @@
       </c>
       <c r="Q57" s="65"/>
       <c r="R57" s="66"/>
-      <c r="S57" s="198">
+      <c r="S57" s="200">
         <v>45089</v>
       </c>
-      <c r="T57" s="199"/>
-      <c r="U57" s="200"/>
-      <c r="V57" s="198">
+      <c r="T57" s="201"/>
+      <c r="U57" s="202"/>
+      <c r="V57" s="200">
         <v>45099</v>
       </c>
-      <c r="W57" s="199"/>
-      <c r="X57" s="200"/>
-      <c r="Y57" s="213">
-        <v>0.3</v>
-      </c>
-      <c r="Z57" s="214"/>
-      <c r="AA57" s="206"/>
+      <c r="W57" s="201"/>
+      <c r="X57" s="202"/>
+      <c r="Y57" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="Z57" s="212"/>
+      <c r="AA57" s="207"/>
       <c r="AB57" s="119">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AC57" s="143">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="AD57" s="29">
         <v>9</v>
@@ -8468,13 +8485,13 @@
       <c r="BI57" s="4"/>
     </row>
     <row r="58" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A58" s="205"/>
-      <c r="B58" s="206"/>
-      <c r="C58" s="207"/>
-      <c r="D58" s="208"/>
-      <c r="E58" s="208"/>
-      <c r="F58" s="208"/>
-      <c r="G58" s="209"/>
+      <c r="A58" s="206"/>
+      <c r="B58" s="207"/>
+      <c r="C58" s="208"/>
+      <c r="D58" s="209"/>
+      <c r="E58" s="209"/>
+      <c r="F58" s="209"/>
+      <c r="G58" s="210"/>
       <c r="H58" s="62" t="s">
         <v>89</v>
       </c>
@@ -8490,26 +8507,26 @@
       </c>
       <c r="Q58" s="65"/>
       <c r="R58" s="66"/>
-      <c r="S58" s="198">
+      <c r="S58" s="200">
         <v>45090</v>
       </c>
-      <c r="T58" s="199"/>
-      <c r="U58" s="200"/>
-      <c r="V58" s="198">
+      <c r="T58" s="201"/>
+      <c r="U58" s="202"/>
+      <c r="V58" s="200">
         <v>45093</v>
       </c>
-      <c r="W58" s="199"/>
-      <c r="X58" s="200"/>
-      <c r="Y58" s="213">
-        <v>0.3</v>
-      </c>
-      <c r="Z58" s="214"/>
-      <c r="AA58" s="206"/>
+      <c r="W58" s="201"/>
+      <c r="X58" s="202"/>
+      <c r="Y58" s="211">
+        <v>0.6</v>
+      </c>
+      <c r="Z58" s="212"/>
+      <c r="AA58" s="207"/>
       <c r="AB58" s="119">
         <v>0.6</v>
       </c>
       <c r="AC58" s="143">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="29">
         <v>4</v>
@@ -8547,13 +8564,13 @@
       <c r="BI58" s="4"/>
     </row>
     <row r="59" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A59" s="205"/>
-      <c r="B59" s="206"/>
-      <c r="C59" s="207"/>
-      <c r="D59" s="208"/>
-      <c r="E59" s="208"/>
-      <c r="F59" s="208"/>
-      <c r="G59" s="209"/>
+      <c r="A59" s="206"/>
+      <c r="B59" s="207"/>
+      <c r="C59" s="208"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="209"/>
+      <c r="F59" s="209"/>
+      <c r="G59" s="210"/>
       <c r="H59" s="62" t="s">
         <v>90</v>
       </c>
@@ -8569,21 +8586,21 @@
       </c>
       <c r="Q59" s="65"/>
       <c r="R59" s="66"/>
-      <c r="S59" s="198">
+      <c r="S59" s="200">
         <v>45089</v>
       </c>
-      <c r="T59" s="199"/>
-      <c r="U59" s="200"/>
-      <c r="V59" s="198">
+      <c r="T59" s="201"/>
+      <c r="U59" s="202"/>
+      <c r="V59" s="200">
         <v>45099</v>
       </c>
-      <c r="W59" s="199"/>
-      <c r="X59" s="200"/>
-      <c r="Y59" s="213">
+      <c r="W59" s="201"/>
+      <c r="X59" s="202"/>
+      <c r="Y59" s="211">
         <v>0.9</v>
       </c>
-      <c r="Z59" s="214"/>
-      <c r="AA59" s="206"/>
+      <c r="Z59" s="212"/>
+      <c r="AA59" s="207"/>
       <c r="AB59" s="119">
         <v>0.9</v>
       </c>
@@ -8628,13 +8645,13 @@
       <c r="BI59" s="4"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A60" s="205"/>
-      <c r="B60" s="206"/>
-      <c r="C60" s="207"/>
-      <c r="D60" s="208"/>
-      <c r="E60" s="208"/>
-      <c r="F60" s="208"/>
-      <c r="G60" s="209"/>
+      <c r="A60" s="206"/>
+      <c r="B60" s="207"/>
+      <c r="C60" s="208"/>
+      <c r="D60" s="209"/>
+      <c r="E60" s="209"/>
+      <c r="F60" s="209"/>
+      <c r="G60" s="210"/>
       <c r="H60" s="107" t="s">
         <v>91</v>
       </c>
@@ -8650,21 +8667,21 @@
       </c>
       <c r="Q60" s="106"/>
       <c r="R60" s="108"/>
-      <c r="S60" s="198">
+      <c r="S60" s="200">
         <v>45090</v>
       </c>
-      <c r="T60" s="199"/>
-      <c r="U60" s="200"/>
-      <c r="V60" s="198">
+      <c r="T60" s="201"/>
+      <c r="U60" s="202"/>
+      <c r="V60" s="200">
         <v>45090</v>
       </c>
-      <c r="W60" s="199"/>
-      <c r="X60" s="200"/>
-      <c r="Y60" s="205" t="s">
+      <c r="W60" s="201"/>
+      <c r="X60" s="202"/>
+      <c r="Y60" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="Z60" s="214"/>
-      <c r="AA60" s="206"/>
+      <c r="Z60" s="212"/>
+      <c r="AA60" s="207"/>
       <c r="AB60" s="119">
         <v>1</v>
       </c>
@@ -8709,13 +8726,13 @@
       <c r="BI60" s="4"/>
     </row>
     <row r="61" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A61" s="205"/>
-      <c r="B61" s="206"/>
-      <c r="C61" s="207"/>
-      <c r="D61" s="208"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="209"/>
+      <c r="A61" s="206"/>
+      <c r="B61" s="207"/>
+      <c r="C61" s="208"/>
+      <c r="D61" s="209"/>
+      <c r="E61" s="209"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="210"/>
       <c r="H61" s="107" t="s">
         <v>92</v>
       </c>
@@ -8731,21 +8748,21 @@
       </c>
       <c r="Q61" s="106"/>
       <c r="R61" s="108"/>
-      <c r="S61" s="198">
+      <c r="S61" s="200">
         <v>45091</v>
       </c>
-      <c r="T61" s="199"/>
-      <c r="U61" s="200"/>
-      <c r="V61" s="198">
+      <c r="T61" s="201"/>
+      <c r="U61" s="202"/>
+      <c r="V61" s="200">
         <v>45092</v>
       </c>
-      <c r="W61" s="199"/>
-      <c r="X61" s="200"/>
-      <c r="Y61" s="213" t="s">
+      <c r="W61" s="201"/>
+      <c r="X61" s="202"/>
+      <c r="Y61" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="Z61" s="214"/>
-      <c r="AA61" s="206"/>
+      <c r="Z61" s="212"/>
+      <c r="AA61" s="207"/>
       <c r="AB61" s="119">
         <v>1</v>
       </c>
@@ -8790,13 +8807,13 @@
       <c r="BI61" s="4"/>
     </row>
     <row r="62" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A62" s="205"/>
-      <c r="B62" s="206"/>
-      <c r="C62" s="207"/>
-      <c r="D62" s="208"/>
-      <c r="E62" s="208"/>
-      <c r="F62" s="208"/>
-      <c r="G62" s="209"/>
+      <c r="A62" s="206"/>
+      <c r="B62" s="207"/>
+      <c r="C62" s="208"/>
+      <c r="D62" s="209"/>
+      <c r="E62" s="209"/>
+      <c r="F62" s="209"/>
+      <c r="G62" s="210"/>
       <c r="H62" s="77" t="s">
         <v>93</v>
       </c>
@@ -8812,21 +8829,21 @@
       </c>
       <c r="Q62" s="80"/>
       <c r="R62" s="81"/>
-      <c r="S62" s="198">
+      <c r="S62" s="200">
         <v>45089</v>
       </c>
-      <c r="T62" s="199"/>
-      <c r="U62" s="200"/>
-      <c r="V62" s="198">
+      <c r="T62" s="201"/>
+      <c r="U62" s="202"/>
+      <c r="V62" s="200">
         <v>45100</v>
       </c>
-      <c r="W62" s="199"/>
-      <c r="X62" s="200"/>
-      <c r="Y62" s="213">
+      <c r="W62" s="201"/>
+      <c r="X62" s="202"/>
+      <c r="Y62" s="211">
         <v>0.8</v>
       </c>
-      <c r="Z62" s="214"/>
-      <c r="AA62" s="206"/>
+      <c r="Z62" s="212"/>
+      <c r="AA62" s="207"/>
       <c r="AB62" s="119">
         <v>0.8</v>
       </c>
@@ -8871,13 +8888,13 @@
       <c r="BI62" s="4"/>
     </row>
     <row r="63" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A63" s="205"/>
-      <c r="B63" s="206"/>
-      <c r="C63" s="207"/>
-      <c r="D63" s="208"/>
-      <c r="E63" s="208"/>
-      <c r="F63" s="208"/>
-      <c r="G63" s="209"/>
+      <c r="A63" s="206"/>
+      <c r="B63" s="207"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="210"/>
       <c r="H63" s="77" t="s">
         <v>95</v>
       </c>
@@ -8893,26 +8910,26 @@
       </c>
       <c r="Q63" s="80"/>
       <c r="R63" s="81"/>
-      <c r="S63" s="198">
+      <c r="S63" s="200">
         <v>45091</v>
       </c>
-      <c r="T63" s="199"/>
-      <c r="U63" s="200"/>
-      <c r="V63" s="198">
+      <c r="T63" s="201"/>
+      <c r="U63" s="202"/>
+      <c r="V63" s="200">
         <v>45093</v>
       </c>
-      <c r="W63" s="199"/>
-      <c r="X63" s="200"/>
-      <c r="Y63" s="213">
-        <v>0.9</v>
-      </c>
-      <c r="Z63" s="214"/>
-      <c r="AA63" s="206"/>
+      <c r="W63" s="201"/>
+      <c r="X63" s="202"/>
+      <c r="Y63" s="211">
+        <v>0.95</v>
+      </c>
+      <c r="Z63" s="212"/>
+      <c r="AA63" s="207"/>
       <c r="AB63" s="119">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AC63" s="143">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AD63" s="29">
         <v>3</v>
@@ -8952,48 +8969,48 @@
       <c r="BI63" s="4"/>
     </row>
     <row r="64" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A64" s="205"/>
-      <c r="B64" s="206"/>
-      <c r="C64" s="207"/>
-      <c r="D64" s="208"/>
-      <c r="E64" s="208"/>
-      <c r="F64" s="208"/>
-      <c r="G64" s="209"/>
+      <c r="A64" s="206"/>
+      <c r="B64" s="207"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
+      <c r="F64" s="209"/>
+      <c r="G64" s="210"/>
       <c r="H64" s="107" t="s">
         <v>96</v>
       </c>
       <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="104"/>
-      <c r="O64" s="104"/>
-      <c r="P64" s="254" t="s">
+      <c r="J64" s="162"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="162"/>
+      <c r="M64" s="162"/>
+      <c r="N64" s="162"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="255"/>
-      <c r="R64" s="256"/>
-      <c r="S64" s="198">
+      <c r="Q64" s="191"/>
+      <c r="R64" s="192"/>
+      <c r="S64" s="200">
         <v>45089</v>
       </c>
-      <c r="T64" s="199"/>
-      <c r="U64" s="200"/>
-      <c r="V64" s="198">
+      <c r="T64" s="201"/>
+      <c r="U64" s="202"/>
+      <c r="V64" s="200">
         <v>45100</v>
       </c>
-      <c r="W64" s="199"/>
-      <c r="X64" s="200"/>
-      <c r="Y64" s="213" t="s">
+      <c r="W64" s="201"/>
+      <c r="X64" s="202"/>
+      <c r="Y64" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="Z64" s="215"/>
-      <c r="AA64" s="216"/>
+      <c r="Z64" s="216"/>
+      <c r="AA64" s="217"/>
       <c r="AB64" s="119">
         <v>1</v>
       </c>
       <c r="AC64" s="143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="28">
         <v>10</v>
@@ -9031,13 +9048,13 @@
       <c r="BI64" s="4"/>
     </row>
     <row r="65" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A65" s="205"/>
-      <c r="B65" s="206"/>
-      <c r="C65" s="207"/>
-      <c r="D65" s="208"/>
-      <c r="E65" s="208"/>
-      <c r="F65" s="208"/>
-      <c r="G65" s="209"/>
+      <c r="A65" s="206"/>
+      <c r="B65" s="207"/>
+      <c r="C65" s="208"/>
+      <c r="D65" s="209"/>
+      <c r="E65" s="209"/>
+      <c r="F65" s="209"/>
+      <c r="G65" s="210"/>
       <c r="H65" s="107" t="s">
         <v>97</v>
       </c>
@@ -9053,27 +9070,26 @@
       </c>
       <c r="Q65" s="106"/>
       <c r="R65" s="108"/>
-      <c r="S65" s="198">
+      <c r="S65" s="200">
         <v>45090</v>
       </c>
-      <c r="T65" s="199"/>
-      <c r="U65" s="200"/>
-      <c r="V65" s="198">
+      <c r="T65" s="201"/>
+      <c r="U65" s="202"/>
+      <c r="V65" s="200">
         <v>45093</v>
       </c>
-      <c r="W65" s="199"/>
-      <c r="X65" s="200"/>
-      <c r="Y65" s="213" t="s">
+      <c r="W65" s="201"/>
+      <c r="X65" s="202"/>
+      <c r="Y65" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="Z65" s="214"/>
-      <c r="AA65" s="206"/>
+      <c r="Z65" s="212"/>
+      <c r="AA65" s="207"/>
       <c r="AB65" s="119">
         <v>1</v>
       </c>
       <c r="AC65" s="143">
-        <f>4*0.05</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="29">
         <v>4</v>
@@ -9113,13 +9129,13 @@
       <c r="BI65" s="4"/>
     </row>
     <row r="66" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A66" s="205"/>
-      <c r="B66" s="206"/>
-      <c r="C66" s="207"/>
-      <c r="D66" s="208"/>
-      <c r="E66" s="208"/>
-      <c r="F66" s="208"/>
-      <c r="G66" s="209"/>
+      <c r="A66" s="206"/>
+      <c r="B66" s="207"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="209"/>
+      <c r="E66" s="209"/>
+      <c r="F66" s="209"/>
+      <c r="G66" s="210"/>
       <c r="H66" s="107" t="s">
         <v>99</v>
       </c>
@@ -9135,21 +9151,21 @@
       </c>
       <c r="Q66" s="106"/>
       <c r="R66" s="108"/>
-      <c r="S66" s="198">
+      <c r="S66" s="200">
         <v>45096</v>
       </c>
-      <c r="T66" s="199"/>
-      <c r="U66" s="200"/>
-      <c r="V66" s="191">
+      <c r="T66" s="201"/>
+      <c r="U66" s="202"/>
+      <c r="V66" s="193">
         <v>45099</v>
       </c>
-      <c r="W66" s="192"/>
-      <c r="X66" s="193"/>
-      <c r="Y66" s="201">
+      <c r="W66" s="194"/>
+      <c r="X66" s="195"/>
+      <c r="Y66" s="203">
         <v>1</v>
       </c>
-      <c r="Z66" s="202"/>
-      <c r="AA66" s="203"/>
+      <c r="Z66" s="204"/>
+      <c r="AA66" s="205"/>
       <c r="AB66" s="140">
         <v>1</v>
       </c>
@@ -9192,13 +9208,13 @@
       <c r="BI66" s="4"/>
     </row>
     <row r="67" spans="1:61" ht="18">
-      <c r="A67" s="205"/>
-      <c r="B67" s="206"/>
-      <c r="C67" s="207"/>
-      <c r="D67" s="208"/>
-      <c r="E67" s="208"/>
-      <c r="F67" s="208"/>
-      <c r="G67" s="209"/>
+      <c r="A67" s="206"/>
+      <c r="B67" s="207"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="209"/>
+      <c r="E67" s="209"/>
+      <c r="F67" s="209"/>
+      <c r="G67" s="210"/>
       <c r="H67" s="57" t="s">
         <v>100</v>
       </c>
@@ -9214,21 +9230,21 @@
       </c>
       <c r="Q67" s="60"/>
       <c r="R67" s="61"/>
-      <c r="S67" s="198">
+      <c r="S67" s="200">
         <v>45091</v>
       </c>
-      <c r="T67" s="199"/>
-      <c r="U67" s="200"/>
-      <c r="V67" s="191">
+      <c r="T67" s="201"/>
+      <c r="U67" s="202"/>
+      <c r="V67" s="193">
         <v>45093</v>
       </c>
-      <c r="W67" s="192"/>
-      <c r="X67" s="193"/>
-      <c r="Y67" s="201">
+      <c r="W67" s="194"/>
+      <c r="X67" s="195"/>
+      <c r="Y67" s="203">
         <v>0.9</v>
       </c>
-      <c r="Z67" s="202"/>
-      <c r="AA67" s="203"/>
+      <c r="Z67" s="204"/>
+      <c r="AA67" s="205"/>
       <c r="AB67" s="140">
         <v>0.9</v>
       </c>
@@ -9273,13 +9289,13 @@
       <c r="BI67" s="4"/>
     </row>
     <row r="68" spans="1:61" ht="18">
-      <c r="A68" s="197"/>
-      <c r="B68" s="197"/>
-      <c r="C68" s="194"/>
-      <c r="D68" s="194"/>
-      <c r="E68" s="194"/>
-      <c r="F68" s="194"/>
-      <c r="G68" s="194"/>
+      <c r="A68" s="199"/>
+      <c r="B68" s="199"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
       <c r="H68" s="57" t="s">
         <v>102</v>
       </c>
@@ -9295,21 +9311,21 @@
       </c>
       <c r="Q68" s="60"/>
       <c r="R68" s="61"/>
-      <c r="S68" s="191">
+      <c r="S68" s="193">
         <v>45096</v>
       </c>
-      <c r="T68" s="192"/>
-      <c r="U68" s="193"/>
-      <c r="V68" s="191">
+      <c r="T68" s="194"/>
+      <c r="U68" s="195"/>
+      <c r="V68" s="193">
         <v>45099</v>
       </c>
-      <c r="W68" s="192"/>
-      <c r="X68" s="193"/>
-      <c r="Y68" s="201">
+      <c r="W68" s="194"/>
+      <c r="X68" s="195"/>
+      <c r="Y68" s="203">
         <v>0.9</v>
       </c>
-      <c r="Z68" s="202"/>
-      <c r="AA68" s="203"/>
+      <c r="Z68" s="204"/>
+      <c r="AA68" s="205"/>
       <c r="AB68" s="140">
         <v>0.9</v>
       </c>
@@ -9354,13 +9370,13 @@
       <c r="BI68" s="4"/>
     </row>
     <row r="69" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A69" s="197"/>
-      <c r="B69" s="197"/>
-      <c r="C69" s="194"/>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="194"/>
-      <c r="G69" s="194"/>
+      <c r="A69" s="199"/>
+      <c r="B69" s="199"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
+      <c r="F69" s="197"/>
+      <c r="G69" s="197"/>
       <c r="H69" s="57" t="s">
         <v>104</v>
       </c>
@@ -9376,26 +9392,27 @@
       </c>
       <c r="Q69" s="60"/>
       <c r="R69" s="61"/>
-      <c r="S69" s="191">
+      <c r="S69" s="193">
         <v>45096</v>
       </c>
-      <c r="T69" s="192"/>
-      <c r="U69" s="193"/>
-      <c r="V69" s="191">
+      <c r="T69" s="194"/>
+      <c r="U69" s="195"/>
+      <c r="V69" s="193">
         <v>45099</v>
       </c>
-      <c r="W69" s="192"/>
-      <c r="X69" s="193"/>
-      <c r="Y69" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z69" s="202"/>
-      <c r="AA69" s="203"/>
+      <c r="W69" s="194"/>
+      <c r="X69" s="195"/>
+      <c r="Y69" s="203">
+        <v>0.5</v>
+      </c>
+      <c r="Z69" s="204"/>
+      <c r="AA69" s="205"/>
       <c r="AB69" s="140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC69" s="144">
-        <v>0</v>
+        <f>AD69*0.5</f>
+        <v>1.5</v>
       </c>
       <c r="AD69" s="28">
         <v>3</v>
@@ -9433,13 +9450,13 @@
       <c r="BI69" s="4"/>
     </row>
     <row r="70" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A70" s="197"/>
-      <c r="B70" s="197"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="194"/>
-      <c r="E70" s="194"/>
-      <c r="F70" s="194"/>
-      <c r="G70" s="194"/>
+      <c r="A70" s="199"/>
+      <c r="B70" s="199"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
+      <c r="F70" s="197"/>
+      <c r="G70" s="197"/>
       <c r="H70" s="107" t="s">
         <v>105</v>
       </c>
@@ -9455,21 +9472,21 @@
       </c>
       <c r="Q70" s="106"/>
       <c r="R70" s="108"/>
-      <c r="S70" s="196">
+      <c r="S70" s="198">
         <v>45089</v>
       </c>
-      <c r="T70" s="196"/>
-      <c r="U70" s="196"/>
-      <c r="V70" s="191">
+      <c r="T70" s="198"/>
+      <c r="U70" s="198"/>
+      <c r="V70" s="193">
         <v>45099</v>
       </c>
-      <c r="W70" s="192"/>
-      <c r="X70" s="193"/>
-      <c r="Y70" s="201">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="202"/>
-      <c r="AA70" s="203"/>
+      <c r="W70" s="194"/>
+      <c r="X70" s="195"/>
+      <c r="Y70" s="203" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z70" s="204"/>
+      <c r="AA70" s="205"/>
       <c r="AB70" s="140">
         <v>1</v>
       </c>
@@ -9512,48 +9529,48 @@
       <c r="BI70" s="4"/>
     </row>
     <row r="71" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A71" s="197"/>
-      <c r="B71" s="197"/>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="194"/>
-      <c r="G71" s="194"/>
-      <c r="H71" s="57" t="s">
+      <c r="A71" s="199"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
+      <c r="F71" s="197"/>
+      <c r="G71" s="197"/>
+      <c r="H71" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="57" t="s">
+      <c r="I71" s="104"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="104"/>
+      <c r="O71" s="105"/>
+      <c r="P71" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="196">
+      <c r="Q71" s="106"/>
+      <c r="R71" s="108"/>
+      <c r="S71" s="198">
         <v>45089</v>
       </c>
-      <c r="T71" s="196"/>
-      <c r="U71" s="196"/>
-      <c r="V71" s="191">
+      <c r="T71" s="198"/>
+      <c r="U71" s="198"/>
+      <c r="V71" s="193">
         <v>45099</v>
       </c>
-      <c r="W71" s="192"/>
-      <c r="X71" s="193"/>
-      <c r="Y71" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z71" s="202"/>
-      <c r="AA71" s="203"/>
+      <c r="W71" s="194"/>
+      <c r="X71" s="195"/>
+      <c r="Y71" s="203" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z71" s="204"/>
+      <c r="AA71" s="205"/>
       <c r="AB71" s="140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71" s="144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD71" s="28">
         <v>2</v>
@@ -9591,13 +9608,13 @@
       <c r="BI71" s="4"/>
     </row>
     <row r="72" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A72" s="197"/>
-      <c r="B72" s="197"/>
-      <c r="C72" s="194"/>
-      <c r="D72" s="194"/>
-      <c r="E72" s="194"/>
-      <c r="F72" s="194"/>
-      <c r="G72" s="194"/>
+      <c r="A72" s="199"/>
+      <c r="B72" s="199"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="197"/>
+      <c r="F72" s="197"/>
+      <c r="G72" s="197"/>
       <c r="H72" s="62" t="s">
         <v>107</v>
       </c>
@@ -9613,21 +9630,21 @@
       </c>
       <c r="Q72" s="65"/>
       <c r="R72" s="66"/>
-      <c r="S72" s="196">
+      <c r="S72" s="198">
         <v>45095</v>
       </c>
-      <c r="T72" s="196"/>
-      <c r="U72" s="196"/>
-      <c r="V72" s="191">
+      <c r="T72" s="198"/>
+      <c r="U72" s="198"/>
+      <c r="V72" s="193">
         <v>45099</v>
       </c>
-      <c r="W72" s="192"/>
-      <c r="X72" s="193"/>
-      <c r="Y72" s="201">
+      <c r="W72" s="194"/>
+      <c r="X72" s="195"/>
+      <c r="Y72" s="203">
         <v>0.3</v>
       </c>
-      <c r="Z72" s="202"/>
-      <c r="AA72" s="203"/>
+      <c r="Z72" s="204"/>
+      <c r="AA72" s="205"/>
       <c r="AB72" s="140">
         <v>0.3</v>
       </c>
@@ -9670,13 +9687,13 @@
       <c r="BI72" s="4"/>
     </row>
     <row r="73" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A73" s="197"/>
-      <c r="B73" s="197"/>
-      <c r="C73" s="194"/>
-      <c r="D73" s="194"/>
-      <c r="E73" s="194"/>
-      <c r="F73" s="194"/>
-      <c r="G73" s="194"/>
+      <c r="A73" s="199"/>
+      <c r="B73" s="199"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="197"/>
+      <c r="G73" s="197"/>
       <c r="H73" s="107" t="s">
         <v>108</v>
       </c>
@@ -9692,26 +9709,26 @@
       </c>
       <c r="Q73" s="106"/>
       <c r="R73" s="108"/>
-      <c r="S73" s="196">
+      <c r="S73" s="198">
         <v>45090</v>
       </c>
-      <c r="T73" s="196"/>
-      <c r="U73" s="196"/>
-      <c r="V73" s="191">
+      <c r="T73" s="198"/>
+      <c r="U73" s="198"/>
+      <c r="V73" s="193">
         <v>45093</v>
       </c>
-      <c r="W73" s="192"/>
-      <c r="X73" s="193"/>
-      <c r="Y73" s="201">
-        <v>0.9</v>
-      </c>
-      <c r="Z73" s="202"/>
-      <c r="AA73" s="203"/>
+      <c r="W73" s="194"/>
+      <c r="X73" s="195"/>
+      <c r="Y73" s="203" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z73" s="204"/>
+      <c r="AA73" s="205"/>
       <c r="AB73" s="140">
         <v>1</v>
       </c>
       <c r="AC73" s="144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="28">
         <v>4</v>
@@ -9751,35 +9768,35 @@
       <c r="BI73" s="4"/>
     </row>
     <row r="74" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A74" s="197"/>
-      <c r="B74" s="197"/>
-      <c r="C74" s="194"/>
-      <c r="D74" s="194"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="194"/>
-      <c r="G74" s="194"/>
-      <c r="H74" s="210"/>
-      <c r="I74" s="211"/>
-      <c r="J74" s="211"/>
-      <c r="K74" s="211"/>
-      <c r="L74" s="211"/>
-      <c r="M74" s="211"/>
-      <c r="N74" s="211"/>
-      <c r="O74" s="212"/>
-      <c r="P74" s="194"/>
-      <c r="Q74" s="194"/>
-      <c r="R74" s="194"/>
-      <c r="S74" s="196">
+      <c r="A74" s="199"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
+      <c r="F74" s="197"/>
+      <c r="G74" s="197"/>
+      <c r="H74" s="213"/>
+      <c r="I74" s="214"/>
+      <c r="J74" s="214"/>
+      <c r="K74" s="214"/>
+      <c r="L74" s="214"/>
+      <c r="M74" s="214"/>
+      <c r="N74" s="214"/>
+      <c r="O74" s="215"/>
+      <c r="P74" s="197"/>
+      <c r="Q74" s="197"/>
+      <c r="R74" s="197"/>
+      <c r="S74" s="198">
         <v>45089</v>
       </c>
-      <c r="T74" s="196"/>
-      <c r="U74" s="196"/>
-      <c r="V74" s="196"/>
-      <c r="W74" s="196"/>
-      <c r="X74" s="196"/>
-      <c r="Y74" s="197"/>
-      <c r="Z74" s="197"/>
-      <c r="AA74" s="197"/>
+      <c r="T74" s="198"/>
+      <c r="U74" s="198"/>
+      <c r="V74" s="198"/>
+      <c r="W74" s="198"/>
+      <c r="X74" s="198"/>
+      <c r="Y74" s="199"/>
+      <c r="Z74" s="199"/>
+      <c r="AA74" s="199"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="141"/>
       <c r="AD74" s="6"/>
@@ -9816,33 +9833,33 @@
       <c r="BI74" s="4"/>
     </row>
     <row r="75" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A75" s="197"/>
-      <c r="B75" s="197"/>
-      <c r="C75" s="194"/>
-      <c r="D75" s="194"/>
-      <c r="E75" s="194"/>
-      <c r="F75" s="194"/>
-      <c r="G75" s="194"/>
-      <c r="H75" s="210"/>
-      <c r="I75" s="211"/>
-      <c r="J75" s="211"/>
-      <c r="K75" s="211"/>
-      <c r="L75" s="211"/>
-      <c r="M75" s="211"/>
-      <c r="N75" s="211"/>
-      <c r="O75" s="212"/>
-      <c r="P75" s="194"/>
-      <c r="Q75" s="194"/>
-      <c r="R75" s="194"/>
-      <c r="S75" s="196"/>
-      <c r="T75" s="196"/>
-      <c r="U75" s="196"/>
-      <c r="V75" s="196"/>
-      <c r="W75" s="196"/>
-      <c r="X75" s="196"/>
-      <c r="Y75" s="197"/>
-      <c r="Z75" s="197"/>
-      <c r="AA75" s="197"/>
+      <c r="A75" s="199"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
+      <c r="F75" s="197"/>
+      <c r="G75" s="197"/>
+      <c r="H75" s="213"/>
+      <c r="I75" s="214"/>
+      <c r="J75" s="214"/>
+      <c r="K75" s="214"/>
+      <c r="L75" s="214"/>
+      <c r="M75" s="214"/>
+      <c r="N75" s="214"/>
+      <c r="O75" s="215"/>
+      <c r="P75" s="197"/>
+      <c r="Q75" s="197"/>
+      <c r="R75" s="197"/>
+      <c r="S75" s="198"/>
+      <c r="T75" s="198"/>
+      <c r="U75" s="198"/>
+      <c r="V75" s="198"/>
+      <c r="W75" s="198"/>
+      <c r="X75" s="198"/>
+      <c r="Y75" s="199"/>
+      <c r="Z75" s="199"/>
+      <c r="AA75" s="199"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="141"/>
       <c r="AD75" s="6"/>
@@ -9879,39 +9896,39 @@
       <c r="BI75" s="4"/>
     </row>
     <row r="76" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A76" s="197"/>
-      <c r="B76" s="197"/>
-      <c r="C76" s="194" t="s">
+      <c r="A76" s="199"/>
+      <c r="B76" s="199"/>
+      <c r="C76" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="194"/>
-      <c r="E76" s="194"/>
-      <c r="F76" s="194"/>
-      <c r="G76" s="194"/>
-      <c r="H76" s="207"/>
-      <c r="I76" s="208"/>
-      <c r="J76" s="208"/>
-      <c r="K76" s="208"/>
-      <c r="L76" s="208"/>
-      <c r="M76" s="208"/>
-      <c r="N76" s="208"/>
-      <c r="O76" s="209"/>
-      <c r="P76" s="220"/>
-      <c r="Q76" s="194"/>
-      <c r="R76" s="194"/>
-      <c r="S76" s="196">
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
+      <c r="F76" s="197"/>
+      <c r="G76" s="197"/>
+      <c r="H76" s="208"/>
+      <c r="I76" s="209"/>
+      <c r="J76" s="209"/>
+      <c r="K76" s="209"/>
+      <c r="L76" s="209"/>
+      <c r="M76" s="209"/>
+      <c r="N76" s="209"/>
+      <c r="O76" s="210"/>
+      <c r="P76" s="221"/>
+      <c r="Q76" s="197"/>
+      <c r="R76" s="197"/>
+      <c r="S76" s="198">
         <v>45103</v>
       </c>
-      <c r="T76" s="196"/>
-      <c r="U76" s="196"/>
-      <c r="V76" s="196">
+      <c r="T76" s="198"/>
+      <c r="U76" s="198"/>
+      <c r="V76" s="198">
         <v>45106</v>
       </c>
-      <c r="W76" s="196"/>
-      <c r="X76" s="196"/>
-      <c r="Y76" s="197"/>
-      <c r="Z76" s="197"/>
-      <c r="AA76" s="197"/>
+      <c r="W76" s="198"/>
+      <c r="X76" s="198"/>
+      <c r="Y76" s="199"/>
+      <c r="Z76" s="199"/>
+      <c r="AA76" s="199"/>
       <c r="AB76" s="126">
         <v>0</v>
       </c>
@@ -9954,39 +9971,39 @@
       <c r="BI76" s="4"/>
     </row>
     <row r="77" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A77" s="197"/>
-      <c r="B77" s="197"/>
-      <c r="C77" s="194" t="s">
+      <c r="A77" s="199"/>
+      <c r="B77" s="199"/>
+      <c r="C77" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="194"/>
-      <c r="E77" s="194"/>
-      <c r="F77" s="194"/>
-      <c r="G77" s="194"/>
-      <c r="H77" s="207"/>
-      <c r="I77" s="208"/>
-      <c r="J77" s="208"/>
-      <c r="K77" s="208"/>
-      <c r="L77" s="208"/>
-      <c r="M77" s="208"/>
-      <c r="N77" s="208"/>
-      <c r="O77" s="209"/>
-      <c r="P77" s="194"/>
-      <c r="Q77" s="194"/>
-      <c r="R77" s="194"/>
-      <c r="S77" s="196">
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
+      <c r="F77" s="197"/>
+      <c r="G77" s="197"/>
+      <c r="H77" s="208"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="209"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="209"/>
+      <c r="M77" s="209"/>
+      <c r="N77" s="209"/>
+      <c r="O77" s="210"/>
+      <c r="P77" s="197"/>
+      <c r="Q77" s="197"/>
+      <c r="R77" s="197"/>
+      <c r="S77" s="198">
         <v>45103</v>
       </c>
-      <c r="T77" s="196"/>
-      <c r="U77" s="196"/>
-      <c r="V77" s="196">
+      <c r="T77" s="198"/>
+      <c r="U77" s="198"/>
+      <c r="V77" s="198">
         <v>45106</v>
       </c>
-      <c r="W77" s="196"/>
-      <c r="X77" s="196"/>
-      <c r="Y77" s="197"/>
-      <c r="Z77" s="197"/>
-      <c r="AA77" s="197"/>
+      <c r="W77" s="198"/>
+      <c r="X77" s="198"/>
+      <c r="Y77" s="199"/>
+      <c r="Z77" s="199"/>
+      <c r="AA77" s="199"/>
       <c r="AB77" s="126">
         <v>0</v>
       </c>
@@ -10029,39 +10046,39 @@
       <c r="BI77" s="4"/>
     </row>
     <row r="78" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A78" s="197"/>
-      <c r="B78" s="197"/>
-      <c r="C78" s="194" t="s">
+      <c r="A78" s="199"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="194"/>
-      <c r="E78" s="194"/>
-      <c r="F78" s="194"/>
-      <c r="G78" s="194"/>
-      <c r="H78" s="207"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="209"/>
-      <c r="P78" s="194"/>
-      <c r="Q78" s="194"/>
-      <c r="R78" s="194"/>
-      <c r="S78" s="196">
+      <c r="D78" s="197"/>
+      <c r="E78" s="197"/>
+      <c r="F78" s="197"/>
+      <c r="G78" s="197"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="210"/>
+      <c r="P78" s="197"/>
+      <c r="Q78" s="197"/>
+      <c r="R78" s="197"/>
+      <c r="S78" s="198">
         <v>45103</v>
       </c>
-      <c r="T78" s="196"/>
-      <c r="U78" s="196"/>
-      <c r="V78" s="196">
+      <c r="T78" s="198"/>
+      <c r="U78" s="198"/>
+      <c r="V78" s="198">
         <v>45106</v>
       </c>
-      <c r="W78" s="196"/>
-      <c r="X78" s="196"/>
-      <c r="Y78" s="197"/>
-      <c r="Z78" s="197"/>
-      <c r="AA78" s="197"/>
+      <c r="W78" s="198"/>
+      <c r="X78" s="198"/>
+      <c r="Y78" s="199"/>
+      <c r="Z78" s="199"/>
+      <c r="AA78" s="199"/>
       <c r="AB78" s="126">
         <v>0</v>
       </c>
@@ -10104,33 +10121,33 @@
       <c r="BI78" s="4"/>
     </row>
     <row r="79" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A79" s="197"/>
-      <c r="B79" s="197"/>
-      <c r="C79" s="194"/>
-      <c r="D79" s="194"/>
-      <c r="E79" s="194"/>
-      <c r="F79" s="194"/>
-      <c r="G79" s="194"/>
-      <c r="H79" s="207"/>
-      <c r="I79" s="208"/>
-      <c r="J79" s="208"/>
-      <c r="K79" s="208"/>
-      <c r="L79" s="208"/>
-      <c r="M79" s="208"/>
-      <c r="N79" s="208"/>
-      <c r="O79" s="209"/>
-      <c r="P79" s="194"/>
-      <c r="Q79" s="194"/>
-      <c r="R79" s="194"/>
-      <c r="S79" s="196"/>
-      <c r="T79" s="196"/>
-      <c r="U79" s="196"/>
-      <c r="V79" s="196"/>
-      <c r="W79" s="196"/>
-      <c r="X79" s="196"/>
-      <c r="Y79" s="197"/>
-      <c r="Z79" s="197"/>
-      <c r="AA79" s="197"/>
+      <c r="A79" s="199"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="197"/>
+      <c r="F79" s="197"/>
+      <c r="G79" s="197"/>
+      <c r="H79" s="208"/>
+      <c r="I79" s="209"/>
+      <c r="J79" s="209"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="209"/>
+      <c r="M79" s="209"/>
+      <c r="N79" s="209"/>
+      <c r="O79" s="210"/>
+      <c r="P79" s="197"/>
+      <c r="Q79" s="197"/>
+      <c r="R79" s="197"/>
+      <c r="S79" s="198"/>
+      <c r="T79" s="198"/>
+      <c r="U79" s="198"/>
+      <c r="V79" s="198"/>
+      <c r="W79" s="198"/>
+      <c r="X79" s="198"/>
+      <c r="Y79" s="199"/>
+      <c r="Z79" s="199"/>
+      <c r="AA79" s="199"/>
       <c r="AB79" s="6"/>
       <c r="AC79" s="141"/>
       <c r="AD79" s="6"/>
@@ -10167,33 +10184,33 @@
       <c r="BI79" s="4"/>
     </row>
     <row r="80" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A80" s="197"/>
-      <c r="B80" s="197"/>
-      <c r="C80" s="194"/>
-      <c r="D80" s="194"/>
-      <c r="E80" s="194"/>
-      <c r="F80" s="194"/>
-      <c r="G80" s="194"/>
-      <c r="H80" s="207"/>
-      <c r="I80" s="208"/>
-      <c r="J80" s="208"/>
-      <c r="K80" s="208"/>
-      <c r="L80" s="208"/>
-      <c r="M80" s="208"/>
-      <c r="N80" s="208"/>
-      <c r="O80" s="209"/>
-      <c r="P80" s="194"/>
-      <c r="Q80" s="194"/>
-      <c r="R80" s="194"/>
-      <c r="S80" s="196"/>
-      <c r="T80" s="196"/>
-      <c r="U80" s="196"/>
-      <c r="V80" s="196"/>
-      <c r="W80" s="196"/>
-      <c r="X80" s="196"/>
-      <c r="Y80" s="197"/>
-      <c r="Z80" s="197"/>
-      <c r="AA80" s="197"/>
+      <c r="A80" s="199"/>
+      <c r="B80" s="199"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="197"/>
+      <c r="F80" s="197"/>
+      <c r="G80" s="197"/>
+      <c r="H80" s="208"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="209"/>
+      <c r="K80" s="209"/>
+      <c r="L80" s="209"/>
+      <c r="M80" s="209"/>
+      <c r="N80" s="209"/>
+      <c r="O80" s="210"/>
+      <c r="P80" s="197"/>
+      <c r="Q80" s="197"/>
+      <c r="R80" s="197"/>
+      <c r="S80" s="198"/>
+      <c r="T80" s="198"/>
+      <c r="U80" s="198"/>
+      <c r="V80" s="198"/>
+      <c r="W80" s="198"/>
+      <c r="X80" s="198"/>
+      <c r="Y80" s="199"/>
+      <c r="Z80" s="199"/>
+      <c r="AA80" s="199"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="141"/>
       <c r="AD80" s="6"/>
@@ -10230,41 +10247,41 @@
       <c r="BI80" s="4"/>
     </row>
     <row r="81" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A81" s="197"/>
-      <c r="B81" s="197"/>
-      <c r="C81" s="194" t="s">
+      <c r="A81" s="199"/>
+      <c r="B81" s="199"/>
+      <c r="C81" s="197" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="194"/>
-      <c r="E81" s="194"/>
-      <c r="F81" s="194"/>
-      <c r="G81" s="194"/>
-      <c r="H81" s="207"/>
-      <c r="I81" s="208"/>
-      <c r="J81" s="208"/>
-      <c r="K81" s="208"/>
-      <c r="L81" s="208"/>
-      <c r="M81" s="208"/>
-      <c r="N81" s="208"/>
-      <c r="O81" s="209"/>
-      <c r="P81" s="194"/>
-      <c r="Q81" s="194"/>
-      <c r="R81" s="194"/>
-      <c r="S81" s="196">
+      <c r="D81" s="197"/>
+      <c r="E81" s="197"/>
+      <c r="F81" s="197"/>
+      <c r="G81" s="197"/>
+      <c r="H81" s="208"/>
+      <c r="I81" s="209"/>
+      <c r="J81" s="209"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="209"/>
+      <c r="N81" s="209"/>
+      <c r="O81" s="210"/>
+      <c r="P81" s="197"/>
+      <c r="Q81" s="197"/>
+      <c r="R81" s="197"/>
+      <c r="S81" s="198">
         <v>45107</v>
       </c>
-      <c r="T81" s="196"/>
-      <c r="U81" s="196"/>
-      <c r="V81" s="196">
+      <c r="T81" s="198"/>
+      <c r="U81" s="198"/>
+      <c r="V81" s="198">
         <v>45107</v>
       </c>
-      <c r="W81" s="196"/>
-      <c r="X81" s="196"/>
-      <c r="Y81" s="197" t="s">
+      <c r="W81" s="198"/>
+      <c r="X81" s="198"/>
+      <c r="Y81" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="Z81" s="197"/>
-      <c r="AA81" s="197"/>
+      <c r="Z81" s="199"/>
+      <c r="AA81" s="199"/>
       <c r="AB81" s="6"/>
       <c r="AC81" s="141"/>
       <c r="AD81" s="6"/>
@@ -10301,33 +10318,33 @@
       <c r="BI81" s="10"/>
     </row>
     <row r="82" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A82" s="197"/>
-      <c r="B82" s="197"/>
-      <c r="C82" s="194"/>
-      <c r="D82" s="194"/>
-      <c r="E82" s="194"/>
-      <c r="F82" s="194"/>
-      <c r="G82" s="194"/>
-      <c r="H82" s="207"/>
-      <c r="I82" s="208"/>
-      <c r="J82" s="208"/>
-      <c r="K82" s="208"/>
-      <c r="L82" s="208"/>
-      <c r="M82" s="208"/>
-      <c r="N82" s="208"/>
-      <c r="O82" s="209"/>
-      <c r="P82" s="194"/>
-      <c r="Q82" s="194"/>
-      <c r="R82" s="194"/>
-      <c r="S82" s="196"/>
-      <c r="T82" s="196"/>
-      <c r="U82" s="196"/>
-      <c r="V82" s="196"/>
-      <c r="W82" s="196"/>
-      <c r="X82" s="196"/>
-      <c r="Y82" s="197"/>
-      <c r="Z82" s="197"/>
-      <c r="AA82" s="197"/>
+      <c r="A82" s="199"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="197"/>
+      <c r="F82" s="197"/>
+      <c r="G82" s="197"/>
+      <c r="H82" s="208"/>
+      <c r="I82" s="209"/>
+      <c r="J82" s="209"/>
+      <c r="K82" s="209"/>
+      <c r="L82" s="209"/>
+      <c r="M82" s="209"/>
+      <c r="N82" s="209"/>
+      <c r="O82" s="210"/>
+      <c r="P82" s="197"/>
+      <c r="Q82" s="197"/>
+      <c r="R82" s="197"/>
+      <c r="S82" s="198"/>
+      <c r="T82" s="198"/>
+      <c r="U82" s="198"/>
+      <c r="V82" s="198"/>
+      <c r="W82" s="198"/>
+      <c r="X82" s="198"/>
+      <c r="Y82" s="199"/>
+      <c r="Z82" s="199"/>
+      <c r="AA82" s="199"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="141"/>
       <c r="AD82" s="6"/>
@@ -10364,33 +10381,33 @@
       <c r="BI82" s="4"/>
     </row>
     <row r="83" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A83" s="197"/>
-      <c r="B83" s="197"/>
-      <c r="C83" s="194"/>
-      <c r="D83" s="194"/>
-      <c r="E83" s="194"/>
-      <c r="F83" s="194"/>
-      <c r="G83" s="194"/>
-      <c r="H83" s="207"/>
-      <c r="I83" s="208"/>
-      <c r="J83" s="208"/>
-      <c r="K83" s="208"/>
-      <c r="L83" s="208"/>
-      <c r="M83" s="208"/>
-      <c r="N83" s="208"/>
-      <c r="O83" s="209"/>
-      <c r="P83" s="194"/>
-      <c r="Q83" s="194"/>
-      <c r="R83" s="194"/>
-      <c r="S83" s="196"/>
-      <c r="T83" s="196"/>
-      <c r="U83" s="196"/>
-      <c r="V83" s="196"/>
-      <c r="W83" s="196"/>
-      <c r="X83" s="196"/>
-      <c r="Y83" s="197"/>
-      <c r="Z83" s="197"/>
-      <c r="AA83" s="197"/>
+      <c r="A83" s="199"/>
+      <c r="B83" s="199"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
+      <c r="F83" s="197"/>
+      <c r="G83" s="197"/>
+      <c r="H83" s="208"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="209"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="209"/>
+      <c r="M83" s="209"/>
+      <c r="N83" s="209"/>
+      <c r="O83" s="210"/>
+      <c r="P83" s="197"/>
+      <c r="Q83" s="197"/>
+      <c r="R83" s="197"/>
+      <c r="S83" s="198"/>
+      <c r="T83" s="198"/>
+      <c r="U83" s="198"/>
+      <c r="V83" s="198"/>
+      <c r="W83" s="198"/>
+      <c r="X83" s="198"/>
+      <c r="Y83" s="199"/>
+      <c r="Z83" s="199"/>
+      <c r="AA83" s="199"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="141"/>
       <c r="AD83" s="6"/>
@@ -10427,33 +10444,33 @@
       <c r="BI83" s="4"/>
     </row>
     <row r="84" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A84" s="197"/>
-      <c r="B84" s="197"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
-      <c r="F84" s="194"/>
-      <c r="G84" s="194"/>
-      <c r="H84" s="207"/>
-      <c r="I84" s="208"/>
-      <c r="J84" s="208"/>
-      <c r="K84" s="208"/>
-      <c r="L84" s="208"/>
-      <c r="M84" s="208"/>
-      <c r="N84" s="208"/>
-      <c r="O84" s="209"/>
-      <c r="P84" s="194"/>
-      <c r="Q84" s="194"/>
-      <c r="R84" s="194"/>
-      <c r="S84" s="196"/>
-      <c r="T84" s="196"/>
-      <c r="U84" s="196"/>
-      <c r="V84" s="196"/>
-      <c r="W84" s="196"/>
-      <c r="X84" s="196"/>
-      <c r="Y84" s="197"/>
-      <c r="Z84" s="197"/>
-      <c r="AA84" s="197"/>
+      <c r="A84" s="199"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
+      <c r="F84" s="197"/>
+      <c r="G84" s="197"/>
+      <c r="H84" s="208"/>
+      <c r="I84" s="209"/>
+      <c r="J84" s="209"/>
+      <c r="K84" s="209"/>
+      <c r="L84" s="209"/>
+      <c r="M84" s="209"/>
+      <c r="N84" s="209"/>
+      <c r="O84" s="210"/>
+      <c r="P84" s="197"/>
+      <c r="Q84" s="197"/>
+      <c r="R84" s="197"/>
+      <c r="S84" s="198"/>
+      <c r="T84" s="198"/>
+      <c r="U84" s="198"/>
+      <c r="V84" s="198"/>
+      <c r="W84" s="198"/>
+      <c r="X84" s="198"/>
+      <c r="Y84" s="199"/>
+      <c r="Z84" s="199"/>
+      <c r="AA84" s="199"/>
       <c r="AB84" s="6"/>
       <c r="AC84" s="141"/>
       <c r="AD84" s="6"/>
@@ -10874,6 +10891,11 @@
     <mergeCell ref="S57:U57"/>
     <mergeCell ref="V57:X57"/>
     <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="S59:U59"/>
@@ -10894,26 +10916,12 @@
     <mergeCell ref="S62:U62"/>
     <mergeCell ref="V62:X62"/>
     <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
     <mergeCell ref="Y74:AA74"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C71:G71"/>
@@ -10928,15 +10936,27 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="S67:U67"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y68:AA68"/>
     <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="C68:G68"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="C73:G73"/>
     <mergeCell ref="S73:U73"/>
@@ -10950,19 +10970,16 @@
     <mergeCell ref="S70:U70"/>
     <mergeCell ref="V70:X70"/>
     <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="P64:R64"/>
     <mergeCell ref="S68:U68"/>
     <mergeCell ref="V68:X68"/>
     <mergeCell ref="H24:O24"/>
     <mergeCell ref="P24:R24"/>
     <mergeCell ref="S24:U24"/>
     <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V52:X52"/>
     <mergeCell ref="Y24:AA24"/>
     <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="V52:X52"/>
     <mergeCell ref="Y47:AA47"/>
     <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="Y36:AA36"/>
@@ -10997,10 +11014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02DD201-A8EE-4056-8C6B-993B1F23F172}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11024,7 +11041,8 @@
     <col min="21" max="21" width="6.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.875" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11034,42 +11052,42 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="249" t="s">
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="248" t="s">
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="246" t="s">
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="247" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="245" t="s">
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="247" t="s">
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="247"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="248"/>
+      <c r="Z2" s="248"/>
     </row>
     <row r="3" spans="1:26">
       <c r="C3" s="99" t="s">
@@ -11433,7 +11451,7 @@
       <c r="U8" s="34"/>
       <c r="V8" s="34"/>
       <c r="W8" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X8" s="44">
         <v>0.1</v>
@@ -11729,7 +11747,7 @@
       <c r="U14" s="114"/>
       <c r="V14" s="112"/>
       <c r="W14" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X14" s="114">
         <v>0.1</v>
@@ -11749,7 +11767,7 @@
         <v>139</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="41">
         <v>0</v>
@@ -11859,7 +11877,7 @@
         <v>141</v>
       </c>
       <c r="S16" s="152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T16" s="154">
         <v>0.3</v>
@@ -11913,7 +11931,7 @@
       <c r="U17" s="110"/>
       <c r="V17" s="110"/>
       <c r="W17" s="110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X17" s="113">
         <v>0.5</v>
@@ -12147,7 +12165,7 @@
       </c>
       <c r="V21" s="152"/>
       <c r="W21" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X21" s="50">
         <v>0.7</v>
@@ -12156,23 +12174,23 @@
         <v>0.8</v>
       </c>
       <c r="Z21" s="152" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25">
       <c r="A22" s="109"/>
       <c r="B22" s="110"/>
-      <c r="C22" s="188" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="189">
+      <c r="C22" s="186" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="187">
         <v>0.3</v>
       </c>
       <c r="E22" s="113">
         <v>0.8</v>
       </c>
-      <c r="F22" s="188" t="s">
-        <v>152</v>
+      <c r="F22" s="186" t="s">
+        <v>153</v>
       </c>
       <c r="G22" s="110"/>
       <c r="H22" s="110" t="s">
@@ -12196,7 +12214,7 @@
         <v>0.93</v>
       </c>
       <c r="R22" s="110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S22" s="110"/>
       <c r="T22" s="113"/>
@@ -12212,7 +12230,7 @@
         <v>0.8</v>
       </c>
       <c r="Z22" s="110" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25">
@@ -12220,7 +12238,7 @@
         <v>45097</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>96</v>
@@ -12242,7 +12260,7 @@
         <v>0.95</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K23" s="41" t="s">
         <v>45</v>
@@ -12255,7 +12273,7 @@
       </c>
       <c r="N23" s="41"/>
       <c r="O23" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P23" s="50">
         <v>0.3</v>
@@ -12277,7 +12295,7 @@
         <v>72</v>
       </c>
       <c r="W23" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X23" s="50">
         <v>0.5</v>
@@ -12290,379 +12308,375 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75">
-      <c r="A24" s="100"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="190" t="s">
+      <c r="A24" s="151"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="154">
         <v>0.3</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="154">
         <v>0.9</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="154">
         <v>0.95</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="154">
         <v>0.95</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="154">
+        <v>0.3</v>
+      </c>
+      <c r="Q24" s="154">
+        <v>0.6</v>
+      </c>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="T24" s="154">
+        <v>0.3</v>
+      </c>
+      <c r="U24" s="154">
+        <v>0.8</v>
+      </c>
+      <c r="V24" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="W24" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="X24" s="154">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" s="154">
+        <v>0.8</v>
+      </c>
+      <c r="Z24" s="152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25">
+      <c r="A25" s="109"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="113">
+        <v>0.92</v>
+      </c>
+      <c r="Q25" s="113">
+        <v>1</v>
+      </c>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="113">
+        <v>0.8</v>
+      </c>
+      <c r="U25" s="113">
+        <v>0.85</v>
+      </c>
+      <c r="V25" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="W25" s="110"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="110"/>
+    </row>
+    <row r="26" spans="1:26" ht="14.25">
+      <c r="A26" s="100">
+        <v>45098</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="50">
+        <v>0.9</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0.95</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="50">
+        <v>1</v>
+      </c>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="50">
+        <v>0.85</v>
+      </c>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="U26" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="V26" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="W26" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="X26" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="Y26" s="50">
+        <v>0.9</v>
+      </c>
+      <c r="Z26" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.25">
+      <c r="A27" s="100"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="I27" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="41"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="T27" s="44">
+        <v>0</v>
+      </c>
+      <c r="U27" s="44">
+        <v>1</v>
+      </c>
+      <c r="V27" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="X27" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="Y27" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="Z27" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25">
+      <c r="A28" s="151"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="T28" s="254">
+        <v>0</v>
+      </c>
+      <c r="U28" s="254">
+        <v>0.5</v>
+      </c>
+      <c r="V28" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="W28" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="Q24" s="50">
-        <v>0.6</v>
-      </c>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="T24" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="U24" s="50">
+      <c r="X28" s="254">
         <v>0.8</v>
       </c>
-      <c r="V24" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="W24" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="X24" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="Y24" s="50">
+      <c r="Y28" s="254">
+        <v>0.9</v>
+      </c>
+      <c r="Z28" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="14.25">
+      <c r="A29" s="109"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="X29" s="113">
         <v>0.8</v>
       </c>
-      <c r="Z24" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="14.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25" s="50">
-        <v>0.92</v>
-      </c>
-      <c r="Q25" s="50">
-        <v>1</v>
-      </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="U25" s="50">
-        <v>0.85</v>
-      </c>
-      <c r="V25" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="W25" s="41"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="41"/>
-    </row>
-    <row r="26" spans="1:26" ht="14.25">
-      <c r="A26" s="35">
-        <v>45098</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y26" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z26" s="34"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="35">
+      <c r="Y29" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="Z29" s="110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.25">
+      <c r="A30" s="100">
         <v>45099</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B30" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y27" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z27" s="34"/>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="35">
-        <v>45100</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z28" s="34"/>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="36">
-        <v>45101</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y29" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z29" s="34"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="38">
-        <v>45102</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="41" t="s">
         <v>146</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34" t="s">
+      <c r="F30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="M30" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34" t="s">
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="Q30" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z30" s="34"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="R30" s="41"/>
+      <c r="S30" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="T30" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="U30" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="V30" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="W30" s="41"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="41"/>
+    </row>
+    <row r="31" spans="1:26" ht="14.25">
       <c r="A31" s="35">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="41" t="s">
@@ -12697,24 +12711,20 @@
       </c>
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
-      <c r="X31" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y31" s="34" t="s">
-        <v>146</v>
-      </c>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
       <c r="Z31" s="34"/>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="35">
-        <v>45104</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>154</v>
+    <row r="32" spans="1:26" ht="14.25">
+      <c r="A32" s="36">
+        <v>45101</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="41" t="s">
@@ -12749,24 +12759,20 @@
       </c>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
-      <c r="X32" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y32" s="34" t="s">
-        <v>146</v>
-      </c>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
       <c r="Z32" s="34"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="35">
-        <v>45105</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>119</v>
+      <c r="A33" s="38">
+        <v>45102</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="41" t="s">
@@ -12815,10 +12821,10 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="35">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="41" t="s">
@@ -12836,14 +12842,14 @@
         <v>146</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90" t="s">
+      <c r="K34" s="34"/>
+      <c r="L34" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="M34" s="90" t="s">
+      <c r="M34" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="N34" s="90"/>
+      <c r="N34" s="34"/>
       <c r="O34" s="34"/>
       <c r="P34" s="34" t="s">
         <v>146</v>
@@ -12867,10 +12873,10 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="35">
-        <v>45107</v>
+        <v>45104</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="41" t="s">
@@ -12888,14 +12894,14 @@
         <v>146</v>
       </c>
       <c r="J35" s="34"/>
-      <c r="K35" s="89"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="34" t="s">
         <v>146</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="N35" s="89"/>
+      <c r="N35" s="34"/>
       <c r="O35" s="34"/>
       <c r="P35" s="34" t="s">
         <v>146</v>
@@ -12918,13 +12924,160 @@
       <c r="Z35" s="34"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="31"/>
+      <c r="A36" s="35">
+        <v>45105</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y36" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z36" s="34"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="31"/>
+      <c r="A37" s="35">
+        <v>45106</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="34"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="M37" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37" s="90"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y37" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z37" s="34"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="31"/>
+      <c r="A38" s="35">
+        <v>45107</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N38" s="89"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z38" s="34"/>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="31"/>
@@ -12952,6 +13105,15 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="31"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="31"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="31"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12987,26 +13149,26 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18">
       <c r="B2" s="32" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="252"/>
+        <v>173</v>
+      </c>
+      <c r="F2" s="252"/>
+      <c r="G2" s="253"/>
     </row>
     <row r="3" spans="2:7" ht="18">
       <c r="B3" s="56">
         <v>1</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>42</v>
@@ -13021,7 +13183,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>43</v>
@@ -13036,7 +13198,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>44</v>
@@ -13050,7 +13212,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>45</v>
@@ -13064,7 +13226,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>47</v>
@@ -13078,7 +13240,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>48</v>
@@ -13092,7 +13254,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>49</v>
@@ -13106,10 +13268,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E10" s="82" t="s">
         <v>36</v>
@@ -13120,7 +13282,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>52</v>
@@ -13134,7 +13296,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>53</v>
@@ -13148,7 +13310,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>54</v>
@@ -13162,7 +13324,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>55</v>
@@ -13176,7 +13338,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>57</v>
@@ -13190,7 +13352,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>59</v>
@@ -13204,7 +13366,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D17" s="67" t="s">
         <v>61</v>
@@ -13218,7 +13380,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D18" s="67" t="s">
         <v>63</v>
@@ -13232,7 +13394,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>66</v>
@@ -13246,7 +13408,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>68</v>
@@ -13260,7 +13422,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D21" s="67" t="s">
         <v>69</v>
@@ -13274,7 +13436,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D22" s="72" t="s">
         <v>71</v>
@@ -13288,7 +13450,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D23" s="72" t="s">
         <v>73</v>
@@ -13302,10 +13464,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E24" s="85" t="s">
         <v>33</v>
@@ -13316,7 +13478,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D25" s="72" t="s">
         <v>76</v>
@@ -13330,10 +13492,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="85" t="s">
         <v>33</v>
@@ -13344,10 +13506,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="83" t="s">
         <v>27</v>
@@ -13358,7 +13520,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D28" s="57" t="s">
         <v>80</v>
@@ -13372,10 +13534,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="83" t="s">
         <v>27</v>
@@ -13386,10 +13548,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E30" s="83" t="s">
         <v>27</v>
@@ -13400,7 +13562,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="86" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D31" s="62" t="s">
         <v>84</v>
@@ -13414,7 +13576,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="86" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>87</v>
@@ -13428,7 +13590,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="86" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>88</v>
@@ -13442,7 +13604,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="86" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D34" s="62" t="s">
         <v>89</v>
@@ -13456,7 +13618,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="86" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>90</v>
@@ -13470,7 +13632,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="87" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D36" s="77" t="s">
         <v>91</v>
@@ -13484,7 +13646,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D37" s="77" t="s">
         <v>92</v>
@@ -13498,7 +13660,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D38" s="77" t="s">
         <v>93</v>
@@ -13512,7 +13674,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D39" s="77" t="s">
         <v>95</v>
@@ -13526,7 +13688,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D40" s="77" t="s">
         <v>96</v>
@@ -13540,7 +13702,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D41" s="57" t="s">
         <v>97</v>
@@ -13554,7 +13716,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="86" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D42" s="62" t="s">
         <v>99</v>
@@ -13568,7 +13730,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D43" s="57" t="s">
         <v>100</v>
@@ -13582,7 +13744,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D44" s="57" t="s">
         <v>102</v>
@@ -13596,7 +13758,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>104</v>
@@ -13610,7 +13772,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="86" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D46" s="62" t="s">
         <v>105</v>
@@ -13624,7 +13786,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D47" s="57" t="s">
         <v>106</v>
@@ -13638,7 +13800,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="86" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D48" s="62" t="s">
         <v>107</v>
@@ -13652,7 +13814,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="86" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D49" s="62" t="s">
         <v>108</v>
@@ -13675,8 +13837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA1432-11D3-432F-9CDF-4F1EFF8C582D}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13705,7 +13867,7 @@
         <v>148</v>
       </c>
       <c r="H1" s="129" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I1" s="129" t="s">
         <v>119</v>
@@ -13726,7 +13888,7 @@
         <v>148</v>
       </c>
       <c r="O1" s="129" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P1" s="129" t="s">
         <v>119</v>
@@ -13744,7 +13906,7 @@
       </c>
       <c r="U1">
         <f>SUM(全体進捗状況!AC7:AC84)</f>
-        <v>25.029999999999998</v>
+        <v>12.799999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -13806,7 +13968,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="124" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B3" s="131">
         <f t="shared" ref="B3:R3" si="0">B7/B5</f>
@@ -13814,72 +13976,72 @@
       </c>
       <c r="C3" s="131">
         <f>C7/C5</f>
-        <v>0.58979591836734691</v>
+        <v>0.58962585034013604</v>
       </c>
       <c r="D3" s="131">
         <f t="shared" si="0"/>
-        <v>0.64338983050847465</v>
+        <v>0.64322033898305087</v>
       </c>
       <c r="E3" s="131">
         <f t="shared" si="0"/>
-        <v>0.64338983050847465</v>
+        <v>0.64322033898305087</v>
       </c>
       <c r="F3" s="131">
         <f>F7/F5</f>
-        <v>0.64338983050847465</v>
+        <v>0.64322033898305087</v>
       </c>
       <c r="G3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.72864406779661017</v>
       </c>
       <c r="H3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.81349152542372882</v>
       </c>
       <c r="I3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="J3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="K3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="L3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="M3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="N3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="O3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="P3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="Q3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
       <c r="R3" s="131">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.85688135593220338</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="124" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B4" s="125">
         <v>0.3</v>
@@ -13935,7 +14097,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="124" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B5" s="123">
         <f>$T1-1</f>
@@ -13958,11 +14120,10 @@
         <v>295</v>
       </c>
       <c r="H5" s="123">
+        <v>295</v>
+      </c>
+      <c r="I5" s="123">
         <f t="shared" ref="C5:R5" si="1">$T1</f>
-        <v>295</v>
-      </c>
-      <c r="I5" s="123">
-        <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="J5" s="123">
@@ -14004,7 +14165,7 @@
     </row>
     <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="124" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B6" s="123">
         <v>137.44999999999999</v>
@@ -14024,133 +14185,148 @@
       <c r="G6" s="123">
         <v>25.2</v>
       </c>
-      <c r="H6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="J6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="L6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="M6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="N6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="O6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="P6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q6" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="R6" s="123" t="s">
-        <v>176</v>
+      <c r="H6" s="123">
+        <v>25.03</v>
+      </c>
+      <c r="I6" s="123">
+        <v>12.8</v>
+      </c>
+      <c r="J6" s="123">
+        <v>0</v>
+      </c>
+      <c r="K6" s="123">
+        <v>0</v>
+      </c>
+      <c r="L6" s="123">
+        <v>0</v>
+      </c>
+      <c r="M6" s="123">
+        <v>0</v>
+      </c>
+      <c r="N6" s="123">
+        <v>0</v>
+      </c>
+      <c r="O6" s="123">
+        <v>0</v>
+      </c>
+      <c r="P6" s="123">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="123">
+        <v>0</v>
+      </c>
+      <c r="R6" s="123">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="186" t="s">
-        <v>177</v>
+      <c r="A7" s="189" t="s">
+        <v>185</v>
       </c>
       <c r="B7" s="185">
         <v>137.5</v>
       </c>
       <c r="C7" s="123">
-        <v>173.4</v>
+        <f>B7+C6</f>
+        <v>173.35</v>
       </c>
       <c r="D7" s="123">
-        <v>189.8</v>
+        <f>C7+D6</f>
+        <v>189.75</v>
       </c>
       <c r="E7" s="123">
-        <v>189.8</v>
+        <f>D7+E6</f>
+        <v>189.75</v>
       </c>
       <c r="F7" s="123">
-        <v>189.8</v>
+        <f>E7+F6</f>
+        <v>189.75</v>
       </c>
       <c r="G7" s="123">
-        <v>215</v>
+        <f>F7+G6</f>
+        <v>214.95</v>
       </c>
       <c r="H7" s="123">
-        <v>215</v>
+        <f>G7+H6</f>
+        <v>239.98</v>
       </c>
       <c r="I7" s="123">
-        <v>215</v>
+        <f>H7+I6</f>
+        <v>252.78</v>
       </c>
       <c r="J7" s="123">
-        <v>215</v>
+        <f>I7+J6</f>
+        <v>252.78</v>
       </c>
       <c r="K7" s="123">
-        <v>215</v>
+        <f>J7+K6</f>
+        <v>252.78</v>
       </c>
       <c r="L7" s="123">
-        <v>215</v>
+        <f>K7+L6</f>
+        <v>252.78</v>
       </c>
       <c r="M7" s="123">
-        <v>215</v>
+        <f>L7+M6</f>
+        <v>252.78</v>
       </c>
       <c r="N7" s="123">
-        <v>215</v>
+        <f>M7+N6</f>
+        <v>252.78</v>
       </c>
       <c r="O7" s="123">
-        <v>215</v>
+        <f>N7+O6</f>
+        <v>252.78</v>
       </c>
       <c r="P7" s="123">
-        <v>215</v>
+        <f>O7+P6</f>
+        <v>252.78</v>
       </c>
       <c r="Q7" s="123">
-        <v>215</v>
+        <f>P7+Q6</f>
+        <v>252.78</v>
       </c>
       <c r="R7" s="123">
-        <v>215</v>
+        <f>Q7+R6</f>
+        <v>252.78</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="187"/>
       <c r="B8" s="184"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
